--- a/AAII_Financials/Yearly/WPP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WPP_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>WPP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>20170900</v>
+        <v>16299100</v>
       </c>
       <c r="E8" s="3">
-        <v>20431800</v>
+        <v>16068300</v>
       </c>
       <c r="F8" s="3">
-        <v>18602100</v>
+        <v>19464500</v>
       </c>
       <c r="G8" s="3">
-        <v>15817800</v>
+        <v>17721400</v>
       </c>
       <c r="H8" s="3">
-        <v>14904700</v>
+        <v>15068900</v>
       </c>
       <c r="I8" s="3">
-        <v>14246000</v>
+        <v>14199000</v>
       </c>
       <c r="J8" s="3">
+        <v>13571500</v>
+      </c>
+      <c r="K8" s="3">
         <v>13410400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13071500</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>16371500</v>
+        <v>13332200</v>
       </c>
       <c r="E9" s="3">
-        <v>16326900</v>
+        <v>13004600</v>
       </c>
       <c r="F9" s="3">
-        <v>14670900</v>
+        <v>15553900</v>
       </c>
       <c r="G9" s="3">
-        <v>12552000</v>
+        <v>13976300</v>
       </c>
       <c r="H9" s="3">
-        <v>1892800</v>
+        <v>11957700</v>
       </c>
       <c r="I9" s="3">
-        <v>1219500</v>
+        <v>1803200</v>
       </c>
       <c r="J9" s="3">
+        <v>1161800</v>
+      </c>
+      <c r="K9" s="3">
         <v>1109600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1021700</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3799400</v>
+        <v>2966900</v>
       </c>
       <c r="E10" s="3">
-        <v>4104900</v>
+        <v>3063700</v>
       </c>
       <c r="F10" s="3">
-        <v>3931200</v>
+        <v>3910600</v>
       </c>
       <c r="G10" s="3">
-        <v>3265800</v>
+        <v>3745000</v>
       </c>
       <c r="H10" s="3">
-        <v>13011900</v>
+        <v>3111100</v>
       </c>
       <c r="I10" s="3">
-        <v>13026500</v>
+        <v>12395800</v>
       </c>
       <c r="J10" s="3">
+        <v>12409700</v>
+      </c>
+      <c r="K10" s="3">
         <v>12300800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>12049900</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,39 +887,45 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>53900</v>
+        <v>58900</v>
       </c>
       <c r="E14" s="3">
+        <v>51100</v>
+      </c>
+      <c r="F14" s="3">
         <v>-1000</v>
       </c>
-      <c r="F14" s="3">
-        <v>-99200</v>
-      </c>
       <c r="G14" s="3">
-        <v>142100</v>
+        <v>-94500</v>
       </c>
       <c r="H14" s="3">
-        <v>242500</v>
+        <v>135400</v>
       </c>
       <c r="I14" s="3">
-        <v>46900</v>
+        <v>231000</v>
       </c>
       <c r="J14" s="3">
+        <v>44700</v>
+      </c>
+      <c r="K14" s="3">
         <v>185900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1600</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -913,27 +935,30 @@
       <c r="E15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="3">
-        <v>545800</v>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G15" s="3">
-        <v>470300</v>
+        <v>520000</v>
       </c>
       <c r="H15" s="3">
-        <v>479400</v>
+        <v>448100</v>
       </c>
       <c r="I15" s="3">
-        <v>527500</v>
+        <v>456700</v>
       </c>
       <c r="J15" s="3">
+        <v>502500</v>
+      </c>
+      <c r="K15" s="3">
         <v>503900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>490900</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>18374300</v>
+        <v>14762000</v>
       </c>
       <c r="E17" s="3">
-        <v>17963900</v>
+        <v>14594800</v>
       </c>
       <c r="F17" s="3">
-        <v>15954600</v>
+        <v>17113300</v>
       </c>
       <c r="G17" s="3">
-        <v>13736100</v>
+        <v>15199200</v>
       </c>
       <c r="H17" s="3">
-        <v>12876000</v>
+        <v>13085800</v>
       </c>
       <c r="I17" s="3">
-        <v>12436600</v>
+        <v>12266400</v>
       </c>
       <c r="J17" s="3">
+        <v>11847700</v>
+      </c>
+      <c r="K17" s="3">
         <v>11805900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11516500</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1796600</v>
+        <v>1537200</v>
       </c>
       <c r="E18" s="3">
-        <v>2468000</v>
+        <v>1473500</v>
       </c>
       <c r="F18" s="3">
-        <v>2647500</v>
+        <v>2351100</v>
       </c>
       <c r="G18" s="3">
-        <v>2081700</v>
+        <v>2522200</v>
       </c>
       <c r="H18" s="3">
-        <v>2028700</v>
+        <v>1983100</v>
       </c>
       <c r="I18" s="3">
-        <v>1809400</v>
+        <v>1932600</v>
       </c>
       <c r="J18" s="3">
+        <v>1723700</v>
+      </c>
+      <c r="K18" s="3">
         <v>1604500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1555000</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>458300</v>
+        <v>105500</v>
       </c>
       <c r="E20" s="3">
-        <v>594600</v>
+        <v>410400</v>
       </c>
       <c r="F20" s="3">
-        <v>113400</v>
+        <v>566400</v>
       </c>
       <c r="G20" s="3">
-        <v>125000</v>
+        <v>108000</v>
       </c>
       <c r="H20" s="3">
-        <v>175200</v>
+        <v>119100</v>
       </c>
       <c r="I20" s="3">
-        <v>195200</v>
+        <v>166900</v>
       </c>
       <c r="J20" s="3">
+        <v>186000</v>
+      </c>
+      <c r="K20" s="3">
         <v>139100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>88400</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2961900</v>
+        <v>2483400</v>
       </c>
       <c r="E21" s="3">
-        <v>3663300</v>
+        <v>2550000</v>
       </c>
       <c r="F21" s="3">
-        <v>3317100</v>
+        <v>3483600</v>
       </c>
       <c r="G21" s="3">
-        <v>2685700</v>
+        <v>3154300</v>
       </c>
       <c r="H21" s="3">
-        <v>2693200</v>
+        <v>2553600</v>
       </c>
       <c r="I21" s="3">
-        <v>2543500</v>
+        <v>2560600</v>
       </c>
       <c r="J21" s="3">
+        <v>2417500</v>
+      </c>
+      <c r="K21" s="3">
         <v>2259200</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>363200</v>
+        <v>433200</v>
       </c>
       <c r="E22" s="3">
-        <v>335600</v>
+        <v>335000</v>
       </c>
       <c r="F22" s="3">
-        <v>316900</v>
+        <v>319700</v>
       </c>
       <c r="G22" s="3">
-        <v>277000</v>
+        <v>301900</v>
       </c>
       <c r="H22" s="3">
-        <v>326800</v>
+        <v>263900</v>
       </c>
       <c r="I22" s="3">
-        <v>329400</v>
+        <v>311300</v>
       </c>
       <c r="J22" s="3">
+        <v>313800</v>
+      </c>
+      <c r="K22" s="3">
         <v>332000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>328200</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1891800</v>
+        <v>1209600</v>
       </c>
       <c r="E23" s="3">
-        <v>2726900</v>
+        <v>1548900</v>
       </c>
       <c r="F23" s="3">
-        <v>2444100</v>
+        <v>2597800</v>
       </c>
       <c r="G23" s="3">
-        <v>1929600</v>
+        <v>2328300</v>
       </c>
       <c r="H23" s="3">
-        <v>1877000</v>
+        <v>1838300</v>
       </c>
       <c r="I23" s="3">
-        <v>1675200</v>
+        <v>1788200</v>
       </c>
       <c r="J23" s="3">
+        <v>1595900</v>
+      </c>
+      <c r="K23" s="3">
         <v>1411600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1315300</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>428200</v>
+        <v>338700</v>
       </c>
       <c r="E24" s="3">
-        <v>521000</v>
+        <v>321000</v>
       </c>
       <c r="F24" s="3">
-        <v>502800</v>
+        <v>496300</v>
       </c>
       <c r="G24" s="3">
-        <v>320000</v>
+        <v>479000</v>
       </c>
       <c r="H24" s="3">
-        <v>388400</v>
+        <v>304800</v>
       </c>
       <c r="I24" s="3">
-        <v>366800</v>
+        <v>370000</v>
       </c>
       <c r="J24" s="3">
+        <v>349400</v>
+      </c>
+      <c r="K24" s="3">
         <v>254900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>119900</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1463600</v>
+        <v>870900</v>
       </c>
       <c r="E26" s="3">
-        <v>2205900</v>
+        <v>1227900</v>
       </c>
       <c r="F26" s="3">
-        <v>1941300</v>
+        <v>2101500</v>
       </c>
       <c r="G26" s="3">
-        <v>1609700</v>
+        <v>1849400</v>
       </c>
       <c r="H26" s="3">
-        <v>1488700</v>
+        <v>1533500</v>
       </c>
       <c r="I26" s="3">
-        <v>1308500</v>
+        <v>1418200</v>
       </c>
       <c r="J26" s="3">
+        <v>1246500</v>
+      </c>
+      <c r="K26" s="3">
         <v>1156700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1195400</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1364700</v>
+        <v>773300</v>
       </c>
       <c r="E27" s="3">
-        <v>2082200</v>
+        <v>1147700</v>
       </c>
       <c r="F27" s="3">
-        <v>1810100</v>
+        <v>1983600</v>
       </c>
       <c r="G27" s="3">
-        <v>1499900</v>
+        <v>1724400</v>
       </c>
       <c r="H27" s="3">
-        <v>1392600</v>
+        <v>1428900</v>
       </c>
       <c r="I27" s="3">
-        <v>1210700</v>
+        <v>1326700</v>
       </c>
       <c r="J27" s="3">
+        <v>1153400</v>
+      </c>
+      <c r="K27" s="3">
         <v>1063600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1095800</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,20 +1343,23 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>9400</v>
+        <v>-4700</v>
       </c>
       <c r="E29" s="3">
-        <v>266300</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
+        <v>161300</v>
+      </c>
+      <c r="F29" s="3">
+        <v>253700</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-458300</v>
+        <v>-105500</v>
       </c>
       <c r="E32" s="3">
-        <v>-594600</v>
+        <v>-410400</v>
       </c>
       <c r="F32" s="3">
-        <v>-113400</v>
+        <v>-566400</v>
       </c>
       <c r="G32" s="3">
-        <v>-125000</v>
+        <v>-108000</v>
       </c>
       <c r="H32" s="3">
-        <v>-175200</v>
+        <v>-119100</v>
       </c>
       <c r="I32" s="3">
-        <v>-195200</v>
+        <v>-166900</v>
       </c>
       <c r="J32" s="3">
+        <v>-186000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-139100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-88400</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1374100</v>
+        <v>768600</v>
       </c>
       <c r="E33" s="3">
-        <v>2348500</v>
+        <v>1309100</v>
       </c>
       <c r="F33" s="3">
-        <v>1810100</v>
+        <v>2237300</v>
       </c>
       <c r="G33" s="3">
-        <v>1499900</v>
+        <v>1724400</v>
       </c>
       <c r="H33" s="3">
-        <v>1392600</v>
+        <v>1428900</v>
       </c>
       <c r="I33" s="3">
-        <v>1210700</v>
+        <v>1326700</v>
       </c>
       <c r="J33" s="3">
+        <v>1153400</v>
+      </c>
+      <c r="K33" s="3">
         <v>1063600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1095800</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1374100</v>
+        <v>768600</v>
       </c>
       <c r="E35" s="3">
-        <v>2348500</v>
+        <v>1309100</v>
       </c>
       <c r="F35" s="3">
-        <v>1810100</v>
+        <v>2237300</v>
       </c>
       <c r="G35" s="3">
-        <v>1499900</v>
+        <v>1724400</v>
       </c>
       <c r="H35" s="3">
-        <v>1392600</v>
+        <v>1428900</v>
       </c>
       <c r="I35" s="3">
-        <v>1210700</v>
+        <v>1326700</v>
       </c>
       <c r="J35" s="3">
+        <v>1153400</v>
+      </c>
+      <c r="K35" s="3">
         <v>1063600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1095800</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,38 +1645,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3417200</v>
+        <v>3664900</v>
       </c>
       <c r="E41" s="3">
-        <v>3091600</v>
+        <v>3262800</v>
       </c>
       <c r="F41" s="3">
-        <v>2916800</v>
+        <v>2951900</v>
       </c>
       <c r="G41" s="3">
-        <v>2880100</v>
+        <v>2785100</v>
       </c>
       <c r="H41" s="3">
-        <v>2543000</v>
+        <v>2750000</v>
       </c>
       <c r="I41" s="3">
-        <v>2713700</v>
+        <v>2428100</v>
       </c>
       <c r="J41" s="3">
+        <v>2591100</v>
+      </c>
+      <c r="K41" s="3">
         <v>2225400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2391500</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1601,237 +1690,261 @@
       <c r="E42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="3">
-        <v>233600</v>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G42" s="3">
-        <v>199900</v>
+        <v>223100</v>
       </c>
       <c r="H42" s="3">
-        <v>705500</v>
+        <v>190800</v>
       </c>
       <c r="I42" s="3">
-        <v>158400</v>
+        <v>673600</v>
       </c>
       <c r="J42" s="3">
+        <v>151200</v>
+      </c>
+      <c r="K42" s="3">
         <v>289500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>147500</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>16347700</v>
+        <v>14010100</v>
       </c>
       <c r="E43" s="3">
-        <v>25797600</v>
+        <v>15609100</v>
       </c>
       <c r="F43" s="3">
-        <v>15877000</v>
+        <v>24632100</v>
       </c>
       <c r="G43" s="3">
-        <v>13476800</v>
+        <v>15159700</v>
       </c>
       <c r="H43" s="3">
-        <v>12206800</v>
+        <v>12867900</v>
       </c>
       <c r="I43" s="3">
-        <v>11525500</v>
+        <v>11655300</v>
       </c>
       <c r="J43" s="3">
+        <v>11004800</v>
+      </c>
+      <c r="K43" s="3">
         <v>8919100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9083500</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>473800</v>
+        <v>431400</v>
       </c>
       <c r="E44" s="3">
-        <v>548500</v>
+        <v>452400</v>
       </c>
       <c r="F44" s="3">
-        <v>517600</v>
+        <v>523800</v>
       </c>
       <c r="G44" s="3">
-        <v>425300</v>
+        <v>494300</v>
       </c>
       <c r="H44" s="3">
-        <v>423100</v>
+        <v>406100</v>
       </c>
       <c r="I44" s="3">
-        <v>393700</v>
+        <v>404000</v>
       </c>
       <c r="J44" s="3">
+        <v>375900</v>
+      </c>
+      <c r="K44" s="3">
         <v>450200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>435500</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>373100</v>
+        <v>955200</v>
       </c>
       <c r="E45" s="3">
-        <v>386900</v>
+        <v>356200</v>
       </c>
       <c r="F45" s="3">
-        <v>419800</v>
+        <v>369500</v>
       </c>
       <c r="G45" s="3">
-        <v>309800</v>
+        <v>400800</v>
       </c>
       <c r="H45" s="3">
-        <v>301900</v>
+        <v>295800</v>
       </c>
       <c r="I45" s="3">
-        <v>399500</v>
+        <v>288200</v>
       </c>
       <c r="J45" s="3">
+        <v>381400</v>
+      </c>
+      <c r="K45" s="3">
         <v>2885800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2666000</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>20611800</v>
+        <v>19061600</v>
       </c>
       <c r="E46" s="3">
-        <v>19594900</v>
+        <v>19680500</v>
       </c>
       <c r="F46" s="3">
-        <v>19964900</v>
+        <v>18709600</v>
       </c>
       <c r="G46" s="3">
-        <v>17291900</v>
+        <v>19062800</v>
       </c>
       <c r="H46" s="3">
-        <v>16180300</v>
+        <v>16510600</v>
       </c>
       <c r="I46" s="3">
-        <v>15190800</v>
+        <v>15449300</v>
       </c>
       <c r="J46" s="3">
+        <v>14504400</v>
+      </c>
+      <c r="K46" s="3">
         <v>14770000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>14724000</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1892000</v>
+        <v>1618700</v>
       </c>
       <c r="E47" s="3">
-        <v>2868400</v>
+        <v>1806500</v>
       </c>
       <c r="F47" s="3">
-        <v>3076500</v>
+        <v>2738800</v>
       </c>
       <c r="G47" s="3">
-        <v>2478700</v>
+        <v>2937500</v>
       </c>
       <c r="H47" s="3">
-        <v>1847600</v>
+        <v>2366700</v>
       </c>
       <c r="I47" s="3">
-        <v>1579700</v>
+        <v>1764100</v>
       </c>
       <c r="J47" s="3">
+        <v>1508300</v>
+      </c>
+      <c r="K47" s="3">
         <v>1470700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1408300</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1400100</v>
+        <v>3222400</v>
       </c>
       <c r="E48" s="3">
-        <v>1266300</v>
+        <v>1336900</v>
       </c>
       <c r="F48" s="3">
-        <v>1252300</v>
+        <v>1209100</v>
       </c>
       <c r="G48" s="3">
-        <v>1031300</v>
+        <v>1195800</v>
       </c>
       <c r="H48" s="3">
-        <v>998700</v>
+        <v>984700</v>
       </c>
       <c r="I48" s="3">
-        <v>999700</v>
+        <v>953600</v>
       </c>
       <c r="J48" s="3">
+        <v>954600</v>
+      </c>
+      <c r="K48" s="3">
         <v>993300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>949900</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>19450100</v>
+        <v>14367800</v>
       </c>
       <c r="E49" s="3">
-        <v>19355000</v>
+        <v>18571300</v>
       </c>
       <c r="F49" s="3">
-        <v>19950100</v>
+        <v>18480600</v>
       </c>
       <c r="G49" s="3">
-        <v>16012700</v>
+        <v>19048800</v>
       </c>
       <c r="H49" s="3">
-        <v>15059000</v>
+        <v>15289300</v>
       </c>
       <c r="I49" s="3">
-        <v>14402700</v>
+        <v>14378700</v>
       </c>
       <c r="J49" s="3">
+        <v>13752000</v>
+      </c>
+      <c r="K49" s="3">
         <v>14588800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>14726600</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>430500</v>
+        <v>401800</v>
       </c>
       <c r="E52" s="3">
-        <v>435000</v>
+        <v>411100</v>
       </c>
       <c r="F52" s="3">
-        <v>446400</v>
+        <v>415400</v>
       </c>
       <c r="G52" s="3">
-        <v>352700</v>
+        <v>426200</v>
       </c>
       <c r="H52" s="3">
-        <v>502000</v>
+        <v>336700</v>
       </c>
       <c r="I52" s="3">
-        <v>359300</v>
+        <v>479300</v>
       </c>
       <c r="J52" s="3">
+        <v>343000</v>
+      </c>
+      <c r="K52" s="3">
         <v>339200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>401100</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>43784500</v>
+        <v>38672300</v>
       </c>
       <c r="E54" s="3">
-        <v>43519600</v>
+        <v>41806300</v>
       </c>
       <c r="F54" s="3">
-        <v>44690200</v>
+        <v>41553400</v>
       </c>
       <c r="G54" s="3">
-        <v>37167300</v>
+        <v>42671100</v>
       </c>
       <c r="H54" s="3">
-        <v>34587600</v>
+        <v>35488000</v>
       </c>
       <c r="I54" s="3">
-        <v>32327200</v>
+        <v>33024900</v>
       </c>
       <c r="J54" s="3">
+        <v>30866700</v>
+      </c>
+      <c r="K54" s="3">
         <v>32162000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>32209800</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13797500</v>
+        <v>12658200</v>
       </c>
       <c r="E57" s="3">
-        <v>13023400</v>
+        <v>13174100</v>
       </c>
       <c r="F57" s="3">
-        <v>13685400</v>
+        <v>12435000</v>
       </c>
       <c r="G57" s="3">
-        <v>11201300</v>
+        <v>13067100</v>
       </c>
       <c r="H57" s="3">
-        <v>10230500</v>
+        <v>10695200</v>
       </c>
       <c r="I57" s="3">
-        <v>9308100</v>
+        <v>9768300</v>
       </c>
       <c r="J57" s="3">
+        <v>8887600</v>
+      </c>
+      <c r="K57" s="3">
         <v>9387000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9638200</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1325300</v>
+        <v>942500</v>
       </c>
       <c r="E58" s="3">
-        <v>806800</v>
+        <v>1265400</v>
       </c>
       <c r="F58" s="3">
-        <v>1296000</v>
+        <v>770400</v>
       </c>
       <c r="G58" s="3">
-        <v>1204900</v>
+        <v>1237500</v>
       </c>
       <c r="H58" s="3">
-        <v>844500</v>
+        <v>1150500</v>
       </c>
       <c r="I58" s="3">
-        <v>2434100</v>
+        <v>806300</v>
       </c>
       <c r="J58" s="3">
+        <v>2324100</v>
+      </c>
+      <c r="K58" s="3">
         <v>1403900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>676200</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6350000</v>
+        <v>5681400</v>
       </c>
       <c r="E59" s="3">
-        <v>6227100</v>
+        <v>6063100</v>
       </c>
       <c r="F59" s="3">
-        <v>6692700</v>
+        <v>5945700</v>
       </c>
       <c r="G59" s="3">
-        <v>5971700</v>
+        <v>6390400</v>
       </c>
       <c r="H59" s="3">
-        <v>5209000</v>
+        <v>5701900</v>
       </c>
       <c r="I59" s="3">
-        <v>4694100</v>
+        <v>4973600</v>
       </c>
       <c r="J59" s="3">
+        <v>4482000</v>
+      </c>
+      <c r="K59" s="3">
         <v>4847800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5073000</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>21472800</v>
+        <v>19282100</v>
       </c>
       <c r="E60" s="3">
-        <v>20057300</v>
+        <v>20502600</v>
       </c>
       <c r="F60" s="3">
-        <v>21674200</v>
+        <v>19151100</v>
       </c>
       <c r="G60" s="3">
-        <v>18377900</v>
+        <v>20695000</v>
       </c>
       <c r="H60" s="3">
-        <v>16284000</v>
+        <v>17547600</v>
       </c>
       <c r="I60" s="3">
-        <v>15219200</v>
+        <v>15548300</v>
       </c>
       <c r="J60" s="3">
+        <v>14531600</v>
+      </c>
+      <c r="K60" s="3">
         <v>15638600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>15387300</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7284700</v>
+        <v>7400000</v>
       </c>
       <c r="E61" s="3">
-        <v>8080600</v>
+        <v>6955600</v>
       </c>
       <c r="F61" s="3">
-        <v>7194400</v>
+        <v>7715500</v>
       </c>
       <c r="G61" s="3">
-        <v>6026000</v>
+        <v>6869300</v>
       </c>
       <c r="H61" s="3">
-        <v>5345600</v>
+        <v>5753800</v>
       </c>
       <c r="I61" s="3">
-        <v>4551500</v>
+        <v>5104100</v>
       </c>
       <c r="J61" s="3">
+        <v>4345800</v>
+      </c>
+      <c r="K61" s="3">
         <v>4758300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5077700</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2348900</v>
+        <v>1567600</v>
       </c>
       <c r="E62" s="3">
-        <v>2510400</v>
+        <v>2242800</v>
       </c>
       <c r="F62" s="3">
-        <v>3194000</v>
+        <v>2397000</v>
       </c>
       <c r="G62" s="3">
-        <v>2400400</v>
+        <v>3049700</v>
       </c>
       <c r="H62" s="3">
-        <v>2839400</v>
+        <v>2291900</v>
       </c>
       <c r="I62" s="3">
-        <v>2412500</v>
+        <v>2711100</v>
       </c>
       <c r="J62" s="3">
+        <v>2303500</v>
+      </c>
+      <c r="K62" s="3">
         <v>2637100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2752500</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>31655100</v>
+        <v>28708100</v>
       </c>
       <c r="E66" s="3">
-        <v>31254300</v>
+        <v>30224900</v>
       </c>
       <c r="F66" s="3">
-        <v>32635400</v>
+        <v>29842200</v>
       </c>
       <c r="G66" s="3">
-        <v>27293500</v>
+        <v>31160900</v>
       </c>
       <c r="H66" s="3">
-        <v>24891400</v>
+        <v>26060400</v>
       </c>
       <c r="I66" s="3">
-        <v>22518900</v>
+        <v>23766800</v>
       </c>
       <c r="J66" s="3">
+        <v>21501500</v>
+      </c>
+      <c r="K66" s="3">
         <v>23356700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23518800</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11966500</v>
+        <v>10510200</v>
       </c>
       <c r="E72" s="3">
-        <v>11558200</v>
+        <v>11425900</v>
       </c>
       <c r="F72" s="3">
-        <v>10551300</v>
+        <v>11036000</v>
       </c>
       <c r="G72" s="3">
-        <v>9665000</v>
+        <v>10074600</v>
       </c>
       <c r="H72" s="3">
-        <v>8872800</v>
+        <v>9228400</v>
       </c>
       <c r="I72" s="3">
-        <v>8767300</v>
+        <v>8471900</v>
       </c>
       <c r="J72" s="3">
+        <v>8371200</v>
+      </c>
+      <c r="K72" s="3">
         <v>7691400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7278600</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12129400</v>
+        <v>9964200</v>
       </c>
       <c r="E76" s="3">
-        <v>12265300</v>
+        <v>11581400</v>
       </c>
       <c r="F76" s="3">
-        <v>12054800</v>
+        <v>11711100</v>
       </c>
       <c r="G76" s="3">
-        <v>9873700</v>
+        <v>11510200</v>
       </c>
       <c r="H76" s="3">
-        <v>9696200</v>
+        <v>9427600</v>
       </c>
       <c r="I76" s="3">
-        <v>9808300</v>
+        <v>9258100</v>
       </c>
       <c r="J76" s="3">
+        <v>9365100</v>
+      </c>
+      <c r="K76" s="3">
         <v>8805300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8691000</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1374100</v>
+        <v>768600</v>
       </c>
       <c r="E81" s="3">
-        <v>2348500</v>
+        <v>1309100</v>
       </c>
       <c r="F81" s="3">
-        <v>1810100</v>
+        <v>2237300</v>
       </c>
       <c r="G81" s="3">
-        <v>1499900</v>
+        <v>1724400</v>
       </c>
       <c r="H81" s="3">
-        <v>1392600</v>
+        <v>1428900</v>
       </c>
       <c r="I81" s="3">
-        <v>1210700</v>
+        <v>1326700</v>
       </c>
       <c r="J81" s="3">
+        <v>1153400</v>
+      </c>
+      <c r="K81" s="3">
         <v>1063600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1095800</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>703000</v>
+        <v>845200</v>
       </c>
       <c r="E83" s="3">
-        <v>597400</v>
+        <v>669700</v>
       </c>
       <c r="F83" s="3">
-        <v>553100</v>
+        <v>569100</v>
       </c>
       <c r="G83" s="3">
-        <v>476400</v>
+        <v>526900</v>
       </c>
       <c r="H83" s="3">
-        <v>486600</v>
+        <v>453800</v>
       </c>
       <c r="I83" s="3">
-        <v>535900</v>
+        <v>463600</v>
       </c>
       <c r="J83" s="3">
+        <v>510500</v>
+      </c>
+      <c r="K83" s="3">
         <v>512700</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2189800</v>
+        <v>2279100</v>
       </c>
       <c r="E89" s="3">
-        <v>1820400</v>
+        <v>2086100</v>
       </c>
       <c r="F89" s="3">
-        <v>2293200</v>
+        <v>1734200</v>
       </c>
       <c r="G89" s="3">
-        <v>1758100</v>
+        <v>2184600</v>
       </c>
       <c r="H89" s="3">
-        <v>2202600</v>
+        <v>1674900</v>
       </c>
       <c r="I89" s="3">
-        <v>1776600</v>
+        <v>2098300</v>
       </c>
       <c r="J89" s="3">
+        <v>1692500</v>
+      </c>
+      <c r="K89" s="3">
         <v>1174300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>867600</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-407000</v>
+        <v>-417900</v>
       </c>
       <c r="E91" s="3">
-        <v>-373500</v>
+        <v>-387700</v>
       </c>
       <c r="F91" s="3">
-        <v>-325900</v>
+        <v>-355800</v>
       </c>
       <c r="G91" s="3">
-        <v>-271900</v>
+        <v>-310500</v>
       </c>
       <c r="H91" s="3">
-        <v>-230000</v>
+        <v>-259000</v>
       </c>
       <c r="I91" s="3">
-        <v>-311200</v>
+        <v>-219100</v>
       </c>
       <c r="J91" s="3">
+        <v>-296400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-375300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-281900</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>238500</v>
+        <v>2167100</v>
       </c>
       <c r="E94" s="3">
-        <v>-646000</v>
+        <v>227200</v>
       </c>
       <c r="F94" s="3">
-        <v>-1184500</v>
+        <v>-615400</v>
       </c>
       <c r="G94" s="3">
-        <v>-1166800</v>
+        <v>-1128400</v>
       </c>
       <c r="H94" s="3">
-        <v>-901900</v>
+        <v>-1111500</v>
       </c>
       <c r="I94" s="3">
-        <v>-618700</v>
+        <v>-859200</v>
       </c>
       <c r="J94" s="3">
+        <v>-589400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-999500</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-966200</v>
+        <v>-924300</v>
       </c>
       <c r="E96" s="3">
-        <v>-971500</v>
+        <v>-920500</v>
       </c>
       <c r="F96" s="3">
-        <v>-797000</v>
+        <v>-925500</v>
       </c>
       <c r="G96" s="3">
-        <v>-705600</v>
+        <v>-759300</v>
       </c>
       <c r="H96" s="3">
-        <v>-594700</v>
+        <v>-672200</v>
       </c>
       <c r="I96" s="3">
-        <v>-513600</v>
+        <v>-566500</v>
       </c>
       <c r="J96" s="3">
+        <v>-489300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-396400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-284900</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2086300</v>
+        <v>-3598700</v>
       </c>
       <c r="E100" s="3">
-        <v>-1015600</v>
+        <v>-1987600</v>
       </c>
       <c r="F100" s="3">
-        <v>-1543000</v>
+        <v>-967500</v>
       </c>
       <c r="G100" s="3">
-        <v>-910100</v>
+        <v>-1469900</v>
       </c>
       <c r="H100" s="3">
-        <v>-738700</v>
+        <v>-867000</v>
       </c>
       <c r="I100" s="3">
-        <v>-267600</v>
+        <v>-703700</v>
       </c>
       <c r="J100" s="3">
+        <v>-254900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-109600</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-79500</v>
+        <v>-110500</v>
       </c>
       <c r="E101" s="3">
-        <v>-35200</v>
+        <v>-75700</v>
       </c>
       <c r="F101" s="3">
-        <v>377400</v>
+        <v>-33500</v>
       </c>
       <c r="G101" s="3">
-        <v>-70300</v>
+        <v>359500</v>
       </c>
       <c r="H101" s="3">
-        <v>-90900</v>
+        <v>-67000</v>
       </c>
       <c r="I101" s="3">
-        <v>-212900</v>
+        <v>-86600</v>
       </c>
       <c r="J101" s="3">
+        <v>-202800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-154200</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>262400</v>
+        <v>737000</v>
       </c>
       <c r="E102" s="3">
-        <v>123600</v>
+        <v>250000</v>
       </c>
       <c r="F102" s="3">
-        <v>-56900</v>
+        <v>117700</v>
       </c>
       <c r="G102" s="3">
-        <v>-389100</v>
+        <v>-54200</v>
       </c>
       <c r="H102" s="3">
-        <v>471100</v>
+        <v>-370700</v>
       </c>
       <c r="I102" s="3">
-        <v>677300</v>
+        <v>448800</v>
       </c>
       <c r="J102" s="3">
+        <v>645200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-89100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-367300</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/WPP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WPP_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16299100</v>
+        <v>17479500</v>
       </c>
       <c r="E8" s="3">
-        <v>16068300</v>
+        <v>17232000</v>
       </c>
       <c r="F8" s="3">
-        <v>19464500</v>
+        <v>20874000</v>
       </c>
       <c r="G8" s="3">
-        <v>17721400</v>
+        <v>19004700</v>
       </c>
       <c r="H8" s="3">
-        <v>15068900</v>
+        <v>16160100</v>
       </c>
       <c r="I8" s="3">
-        <v>14199000</v>
+        <v>15227300</v>
       </c>
       <c r="J8" s="3">
-        <v>13571500</v>
+        <v>14554300</v>
       </c>
       <c r="K8" s="3">
         <v>13410400</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>13332200</v>
+        <v>14297700</v>
       </c>
       <c r="E9" s="3">
-        <v>13004600</v>
+        <v>13946400</v>
       </c>
       <c r="F9" s="3">
-        <v>15553900</v>
+        <v>16680300</v>
       </c>
       <c r="G9" s="3">
-        <v>13976300</v>
+        <v>14988500</v>
       </c>
       <c r="H9" s="3">
-        <v>11957700</v>
+        <v>12823700</v>
       </c>
       <c r="I9" s="3">
-        <v>1803200</v>
+        <v>1933800</v>
       </c>
       <c r="J9" s="3">
-        <v>1161800</v>
+        <v>1245900</v>
       </c>
       <c r="K9" s="3">
         <v>1109600</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2966900</v>
+        <v>3181800</v>
       </c>
       <c r="E10" s="3">
-        <v>3063700</v>
+        <v>3285600</v>
       </c>
       <c r="F10" s="3">
-        <v>3910600</v>
+        <v>4193800</v>
       </c>
       <c r="G10" s="3">
-        <v>3745000</v>
+        <v>4016300</v>
       </c>
       <c r="H10" s="3">
-        <v>3111100</v>
+        <v>3336400</v>
       </c>
       <c r="I10" s="3">
-        <v>12395800</v>
+        <v>13293500</v>
       </c>
       <c r="J10" s="3">
-        <v>12409700</v>
+        <v>13308400</v>
       </c>
       <c r="K10" s="3">
         <v>12300800</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>58900</v>
+        <v>63100</v>
       </c>
       <c r="E14" s="3">
-        <v>51100</v>
+        <v>54800</v>
       </c>
       <c r="F14" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="G14" s="3">
-        <v>-94500</v>
+        <v>-101300</v>
       </c>
       <c r="H14" s="3">
-        <v>135400</v>
+        <v>145200</v>
       </c>
       <c r="I14" s="3">
-        <v>231000</v>
+        <v>247800</v>
       </c>
       <c r="J14" s="3">
-        <v>44700</v>
+        <v>47900</v>
       </c>
       <c r="K14" s="3">
         <v>185900</v>
@@ -939,16 +939,16 @@
         <v>8</v>
       </c>
       <c r="G15" s="3">
-        <v>520000</v>
+        <v>557600</v>
       </c>
       <c r="H15" s="3">
-        <v>448100</v>
+        <v>480500</v>
       </c>
       <c r="I15" s="3">
-        <v>456700</v>
+        <v>489700</v>
       </c>
       <c r="J15" s="3">
-        <v>502500</v>
+        <v>538900</v>
       </c>
       <c r="K15" s="3">
         <v>503900</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14762000</v>
+        <v>15831000</v>
       </c>
       <c r="E17" s="3">
-        <v>14594800</v>
+        <v>15651800</v>
       </c>
       <c r="F17" s="3">
-        <v>17113300</v>
+        <v>18352600</v>
       </c>
       <c r="G17" s="3">
-        <v>15199200</v>
+        <v>16299900</v>
       </c>
       <c r="H17" s="3">
-        <v>13085800</v>
+        <v>14033400</v>
       </c>
       <c r="I17" s="3">
-        <v>12266400</v>
+        <v>13154700</v>
       </c>
       <c r="J17" s="3">
-        <v>11847700</v>
+        <v>12705700</v>
       </c>
       <c r="K17" s="3">
         <v>11805900</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1537200</v>
+        <v>1648500</v>
       </c>
       <c r="E18" s="3">
-        <v>1473500</v>
+        <v>1580200</v>
       </c>
       <c r="F18" s="3">
-        <v>2351100</v>
+        <v>2521400</v>
       </c>
       <c r="G18" s="3">
-        <v>2522200</v>
+        <v>2704800</v>
       </c>
       <c r="H18" s="3">
-        <v>1983100</v>
+        <v>2126700</v>
       </c>
       <c r="I18" s="3">
-        <v>1932600</v>
+        <v>2072600</v>
       </c>
       <c r="J18" s="3">
-        <v>1723700</v>
+        <v>1848600</v>
       </c>
       <c r="K18" s="3">
         <v>1604500</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>105500</v>
+        <v>113200</v>
       </c>
       <c r="E20" s="3">
-        <v>410400</v>
+        <v>440100</v>
       </c>
       <c r="F20" s="3">
-        <v>566400</v>
+        <v>607400</v>
       </c>
       <c r="G20" s="3">
-        <v>108000</v>
+        <v>115800</v>
       </c>
       <c r="H20" s="3">
-        <v>119100</v>
+        <v>127700</v>
       </c>
       <c r="I20" s="3">
-        <v>166900</v>
+        <v>179000</v>
       </c>
       <c r="J20" s="3">
-        <v>186000</v>
+        <v>199400</v>
       </c>
       <c r="K20" s="3">
         <v>139100</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2483400</v>
+        <v>2664100</v>
       </c>
       <c r="E21" s="3">
-        <v>2550000</v>
+        <v>2735400</v>
       </c>
       <c r="F21" s="3">
-        <v>3483600</v>
+        <v>3736500</v>
       </c>
       <c r="G21" s="3">
-        <v>3154300</v>
+        <v>3383200</v>
       </c>
       <c r="H21" s="3">
-        <v>2553600</v>
+        <v>2739000</v>
       </c>
       <c r="I21" s="3">
-        <v>2560600</v>
+        <v>2746500</v>
       </c>
       <c r="J21" s="3">
-        <v>2417500</v>
+        <v>2593100</v>
       </c>
       <c r="K21" s="3">
         <v>2259200</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>433200</v>
+        <v>464500</v>
       </c>
       <c r="E22" s="3">
-        <v>335000</v>
+        <v>359300</v>
       </c>
       <c r="F22" s="3">
-        <v>319700</v>
+        <v>342900</v>
       </c>
       <c r="G22" s="3">
-        <v>301900</v>
+        <v>323700</v>
       </c>
       <c r="H22" s="3">
-        <v>263900</v>
+        <v>283000</v>
       </c>
       <c r="I22" s="3">
-        <v>311300</v>
+        <v>333900</v>
       </c>
       <c r="J22" s="3">
-        <v>313800</v>
+        <v>336500</v>
       </c>
       <c r="K22" s="3">
         <v>332000</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1209600</v>
+        <v>1297100</v>
       </c>
       <c r="E23" s="3">
-        <v>1548900</v>
+        <v>1661000</v>
       </c>
       <c r="F23" s="3">
-        <v>2597800</v>
+        <v>2785900</v>
       </c>
       <c r="G23" s="3">
-        <v>2328300</v>
+        <v>2497000</v>
       </c>
       <c r="H23" s="3">
-        <v>1838300</v>
+        <v>1971400</v>
       </c>
       <c r="I23" s="3">
-        <v>1788200</v>
+        <v>1917700</v>
       </c>
       <c r="J23" s="3">
-        <v>1595900</v>
+        <v>1711500</v>
       </c>
       <c r="K23" s="3">
         <v>1411600</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>338700</v>
+        <v>363200</v>
       </c>
       <c r="E24" s="3">
-        <v>321000</v>
+        <v>344200</v>
       </c>
       <c r="F24" s="3">
-        <v>496300</v>
+        <v>532300</v>
       </c>
       <c r="G24" s="3">
-        <v>479000</v>
+        <v>513700</v>
       </c>
       <c r="H24" s="3">
-        <v>304800</v>
+        <v>326900</v>
       </c>
       <c r="I24" s="3">
-        <v>370000</v>
+        <v>396800</v>
       </c>
       <c r="J24" s="3">
-        <v>349400</v>
+        <v>374700</v>
       </c>
       <c r="K24" s="3">
         <v>254900</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>870900</v>
+        <v>933900</v>
       </c>
       <c r="E26" s="3">
-        <v>1227900</v>
+        <v>1316800</v>
       </c>
       <c r="F26" s="3">
-        <v>2101500</v>
+        <v>2253700</v>
       </c>
       <c r="G26" s="3">
-        <v>1849400</v>
+        <v>1983300</v>
       </c>
       <c r="H26" s="3">
-        <v>1533500</v>
+        <v>1644500</v>
       </c>
       <c r="I26" s="3">
-        <v>1418200</v>
+        <v>1520900</v>
       </c>
       <c r="J26" s="3">
-        <v>1246500</v>
+        <v>1336800</v>
       </c>
       <c r="K26" s="3">
         <v>1156700</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>773300</v>
+        <v>829300</v>
       </c>
       <c r="E27" s="3">
-        <v>1147700</v>
+        <v>1230800</v>
       </c>
       <c r="F27" s="3">
-        <v>1983600</v>
+        <v>2127300</v>
       </c>
       <c r="G27" s="3">
-        <v>1724400</v>
+        <v>1849200</v>
       </c>
       <c r="H27" s="3">
-        <v>1428900</v>
+        <v>1532400</v>
       </c>
       <c r="I27" s="3">
-        <v>1326700</v>
+        <v>1422800</v>
       </c>
       <c r="J27" s="3">
-        <v>1153400</v>
+        <v>1236900</v>
       </c>
       <c r="K27" s="3">
         <v>1063600</v>
@@ -1353,13 +1353,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-4700</v>
+        <v>-5000</v>
       </c>
       <c r="E29" s="3">
-        <v>161300</v>
+        <v>173000</v>
       </c>
       <c r="F29" s="3">
-        <v>253700</v>
+        <v>272100</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-105500</v>
+        <v>-113200</v>
       </c>
       <c r="E32" s="3">
-        <v>-410400</v>
+        <v>-440100</v>
       </c>
       <c r="F32" s="3">
-        <v>-566400</v>
+        <v>-607400</v>
       </c>
       <c r="G32" s="3">
-        <v>-108000</v>
+        <v>-115800</v>
       </c>
       <c r="H32" s="3">
-        <v>-119100</v>
+        <v>-127700</v>
       </c>
       <c r="I32" s="3">
-        <v>-166900</v>
+        <v>-179000</v>
       </c>
       <c r="J32" s="3">
-        <v>-186000</v>
+        <v>-199400</v>
       </c>
       <c r="K32" s="3">
         <v>-139100</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>768600</v>
+        <v>824300</v>
       </c>
       <c r="E33" s="3">
-        <v>1309100</v>
+        <v>1403900</v>
       </c>
       <c r="F33" s="3">
-        <v>2237300</v>
+        <v>2399300</v>
       </c>
       <c r="G33" s="3">
-        <v>1724400</v>
+        <v>1849200</v>
       </c>
       <c r="H33" s="3">
-        <v>1428900</v>
+        <v>1532400</v>
       </c>
       <c r="I33" s="3">
-        <v>1326700</v>
+        <v>1422800</v>
       </c>
       <c r="J33" s="3">
-        <v>1153400</v>
+        <v>1236900</v>
       </c>
       <c r="K33" s="3">
         <v>1063600</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>768600</v>
+        <v>824300</v>
       </c>
       <c r="E35" s="3">
-        <v>1309100</v>
+        <v>1403900</v>
       </c>
       <c r="F35" s="3">
-        <v>2237300</v>
+        <v>2399300</v>
       </c>
       <c r="G35" s="3">
-        <v>1724400</v>
+        <v>1849200</v>
       </c>
       <c r="H35" s="3">
-        <v>1428900</v>
+        <v>1532400</v>
       </c>
       <c r="I35" s="3">
-        <v>1326700</v>
+        <v>1422800</v>
       </c>
       <c r="J35" s="3">
-        <v>1153400</v>
+        <v>1236900</v>
       </c>
       <c r="K35" s="3">
         <v>1063600</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3664900</v>
+        <v>3921400</v>
       </c>
       <c r="E41" s="3">
-        <v>3262800</v>
+        <v>3491100</v>
       </c>
       <c r="F41" s="3">
-        <v>2951900</v>
+        <v>3158500</v>
       </c>
       <c r="G41" s="3">
-        <v>2785100</v>
+        <v>2980000</v>
       </c>
       <c r="H41" s="3">
-        <v>2750000</v>
+        <v>2942500</v>
       </c>
       <c r="I41" s="3">
-        <v>2428100</v>
+        <v>2598000</v>
       </c>
       <c r="J41" s="3">
-        <v>2591100</v>
+        <v>2772500</v>
       </c>
       <c r="K41" s="3">
         <v>2225400</v>
@@ -1694,16 +1694,16 @@
         <v>8</v>
       </c>
       <c r="G42" s="3">
-        <v>223100</v>
+        <v>238700</v>
       </c>
       <c r="H42" s="3">
-        <v>190800</v>
+        <v>204200</v>
       </c>
       <c r="I42" s="3">
-        <v>673600</v>
+        <v>720800</v>
       </c>
       <c r="J42" s="3">
-        <v>151200</v>
+        <v>161800</v>
       </c>
       <c r="K42" s="3">
         <v>289500</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>14010100</v>
+        <v>14990600</v>
       </c>
       <c r="E43" s="3">
-        <v>15609100</v>
+        <v>16701500</v>
       </c>
       <c r="F43" s="3">
-        <v>24632100</v>
+        <v>26356000</v>
       </c>
       <c r="G43" s="3">
-        <v>15159700</v>
+        <v>16220600</v>
       </c>
       <c r="H43" s="3">
-        <v>12867900</v>
+        <v>13768400</v>
       </c>
       <c r="I43" s="3">
-        <v>11655300</v>
+        <v>12471000</v>
       </c>
       <c r="J43" s="3">
-        <v>11004800</v>
+        <v>11775000</v>
       </c>
       <c r="K43" s="3">
         <v>8919100</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>431400</v>
+        <v>461600</v>
       </c>
       <c r="E44" s="3">
-        <v>452400</v>
+        <v>484100</v>
       </c>
       <c r="F44" s="3">
-        <v>523800</v>
+        <v>560400</v>
       </c>
       <c r="G44" s="3">
-        <v>494300</v>
+        <v>528800</v>
       </c>
       <c r="H44" s="3">
-        <v>406100</v>
+        <v>434500</v>
       </c>
       <c r="I44" s="3">
-        <v>404000</v>
+        <v>432300</v>
       </c>
       <c r="J44" s="3">
-        <v>375900</v>
+        <v>402200</v>
       </c>
       <c r="K44" s="3">
         <v>450200</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>955200</v>
+        <v>1022000</v>
       </c>
       <c r="E45" s="3">
-        <v>356200</v>
+        <v>381200</v>
       </c>
       <c r="F45" s="3">
-        <v>369500</v>
+        <v>395300</v>
       </c>
       <c r="G45" s="3">
-        <v>400800</v>
+        <v>428900</v>
       </c>
       <c r="H45" s="3">
-        <v>295800</v>
+        <v>316500</v>
       </c>
       <c r="I45" s="3">
-        <v>288200</v>
+        <v>308400</v>
       </c>
       <c r="J45" s="3">
-        <v>381400</v>
+        <v>408100</v>
       </c>
       <c r="K45" s="3">
         <v>2885800</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>19061600</v>
+        <v>20395600</v>
       </c>
       <c r="E46" s="3">
-        <v>19680500</v>
+        <v>21057900</v>
       </c>
       <c r="F46" s="3">
-        <v>18709600</v>
+        <v>20018900</v>
       </c>
       <c r="G46" s="3">
-        <v>19062800</v>
+        <v>20397000</v>
       </c>
       <c r="H46" s="3">
-        <v>16510600</v>
+        <v>17666100</v>
       </c>
       <c r="I46" s="3">
-        <v>15449300</v>
+        <v>16530500</v>
       </c>
       <c r="J46" s="3">
-        <v>14504400</v>
+        <v>15519500</v>
       </c>
       <c r="K46" s="3">
         <v>14770000</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1618700</v>
+        <v>1732000</v>
       </c>
       <c r="E47" s="3">
-        <v>1806500</v>
+        <v>1933000</v>
       </c>
       <c r="F47" s="3">
-        <v>2738800</v>
+        <v>2930400</v>
       </c>
       <c r="G47" s="3">
-        <v>2937500</v>
+        <v>3143100</v>
       </c>
       <c r="H47" s="3">
-        <v>2366700</v>
+        <v>2532400</v>
       </c>
       <c r="I47" s="3">
-        <v>1764100</v>
+        <v>1887500</v>
       </c>
       <c r="J47" s="3">
-        <v>1508300</v>
+        <v>1613900</v>
       </c>
       <c r="K47" s="3">
         <v>1470700</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3222400</v>
+        <v>3447900</v>
       </c>
       <c r="E48" s="3">
-        <v>1336900</v>
+        <v>1430400</v>
       </c>
       <c r="F48" s="3">
-        <v>1209100</v>
+        <v>1293700</v>
       </c>
       <c r="G48" s="3">
-        <v>1195800</v>
+        <v>1279400</v>
       </c>
       <c r="H48" s="3">
-        <v>984700</v>
+        <v>1053600</v>
       </c>
       <c r="I48" s="3">
-        <v>953600</v>
+        <v>1020300</v>
       </c>
       <c r="J48" s="3">
-        <v>954600</v>
+        <v>1021400</v>
       </c>
       <c r="K48" s="3">
         <v>993300</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14367800</v>
+        <v>15373300</v>
       </c>
       <c r="E49" s="3">
-        <v>18571300</v>
+        <v>19871000</v>
       </c>
       <c r="F49" s="3">
-        <v>18480600</v>
+        <v>19773900</v>
       </c>
       <c r="G49" s="3">
-        <v>19048800</v>
+        <v>20381900</v>
       </c>
       <c r="H49" s="3">
-        <v>15289300</v>
+        <v>16359300</v>
       </c>
       <c r="I49" s="3">
-        <v>14378700</v>
+        <v>15385000</v>
       </c>
       <c r="J49" s="3">
-        <v>13752000</v>
+        <v>14714400</v>
       </c>
       <c r="K49" s="3">
         <v>14588800</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>401800</v>
+        <v>429900</v>
       </c>
       <c r="E52" s="3">
-        <v>411100</v>
+        <v>439800</v>
       </c>
       <c r="F52" s="3">
-        <v>415400</v>
+        <v>444400</v>
       </c>
       <c r="G52" s="3">
-        <v>426200</v>
+        <v>456100</v>
       </c>
       <c r="H52" s="3">
-        <v>336700</v>
+        <v>360300</v>
       </c>
       <c r="I52" s="3">
-        <v>479300</v>
+        <v>512900</v>
       </c>
       <c r="J52" s="3">
-        <v>343000</v>
+        <v>367000</v>
       </c>
       <c r="K52" s="3">
         <v>339200</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>38672300</v>
+        <v>41378800</v>
       </c>
       <c r="E54" s="3">
-        <v>41806300</v>
+        <v>44732100</v>
       </c>
       <c r="F54" s="3">
-        <v>41553400</v>
+        <v>44461500</v>
       </c>
       <c r="G54" s="3">
-        <v>42671100</v>
+        <v>45657500</v>
       </c>
       <c r="H54" s="3">
-        <v>35488000</v>
+        <v>37971700</v>
       </c>
       <c r="I54" s="3">
-        <v>33024900</v>
+        <v>35336200</v>
       </c>
       <c r="J54" s="3">
-        <v>30866700</v>
+        <v>33026900</v>
       </c>
       <c r="K54" s="3">
         <v>32162000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12658200</v>
+        <v>13544000</v>
       </c>
       <c r="E57" s="3">
-        <v>13174100</v>
+        <v>14096100</v>
       </c>
       <c r="F57" s="3">
-        <v>12435000</v>
+        <v>13305200</v>
       </c>
       <c r="G57" s="3">
-        <v>13067100</v>
+        <v>13981600</v>
       </c>
       <c r="H57" s="3">
-        <v>10695200</v>
+        <v>11443700</v>
       </c>
       <c r="I57" s="3">
-        <v>9768300</v>
+        <v>10451900</v>
       </c>
       <c r="J57" s="3">
-        <v>8887600</v>
+        <v>9509600</v>
       </c>
       <c r="K57" s="3">
         <v>9387000</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>942500</v>
+        <v>1008400</v>
       </c>
       <c r="E58" s="3">
-        <v>1265400</v>
+        <v>1353900</v>
       </c>
       <c r="F58" s="3">
-        <v>770400</v>
+        <v>824300</v>
       </c>
       <c r="G58" s="3">
-        <v>1237500</v>
+        <v>1324100</v>
       </c>
       <c r="H58" s="3">
-        <v>1150500</v>
+        <v>1231000</v>
       </c>
       <c r="I58" s="3">
-        <v>806300</v>
+        <v>862700</v>
       </c>
       <c r="J58" s="3">
-        <v>2324100</v>
+        <v>2486800</v>
       </c>
       <c r="K58" s="3">
         <v>1403900</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5681400</v>
+        <v>6079100</v>
       </c>
       <c r="E59" s="3">
-        <v>6063100</v>
+        <v>6487500</v>
       </c>
       <c r="F59" s="3">
-        <v>5945700</v>
+        <v>6361800</v>
       </c>
       <c r="G59" s="3">
-        <v>6390400</v>
+        <v>6837600</v>
       </c>
       <c r="H59" s="3">
-        <v>5701900</v>
+        <v>6101000</v>
       </c>
       <c r="I59" s="3">
-        <v>4973600</v>
+        <v>5321700</v>
       </c>
       <c r="J59" s="3">
-        <v>4482000</v>
+        <v>4795700</v>
       </c>
       <c r="K59" s="3">
         <v>4847800</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>19282100</v>
+        <v>20631500</v>
       </c>
       <c r="E60" s="3">
-        <v>20502600</v>
+        <v>21937500</v>
       </c>
       <c r="F60" s="3">
-        <v>19151100</v>
+        <v>20491400</v>
       </c>
       <c r="G60" s="3">
-        <v>20695000</v>
+        <v>22143300</v>
       </c>
       <c r="H60" s="3">
-        <v>17547600</v>
+        <v>18775700</v>
       </c>
       <c r="I60" s="3">
-        <v>15548300</v>
+        <v>16636400</v>
       </c>
       <c r="J60" s="3">
-        <v>14531600</v>
+        <v>15548600</v>
       </c>
       <c r="K60" s="3">
         <v>15638600</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7400000</v>
+        <v>7917900</v>
       </c>
       <c r="E61" s="3">
-        <v>6955600</v>
+        <v>7442400</v>
       </c>
       <c r="F61" s="3">
-        <v>7715500</v>
+        <v>8255500</v>
       </c>
       <c r="G61" s="3">
-        <v>6869300</v>
+        <v>7350100</v>
       </c>
       <c r="H61" s="3">
-        <v>5753800</v>
+        <v>6156500</v>
       </c>
       <c r="I61" s="3">
-        <v>5104100</v>
+        <v>5461300</v>
       </c>
       <c r="J61" s="3">
-        <v>4345800</v>
+        <v>4650000</v>
       </c>
       <c r="K61" s="3">
         <v>4758300</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1567600</v>
+        <v>1677300</v>
       </c>
       <c r="E62" s="3">
-        <v>2242800</v>
+        <v>2399700</v>
       </c>
       <c r="F62" s="3">
-        <v>2397000</v>
+        <v>2564700</v>
       </c>
       <c r="G62" s="3">
-        <v>3049700</v>
+        <v>3263100</v>
       </c>
       <c r="H62" s="3">
-        <v>2291900</v>
+        <v>2452300</v>
       </c>
       <c r="I62" s="3">
-        <v>2711100</v>
+        <v>2900900</v>
       </c>
       <c r="J62" s="3">
-        <v>2303500</v>
+        <v>2464700</v>
       </c>
       <c r="K62" s="3">
         <v>2637100</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>28708100</v>
+        <v>30717200</v>
       </c>
       <c r="E66" s="3">
-        <v>30224900</v>
+        <v>32340200</v>
       </c>
       <c r="F66" s="3">
-        <v>29842200</v>
+        <v>31930800</v>
       </c>
       <c r="G66" s="3">
-        <v>31160900</v>
+        <v>33341800</v>
       </c>
       <c r="H66" s="3">
-        <v>26060400</v>
+        <v>27884300</v>
       </c>
       <c r="I66" s="3">
-        <v>23766800</v>
+        <v>25430100</v>
       </c>
       <c r="J66" s="3">
-        <v>21501500</v>
+        <v>23006300</v>
       </c>
       <c r="K66" s="3">
         <v>23356700</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10510200</v>
+        <v>11245700</v>
       </c>
       <c r="E72" s="3">
-        <v>11425900</v>
+        <v>12225500</v>
       </c>
       <c r="F72" s="3">
-        <v>11036000</v>
+        <v>11808400</v>
       </c>
       <c r="G72" s="3">
-        <v>10074600</v>
+        <v>10779600</v>
       </c>
       <c r="H72" s="3">
-        <v>9228400</v>
+        <v>9874200</v>
       </c>
       <c r="I72" s="3">
-        <v>8471900</v>
+        <v>9064800</v>
       </c>
       <c r="J72" s="3">
-        <v>8371200</v>
+        <v>8957100</v>
       </c>
       <c r="K72" s="3">
         <v>7691400</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9964200</v>
+        <v>10661500</v>
       </c>
       <c r="E76" s="3">
-        <v>11581400</v>
+        <v>12391900</v>
       </c>
       <c r="F76" s="3">
-        <v>11711100</v>
+        <v>12530700</v>
       </c>
       <c r="G76" s="3">
-        <v>11510200</v>
+        <v>12315700</v>
       </c>
       <c r="H76" s="3">
-        <v>9427600</v>
+        <v>10087400</v>
       </c>
       <c r="I76" s="3">
-        <v>9258100</v>
+        <v>9906100</v>
       </c>
       <c r="J76" s="3">
-        <v>9365100</v>
+        <v>10020600</v>
       </c>
       <c r="K76" s="3">
         <v>8805300</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>768600</v>
+        <v>824300</v>
       </c>
       <c r="E81" s="3">
-        <v>1309100</v>
+        <v>1403900</v>
       </c>
       <c r="F81" s="3">
-        <v>2237300</v>
+        <v>2399300</v>
       </c>
       <c r="G81" s="3">
-        <v>1724400</v>
+        <v>1849200</v>
       </c>
       <c r="H81" s="3">
-        <v>1428900</v>
+        <v>1532400</v>
       </c>
       <c r="I81" s="3">
-        <v>1326700</v>
+        <v>1422800</v>
       </c>
       <c r="J81" s="3">
-        <v>1153400</v>
+        <v>1236900</v>
       </c>
       <c r="K81" s="3">
         <v>1063600</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>845200</v>
+        <v>906500</v>
       </c>
       <c r="E83" s="3">
-        <v>669700</v>
+        <v>718200</v>
       </c>
       <c r="F83" s="3">
-        <v>569100</v>
+        <v>610300</v>
       </c>
       <c r="G83" s="3">
-        <v>526900</v>
+        <v>565000</v>
       </c>
       <c r="H83" s="3">
-        <v>453800</v>
+        <v>486700</v>
       </c>
       <c r="I83" s="3">
-        <v>463600</v>
+        <v>497100</v>
       </c>
       <c r="J83" s="3">
-        <v>510500</v>
+        <v>547500</v>
       </c>
       <c r="K83" s="3">
         <v>512700</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2279100</v>
+        <v>2444100</v>
       </c>
       <c r="E89" s="3">
-        <v>2086100</v>
+        <v>2237200</v>
       </c>
       <c r="F89" s="3">
-        <v>1734200</v>
+        <v>1859800</v>
       </c>
       <c r="G89" s="3">
-        <v>2184600</v>
+        <v>2342800</v>
       </c>
       <c r="H89" s="3">
-        <v>1674900</v>
+        <v>1796100</v>
       </c>
       <c r="I89" s="3">
-        <v>2098300</v>
+        <v>2250200</v>
       </c>
       <c r="J89" s="3">
-        <v>1692500</v>
+        <v>1815000</v>
       </c>
       <c r="K89" s="3">
         <v>1174300</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-417900</v>
+        <v>-448100</v>
       </c>
       <c r="E91" s="3">
-        <v>-387700</v>
+        <v>-415800</v>
       </c>
       <c r="F91" s="3">
-        <v>-355800</v>
+        <v>-381600</v>
       </c>
       <c r="G91" s="3">
-        <v>-310500</v>
+        <v>-333000</v>
       </c>
       <c r="H91" s="3">
-        <v>-259000</v>
+        <v>-277800</v>
       </c>
       <c r="I91" s="3">
-        <v>-219100</v>
+        <v>-235000</v>
       </c>
       <c r="J91" s="3">
-        <v>-296400</v>
+        <v>-317900</v>
       </c>
       <c r="K91" s="3">
         <v>-375300</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>2167100</v>
+        <v>2324100</v>
       </c>
       <c r="E94" s="3">
-        <v>227200</v>
+        <v>243700</v>
       </c>
       <c r="F94" s="3">
-        <v>-615400</v>
+        <v>-660000</v>
       </c>
       <c r="G94" s="3">
-        <v>-1128400</v>
+        <v>-1210100</v>
       </c>
       <c r="H94" s="3">
-        <v>-1111500</v>
+        <v>-1192000</v>
       </c>
       <c r="I94" s="3">
-        <v>-859200</v>
+        <v>-921400</v>
       </c>
       <c r="J94" s="3">
-        <v>-589400</v>
+        <v>-632100</v>
       </c>
       <c r="K94" s="3">
         <v>-999500</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-924300</v>
+        <v>-991300</v>
       </c>
       <c r="E96" s="3">
-        <v>-920500</v>
+        <v>-987200</v>
       </c>
       <c r="F96" s="3">
-        <v>-925500</v>
+        <v>-992600</v>
       </c>
       <c r="G96" s="3">
-        <v>-759300</v>
+        <v>-814300</v>
       </c>
       <c r="H96" s="3">
-        <v>-672200</v>
+        <v>-720900</v>
       </c>
       <c r="I96" s="3">
-        <v>-566500</v>
+        <v>-607600</v>
       </c>
       <c r="J96" s="3">
-        <v>-489300</v>
+        <v>-524700</v>
       </c>
       <c r="K96" s="3">
         <v>-396400</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3598700</v>
+        <v>-3859300</v>
       </c>
       <c r="E100" s="3">
-        <v>-1987600</v>
+        <v>-2131500</v>
       </c>
       <c r="F100" s="3">
-        <v>-967500</v>
+        <v>-1037600</v>
       </c>
       <c r="G100" s="3">
-        <v>-1469900</v>
+        <v>-1576400</v>
       </c>
       <c r="H100" s="3">
-        <v>-867000</v>
+        <v>-929800</v>
       </c>
       <c r="I100" s="3">
-        <v>-703700</v>
+        <v>-754700</v>
       </c>
       <c r="J100" s="3">
-        <v>-254900</v>
+        <v>-273400</v>
       </c>
       <c r="K100" s="3">
         <v>-109600</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-110500</v>
+        <v>-118500</v>
       </c>
       <c r="E101" s="3">
-        <v>-75700</v>
+        <v>-81200</v>
       </c>
       <c r="F101" s="3">
-        <v>-33500</v>
+        <v>-35900</v>
       </c>
       <c r="G101" s="3">
-        <v>359500</v>
+        <v>385500</v>
       </c>
       <c r="H101" s="3">
-        <v>-67000</v>
+        <v>-71900</v>
       </c>
       <c r="I101" s="3">
-        <v>-86600</v>
+        <v>-92900</v>
       </c>
       <c r="J101" s="3">
-        <v>-202800</v>
+        <v>-217500</v>
       </c>
       <c r="K101" s="3">
         <v>-154200</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>737000</v>
+        <v>790400</v>
       </c>
       <c r="E102" s="3">
-        <v>250000</v>
+        <v>268100</v>
       </c>
       <c r="F102" s="3">
-        <v>117700</v>
+        <v>126300</v>
       </c>
       <c r="G102" s="3">
-        <v>-54200</v>
+        <v>-58100</v>
       </c>
       <c r="H102" s="3">
-        <v>-370700</v>
+        <v>-397600</v>
       </c>
       <c r="I102" s="3">
-        <v>448800</v>
+        <v>481300</v>
       </c>
       <c r="J102" s="3">
-        <v>645200</v>
+        <v>692000</v>
       </c>
       <c r="K102" s="3">
         <v>-89100</v>

--- a/AAII_Financials/Yearly/WPP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WPP_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17479500</v>
+        <v>17619900</v>
       </c>
       <c r="E8" s="3">
-        <v>17232000</v>
+        <v>17370400</v>
       </c>
       <c r="F8" s="3">
-        <v>20874000</v>
+        <v>21041700</v>
       </c>
       <c r="G8" s="3">
-        <v>19004700</v>
+        <v>19157400</v>
       </c>
       <c r="H8" s="3">
-        <v>16160100</v>
+        <v>16289900</v>
       </c>
       <c r="I8" s="3">
-        <v>15227300</v>
+        <v>15349600</v>
       </c>
       <c r="J8" s="3">
-        <v>14554300</v>
+        <v>14671200</v>
       </c>
       <c r="K8" s="3">
         <v>13410400</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>14297700</v>
+        <v>14412500</v>
       </c>
       <c r="E9" s="3">
-        <v>13946400</v>
+        <v>14058400</v>
       </c>
       <c r="F9" s="3">
-        <v>16680300</v>
+        <v>16814300</v>
       </c>
       <c r="G9" s="3">
-        <v>14988500</v>
+        <v>15108900</v>
       </c>
       <c r="H9" s="3">
-        <v>12823700</v>
+        <v>12926700</v>
       </c>
       <c r="I9" s="3">
-        <v>1933800</v>
+        <v>1949300</v>
       </c>
       <c r="J9" s="3">
-        <v>1245900</v>
+        <v>1255900</v>
       </c>
       <c r="K9" s="3">
         <v>1109600</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3181800</v>
+        <v>3207300</v>
       </c>
       <c r="E10" s="3">
-        <v>3285600</v>
+        <v>3312000</v>
       </c>
       <c r="F10" s="3">
-        <v>4193800</v>
+        <v>4227500</v>
       </c>
       <c r="G10" s="3">
-        <v>4016300</v>
+        <v>4048500</v>
       </c>
       <c r="H10" s="3">
-        <v>3336400</v>
+        <v>3363200</v>
       </c>
       <c r="I10" s="3">
-        <v>13293500</v>
+        <v>13400300</v>
       </c>
       <c r="J10" s="3">
-        <v>13308400</v>
+        <v>13415300</v>
       </c>
       <c r="K10" s="3">
         <v>12300800</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>63100</v>
+        <v>63600</v>
       </c>
       <c r="E14" s="3">
-        <v>54800</v>
+        <v>55300</v>
       </c>
       <c r="F14" s="3">
         <v>-1100</v>
       </c>
       <c r="G14" s="3">
-        <v>-101300</v>
+        <v>-102100</v>
       </c>
       <c r="H14" s="3">
-        <v>145200</v>
+        <v>146300</v>
       </c>
       <c r="I14" s="3">
-        <v>247800</v>
+        <v>249800</v>
       </c>
       <c r="J14" s="3">
-        <v>47900</v>
+        <v>48300</v>
       </c>
       <c r="K14" s="3">
         <v>185900</v>
@@ -939,16 +939,16 @@
         <v>8</v>
       </c>
       <c r="G15" s="3">
-        <v>557600</v>
+        <v>562100</v>
       </c>
       <c r="H15" s="3">
-        <v>480500</v>
+        <v>484400</v>
       </c>
       <c r="I15" s="3">
-        <v>489700</v>
+        <v>493700</v>
       </c>
       <c r="J15" s="3">
-        <v>538900</v>
+        <v>543200</v>
       </c>
       <c r="K15" s="3">
         <v>503900</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15831000</v>
+        <v>15958200</v>
       </c>
       <c r="E17" s="3">
-        <v>15651800</v>
+        <v>15777500</v>
       </c>
       <c r="F17" s="3">
-        <v>18352600</v>
+        <v>18500100</v>
       </c>
       <c r="G17" s="3">
-        <v>16299900</v>
+        <v>16430800</v>
       </c>
       <c r="H17" s="3">
-        <v>14033400</v>
+        <v>14146100</v>
       </c>
       <c r="I17" s="3">
-        <v>13154700</v>
+        <v>13260300</v>
       </c>
       <c r="J17" s="3">
-        <v>12705700</v>
+        <v>12807800</v>
       </c>
       <c r="K17" s="3">
         <v>11805900</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1648500</v>
+        <v>1661700</v>
       </c>
       <c r="E18" s="3">
-        <v>1580200</v>
+        <v>1592900</v>
       </c>
       <c r="F18" s="3">
-        <v>2521400</v>
+        <v>2541600</v>
       </c>
       <c r="G18" s="3">
-        <v>2704800</v>
+        <v>2726600</v>
       </c>
       <c r="H18" s="3">
-        <v>2126700</v>
+        <v>2143800</v>
       </c>
       <c r="I18" s="3">
-        <v>2072600</v>
+        <v>2089200</v>
       </c>
       <c r="J18" s="3">
-        <v>1848600</v>
+        <v>1863400</v>
       </c>
       <c r="K18" s="3">
         <v>1604500</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>113200</v>
+        <v>114100</v>
       </c>
       <c r="E20" s="3">
-        <v>440100</v>
+        <v>443600</v>
       </c>
       <c r="F20" s="3">
-        <v>607400</v>
+        <v>612300</v>
       </c>
       <c r="G20" s="3">
-        <v>115800</v>
+        <v>116800</v>
       </c>
       <c r="H20" s="3">
-        <v>127700</v>
+        <v>128700</v>
       </c>
       <c r="I20" s="3">
-        <v>179000</v>
+        <v>180400</v>
       </c>
       <c r="J20" s="3">
-        <v>199400</v>
+        <v>201000</v>
       </c>
       <c r="K20" s="3">
         <v>139100</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2664100</v>
+        <v>2692400</v>
       </c>
       <c r="E21" s="3">
-        <v>2735400</v>
+        <v>2762800</v>
       </c>
       <c r="F21" s="3">
-        <v>3736500</v>
+        <v>3771100</v>
       </c>
       <c r="G21" s="3">
-        <v>3383200</v>
+        <v>3414700</v>
       </c>
       <c r="H21" s="3">
-        <v>2739000</v>
+        <v>2764700</v>
       </c>
       <c r="I21" s="3">
-        <v>2746500</v>
+        <v>2772300</v>
       </c>
       <c r="J21" s="3">
-        <v>2593100</v>
+        <v>2618000</v>
       </c>
       <c r="K21" s="3">
         <v>2259200</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>464500</v>
+        <v>468300</v>
       </c>
       <c r="E22" s="3">
-        <v>359300</v>
+        <v>362100</v>
       </c>
       <c r="F22" s="3">
-        <v>342900</v>
+        <v>345600</v>
       </c>
       <c r="G22" s="3">
-        <v>323700</v>
+        <v>326300</v>
       </c>
       <c r="H22" s="3">
-        <v>283000</v>
+        <v>285300</v>
       </c>
       <c r="I22" s="3">
-        <v>333900</v>
+        <v>336600</v>
       </c>
       <c r="J22" s="3">
-        <v>336500</v>
+        <v>339200</v>
       </c>
       <c r="K22" s="3">
         <v>332000</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1297100</v>
+        <v>1307600</v>
       </c>
       <c r="E23" s="3">
-        <v>1661000</v>
+        <v>1674400</v>
       </c>
       <c r="F23" s="3">
-        <v>2785900</v>
+        <v>2808300</v>
       </c>
       <c r="G23" s="3">
-        <v>2497000</v>
+        <v>2517000</v>
       </c>
       <c r="H23" s="3">
-        <v>1971400</v>
+        <v>1987200</v>
       </c>
       <c r="I23" s="3">
-        <v>1917700</v>
+        <v>1933100</v>
       </c>
       <c r="J23" s="3">
-        <v>1711500</v>
+        <v>1725200</v>
       </c>
       <c r="K23" s="3">
         <v>1411600</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>363200</v>
+        <v>366100</v>
       </c>
       <c r="E24" s="3">
-        <v>344200</v>
+        <v>347000</v>
       </c>
       <c r="F24" s="3">
-        <v>532300</v>
+        <v>536600</v>
       </c>
       <c r="G24" s="3">
-        <v>513700</v>
+        <v>517800</v>
       </c>
       <c r="H24" s="3">
-        <v>326900</v>
+        <v>329500</v>
       </c>
       <c r="I24" s="3">
-        <v>396800</v>
+        <v>400000</v>
       </c>
       <c r="J24" s="3">
-        <v>374700</v>
+        <v>377700</v>
       </c>
       <c r="K24" s="3">
         <v>254900</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>933900</v>
+        <v>941400</v>
       </c>
       <c r="E26" s="3">
-        <v>1316800</v>
+        <v>1327400</v>
       </c>
       <c r="F26" s="3">
-        <v>2253700</v>
+        <v>2271800</v>
       </c>
       <c r="G26" s="3">
-        <v>1983300</v>
+        <v>1999200</v>
       </c>
       <c r="H26" s="3">
-        <v>1644500</v>
+        <v>1657700</v>
       </c>
       <c r="I26" s="3">
-        <v>1520900</v>
+        <v>1533100</v>
       </c>
       <c r="J26" s="3">
-        <v>1336800</v>
+        <v>1347500</v>
       </c>
       <c r="K26" s="3">
         <v>1156700</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>829300</v>
+        <v>836000</v>
       </c>
       <c r="E27" s="3">
-        <v>1230800</v>
+        <v>1240700</v>
       </c>
       <c r="F27" s="3">
-        <v>2127300</v>
+        <v>2144400</v>
       </c>
       <c r="G27" s="3">
-        <v>1849200</v>
+        <v>1864100</v>
       </c>
       <c r="H27" s="3">
-        <v>1532400</v>
+        <v>1544700</v>
       </c>
       <c r="I27" s="3">
-        <v>1422800</v>
+        <v>1434200</v>
       </c>
       <c r="J27" s="3">
-        <v>1236900</v>
+        <v>1246900</v>
       </c>
       <c r="K27" s="3">
         <v>1063600</v>
@@ -1353,13 +1353,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-5000</v>
+        <v>-5100</v>
       </c>
       <c r="E29" s="3">
-        <v>173000</v>
+        <v>174400</v>
       </c>
       <c r="F29" s="3">
-        <v>272100</v>
+        <v>274300</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-113200</v>
+        <v>-114100</v>
       </c>
       <c r="E32" s="3">
-        <v>-440100</v>
+        <v>-443600</v>
       </c>
       <c r="F32" s="3">
-        <v>-607400</v>
+        <v>-612300</v>
       </c>
       <c r="G32" s="3">
-        <v>-115800</v>
+        <v>-116800</v>
       </c>
       <c r="H32" s="3">
-        <v>-127700</v>
+        <v>-128700</v>
       </c>
       <c r="I32" s="3">
-        <v>-179000</v>
+        <v>-180400</v>
       </c>
       <c r="J32" s="3">
-        <v>-199400</v>
+        <v>-201000</v>
       </c>
       <c r="K32" s="3">
         <v>-139100</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>824300</v>
+        <v>830900</v>
       </c>
       <c r="E33" s="3">
-        <v>1403900</v>
+        <v>1415100</v>
       </c>
       <c r="F33" s="3">
-        <v>2399300</v>
+        <v>2418600</v>
       </c>
       <c r="G33" s="3">
-        <v>1849200</v>
+        <v>1864100</v>
       </c>
       <c r="H33" s="3">
-        <v>1532400</v>
+        <v>1544700</v>
       </c>
       <c r="I33" s="3">
-        <v>1422800</v>
+        <v>1434200</v>
       </c>
       <c r="J33" s="3">
-        <v>1236900</v>
+        <v>1246900</v>
       </c>
       <c r="K33" s="3">
         <v>1063600</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>824300</v>
+        <v>830900</v>
       </c>
       <c r="E35" s="3">
-        <v>1403900</v>
+        <v>1415100</v>
       </c>
       <c r="F35" s="3">
-        <v>2399300</v>
+        <v>2418600</v>
       </c>
       <c r="G35" s="3">
-        <v>1849200</v>
+        <v>1864100</v>
       </c>
       <c r="H35" s="3">
-        <v>1532400</v>
+        <v>1544700</v>
       </c>
       <c r="I35" s="3">
-        <v>1422800</v>
+        <v>1434200</v>
       </c>
       <c r="J35" s="3">
-        <v>1236900</v>
+        <v>1246900</v>
       </c>
       <c r="K35" s="3">
         <v>1063600</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3921400</v>
+        <v>3952900</v>
       </c>
       <c r="E41" s="3">
-        <v>3491100</v>
+        <v>3519200</v>
       </c>
       <c r="F41" s="3">
-        <v>3158500</v>
+        <v>3183900</v>
       </c>
       <c r="G41" s="3">
-        <v>2980000</v>
+        <v>3003900</v>
       </c>
       <c r="H41" s="3">
-        <v>2942500</v>
+        <v>2966100</v>
       </c>
       <c r="I41" s="3">
-        <v>2598000</v>
+        <v>2618900</v>
       </c>
       <c r="J41" s="3">
-        <v>2772500</v>
+        <v>2794700</v>
       </c>
       <c r="K41" s="3">
         <v>2225400</v>
@@ -1694,16 +1694,16 @@
         <v>8</v>
       </c>
       <c r="G42" s="3">
-        <v>238700</v>
+        <v>240600</v>
       </c>
       <c r="H42" s="3">
-        <v>204200</v>
+        <v>205800</v>
       </c>
       <c r="I42" s="3">
-        <v>720800</v>
+        <v>726500</v>
       </c>
       <c r="J42" s="3">
-        <v>161800</v>
+        <v>163100</v>
       </c>
       <c r="K42" s="3">
         <v>289500</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>14990600</v>
+        <v>15111000</v>
       </c>
       <c r="E43" s="3">
-        <v>16701500</v>
+        <v>16835700</v>
       </c>
       <c r="F43" s="3">
-        <v>26356000</v>
+        <v>26567700</v>
       </c>
       <c r="G43" s="3">
-        <v>16220600</v>
+        <v>16350900</v>
       </c>
       <c r="H43" s="3">
-        <v>13768400</v>
+        <v>13879000</v>
       </c>
       <c r="I43" s="3">
-        <v>12471000</v>
+        <v>12571200</v>
       </c>
       <c r="J43" s="3">
-        <v>11775000</v>
+        <v>11869600</v>
       </c>
       <c r="K43" s="3">
         <v>8919100</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>461600</v>
+        <v>465300</v>
       </c>
       <c r="E44" s="3">
-        <v>484100</v>
+        <v>488000</v>
       </c>
       <c r="F44" s="3">
-        <v>560400</v>
+        <v>564900</v>
       </c>
       <c r="G44" s="3">
-        <v>528800</v>
+        <v>533100</v>
       </c>
       <c r="H44" s="3">
-        <v>434500</v>
+        <v>438000</v>
       </c>
       <c r="I44" s="3">
-        <v>432300</v>
+        <v>435800</v>
       </c>
       <c r="J44" s="3">
-        <v>402200</v>
+        <v>405400</v>
       </c>
       <c r="K44" s="3">
         <v>450200</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1022000</v>
+        <v>1030200</v>
       </c>
       <c r="E45" s="3">
-        <v>381200</v>
+        <v>384200</v>
       </c>
       <c r="F45" s="3">
-        <v>395300</v>
+        <v>398500</v>
       </c>
       <c r="G45" s="3">
-        <v>428900</v>
+        <v>432300</v>
       </c>
       <c r="H45" s="3">
-        <v>316500</v>
+        <v>319000</v>
       </c>
       <c r="I45" s="3">
-        <v>308400</v>
+        <v>310900</v>
       </c>
       <c r="J45" s="3">
-        <v>408100</v>
+        <v>411400</v>
       </c>
       <c r="K45" s="3">
         <v>2885800</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>20395600</v>
+        <v>20559500</v>
       </c>
       <c r="E46" s="3">
-        <v>21057900</v>
+        <v>21227000</v>
       </c>
       <c r="F46" s="3">
-        <v>20018900</v>
+        <v>20179800</v>
       </c>
       <c r="G46" s="3">
-        <v>20397000</v>
+        <v>20560800</v>
       </c>
       <c r="H46" s="3">
-        <v>17666100</v>
+        <v>17808000</v>
       </c>
       <c r="I46" s="3">
-        <v>16530500</v>
+        <v>16663300</v>
       </c>
       <c r="J46" s="3">
-        <v>15519500</v>
+        <v>15644200</v>
       </c>
       <c r="K46" s="3">
         <v>14770000</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1732000</v>
+        <v>1745900</v>
       </c>
       <c r="E47" s="3">
-        <v>1933000</v>
+        <v>1948500</v>
       </c>
       <c r="F47" s="3">
-        <v>2930400</v>
+        <v>2954000</v>
       </c>
       <c r="G47" s="3">
-        <v>3143100</v>
+        <v>3168300</v>
       </c>
       <c r="H47" s="3">
-        <v>2532400</v>
+        <v>2552700</v>
       </c>
       <c r="I47" s="3">
-        <v>1887500</v>
+        <v>1902700</v>
       </c>
       <c r="J47" s="3">
-        <v>1613900</v>
+        <v>1626800</v>
       </c>
       <c r="K47" s="3">
         <v>1470700</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3447900</v>
+        <v>3475600</v>
       </c>
       <c r="E48" s="3">
-        <v>1430400</v>
+        <v>1441900</v>
       </c>
       <c r="F48" s="3">
-        <v>1293700</v>
+        <v>1304100</v>
       </c>
       <c r="G48" s="3">
-        <v>1279400</v>
+        <v>1289700</v>
       </c>
       <c r="H48" s="3">
-        <v>1053600</v>
+        <v>1062100</v>
       </c>
       <c r="I48" s="3">
-        <v>1020300</v>
+        <v>1028500</v>
       </c>
       <c r="J48" s="3">
-        <v>1021400</v>
+        <v>1029600</v>
       </c>
       <c r="K48" s="3">
         <v>993300</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15373300</v>
+        <v>15496800</v>
       </c>
       <c r="E49" s="3">
-        <v>19871000</v>
+        <v>20030600</v>
       </c>
       <c r="F49" s="3">
-        <v>19773900</v>
+        <v>19932800</v>
       </c>
       <c r="G49" s="3">
-        <v>20381900</v>
+        <v>20545600</v>
       </c>
       <c r="H49" s="3">
-        <v>16359300</v>
+        <v>16490700</v>
       </c>
       <c r="I49" s="3">
-        <v>15385000</v>
+        <v>15508500</v>
       </c>
       <c r="J49" s="3">
-        <v>14714400</v>
+        <v>14832600</v>
       </c>
       <c r="K49" s="3">
         <v>14588800</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>429900</v>
+        <v>433400</v>
       </c>
       <c r="E52" s="3">
-        <v>439800</v>
+        <v>443400</v>
       </c>
       <c r="F52" s="3">
-        <v>444400</v>
+        <v>448000</v>
       </c>
       <c r="G52" s="3">
-        <v>456100</v>
+        <v>459700</v>
       </c>
       <c r="H52" s="3">
-        <v>360300</v>
+        <v>363200</v>
       </c>
       <c r="I52" s="3">
-        <v>512900</v>
+        <v>517000</v>
       </c>
       <c r="J52" s="3">
-        <v>367000</v>
+        <v>370000</v>
       </c>
       <c r="K52" s="3">
         <v>339200</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>41378800</v>
+        <v>41711200</v>
       </c>
       <c r="E54" s="3">
-        <v>44732100</v>
+        <v>45091500</v>
       </c>
       <c r="F54" s="3">
-        <v>44461500</v>
+        <v>44818700</v>
       </c>
       <c r="G54" s="3">
-        <v>45657500</v>
+        <v>46024200</v>
       </c>
       <c r="H54" s="3">
-        <v>37971700</v>
+        <v>38276700</v>
       </c>
       <c r="I54" s="3">
-        <v>35336200</v>
+        <v>35620000</v>
       </c>
       <c r="J54" s="3">
-        <v>33026900</v>
+        <v>33292200</v>
       </c>
       <c r="K54" s="3">
         <v>32162000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13544000</v>
+        <v>13652800</v>
       </c>
       <c r="E57" s="3">
-        <v>14096100</v>
+        <v>14209400</v>
       </c>
       <c r="F57" s="3">
-        <v>13305200</v>
+        <v>13412100</v>
       </c>
       <c r="G57" s="3">
-        <v>13981600</v>
+        <v>14093900</v>
       </c>
       <c r="H57" s="3">
-        <v>11443700</v>
+        <v>11535600</v>
       </c>
       <c r="I57" s="3">
-        <v>10451900</v>
+        <v>10535900</v>
       </c>
       <c r="J57" s="3">
-        <v>9509600</v>
+        <v>9585900</v>
       </c>
       <c r="K57" s="3">
         <v>9387000</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1008400</v>
+        <v>1016500</v>
       </c>
       <c r="E58" s="3">
-        <v>1353900</v>
+        <v>1364800</v>
       </c>
       <c r="F58" s="3">
-        <v>824300</v>
+        <v>830900</v>
       </c>
       <c r="G58" s="3">
-        <v>1324100</v>
+        <v>1334700</v>
       </c>
       <c r="H58" s="3">
-        <v>1231000</v>
+        <v>1240900</v>
       </c>
       <c r="I58" s="3">
-        <v>862700</v>
+        <v>869700</v>
       </c>
       <c r="J58" s="3">
-        <v>2486800</v>
+        <v>2506800</v>
       </c>
       <c r="K58" s="3">
         <v>1403900</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6079100</v>
+        <v>6127900</v>
       </c>
       <c r="E59" s="3">
-        <v>6487500</v>
+        <v>6539600</v>
       </c>
       <c r="F59" s="3">
-        <v>6361800</v>
+        <v>6413000</v>
       </c>
       <c r="G59" s="3">
-        <v>6837600</v>
+        <v>6892500</v>
       </c>
       <c r="H59" s="3">
-        <v>6101000</v>
+        <v>6150000</v>
       </c>
       <c r="I59" s="3">
-        <v>5321700</v>
+        <v>5364500</v>
       </c>
       <c r="J59" s="3">
-        <v>4795700</v>
+        <v>4834200</v>
       </c>
       <c r="K59" s="3">
         <v>4847800</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>20631500</v>
+        <v>20797300</v>
       </c>
       <c r="E60" s="3">
-        <v>21937500</v>
+        <v>22113800</v>
       </c>
       <c r="F60" s="3">
-        <v>20491400</v>
+        <v>20656000</v>
       </c>
       <c r="G60" s="3">
-        <v>22143300</v>
+        <v>22321200</v>
       </c>
       <c r="H60" s="3">
-        <v>18775700</v>
+        <v>18926500</v>
       </c>
       <c r="I60" s="3">
-        <v>16636400</v>
+        <v>16770000</v>
       </c>
       <c r="J60" s="3">
-        <v>15548600</v>
+        <v>15673500</v>
       </c>
       <c r="K60" s="3">
         <v>15638600</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7917900</v>
+        <v>7981500</v>
       </c>
       <c r="E61" s="3">
-        <v>7442400</v>
+        <v>7502200</v>
       </c>
       <c r="F61" s="3">
-        <v>8255500</v>
+        <v>8321800</v>
       </c>
       <c r="G61" s="3">
-        <v>7350100</v>
+        <v>7409100</v>
       </c>
       <c r="H61" s="3">
-        <v>6156500</v>
+        <v>6205900</v>
       </c>
       <c r="I61" s="3">
-        <v>5461300</v>
+        <v>5505200</v>
       </c>
       <c r="J61" s="3">
-        <v>4650000</v>
+        <v>4687300</v>
       </c>
       <c r="K61" s="3">
         <v>4758300</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1677300</v>
+        <v>1690700</v>
       </c>
       <c r="E62" s="3">
-        <v>2399700</v>
+        <v>2419000</v>
       </c>
       <c r="F62" s="3">
-        <v>2564700</v>
+        <v>2585300</v>
       </c>
       <c r="G62" s="3">
-        <v>3263100</v>
+        <v>3289400</v>
       </c>
       <c r="H62" s="3">
-        <v>2452300</v>
+        <v>2472000</v>
       </c>
       <c r="I62" s="3">
-        <v>2900900</v>
+        <v>2924200</v>
       </c>
       <c r="J62" s="3">
-        <v>2464700</v>
+        <v>2484500</v>
       </c>
       <c r="K62" s="3">
         <v>2637100</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>30717200</v>
+        <v>30964000</v>
       </c>
       <c r="E66" s="3">
-        <v>32340200</v>
+        <v>32600000</v>
       </c>
       <c r="F66" s="3">
-        <v>31930800</v>
+        <v>32187300</v>
       </c>
       <c r="G66" s="3">
-        <v>33341800</v>
+        <v>33609600</v>
       </c>
       <c r="H66" s="3">
-        <v>27884300</v>
+        <v>28108300</v>
       </c>
       <c r="I66" s="3">
-        <v>25430100</v>
+        <v>25634400</v>
       </c>
       <c r="J66" s="3">
-        <v>23006300</v>
+        <v>23191100</v>
       </c>
       <c r="K66" s="3">
         <v>23356700</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11245700</v>
+        <v>11336100</v>
       </c>
       <c r="E72" s="3">
-        <v>12225500</v>
+        <v>12323700</v>
       </c>
       <c r="F72" s="3">
-        <v>11808400</v>
+        <v>11903200</v>
       </c>
       <c r="G72" s="3">
-        <v>10779600</v>
+        <v>10866200</v>
       </c>
       <c r="H72" s="3">
-        <v>9874200</v>
+        <v>9953500</v>
       </c>
       <c r="I72" s="3">
-        <v>9064800</v>
+        <v>9137700</v>
       </c>
       <c r="J72" s="3">
-        <v>8957100</v>
+        <v>9029000</v>
       </c>
       <c r="K72" s="3">
         <v>7691400</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10661500</v>
+        <v>10747200</v>
       </c>
       <c r="E76" s="3">
-        <v>12391900</v>
+        <v>12491500</v>
       </c>
       <c r="F76" s="3">
-        <v>12530700</v>
+        <v>12631400</v>
       </c>
       <c r="G76" s="3">
-        <v>12315700</v>
+        <v>12414600</v>
       </c>
       <c r="H76" s="3">
-        <v>10087400</v>
+        <v>10168400</v>
       </c>
       <c r="I76" s="3">
-        <v>9906100</v>
+        <v>9985600</v>
       </c>
       <c r="J76" s="3">
-        <v>10020600</v>
+        <v>10101100</v>
       </c>
       <c r="K76" s="3">
         <v>8805300</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>824300</v>
+        <v>830900</v>
       </c>
       <c r="E81" s="3">
-        <v>1403900</v>
+        <v>1415100</v>
       </c>
       <c r="F81" s="3">
-        <v>2399300</v>
+        <v>2418600</v>
       </c>
       <c r="G81" s="3">
-        <v>1849200</v>
+        <v>1864100</v>
       </c>
       <c r="H81" s="3">
-        <v>1532400</v>
+        <v>1544700</v>
       </c>
       <c r="I81" s="3">
-        <v>1422800</v>
+        <v>1434200</v>
       </c>
       <c r="J81" s="3">
-        <v>1236900</v>
+        <v>1246900</v>
       </c>
       <c r="K81" s="3">
         <v>1063600</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>906500</v>
+        <v>913700</v>
       </c>
       <c r="E83" s="3">
-        <v>718200</v>
+        <v>724000</v>
       </c>
       <c r="F83" s="3">
-        <v>610300</v>
+        <v>615200</v>
       </c>
       <c r="G83" s="3">
-        <v>565000</v>
+        <v>569600</v>
       </c>
       <c r="H83" s="3">
-        <v>486700</v>
+        <v>490600</v>
       </c>
       <c r="I83" s="3">
-        <v>497100</v>
+        <v>501100</v>
       </c>
       <c r="J83" s="3">
-        <v>547500</v>
+        <v>551900</v>
       </c>
       <c r="K83" s="3">
         <v>512700</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2444100</v>
+        <v>2463800</v>
       </c>
       <c r="E89" s="3">
-        <v>2237200</v>
+        <v>2255100</v>
       </c>
       <c r="F89" s="3">
-        <v>1859800</v>
+        <v>1874700</v>
       </c>
       <c r="G89" s="3">
-        <v>2342800</v>
+        <v>2361600</v>
       </c>
       <c r="H89" s="3">
-        <v>1796100</v>
+        <v>1810600</v>
       </c>
       <c r="I89" s="3">
-        <v>2250200</v>
+        <v>2268300</v>
       </c>
       <c r="J89" s="3">
-        <v>1815000</v>
+        <v>1829600</v>
       </c>
       <c r="K89" s="3">
         <v>1174300</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-448100</v>
+        <v>-451700</v>
       </c>
       <c r="E91" s="3">
-        <v>-415800</v>
+        <v>-419100</v>
       </c>
       <c r="F91" s="3">
-        <v>-381600</v>
+        <v>-384600</v>
       </c>
       <c r="G91" s="3">
-        <v>-333000</v>
+        <v>-335600</v>
       </c>
       <c r="H91" s="3">
-        <v>-277800</v>
+        <v>-280000</v>
       </c>
       <c r="I91" s="3">
-        <v>-235000</v>
+        <v>-236900</v>
       </c>
       <c r="J91" s="3">
-        <v>-317900</v>
+        <v>-320500</v>
       </c>
       <c r="K91" s="3">
         <v>-375300</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>2324100</v>
+        <v>2342700</v>
       </c>
       <c r="E94" s="3">
-        <v>243700</v>
+        <v>245600</v>
       </c>
       <c r="F94" s="3">
-        <v>-660000</v>
+        <v>-665300</v>
       </c>
       <c r="G94" s="3">
-        <v>-1210100</v>
+        <v>-1219800</v>
       </c>
       <c r="H94" s="3">
-        <v>-1192000</v>
+        <v>-1201600</v>
       </c>
       <c r="I94" s="3">
-        <v>-921400</v>
+        <v>-928800</v>
       </c>
       <c r="J94" s="3">
-        <v>-632100</v>
+        <v>-637200</v>
       </c>
       <c r="K94" s="3">
         <v>-999500</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-991300</v>
+        <v>-999200</v>
       </c>
       <c r="E96" s="3">
-        <v>-987200</v>
+        <v>-995100</v>
       </c>
       <c r="F96" s="3">
-        <v>-992600</v>
+        <v>-1000500</v>
       </c>
       <c r="G96" s="3">
-        <v>-814300</v>
+        <v>-820800</v>
       </c>
       <c r="H96" s="3">
-        <v>-720900</v>
+        <v>-726700</v>
       </c>
       <c r="I96" s="3">
-        <v>-607600</v>
+        <v>-612400</v>
       </c>
       <c r="J96" s="3">
-        <v>-524700</v>
+        <v>-529000</v>
       </c>
       <c r="K96" s="3">
         <v>-396400</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3859300</v>
+        <v>-3890400</v>
       </c>
       <c r="E100" s="3">
-        <v>-2131500</v>
+        <v>-2148600</v>
       </c>
       <c r="F100" s="3">
-        <v>-1037600</v>
+        <v>-1045900</v>
       </c>
       <c r="G100" s="3">
-        <v>-1576400</v>
+        <v>-1589000</v>
       </c>
       <c r="H100" s="3">
-        <v>-929800</v>
+        <v>-937300</v>
       </c>
       <c r="I100" s="3">
-        <v>-754700</v>
+        <v>-760800</v>
       </c>
       <c r="J100" s="3">
-        <v>-273400</v>
+        <v>-275600</v>
       </c>
       <c r="K100" s="3">
         <v>-109600</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-118500</v>
+        <v>-119400</v>
       </c>
       <c r="E101" s="3">
-        <v>-81200</v>
+        <v>-81900</v>
       </c>
       <c r="F101" s="3">
-        <v>-35900</v>
+        <v>-36200</v>
       </c>
       <c r="G101" s="3">
-        <v>385500</v>
+        <v>388600</v>
       </c>
       <c r="H101" s="3">
-        <v>-71900</v>
+        <v>-72400</v>
       </c>
       <c r="I101" s="3">
-        <v>-92900</v>
+        <v>-93600</v>
       </c>
       <c r="J101" s="3">
-        <v>-217500</v>
+        <v>-219300</v>
       </c>
       <c r="K101" s="3">
         <v>-154200</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>790400</v>
+        <v>796700</v>
       </c>
       <c r="E102" s="3">
-        <v>268100</v>
+        <v>270300</v>
       </c>
       <c r="F102" s="3">
-        <v>126300</v>
+        <v>127300</v>
       </c>
       <c r="G102" s="3">
-        <v>-58100</v>
+        <v>-58600</v>
       </c>
       <c r="H102" s="3">
-        <v>-397600</v>
+        <v>-400800</v>
       </c>
       <c r="I102" s="3">
-        <v>481300</v>
+        <v>485200</v>
       </c>
       <c r="J102" s="3">
-        <v>692000</v>
+        <v>697500</v>
       </c>
       <c r="K102" s="3">
         <v>-89100</v>

--- a/AAII_Financials/Yearly/WPP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WPP_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>WPP</t>
   </si>
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17619900</v>
+        <v>18172900</v>
       </c>
       <c r="E8" s="3">
-        <v>17370400</v>
+        <v>17915600</v>
       </c>
       <c r="F8" s="3">
-        <v>21041700</v>
+        <v>21702200</v>
       </c>
       <c r="G8" s="3">
-        <v>19157400</v>
+        <v>19758700</v>
       </c>
       <c r="H8" s="3">
-        <v>16289900</v>
+        <v>16801300</v>
       </c>
       <c r="I8" s="3">
-        <v>15349600</v>
+        <v>15831400</v>
       </c>
       <c r="J8" s="3">
-        <v>14671200</v>
+        <v>15131700</v>
       </c>
       <c r="K8" s="3">
         <v>13410400</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>14412500</v>
+        <v>14864900</v>
       </c>
       <c r="E9" s="3">
-        <v>14058400</v>
+        <v>14499700</v>
       </c>
       <c r="F9" s="3">
-        <v>16814300</v>
+        <v>17342000</v>
       </c>
       <c r="G9" s="3">
-        <v>15108900</v>
+        <v>15583100</v>
       </c>
       <c r="H9" s="3">
-        <v>12926700</v>
+        <v>13332400</v>
       </c>
       <c r="I9" s="3">
-        <v>1949300</v>
+        <v>2010500</v>
       </c>
       <c r="J9" s="3">
-        <v>1255900</v>
+        <v>1295300</v>
       </c>
       <c r="K9" s="3">
         <v>1109600</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3207300</v>
+        <v>3308000</v>
       </c>
       <c r="E10" s="3">
-        <v>3312000</v>
+        <v>3415900</v>
       </c>
       <c r="F10" s="3">
-        <v>4227500</v>
+        <v>4360200</v>
       </c>
       <c r="G10" s="3">
-        <v>4048500</v>
+        <v>4175600</v>
       </c>
       <c r="H10" s="3">
-        <v>3363200</v>
+        <v>3468800</v>
       </c>
       <c r="I10" s="3">
-        <v>13400300</v>
+        <v>13820900</v>
       </c>
       <c r="J10" s="3">
-        <v>13415300</v>
+        <v>13836400</v>
       </c>
       <c r="K10" s="3">
         <v>12300800</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>63600</v>
+        <v>65600</v>
       </c>
       <c r="E14" s="3">
-        <v>55300</v>
+        <v>57000</v>
       </c>
       <c r="F14" s="3">
         <v>-1100</v>
       </c>
       <c r="G14" s="3">
-        <v>-102100</v>
+        <v>-105300</v>
       </c>
       <c r="H14" s="3">
-        <v>146300</v>
+        <v>150900</v>
       </c>
       <c r="I14" s="3">
-        <v>249800</v>
+        <v>257600</v>
       </c>
       <c r="J14" s="3">
-        <v>48300</v>
+        <v>49800</v>
       </c>
       <c r="K14" s="3">
         <v>185900</v>
@@ -939,16 +939,16 @@
         <v>8</v>
       </c>
       <c r="G15" s="3">
-        <v>562100</v>
+        <v>579800</v>
       </c>
       <c r="H15" s="3">
-        <v>484400</v>
+        <v>499600</v>
       </c>
       <c r="I15" s="3">
-        <v>493700</v>
+        <v>509200</v>
       </c>
       <c r="J15" s="3">
-        <v>543200</v>
+        <v>560300</v>
       </c>
       <c r="K15" s="3">
         <v>503900</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15958200</v>
+        <v>16459100</v>
       </c>
       <c r="E17" s="3">
-        <v>15777500</v>
+        <v>16272700</v>
       </c>
       <c r="F17" s="3">
-        <v>18500100</v>
+        <v>19080700</v>
       </c>
       <c r="G17" s="3">
-        <v>16430800</v>
+        <v>16946500</v>
       </c>
       <c r="H17" s="3">
-        <v>14146100</v>
+        <v>14590100</v>
       </c>
       <c r="I17" s="3">
-        <v>13260300</v>
+        <v>13676600</v>
       </c>
       <c r="J17" s="3">
-        <v>12807800</v>
+        <v>13209800</v>
       </c>
       <c r="K17" s="3">
         <v>11805900</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1661700</v>
+        <v>1713900</v>
       </c>
       <c r="E18" s="3">
-        <v>1592900</v>
+        <v>1642900</v>
       </c>
       <c r="F18" s="3">
-        <v>2541600</v>
+        <v>2621400</v>
       </c>
       <c r="G18" s="3">
-        <v>2726600</v>
+        <v>2812200</v>
       </c>
       <c r="H18" s="3">
-        <v>2143800</v>
+        <v>2211100</v>
       </c>
       <c r="I18" s="3">
-        <v>2089200</v>
+        <v>2154800</v>
       </c>
       <c r="J18" s="3">
-        <v>1863400</v>
+        <v>1921900</v>
       </c>
       <c r="K18" s="3">
         <v>1604500</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>114100</v>
+        <v>436500</v>
       </c>
       <c r="E20" s="3">
-        <v>443600</v>
+        <v>457500</v>
       </c>
       <c r="F20" s="3">
-        <v>612300</v>
+        <v>631500</v>
       </c>
       <c r="G20" s="3">
-        <v>116800</v>
+        <v>120400</v>
       </c>
       <c r="H20" s="3">
-        <v>128700</v>
+        <v>132800</v>
       </c>
       <c r="I20" s="3">
-        <v>180400</v>
+        <v>186100</v>
       </c>
       <c r="J20" s="3">
-        <v>201000</v>
+        <v>207400</v>
       </c>
       <c r="K20" s="3">
         <v>139100</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2692400</v>
+        <v>3089500</v>
       </c>
       <c r="E21" s="3">
-        <v>2762800</v>
+        <v>2844500</v>
       </c>
       <c r="F21" s="3">
-        <v>3771100</v>
+        <v>3885200</v>
       </c>
       <c r="G21" s="3">
-        <v>3414700</v>
+        <v>3517900</v>
       </c>
       <c r="H21" s="3">
-        <v>2764700</v>
+        <v>2848100</v>
       </c>
       <c r="I21" s="3">
-        <v>2772300</v>
-      </c>
-      <c r="J21" s="3">
-        <v>2618000</v>
+        <v>2855900</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3">
         <v>2259200</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>468300</v>
+        <v>483000</v>
       </c>
       <c r="E22" s="3">
-        <v>362100</v>
+        <v>373500</v>
       </c>
       <c r="F22" s="3">
-        <v>345600</v>
+        <v>356500</v>
       </c>
       <c r="G22" s="3">
-        <v>326300</v>
+        <v>336600</v>
       </c>
       <c r="H22" s="3">
-        <v>285300</v>
+        <v>294300</v>
       </c>
       <c r="I22" s="3">
-        <v>336600</v>
+        <v>347100</v>
       </c>
       <c r="J22" s="3">
-        <v>339200</v>
+        <v>349900</v>
       </c>
       <c r="K22" s="3">
         <v>332000</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1307600</v>
+        <v>1667500</v>
       </c>
       <c r="E23" s="3">
-        <v>1674400</v>
+        <v>1726900</v>
       </c>
       <c r="F23" s="3">
-        <v>2808300</v>
+        <v>2896500</v>
       </c>
       <c r="G23" s="3">
-        <v>2517000</v>
+        <v>2596000</v>
       </c>
       <c r="H23" s="3">
-        <v>1987200</v>
+        <v>2049600</v>
       </c>
       <c r="I23" s="3">
-        <v>1933100</v>
+        <v>1993700</v>
       </c>
       <c r="J23" s="3">
-        <v>1725200</v>
+        <v>1779400</v>
       </c>
       <c r="K23" s="3">
         <v>1411600</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>366100</v>
+        <v>377600</v>
       </c>
       <c r="E24" s="3">
-        <v>347000</v>
+        <v>357900</v>
       </c>
       <c r="F24" s="3">
-        <v>536600</v>
+        <v>553400</v>
       </c>
       <c r="G24" s="3">
-        <v>517800</v>
+        <v>534000</v>
       </c>
       <c r="H24" s="3">
-        <v>329500</v>
+        <v>339900</v>
       </c>
       <c r="I24" s="3">
-        <v>400000</v>
+        <v>412500</v>
       </c>
       <c r="J24" s="3">
-        <v>377700</v>
+        <v>389600</v>
       </c>
       <c r="K24" s="3">
         <v>254900</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>941400</v>
+        <v>1289800</v>
       </c>
       <c r="E26" s="3">
-        <v>1327400</v>
+        <v>1369100</v>
       </c>
       <c r="F26" s="3">
-        <v>2271800</v>
+        <v>2343100</v>
       </c>
       <c r="G26" s="3">
-        <v>1999200</v>
+        <v>2062000</v>
       </c>
       <c r="H26" s="3">
-        <v>1657700</v>
+        <v>1709800</v>
       </c>
       <c r="I26" s="3">
-        <v>1533100</v>
+        <v>1581200</v>
       </c>
       <c r="J26" s="3">
-        <v>1347500</v>
+        <v>1389800</v>
       </c>
       <c r="K26" s="3">
         <v>1156700</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>836000</v>
+        <v>1181100</v>
       </c>
       <c r="E27" s="3">
-        <v>1240700</v>
+        <v>1279700</v>
       </c>
       <c r="F27" s="3">
-        <v>2144400</v>
+        <v>2211700</v>
       </c>
       <c r="G27" s="3">
-        <v>1864100</v>
+        <v>1922600</v>
       </c>
       <c r="H27" s="3">
-        <v>1544700</v>
+        <v>1593200</v>
       </c>
       <c r="I27" s="3">
-        <v>1434200</v>
+        <v>1479200</v>
       </c>
       <c r="J27" s="3">
-        <v>1246900</v>
+        <v>1286000</v>
       </c>
       <c r="K27" s="3">
         <v>1063600</v>
@@ -1353,13 +1353,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-5100</v>
+        <v>-5200</v>
       </c>
       <c r="E29" s="3">
-        <v>174400</v>
+        <v>179900</v>
       </c>
       <c r="F29" s="3">
-        <v>274300</v>
+        <v>282900</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-114100</v>
+        <v>-436500</v>
       </c>
       <c r="E32" s="3">
-        <v>-443600</v>
+        <v>-457500</v>
       </c>
       <c r="F32" s="3">
-        <v>-612300</v>
+        <v>-631500</v>
       </c>
       <c r="G32" s="3">
-        <v>-116800</v>
+        <v>-120400</v>
       </c>
       <c r="H32" s="3">
-        <v>-128700</v>
+        <v>-132800</v>
       </c>
       <c r="I32" s="3">
-        <v>-180400</v>
+        <v>-186100</v>
       </c>
       <c r="J32" s="3">
-        <v>-201000</v>
+        <v>-207400</v>
       </c>
       <c r="K32" s="3">
         <v>-139100</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>830900</v>
+        <v>1175900</v>
       </c>
       <c r="E33" s="3">
-        <v>1415100</v>
+        <v>1459600</v>
       </c>
       <c r="F33" s="3">
-        <v>2418600</v>
+        <v>2494500</v>
       </c>
       <c r="G33" s="3">
-        <v>1864100</v>
+        <v>1922600</v>
       </c>
       <c r="H33" s="3">
-        <v>1544700</v>
+        <v>1593200</v>
       </c>
       <c r="I33" s="3">
-        <v>1434200</v>
+        <v>1479200</v>
       </c>
       <c r="J33" s="3">
-        <v>1246900</v>
+        <v>1286000</v>
       </c>
       <c r="K33" s="3">
         <v>1063600</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>830900</v>
+        <v>1175900</v>
       </c>
       <c r="E35" s="3">
-        <v>1415100</v>
+        <v>1459600</v>
       </c>
       <c r="F35" s="3">
-        <v>2418600</v>
+        <v>2494500</v>
       </c>
       <c r="G35" s="3">
-        <v>1864100</v>
+        <v>1922600</v>
       </c>
       <c r="H35" s="3">
-        <v>1544700</v>
+        <v>1593200</v>
       </c>
       <c r="I35" s="3">
-        <v>1434200</v>
+        <v>1479200</v>
       </c>
       <c r="J35" s="3">
-        <v>1246900</v>
+        <v>1286000</v>
       </c>
       <c r="K35" s="3">
         <v>1063600</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3952900</v>
+        <v>15524900</v>
       </c>
       <c r="E41" s="3">
-        <v>3519200</v>
+        <v>15195400</v>
       </c>
       <c r="F41" s="3">
-        <v>3183900</v>
+        <v>3283800</v>
       </c>
       <c r="G41" s="3">
-        <v>3003900</v>
+        <v>3098200</v>
       </c>
       <c r="H41" s="3">
-        <v>2966100</v>
+        <v>3059200</v>
       </c>
       <c r="I41" s="3">
-        <v>2618900</v>
+        <v>2701100</v>
       </c>
       <c r="J41" s="3">
-        <v>2794700</v>
+        <v>2882500</v>
       </c>
       <c r="K41" s="3">
         <v>2225400</v>
@@ -1694,16 +1694,16 @@
         <v>8</v>
       </c>
       <c r="G42" s="3">
-        <v>240600</v>
+        <v>248100</v>
       </c>
       <c r="H42" s="3">
-        <v>205800</v>
+        <v>212300</v>
       </c>
       <c r="I42" s="3">
-        <v>726500</v>
+        <v>749300</v>
       </c>
       <c r="J42" s="3">
-        <v>163100</v>
+        <v>168200</v>
       </c>
       <c r="K42" s="3">
         <v>289500</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>15111000</v>
+        <v>31819600</v>
       </c>
       <c r="E43" s="3">
-        <v>16835700</v>
+        <v>35355000</v>
       </c>
       <c r="F43" s="3">
-        <v>26567700</v>
+        <v>27401600</v>
       </c>
       <c r="G43" s="3">
-        <v>16350900</v>
+        <v>16864100</v>
       </c>
       <c r="H43" s="3">
-        <v>13879000</v>
+        <v>14314700</v>
       </c>
       <c r="I43" s="3">
-        <v>12571200</v>
+        <v>12965800</v>
       </c>
       <c r="J43" s="3">
-        <v>11869600</v>
+        <v>12242100</v>
       </c>
       <c r="K43" s="3">
         <v>8919100</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>465300</v>
+        <v>479900</v>
       </c>
       <c r="E44" s="3">
-        <v>488000</v>
+        <v>503300</v>
       </c>
       <c r="F44" s="3">
-        <v>564900</v>
+        <v>582600</v>
       </c>
       <c r="G44" s="3">
-        <v>533100</v>
+        <v>549800</v>
       </c>
       <c r="H44" s="3">
-        <v>438000</v>
+        <v>451800</v>
       </c>
       <c r="I44" s="3">
-        <v>435800</v>
+        <v>449400</v>
       </c>
       <c r="J44" s="3">
-        <v>405400</v>
+        <v>418100</v>
       </c>
       <c r="K44" s="3">
         <v>450200</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1030200</v>
+        <v>1062600</v>
       </c>
       <c r="E45" s="3">
-        <v>384200</v>
+        <v>396300</v>
       </c>
       <c r="F45" s="3">
-        <v>398500</v>
+        <v>411000</v>
       </c>
       <c r="G45" s="3">
-        <v>432300</v>
+        <v>445900</v>
       </c>
       <c r="H45" s="3">
-        <v>319000</v>
+        <v>329000</v>
       </c>
       <c r="I45" s="3">
-        <v>310900</v>
+        <v>320600</v>
       </c>
       <c r="J45" s="3">
-        <v>411400</v>
+        <v>424300</v>
       </c>
       <c r="K45" s="3">
         <v>2885800</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>20559500</v>
+        <v>32652700</v>
       </c>
       <c r="E46" s="3">
-        <v>21227000</v>
+        <v>33459100</v>
       </c>
       <c r="F46" s="3">
-        <v>20179800</v>
+        <v>20813200</v>
       </c>
       <c r="G46" s="3">
-        <v>20560800</v>
+        <v>21206200</v>
       </c>
       <c r="H46" s="3">
-        <v>17808000</v>
+        <v>18367000</v>
       </c>
       <c r="I46" s="3">
-        <v>16663300</v>
+        <v>17186300</v>
       </c>
       <c r="J46" s="3">
-        <v>15644200</v>
+        <v>16135300</v>
       </c>
       <c r="K46" s="3">
         <v>14770000</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1745900</v>
+        <v>1989600</v>
       </c>
       <c r="E47" s="3">
-        <v>1948500</v>
+        <v>2256800</v>
       </c>
       <c r="F47" s="3">
-        <v>2954000</v>
+        <v>3046700</v>
       </c>
       <c r="G47" s="3">
-        <v>3168300</v>
+        <v>3267800</v>
       </c>
       <c r="H47" s="3">
-        <v>2552700</v>
+        <v>2632800</v>
       </c>
       <c r="I47" s="3">
-        <v>1902700</v>
+        <v>1962400</v>
       </c>
       <c r="J47" s="3">
-        <v>1626800</v>
+        <v>1677900</v>
       </c>
       <c r="K47" s="3">
         <v>1470700</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3475600</v>
+        <v>7169400</v>
       </c>
       <c r="E48" s="3">
-        <v>1441900</v>
+        <v>2974300</v>
       </c>
       <c r="F48" s="3">
-        <v>1304100</v>
+        <v>1345000</v>
       </c>
       <c r="G48" s="3">
-        <v>1289700</v>
+        <v>1330200</v>
       </c>
       <c r="H48" s="3">
-        <v>1062100</v>
+        <v>1095400</v>
       </c>
       <c r="I48" s="3">
-        <v>1028500</v>
+        <v>1060800</v>
       </c>
       <c r="J48" s="3">
-        <v>1029600</v>
+        <v>1061900</v>
       </c>
       <c r="K48" s="3">
         <v>993300</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15496800</v>
+        <v>31884000</v>
       </c>
       <c r="E49" s="3">
-        <v>20030600</v>
+        <v>41222300</v>
       </c>
       <c r="F49" s="3">
-        <v>19932800</v>
+        <v>20558400</v>
       </c>
       <c r="G49" s="3">
-        <v>20545600</v>
+        <v>21190500</v>
       </c>
       <c r="H49" s="3">
-        <v>16490700</v>
+        <v>17008300</v>
       </c>
       <c r="I49" s="3">
-        <v>15508500</v>
+        <v>15995300</v>
       </c>
       <c r="J49" s="3">
-        <v>14832600</v>
+        <v>15298200</v>
       </c>
       <c r="K49" s="3">
         <v>14588800</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>433400</v>
+        <v>447000</v>
       </c>
       <c r="E52" s="3">
-        <v>443400</v>
+        <v>457300</v>
       </c>
       <c r="F52" s="3">
-        <v>448000</v>
+        <v>462100</v>
       </c>
       <c r="G52" s="3">
-        <v>459700</v>
+        <v>474200</v>
       </c>
       <c r="H52" s="3">
-        <v>363200</v>
+        <v>374600</v>
       </c>
       <c r="I52" s="3">
-        <v>517000</v>
+        <v>533200</v>
       </c>
       <c r="J52" s="3">
-        <v>370000</v>
+        <v>381600</v>
       </c>
       <c r="K52" s="3">
         <v>339200</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>41711200</v>
+        <v>54385700</v>
       </c>
       <c r="E54" s="3">
-        <v>45091500</v>
+        <v>57976200</v>
       </c>
       <c r="F54" s="3">
-        <v>44818700</v>
+        <v>46225400</v>
       </c>
       <c r="G54" s="3">
-        <v>46024200</v>
+        <v>47468800</v>
       </c>
       <c r="H54" s="3">
-        <v>38276700</v>
+        <v>39478100</v>
       </c>
       <c r="I54" s="3">
-        <v>35620000</v>
+        <v>36738100</v>
       </c>
       <c r="J54" s="3">
-        <v>33292200</v>
+        <v>34337200</v>
       </c>
       <c r="K54" s="3">
         <v>32162000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13652800</v>
+        <v>33564300</v>
       </c>
       <c r="E57" s="3">
-        <v>14209400</v>
+        <v>35283300</v>
       </c>
       <c r="F57" s="3">
-        <v>13412100</v>
+        <v>13833100</v>
       </c>
       <c r="G57" s="3">
-        <v>14093900</v>
+        <v>14536300</v>
       </c>
       <c r="H57" s="3">
-        <v>11535600</v>
+        <v>11897700</v>
       </c>
       <c r="I57" s="3">
-        <v>10535900</v>
+        <v>10866600</v>
       </c>
       <c r="J57" s="3">
-        <v>9585900</v>
+        <v>9886800</v>
       </c>
       <c r="K57" s="3">
         <v>9387000</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1016500</v>
+        <v>13129800</v>
       </c>
       <c r="E58" s="3">
-        <v>1364800</v>
+        <v>14381100</v>
       </c>
       <c r="F58" s="3">
-        <v>830900</v>
+        <v>857000</v>
       </c>
       <c r="G58" s="3">
-        <v>1334700</v>
+        <v>1376600</v>
       </c>
       <c r="H58" s="3">
-        <v>1240900</v>
+        <v>1279800</v>
       </c>
       <c r="I58" s="3">
-        <v>869700</v>
+        <v>897000</v>
       </c>
       <c r="J58" s="3">
-        <v>2506800</v>
+        <v>2585400</v>
       </c>
       <c r="K58" s="3">
         <v>1403900</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6127900</v>
+        <v>6320200</v>
       </c>
       <c r="E59" s="3">
-        <v>6539600</v>
+        <v>6744800</v>
       </c>
       <c r="F59" s="3">
-        <v>6413000</v>
+        <v>6614200</v>
       </c>
       <c r="G59" s="3">
-        <v>6892500</v>
+        <v>7108900</v>
       </c>
       <c r="H59" s="3">
-        <v>6150000</v>
+        <v>6343000</v>
       </c>
       <c r="I59" s="3">
-        <v>5364500</v>
+        <v>5532900</v>
       </c>
       <c r="J59" s="3">
-        <v>4834200</v>
+        <v>4985900</v>
       </c>
       <c r="K59" s="3">
         <v>4847800</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>20797300</v>
+        <v>32899700</v>
       </c>
       <c r="E60" s="3">
-        <v>22113800</v>
+        <v>34351000</v>
       </c>
       <c r="F60" s="3">
-        <v>20656000</v>
+        <v>21304400</v>
       </c>
       <c r="G60" s="3">
-        <v>22321200</v>
+        <v>23021800</v>
       </c>
       <c r="H60" s="3">
-        <v>18926500</v>
+        <v>19520600</v>
       </c>
       <c r="I60" s="3">
-        <v>16770000</v>
+        <v>17296400</v>
       </c>
       <c r="J60" s="3">
-        <v>15673500</v>
+        <v>16165500</v>
       </c>
       <c r="K60" s="3">
         <v>15638600</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7981500</v>
+        <v>8232000</v>
       </c>
       <c r="E61" s="3">
-        <v>7502200</v>
+        <v>7737700</v>
       </c>
       <c r="F61" s="3">
-        <v>8321800</v>
+        <v>8583000</v>
       </c>
       <c r="G61" s="3">
-        <v>7409100</v>
+        <v>7641700</v>
       </c>
       <c r="H61" s="3">
-        <v>6205900</v>
+        <v>6400700</v>
       </c>
       <c r="I61" s="3">
-        <v>5505200</v>
+        <v>5678000</v>
       </c>
       <c r="J61" s="3">
-        <v>4687300</v>
+        <v>4834500</v>
       </c>
       <c r="K61" s="3">
         <v>4758300</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1690700</v>
+        <v>2361200</v>
       </c>
       <c r="E62" s="3">
-        <v>2419000</v>
+        <v>3607200</v>
       </c>
       <c r="F62" s="3">
-        <v>2585300</v>
+        <v>2666500</v>
       </c>
       <c r="G62" s="3">
-        <v>3289400</v>
+        <v>3392600</v>
       </c>
       <c r="H62" s="3">
-        <v>2472000</v>
+        <v>2549600</v>
       </c>
       <c r="I62" s="3">
-        <v>2924200</v>
+        <v>3015900</v>
       </c>
       <c r="J62" s="3">
-        <v>2484500</v>
+        <v>2562500</v>
       </c>
       <c r="K62" s="3">
         <v>2637100</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>30964000</v>
+        <v>43339200</v>
       </c>
       <c r="E66" s="3">
-        <v>32600000</v>
+        <v>45123300</v>
       </c>
       <c r="F66" s="3">
-        <v>32187300</v>
+        <v>33197600</v>
       </c>
       <c r="G66" s="3">
-        <v>33609600</v>
+        <v>34664500</v>
       </c>
       <c r="H66" s="3">
-        <v>28108300</v>
+        <v>28990500</v>
       </c>
       <c r="I66" s="3">
-        <v>25634400</v>
+        <v>26439000</v>
       </c>
       <c r="J66" s="3">
-        <v>23191100</v>
+        <v>23919000</v>
       </c>
       <c r="K66" s="3">
         <v>23356700</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11336100</v>
+        <v>10965600</v>
       </c>
       <c r="E72" s="3">
-        <v>12323700</v>
+        <v>13220200</v>
       </c>
       <c r="F72" s="3">
-        <v>11903200</v>
+        <v>12276900</v>
       </c>
       <c r="G72" s="3">
-        <v>10866200</v>
+        <v>11207300</v>
       </c>
       <c r="H72" s="3">
-        <v>9953500</v>
+        <v>10266000</v>
       </c>
       <c r="I72" s="3">
-        <v>9137700</v>
+        <v>9424500</v>
       </c>
       <c r="J72" s="3">
-        <v>9029000</v>
+        <v>9312400</v>
       </c>
       <c r="K72" s="3">
         <v>7691400</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10747200</v>
+        <v>11046500</v>
       </c>
       <c r="E76" s="3">
-        <v>12491500</v>
+        <v>12852900</v>
       </c>
       <c r="F76" s="3">
-        <v>12631400</v>
+        <v>13027900</v>
       </c>
       <c r="G76" s="3">
-        <v>12414600</v>
+        <v>12804300</v>
       </c>
       <c r="H76" s="3">
-        <v>10168400</v>
+        <v>10487600</v>
       </c>
       <c r="I76" s="3">
-        <v>9985600</v>
+        <v>10299100</v>
       </c>
       <c r="J76" s="3">
-        <v>10101100</v>
+        <v>10418100</v>
       </c>
       <c r="K76" s="3">
         <v>8805300</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>830900</v>
+        <v>1175900</v>
       </c>
       <c r="E81" s="3">
-        <v>1415100</v>
+        <v>1459600</v>
       </c>
       <c r="F81" s="3">
-        <v>2418600</v>
+        <v>2494500</v>
       </c>
       <c r="G81" s="3">
-        <v>1864100</v>
+        <v>1922600</v>
       </c>
       <c r="H81" s="3">
-        <v>1544700</v>
+        <v>1593200</v>
       </c>
       <c r="I81" s="3">
-        <v>1434200</v>
+        <v>1479200</v>
       </c>
       <c r="J81" s="3">
-        <v>1246900</v>
+        <v>1286000</v>
       </c>
       <c r="K81" s="3">
         <v>1063600</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>913700</v>
+        <v>942400</v>
       </c>
       <c r="E83" s="3">
-        <v>724000</v>
+        <v>746700</v>
       </c>
       <c r="F83" s="3">
-        <v>615200</v>
+        <v>634600</v>
       </c>
       <c r="G83" s="3">
-        <v>569600</v>
+        <v>587500</v>
       </c>
       <c r="H83" s="3">
-        <v>490600</v>
+        <v>506000</v>
       </c>
       <c r="I83" s="3">
-        <v>501100</v>
-      </c>
-      <c r="J83" s="3">
-        <v>551900</v>
+        <v>516900</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3">
         <v>512700</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2463800</v>
+        <v>2541100</v>
       </c>
       <c r="E89" s="3">
-        <v>2255100</v>
+        <v>2325900</v>
       </c>
       <c r="F89" s="3">
-        <v>1874700</v>
+        <v>1933600</v>
       </c>
       <c r="G89" s="3">
-        <v>2361600</v>
+        <v>2435800</v>
       </c>
       <c r="H89" s="3">
-        <v>1810600</v>
+        <v>1867400</v>
       </c>
       <c r="I89" s="3">
-        <v>2268300</v>
+        <v>2339500</v>
       </c>
       <c r="J89" s="3">
-        <v>1829600</v>
+        <v>1887000</v>
       </c>
       <c r="K89" s="3">
         <v>1174300</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-451700</v>
+        <v>-465900</v>
       </c>
       <c r="E91" s="3">
-        <v>-419100</v>
+        <v>-432300</v>
       </c>
       <c r="F91" s="3">
-        <v>-384600</v>
+        <v>-396700</v>
       </c>
       <c r="G91" s="3">
-        <v>-335600</v>
+        <v>-346200</v>
       </c>
       <c r="H91" s="3">
-        <v>-280000</v>
+        <v>-288800</v>
       </c>
       <c r="I91" s="3">
-        <v>-236900</v>
+        <v>-244300</v>
       </c>
       <c r="J91" s="3">
-        <v>-320500</v>
+        <v>-330500</v>
       </c>
       <c r="K91" s="3">
         <v>-375300</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>2342700</v>
+        <v>2416300</v>
       </c>
       <c r="E94" s="3">
-        <v>245600</v>
+        <v>253400</v>
       </c>
       <c r="F94" s="3">
-        <v>-665300</v>
+        <v>-686200</v>
       </c>
       <c r="G94" s="3">
-        <v>-1219800</v>
+        <v>-1258100</v>
       </c>
       <c r="H94" s="3">
-        <v>-1201600</v>
+        <v>-1239300</v>
       </c>
       <c r="I94" s="3">
-        <v>-928800</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-637200</v>
+        <v>-957900</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>-999500</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-999200</v>
+        <v>-1030600</v>
       </c>
       <c r="E96" s="3">
-        <v>-995100</v>
+        <v>-1026300</v>
       </c>
       <c r="F96" s="3">
-        <v>-1000500</v>
+        <v>-1032000</v>
       </c>
       <c r="G96" s="3">
-        <v>-820800</v>
+        <v>-846600</v>
       </c>
       <c r="H96" s="3">
-        <v>-726700</v>
+        <v>-749500</v>
       </c>
       <c r="I96" s="3">
-        <v>-612400</v>
+        <v>-631700</v>
       </c>
       <c r="J96" s="3">
-        <v>-529000</v>
+        <v>-545600</v>
       </c>
       <c r="K96" s="3">
         <v>-396400</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3890400</v>
+        <v>-4012500</v>
       </c>
       <c r="E100" s="3">
-        <v>-2148600</v>
+        <v>-2216100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1045900</v>
+        <v>-1078800</v>
       </c>
       <c r="G100" s="3">
-        <v>-1589000</v>
+        <v>-1638900</v>
       </c>
       <c r="H100" s="3">
-        <v>-937300</v>
+        <v>-966700</v>
       </c>
       <c r="I100" s="3">
-        <v>-760800</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-275600</v>
+        <v>-784600</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3">
         <v>-109600</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-119400</v>
+        <v>-123200</v>
       </c>
       <c r="E101" s="3">
-        <v>-81900</v>
+        <v>-84500</v>
       </c>
       <c r="F101" s="3">
-        <v>-36200</v>
+        <v>-37400</v>
       </c>
       <c r="G101" s="3">
-        <v>388600</v>
+        <v>400800</v>
       </c>
       <c r="H101" s="3">
-        <v>-72400</v>
+        <v>-74700</v>
       </c>
       <c r="I101" s="3">
-        <v>-93600</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-219300</v>
+        <v>-96500</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>-154200</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>796700</v>
+        <v>821700</v>
       </c>
       <c r="E102" s="3">
-        <v>270300</v>
+        <v>278800</v>
       </c>
       <c r="F102" s="3">
-        <v>127300</v>
+        <v>131300</v>
       </c>
       <c r="G102" s="3">
-        <v>-58600</v>
+        <v>-60400</v>
       </c>
       <c r="H102" s="3">
-        <v>-400800</v>
+        <v>-413300</v>
       </c>
       <c r="I102" s="3">
-        <v>485200</v>
+        <v>500400</v>
       </c>
       <c r="J102" s="3">
-        <v>697500</v>
+        <v>719400</v>
       </c>
       <c r="K102" s="3">
         <v>-89100</v>

--- a/AAII_Financials/Yearly/WPP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WPP_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>WPP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18172900</v>
+        <v>16985300</v>
       </c>
       <c r="E8" s="3">
-        <v>17915600</v>
+        <v>18727700</v>
       </c>
       <c r="F8" s="3">
-        <v>21702200</v>
+        <v>18462500</v>
       </c>
       <c r="G8" s="3">
-        <v>19758700</v>
+        <v>22364700</v>
       </c>
       <c r="H8" s="3">
-        <v>16801300</v>
+        <v>20361900</v>
       </c>
       <c r="I8" s="3">
-        <v>15831400</v>
+        <v>17314200</v>
       </c>
       <c r="J8" s="3">
+        <v>16314700</v>
+      </c>
+      <c r="K8" s="3">
         <v>15131700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13410400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13071500</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>14864900</v>
+        <v>14134000</v>
       </c>
       <c r="E9" s="3">
-        <v>14499700</v>
+        <v>15318700</v>
       </c>
       <c r="F9" s="3">
-        <v>17342000</v>
+        <v>14942300</v>
       </c>
       <c r="G9" s="3">
-        <v>15583100</v>
+        <v>17871400</v>
       </c>
       <c r="H9" s="3">
-        <v>13332400</v>
+        <v>16058800</v>
       </c>
       <c r="I9" s="3">
-        <v>2010500</v>
+        <v>13739400</v>
       </c>
       <c r="J9" s="3">
+        <v>2071900</v>
+      </c>
+      <c r="K9" s="3">
         <v>1295300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1109600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1021700</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3308000</v>
+        <v>2851300</v>
       </c>
       <c r="E10" s="3">
-        <v>3415900</v>
+        <v>3409000</v>
       </c>
       <c r="F10" s="3">
-        <v>4360200</v>
+        <v>3520200</v>
       </c>
       <c r="G10" s="3">
-        <v>4175600</v>
+        <v>4493300</v>
       </c>
       <c r="H10" s="3">
-        <v>3468800</v>
+        <v>4303100</v>
       </c>
       <c r="I10" s="3">
-        <v>13820900</v>
+        <v>3574700</v>
       </c>
       <c r="J10" s="3">
+        <v>14242800</v>
+      </c>
+      <c r="K10" s="3">
         <v>13836400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>12300800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>12049900</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,42 +906,48 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>65600</v>
+        <v>206700</v>
       </c>
       <c r="E14" s="3">
-        <v>57000</v>
+        <v>67600</v>
       </c>
       <c r="F14" s="3">
+        <v>58700</v>
+      </c>
+      <c r="G14" s="3">
         <v>-1100</v>
       </c>
-      <c r="G14" s="3">
-        <v>-105300</v>
-      </c>
       <c r="H14" s="3">
-        <v>150900</v>
+        <v>-108500</v>
       </c>
       <c r="I14" s="3">
-        <v>257600</v>
+        <v>155500</v>
       </c>
       <c r="J14" s="3">
+        <v>265500</v>
+      </c>
+      <c r="K14" s="3">
         <v>49800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>185900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1600</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -938,27 +960,30 @@
       <c r="F15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="3">
-        <v>579800</v>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H15" s="3">
-        <v>499600</v>
+        <v>597500</v>
       </c>
       <c r="I15" s="3">
-        <v>509200</v>
+        <v>514800</v>
       </c>
       <c r="J15" s="3">
+        <v>524700</v>
+      </c>
+      <c r="K15" s="3">
         <v>560300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>503900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>490900</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16459100</v>
+        <v>20415800</v>
       </c>
       <c r="E17" s="3">
-        <v>16272700</v>
+        <v>16961500</v>
       </c>
       <c r="F17" s="3">
-        <v>19080700</v>
+        <v>16759000</v>
       </c>
       <c r="G17" s="3">
-        <v>16946500</v>
+        <v>19663200</v>
       </c>
       <c r="H17" s="3">
-        <v>14590100</v>
+        <v>17463900</v>
       </c>
       <c r="I17" s="3">
-        <v>13676600</v>
+        <v>15035500</v>
       </c>
       <c r="J17" s="3">
+        <v>14094100</v>
+      </c>
+      <c r="K17" s="3">
         <v>13209800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11805900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11516500</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1713900</v>
+        <v>-3430500</v>
       </c>
       <c r="E18" s="3">
-        <v>1642900</v>
+        <v>1766200</v>
       </c>
       <c r="F18" s="3">
-        <v>2621400</v>
+        <v>1703500</v>
       </c>
       <c r="G18" s="3">
-        <v>2812200</v>
+        <v>2701400</v>
       </c>
       <c r="H18" s="3">
-        <v>2211100</v>
+        <v>2898000</v>
       </c>
       <c r="I18" s="3">
-        <v>2154800</v>
+        <v>2278600</v>
       </c>
       <c r="J18" s="3">
+        <v>2220600</v>
+      </c>
+      <c r="K18" s="3">
         <v>1921900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1604500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1555000</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>436500</v>
+        <v>-85500</v>
       </c>
       <c r="E20" s="3">
-        <v>457500</v>
+        <v>449900</v>
       </c>
       <c r="F20" s="3">
-        <v>631500</v>
+        <v>123800</v>
       </c>
       <c r="G20" s="3">
-        <v>120400</v>
+        <v>650800</v>
       </c>
       <c r="H20" s="3">
-        <v>132800</v>
+        <v>124100</v>
       </c>
       <c r="I20" s="3">
-        <v>186100</v>
+        <v>136800</v>
       </c>
       <c r="J20" s="3">
+        <v>191700</v>
+      </c>
+      <c r="K20" s="3">
         <v>207400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>139100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>88400</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3089500</v>
+        <v>-2622800</v>
       </c>
       <c r="E21" s="3">
-        <v>2844500</v>
+        <v>3187500</v>
       </c>
       <c r="F21" s="3">
-        <v>3885200</v>
+        <v>2597100</v>
       </c>
       <c r="G21" s="3">
-        <v>3517900</v>
+        <v>4006400</v>
       </c>
       <c r="H21" s="3">
-        <v>2848100</v>
+        <v>3627700</v>
       </c>
       <c r="I21" s="3">
-        <v>2855900</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>2937100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2945100</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2259200</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>483000</v>
+        <v>433000</v>
       </c>
       <c r="E22" s="3">
-        <v>373500</v>
+        <v>497700</v>
       </c>
       <c r="F22" s="3">
-        <v>356500</v>
+        <v>384900</v>
       </c>
       <c r="G22" s="3">
-        <v>336600</v>
+        <v>367400</v>
       </c>
       <c r="H22" s="3">
-        <v>294300</v>
+        <v>346800</v>
       </c>
       <c r="I22" s="3">
-        <v>347100</v>
+        <v>303300</v>
       </c>
       <c r="J22" s="3">
+        <v>357700</v>
+      </c>
+      <c r="K22" s="3">
         <v>349900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>332000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>328200</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1667500</v>
+        <v>-3949000</v>
       </c>
       <c r="E23" s="3">
-        <v>1726900</v>
+        <v>1718400</v>
       </c>
       <c r="F23" s="3">
-        <v>2896500</v>
+        <v>1442400</v>
       </c>
       <c r="G23" s="3">
-        <v>2596000</v>
+        <v>2984900</v>
       </c>
       <c r="H23" s="3">
-        <v>2049600</v>
+        <v>2675300</v>
       </c>
       <c r="I23" s="3">
-        <v>1993700</v>
+        <v>2112200</v>
       </c>
       <c r="J23" s="3">
+        <v>2054600</v>
+      </c>
+      <c r="K23" s="3">
         <v>1779400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1411600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1315300</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>377600</v>
+        <v>183000</v>
       </c>
       <c r="E24" s="3">
-        <v>357900</v>
+        <v>389200</v>
       </c>
       <c r="F24" s="3">
-        <v>553400</v>
+        <v>368800</v>
       </c>
       <c r="G24" s="3">
-        <v>534000</v>
+        <v>570300</v>
       </c>
       <c r="H24" s="3">
-        <v>339900</v>
+        <v>550300</v>
       </c>
       <c r="I24" s="3">
-        <v>412500</v>
+        <v>350200</v>
       </c>
       <c r="J24" s="3">
+        <v>425100</v>
+      </c>
+      <c r="K24" s="3">
         <v>389600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>254900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>119900</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1289800</v>
+        <v>-4132000</v>
       </c>
       <c r="E26" s="3">
-        <v>1369100</v>
+        <v>1329200</v>
       </c>
       <c r="F26" s="3">
-        <v>2343100</v>
+        <v>1073600</v>
       </c>
       <c r="G26" s="3">
-        <v>2062000</v>
+        <v>2414600</v>
       </c>
       <c r="H26" s="3">
-        <v>1709800</v>
+        <v>2124900</v>
       </c>
       <c r="I26" s="3">
-        <v>1581200</v>
+        <v>1762000</v>
       </c>
       <c r="J26" s="3">
+        <v>1629500</v>
+      </c>
+      <c r="K26" s="3">
         <v>1389800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1156700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1195400</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1181100</v>
+        <v>-4208300</v>
       </c>
       <c r="E27" s="3">
-        <v>1279700</v>
+        <v>1217100</v>
       </c>
       <c r="F27" s="3">
-        <v>2211700</v>
+        <v>981500</v>
       </c>
       <c r="G27" s="3">
-        <v>1922600</v>
+        <v>2279200</v>
       </c>
       <c r="H27" s="3">
-        <v>1593200</v>
+        <v>1981300</v>
       </c>
       <c r="I27" s="3">
-        <v>1479200</v>
+        <v>1641800</v>
       </c>
       <c r="J27" s="3">
+        <v>1524400</v>
+      </c>
+      <c r="K27" s="3">
         <v>1286000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1063600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1095800</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,23 +1403,26 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-5200</v>
+        <v>9200</v>
       </c>
       <c r="E29" s="3">
-        <v>179900</v>
+        <v>-5400</v>
       </c>
       <c r="F29" s="3">
-        <v>282900</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
+        <v>185400</v>
+      </c>
+      <c r="G29" s="3">
+        <v>291500</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-436500</v>
+        <v>85500</v>
       </c>
       <c r="E32" s="3">
-        <v>-457500</v>
+        <v>-449900</v>
       </c>
       <c r="F32" s="3">
-        <v>-631500</v>
+        <v>-123800</v>
       </c>
       <c r="G32" s="3">
-        <v>-120400</v>
+        <v>-650800</v>
       </c>
       <c r="H32" s="3">
-        <v>-132800</v>
+        <v>-124100</v>
       </c>
       <c r="I32" s="3">
-        <v>-186100</v>
+        <v>-136800</v>
       </c>
       <c r="J32" s="3">
+        <v>-191700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-207400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-139100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-88400</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1175900</v>
+        <v>-4199100</v>
       </c>
       <c r="E33" s="3">
-        <v>1459600</v>
+        <v>1211800</v>
       </c>
       <c r="F33" s="3">
-        <v>2494500</v>
+        <v>1166900</v>
       </c>
       <c r="G33" s="3">
-        <v>1922600</v>
+        <v>2570700</v>
       </c>
       <c r="H33" s="3">
-        <v>1593200</v>
+        <v>1981300</v>
       </c>
       <c r="I33" s="3">
-        <v>1479200</v>
+        <v>1641800</v>
       </c>
       <c r="J33" s="3">
+        <v>1524400</v>
+      </c>
+      <c r="K33" s="3">
         <v>1286000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1063600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1095800</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1175900</v>
+        <v>-4199100</v>
       </c>
       <c r="E35" s="3">
-        <v>1459600</v>
+        <v>1211800</v>
       </c>
       <c r="F35" s="3">
-        <v>2494500</v>
+        <v>1166900</v>
       </c>
       <c r="G35" s="3">
-        <v>1922600</v>
+        <v>2570700</v>
       </c>
       <c r="H35" s="3">
-        <v>1593200</v>
+        <v>1981300</v>
       </c>
       <c r="I35" s="3">
-        <v>1479200</v>
+        <v>1641800</v>
       </c>
       <c r="J35" s="3">
+        <v>1524400</v>
+      </c>
+      <c r="K35" s="3">
         <v>1286000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1063600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1095800</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,41 +1731,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>15524900</v>
+        <v>18253600</v>
       </c>
       <c r="E41" s="3">
-        <v>15195400</v>
+        <v>15998800</v>
       </c>
       <c r="F41" s="3">
-        <v>3283800</v>
+        <v>15659300</v>
       </c>
       <c r="G41" s="3">
-        <v>3098200</v>
+        <v>3384100</v>
       </c>
       <c r="H41" s="3">
-        <v>3059200</v>
+        <v>3192800</v>
       </c>
       <c r="I41" s="3">
-        <v>2701100</v>
+        <v>3152600</v>
       </c>
       <c r="J41" s="3">
+        <v>2783500</v>
+      </c>
+      <c r="K41" s="3">
         <v>2882500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2225400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2391500</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1693,258 +1782,282 @@
       <c r="F42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="3">
-        <v>248100</v>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H42" s="3">
-        <v>212300</v>
+        <v>255700</v>
       </c>
       <c r="I42" s="3">
-        <v>749300</v>
+        <v>218800</v>
       </c>
       <c r="J42" s="3">
+        <v>772200</v>
+      </c>
+      <c r="K42" s="3">
         <v>168200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>289500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>147500</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>31819600</v>
+        <v>14990300</v>
       </c>
       <c r="E43" s="3">
-        <v>35355000</v>
+        <v>16061100</v>
       </c>
       <c r="F43" s="3">
-        <v>27401600</v>
+        <v>36434300</v>
       </c>
       <c r="G43" s="3">
-        <v>16864100</v>
+        <v>28238100</v>
       </c>
       <c r="H43" s="3">
-        <v>14314700</v>
+        <v>17379000</v>
       </c>
       <c r="I43" s="3">
-        <v>12965800</v>
+        <v>14751700</v>
       </c>
       <c r="J43" s="3">
+        <v>13361600</v>
+      </c>
+      <c r="K43" s="3">
         <v>12242100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8919100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9083500</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>479900</v>
+        <v>373700</v>
       </c>
       <c r="E44" s="3">
-        <v>503300</v>
+        <v>494600</v>
       </c>
       <c r="F44" s="3">
-        <v>582600</v>
+        <v>518600</v>
       </c>
       <c r="G44" s="3">
-        <v>549800</v>
+        <v>600400</v>
       </c>
       <c r="H44" s="3">
-        <v>451800</v>
+        <v>566600</v>
       </c>
       <c r="I44" s="3">
-        <v>449400</v>
+        <v>465600</v>
       </c>
       <c r="J44" s="3">
+        <v>463200</v>
+      </c>
+      <c r="K44" s="3">
         <v>418100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>450200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>435500</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1062600</v>
+        <v>351400</v>
       </c>
       <c r="E45" s="3">
-        <v>396300</v>
+        <v>1095000</v>
       </c>
       <c r="F45" s="3">
-        <v>411000</v>
+        <v>408400</v>
       </c>
       <c r="G45" s="3">
-        <v>445900</v>
+        <v>423500</v>
       </c>
       <c r="H45" s="3">
-        <v>329000</v>
+        <v>459500</v>
       </c>
       <c r="I45" s="3">
-        <v>320600</v>
+        <v>339100</v>
       </c>
       <c r="J45" s="3">
+        <v>330400</v>
+      </c>
+      <c r="K45" s="3">
         <v>424300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2885800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2666000</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>32652700</v>
+        <v>33969000</v>
       </c>
       <c r="E46" s="3">
-        <v>33459100</v>
+        <v>33649500</v>
       </c>
       <c r="F46" s="3">
-        <v>20813200</v>
+        <v>34480600</v>
       </c>
       <c r="G46" s="3">
-        <v>21206200</v>
+        <v>21448500</v>
       </c>
       <c r="H46" s="3">
-        <v>18367000</v>
+        <v>21853500</v>
       </c>
       <c r="I46" s="3">
-        <v>17186300</v>
+        <v>18927700</v>
       </c>
       <c r="J46" s="3">
+        <v>17711000</v>
+      </c>
+      <c r="K46" s="3">
         <v>16135300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>14770000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>14724000</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1989600</v>
+        <v>1051100</v>
       </c>
       <c r="E47" s="3">
-        <v>2256800</v>
+        <v>1855600</v>
       </c>
       <c r="F47" s="3">
-        <v>3046700</v>
+        <v>2325700</v>
       </c>
       <c r="G47" s="3">
-        <v>3267800</v>
+        <v>3139700</v>
       </c>
       <c r="H47" s="3">
-        <v>2632800</v>
+        <v>3367500</v>
       </c>
       <c r="I47" s="3">
-        <v>1962400</v>
+        <v>2713200</v>
       </c>
       <c r="J47" s="3">
+        <v>2022300</v>
+      </c>
+      <c r="K47" s="3">
         <v>1677900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1470700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1408300</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7169400</v>
+        <v>3248200</v>
       </c>
       <c r="E48" s="3">
-        <v>2974300</v>
+        <v>3694100</v>
       </c>
       <c r="F48" s="3">
-        <v>1345000</v>
+        <v>3065100</v>
       </c>
       <c r="G48" s="3">
-        <v>1330200</v>
+        <v>1386100</v>
       </c>
       <c r="H48" s="3">
-        <v>1095400</v>
+        <v>1370800</v>
       </c>
       <c r="I48" s="3">
-        <v>1060800</v>
+        <v>1128800</v>
       </c>
       <c r="J48" s="3">
+        <v>1093200</v>
+      </c>
+      <c r="K48" s="3">
         <v>1061900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>993300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>949900</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>31884000</v>
+        <v>12422000</v>
       </c>
       <c r="E49" s="3">
-        <v>41222300</v>
+        <v>16386100</v>
       </c>
       <c r="F49" s="3">
-        <v>20558400</v>
+        <v>42480800</v>
       </c>
       <c r="G49" s="3">
-        <v>21190500</v>
+        <v>21186000</v>
       </c>
       <c r="H49" s="3">
-        <v>17008300</v>
+        <v>21837400</v>
       </c>
       <c r="I49" s="3">
-        <v>15995300</v>
+        <v>17527600</v>
       </c>
       <c r="J49" s="3">
+        <v>16483600</v>
+      </c>
+      <c r="K49" s="3">
         <v>15298200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>14588800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>14726600</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>447000</v>
+        <v>522300</v>
       </c>
       <c r="E52" s="3">
-        <v>457300</v>
+        <v>460600</v>
       </c>
       <c r="F52" s="3">
-        <v>462100</v>
+        <v>471200</v>
       </c>
       <c r="G52" s="3">
-        <v>474200</v>
+        <v>476200</v>
       </c>
       <c r="H52" s="3">
-        <v>374600</v>
+        <v>488600</v>
       </c>
       <c r="I52" s="3">
-        <v>533200</v>
+        <v>386000</v>
       </c>
       <c r="J52" s="3">
+        <v>549500</v>
+      </c>
+      <c r="K52" s="3">
         <v>381600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>339200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>401100</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>54385700</v>
+        <v>51212700</v>
       </c>
       <c r="E54" s="3">
-        <v>57976200</v>
+        <v>56046000</v>
       </c>
       <c r="F54" s="3">
-        <v>46225400</v>
+        <v>59746100</v>
       </c>
       <c r="G54" s="3">
-        <v>47468800</v>
+        <v>47636600</v>
       </c>
       <c r="H54" s="3">
-        <v>39478100</v>
+        <v>48917900</v>
       </c>
       <c r="I54" s="3">
-        <v>36738100</v>
+        <v>40683300</v>
       </c>
       <c r="J54" s="3">
+        <v>37859600</v>
+      </c>
+      <c r="K54" s="3">
         <v>34337200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>32162000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>32209800</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>33564300</v>
+        <v>14525100</v>
       </c>
       <c r="E57" s="3">
-        <v>35283300</v>
+        <v>14512700</v>
       </c>
       <c r="F57" s="3">
-        <v>13833100</v>
+        <v>36360400</v>
       </c>
       <c r="G57" s="3">
-        <v>14536300</v>
+        <v>14255400</v>
       </c>
       <c r="H57" s="3">
-        <v>11897700</v>
+        <v>14980100</v>
       </c>
       <c r="I57" s="3">
-        <v>10866600</v>
+        <v>12260900</v>
       </c>
       <c r="J57" s="3">
+        <v>11198300</v>
+      </c>
+      <c r="K57" s="3">
         <v>9886800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9387000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9638200</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>13129800</v>
+        <v>12655300</v>
       </c>
       <c r="E58" s="3">
-        <v>14381100</v>
+        <v>13211300</v>
       </c>
       <c r="F58" s="3">
-        <v>857000</v>
+        <v>14820200</v>
       </c>
       <c r="G58" s="3">
-        <v>1376600</v>
+        <v>883200</v>
       </c>
       <c r="H58" s="3">
-        <v>1279800</v>
+        <v>1418600</v>
       </c>
       <c r="I58" s="3">
-        <v>897000</v>
+        <v>1318900</v>
       </c>
       <c r="J58" s="3">
+        <v>924300</v>
+      </c>
+      <c r="K58" s="3">
         <v>2585400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1403900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>676200</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6320200</v>
+        <v>5556100</v>
       </c>
       <c r="E59" s="3">
-        <v>6744800</v>
+        <v>6513600</v>
       </c>
       <c r="F59" s="3">
-        <v>6614200</v>
+        <v>6950700</v>
       </c>
       <c r="G59" s="3">
-        <v>7108900</v>
+        <v>6816200</v>
       </c>
       <c r="H59" s="3">
-        <v>6343000</v>
+        <v>7325900</v>
       </c>
       <c r="I59" s="3">
-        <v>5532900</v>
+        <v>6536700</v>
       </c>
       <c r="J59" s="3">
+        <v>5701800</v>
+      </c>
+      <c r="K59" s="3">
         <v>4985900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4847800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5073000</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>32899700</v>
+        <v>32736600</v>
       </c>
       <c r="E60" s="3">
-        <v>34351000</v>
+        <v>33904100</v>
       </c>
       <c r="F60" s="3">
-        <v>21304400</v>
+        <v>35399700</v>
       </c>
       <c r="G60" s="3">
-        <v>23021800</v>
+        <v>21954700</v>
       </c>
       <c r="H60" s="3">
-        <v>19520600</v>
+        <v>23724600</v>
       </c>
       <c r="I60" s="3">
-        <v>17296400</v>
+        <v>20116500</v>
       </c>
       <c r="J60" s="3">
+        <v>17824400</v>
+      </c>
+      <c r="K60" s="3">
         <v>16165500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>15638600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>15387300</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8232000</v>
+        <v>9634100</v>
       </c>
       <c r="E61" s="3">
-        <v>7737700</v>
+        <v>8483300</v>
       </c>
       <c r="F61" s="3">
-        <v>8583000</v>
+        <v>7973900</v>
       </c>
       <c r="G61" s="3">
-        <v>7641700</v>
+        <v>8845000</v>
       </c>
       <c r="H61" s="3">
-        <v>6400700</v>
+        <v>7874900</v>
       </c>
       <c r="I61" s="3">
-        <v>5678000</v>
+        <v>6596100</v>
       </c>
       <c r="J61" s="3">
+        <v>5851300</v>
+      </c>
+      <c r="K61" s="3">
         <v>4834500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4758300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5077700</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2361200</v>
+        <v>1531000</v>
       </c>
       <c r="E62" s="3">
-        <v>3607200</v>
+        <v>1749400</v>
       </c>
       <c r="F62" s="3">
-        <v>2666500</v>
+        <v>3717400</v>
       </c>
       <c r="G62" s="3">
-        <v>3392600</v>
+        <v>2747900</v>
       </c>
       <c r="H62" s="3">
-        <v>2549600</v>
+        <v>3496200</v>
       </c>
       <c r="I62" s="3">
-        <v>3015900</v>
+        <v>2627400</v>
       </c>
       <c r="J62" s="3">
+        <v>3108000</v>
+      </c>
+      <c r="K62" s="3">
         <v>2562500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2637100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2752500</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>43339200</v>
+        <v>44351800</v>
       </c>
       <c r="E66" s="3">
-        <v>45123300</v>
+        <v>44662300</v>
       </c>
       <c r="F66" s="3">
-        <v>33197600</v>
+        <v>46500800</v>
       </c>
       <c r="G66" s="3">
-        <v>34664500</v>
+        <v>34211000</v>
       </c>
       <c r="H66" s="3">
-        <v>28990500</v>
+        <v>35722800</v>
       </c>
       <c r="I66" s="3">
-        <v>26439000</v>
+        <v>29875500</v>
       </c>
       <c r="J66" s="3">
+        <v>27246100</v>
+      </c>
+      <c r="K66" s="3">
         <v>23919000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23356700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>23518800</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10965600</v>
+        <v>7011600</v>
       </c>
       <c r="E72" s="3">
-        <v>13220200</v>
+        <v>11625100</v>
       </c>
       <c r="F72" s="3">
-        <v>12276900</v>
+        <v>13623800</v>
       </c>
       <c r="G72" s="3">
-        <v>11207300</v>
+        <v>12651600</v>
       </c>
       <c r="H72" s="3">
-        <v>10266000</v>
+        <v>11549400</v>
       </c>
       <c r="I72" s="3">
-        <v>9424500</v>
+        <v>10579400</v>
       </c>
       <c r="J72" s="3">
+        <v>9712200</v>
+      </c>
+      <c r="K72" s="3">
         <v>9312400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7691400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7278600</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11046500</v>
+        <v>6860900</v>
       </c>
       <c r="E76" s="3">
-        <v>12852900</v>
+        <v>11383700</v>
       </c>
       <c r="F76" s="3">
-        <v>13027900</v>
+        <v>13245300</v>
       </c>
       <c r="G76" s="3">
-        <v>12804300</v>
+        <v>13425600</v>
       </c>
       <c r="H76" s="3">
-        <v>10487600</v>
+        <v>13195200</v>
       </c>
       <c r="I76" s="3">
-        <v>10299100</v>
+        <v>10807800</v>
       </c>
       <c r="J76" s="3">
+        <v>10613500</v>
+      </c>
+      <c r="K76" s="3">
         <v>10418100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8805300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8691000</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1175900</v>
+        <v>-4199100</v>
       </c>
       <c r="E81" s="3">
-        <v>1459600</v>
+        <v>1211800</v>
       </c>
       <c r="F81" s="3">
-        <v>2494500</v>
+        <v>1166900</v>
       </c>
       <c r="G81" s="3">
-        <v>1922600</v>
+        <v>2570700</v>
       </c>
       <c r="H81" s="3">
-        <v>1593200</v>
+        <v>1981300</v>
       </c>
       <c r="I81" s="3">
-        <v>1479200</v>
+        <v>1641800</v>
       </c>
       <c r="J81" s="3">
+        <v>1524400</v>
+      </c>
+      <c r="K81" s="3">
         <v>1286000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1063600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1095800</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>942400</v>
+        <v>892900</v>
       </c>
       <c r="E83" s="3">
-        <v>746700</v>
+        <v>971200</v>
       </c>
       <c r="F83" s="3">
-        <v>634600</v>
+        <v>769500</v>
       </c>
       <c r="G83" s="3">
-        <v>587500</v>
+        <v>653900</v>
       </c>
       <c r="H83" s="3">
-        <v>506000</v>
+        <v>605400</v>
       </c>
       <c r="I83" s="3">
-        <v>516900</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>521500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>532600</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>512700</v>
       </c>
-      <c r="L83" s="3" t="s">
+      <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2541100</v>
+        <v>2907800</v>
       </c>
       <c r="E89" s="3">
-        <v>2325900</v>
+        <v>2618700</v>
       </c>
       <c r="F89" s="3">
-        <v>1933600</v>
+        <v>2396900</v>
       </c>
       <c r="G89" s="3">
-        <v>2435800</v>
+        <v>1992600</v>
       </c>
       <c r="H89" s="3">
-        <v>1867400</v>
+        <v>2510100</v>
       </c>
       <c r="I89" s="3">
-        <v>2339500</v>
+        <v>1924400</v>
       </c>
       <c r="J89" s="3">
+        <v>2410900</v>
+      </c>
+      <c r="K89" s="3">
         <v>1887000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1174300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>867600</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-465900</v>
+        <v>-308900</v>
       </c>
       <c r="E91" s="3">
-        <v>-432300</v>
+        <v>-480100</v>
       </c>
       <c r="F91" s="3">
-        <v>-396700</v>
+        <v>-445500</v>
       </c>
       <c r="G91" s="3">
-        <v>-346200</v>
+        <v>-408800</v>
       </c>
       <c r="H91" s="3">
-        <v>-288800</v>
+        <v>-356700</v>
       </c>
       <c r="I91" s="3">
-        <v>-244300</v>
+        <v>-297600</v>
       </c>
       <c r="J91" s="3">
+        <v>-251700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-330500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-375300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-281900</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>2416300</v>
+        <v>-237200</v>
       </c>
       <c r="E94" s="3">
-        <v>253400</v>
+        <v>2490000</v>
       </c>
       <c r="F94" s="3">
-        <v>-686200</v>
+        <v>261100</v>
       </c>
       <c r="G94" s="3">
-        <v>-1258100</v>
+        <v>-707100</v>
       </c>
       <c r="H94" s="3">
-        <v>-1239300</v>
+        <v>-1296500</v>
       </c>
       <c r="I94" s="3">
-        <v>-957900</v>
-      </c>
-      <c r="J94" s="3" t="s">
+        <v>-1277100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-987200</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-999500</v>
       </c>
-      <c r="L94" s="3" t="s">
+      <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1030600</v>
+        <v>-172600</v>
       </c>
       <c r="E96" s="3">
-        <v>-1026300</v>
+        <v>-1062000</v>
       </c>
       <c r="F96" s="3">
-        <v>-1032000</v>
+        <v>-1057700</v>
       </c>
       <c r="G96" s="3">
-        <v>-846600</v>
+        <v>-1063500</v>
       </c>
       <c r="H96" s="3">
-        <v>-749500</v>
+        <v>-872400</v>
       </c>
       <c r="I96" s="3">
-        <v>-631700</v>
+        <v>-772400</v>
       </c>
       <c r="J96" s="3">
+        <v>-651000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-545600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-396400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-284900</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4012500</v>
+        <v>-354500</v>
       </c>
       <c r="E100" s="3">
-        <v>-2216100</v>
+        <v>-4135000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1078800</v>
+        <v>-2283700</v>
       </c>
       <c r="G100" s="3">
-        <v>-1638900</v>
+        <v>-1111700</v>
       </c>
       <c r="H100" s="3">
-        <v>-966700</v>
+        <v>-1688900</v>
       </c>
       <c r="I100" s="3">
-        <v>-784600</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>-996200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-808600</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-109600</v>
       </c>
-      <c r="L100" s="3" t="s">
+      <c r="M100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-123200</v>
+        <v>-140400</v>
       </c>
       <c r="E101" s="3">
-        <v>-84500</v>
+        <v>-126900</v>
       </c>
       <c r="F101" s="3">
-        <v>-37400</v>
+        <v>-87000</v>
       </c>
       <c r="G101" s="3">
-        <v>400800</v>
+        <v>-38500</v>
       </c>
       <c r="H101" s="3">
-        <v>-74700</v>
+        <v>413100</v>
       </c>
       <c r="I101" s="3">
-        <v>-96500</v>
-      </c>
-      <c r="J101" s="3" t="s">
+        <v>-77000</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-99500</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-154200</v>
       </c>
-      <c r="L101" s="3" t="s">
+      <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>821700</v>
+        <v>2175700</v>
       </c>
       <c r="E102" s="3">
-        <v>278800</v>
+        <v>846800</v>
       </c>
       <c r="F102" s="3">
-        <v>131300</v>
+        <v>287300</v>
       </c>
       <c r="G102" s="3">
-        <v>-60400</v>
+        <v>135300</v>
       </c>
       <c r="H102" s="3">
-        <v>-413300</v>
+        <v>-62300</v>
       </c>
       <c r="I102" s="3">
-        <v>500400</v>
+        <v>-425900</v>
       </c>
       <c r="J102" s="3">
+        <v>515700</v>
+      </c>
+      <c r="K102" s="3">
         <v>719400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-89100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-367300</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/WPP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WPP_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16985300</v>
+        <v>16369300</v>
       </c>
       <c r="E8" s="3">
-        <v>18727700</v>
+        <v>18048500</v>
       </c>
       <c r="F8" s="3">
-        <v>18462500</v>
+        <v>17793000</v>
       </c>
       <c r="G8" s="3">
-        <v>22364700</v>
+        <v>21553600</v>
       </c>
       <c r="H8" s="3">
-        <v>20361900</v>
+        <v>19623400</v>
       </c>
       <c r="I8" s="3">
-        <v>17314200</v>
+        <v>16686200</v>
       </c>
       <c r="J8" s="3">
-        <v>16314700</v>
+        <v>15723000</v>
       </c>
       <c r="K8" s="3">
         <v>15131700</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>14134000</v>
+        <v>13621400</v>
       </c>
       <c r="E9" s="3">
-        <v>15318700</v>
+        <v>14763200</v>
       </c>
       <c r="F9" s="3">
-        <v>14942300</v>
+        <v>14400400</v>
       </c>
       <c r="G9" s="3">
-        <v>17871400</v>
+        <v>17223300</v>
       </c>
       <c r="H9" s="3">
-        <v>16058800</v>
+        <v>15476400</v>
       </c>
       <c r="I9" s="3">
-        <v>13739400</v>
+        <v>13241200</v>
       </c>
       <c r="J9" s="3">
-        <v>2071900</v>
+        <v>1996700</v>
       </c>
       <c r="K9" s="3">
         <v>1295300</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2851300</v>
+        <v>2747900</v>
       </c>
       <c r="E10" s="3">
-        <v>3409000</v>
+        <v>3285400</v>
       </c>
       <c r="F10" s="3">
-        <v>3520200</v>
+        <v>3392600</v>
       </c>
       <c r="G10" s="3">
-        <v>4493300</v>
+        <v>4330300</v>
       </c>
       <c r="H10" s="3">
-        <v>4303100</v>
+        <v>4147000</v>
       </c>
       <c r="I10" s="3">
-        <v>3574700</v>
+        <v>3445100</v>
       </c>
       <c r="J10" s="3">
-        <v>14242800</v>
+        <v>13726300</v>
       </c>
       <c r="K10" s="3">
         <v>13836400</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>206700</v>
+        <v>199200</v>
       </c>
       <c r="E14" s="3">
-        <v>67600</v>
+        <v>65200</v>
       </c>
       <c r="F14" s="3">
-        <v>58700</v>
+        <v>56600</v>
       </c>
       <c r="G14" s="3">
         <v>-1100</v>
       </c>
       <c r="H14" s="3">
-        <v>-108500</v>
+        <v>-104600</v>
       </c>
       <c r="I14" s="3">
-        <v>155500</v>
+        <v>149900</v>
       </c>
       <c r="J14" s="3">
-        <v>265500</v>
+        <v>255800</v>
       </c>
       <c r="K14" s="3">
         <v>49800</v>
@@ -964,13 +964,13 @@
         <v>8</v>
       </c>
       <c r="H15" s="3">
-        <v>597500</v>
+        <v>575800</v>
       </c>
       <c r="I15" s="3">
-        <v>514800</v>
+        <v>496100</v>
       </c>
       <c r="J15" s="3">
-        <v>524700</v>
+        <v>505700</v>
       </c>
       <c r="K15" s="3">
         <v>560300</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>20415800</v>
+        <v>19675400</v>
       </c>
       <c r="E17" s="3">
-        <v>16961500</v>
+        <v>16346400</v>
       </c>
       <c r="F17" s="3">
-        <v>16759000</v>
+        <v>16151200</v>
       </c>
       <c r="G17" s="3">
-        <v>19663200</v>
+        <v>18950100</v>
       </c>
       <c r="H17" s="3">
-        <v>17463900</v>
+        <v>16830500</v>
       </c>
       <c r="I17" s="3">
-        <v>15035500</v>
+        <v>14490300</v>
       </c>
       <c r="J17" s="3">
-        <v>14094100</v>
+        <v>13582900</v>
       </c>
       <c r="K17" s="3">
         <v>13209800</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-3430500</v>
+        <v>-3306100</v>
       </c>
       <c r="E18" s="3">
-        <v>1766200</v>
+        <v>1702100</v>
       </c>
       <c r="F18" s="3">
-        <v>1703500</v>
+        <v>1641700</v>
       </c>
       <c r="G18" s="3">
-        <v>2701400</v>
+        <v>2603500</v>
       </c>
       <c r="H18" s="3">
-        <v>2898000</v>
+        <v>2792900</v>
       </c>
       <c r="I18" s="3">
-        <v>2278600</v>
+        <v>2196000</v>
       </c>
       <c r="J18" s="3">
-        <v>2220600</v>
+        <v>2140100</v>
       </c>
       <c r="K18" s="3">
         <v>1921900</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-85500</v>
+        <v>-82400</v>
       </c>
       <c r="E20" s="3">
-        <v>449900</v>
+        <v>433500</v>
       </c>
       <c r="F20" s="3">
-        <v>123800</v>
+        <v>119300</v>
       </c>
       <c r="G20" s="3">
-        <v>650800</v>
+        <v>627200</v>
       </c>
       <c r="H20" s="3">
-        <v>124100</v>
+        <v>119600</v>
       </c>
       <c r="I20" s="3">
-        <v>136800</v>
+        <v>131900</v>
       </c>
       <c r="J20" s="3">
-        <v>191700</v>
+        <v>184800</v>
       </c>
       <c r="K20" s="3">
         <v>207400</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-2622800</v>
+        <v>-2520500</v>
       </c>
       <c r="E21" s="3">
-        <v>3187500</v>
+        <v>3079700</v>
       </c>
       <c r="F21" s="3">
-        <v>2597100</v>
+        <v>2509100</v>
       </c>
       <c r="G21" s="3">
-        <v>4006400</v>
+        <v>3866300</v>
       </c>
       <c r="H21" s="3">
-        <v>3627700</v>
+        <v>3500900</v>
       </c>
       <c r="I21" s="3">
-        <v>2937100</v>
+        <v>2834700</v>
       </c>
       <c r="J21" s="3">
-        <v>2945100</v>
+        <v>2842600</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>433000</v>
+        <v>417300</v>
       </c>
       <c r="E22" s="3">
-        <v>497700</v>
+        <v>479600</v>
       </c>
       <c r="F22" s="3">
-        <v>384900</v>
+        <v>371000</v>
       </c>
       <c r="G22" s="3">
-        <v>367400</v>
+        <v>354000</v>
       </c>
       <c r="H22" s="3">
-        <v>346800</v>
+        <v>334300</v>
       </c>
       <c r="I22" s="3">
-        <v>303300</v>
+        <v>292300</v>
       </c>
       <c r="J22" s="3">
-        <v>357700</v>
+        <v>344800</v>
       </c>
       <c r="K22" s="3">
         <v>349900</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-3949000</v>
+        <v>-3805800</v>
       </c>
       <c r="E23" s="3">
-        <v>1718400</v>
+        <v>1656100</v>
       </c>
       <c r="F23" s="3">
-        <v>1442400</v>
+        <v>1390100</v>
       </c>
       <c r="G23" s="3">
-        <v>2984900</v>
+        <v>2876600</v>
       </c>
       <c r="H23" s="3">
-        <v>2675300</v>
+        <v>2578200</v>
       </c>
       <c r="I23" s="3">
-        <v>2112200</v>
+        <v>2035600</v>
       </c>
       <c r="J23" s="3">
-        <v>2054600</v>
+        <v>1980100</v>
       </c>
       <c r="K23" s="3">
         <v>1779400</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>183000</v>
+        <v>176300</v>
       </c>
       <c r="E24" s="3">
-        <v>389200</v>
+        <v>375000</v>
       </c>
       <c r="F24" s="3">
-        <v>368800</v>
+        <v>355400</v>
       </c>
       <c r="G24" s="3">
-        <v>570300</v>
+        <v>549600</v>
       </c>
       <c r="H24" s="3">
-        <v>550300</v>
+        <v>530400</v>
       </c>
       <c r="I24" s="3">
-        <v>350200</v>
+        <v>337500</v>
       </c>
       <c r="J24" s="3">
-        <v>425100</v>
+        <v>409700</v>
       </c>
       <c r="K24" s="3">
         <v>389600</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-4132000</v>
+        <v>-3982100</v>
       </c>
       <c r="E26" s="3">
-        <v>1329200</v>
+        <v>1281000</v>
       </c>
       <c r="F26" s="3">
-        <v>1073600</v>
+        <v>1034700</v>
       </c>
       <c r="G26" s="3">
-        <v>2414600</v>
+        <v>2327000</v>
       </c>
       <c r="H26" s="3">
-        <v>2124900</v>
+        <v>2047900</v>
       </c>
       <c r="I26" s="3">
-        <v>1762000</v>
+        <v>1698100</v>
       </c>
       <c r="J26" s="3">
-        <v>1629500</v>
+        <v>1570400</v>
       </c>
       <c r="K26" s="3">
         <v>1389800</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-4208300</v>
+        <v>-4055600</v>
       </c>
       <c r="E27" s="3">
-        <v>1217100</v>
+        <v>1173000</v>
       </c>
       <c r="F27" s="3">
-        <v>981500</v>
+        <v>945900</v>
       </c>
       <c r="G27" s="3">
-        <v>2279200</v>
+        <v>2196500</v>
       </c>
       <c r="H27" s="3">
-        <v>1981300</v>
+        <v>1909400</v>
       </c>
       <c r="I27" s="3">
-        <v>1641800</v>
+        <v>1582300</v>
       </c>
       <c r="J27" s="3">
-        <v>1524400</v>
+        <v>1469100</v>
       </c>
       <c r="K27" s="3">
         <v>1286000</v>
@@ -1413,16 +1413,16 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>9200</v>
+        <v>8900</v>
       </c>
       <c r="E29" s="3">
-        <v>-5400</v>
+        <v>-5200</v>
       </c>
       <c r="F29" s="3">
-        <v>185400</v>
+        <v>178700</v>
       </c>
       <c r="G29" s="3">
-        <v>291500</v>
+        <v>280900</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>85500</v>
+        <v>82400</v>
       </c>
       <c r="E32" s="3">
-        <v>-449900</v>
+        <v>-433500</v>
       </c>
       <c r="F32" s="3">
-        <v>-123800</v>
+        <v>-119300</v>
       </c>
       <c r="G32" s="3">
-        <v>-650800</v>
+        <v>-627200</v>
       </c>
       <c r="H32" s="3">
-        <v>-124100</v>
+        <v>-119600</v>
       </c>
       <c r="I32" s="3">
-        <v>-136800</v>
+        <v>-131900</v>
       </c>
       <c r="J32" s="3">
-        <v>-191700</v>
+        <v>-184800</v>
       </c>
       <c r="K32" s="3">
         <v>-207400</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-4199100</v>
+        <v>-4046800</v>
       </c>
       <c r="E33" s="3">
-        <v>1211800</v>
+        <v>1167800</v>
       </c>
       <c r="F33" s="3">
-        <v>1166900</v>
+        <v>1124600</v>
       </c>
       <c r="G33" s="3">
-        <v>2570700</v>
+        <v>2477500</v>
       </c>
       <c r="H33" s="3">
-        <v>1981300</v>
+        <v>1909400</v>
       </c>
       <c r="I33" s="3">
-        <v>1641800</v>
+        <v>1582300</v>
       </c>
       <c r="J33" s="3">
-        <v>1524400</v>
+        <v>1469100</v>
       </c>
       <c r="K33" s="3">
         <v>1286000</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-4199100</v>
+        <v>-4046800</v>
       </c>
       <c r="E35" s="3">
-        <v>1211800</v>
+        <v>1167800</v>
       </c>
       <c r="F35" s="3">
-        <v>1166900</v>
+        <v>1124600</v>
       </c>
       <c r="G35" s="3">
-        <v>2570700</v>
+        <v>2477500</v>
       </c>
       <c r="H35" s="3">
-        <v>1981300</v>
+        <v>1909400</v>
       </c>
       <c r="I35" s="3">
-        <v>1641800</v>
+        <v>1582300</v>
       </c>
       <c r="J35" s="3">
-        <v>1524400</v>
+        <v>1469100</v>
       </c>
       <c r="K35" s="3">
         <v>1286000</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>18253600</v>
+        <v>17591700</v>
       </c>
       <c r="E41" s="3">
-        <v>15998800</v>
+        <v>15418600</v>
       </c>
       <c r="F41" s="3">
-        <v>15659300</v>
+        <v>15091400</v>
       </c>
       <c r="G41" s="3">
-        <v>3384100</v>
+        <v>3261400</v>
       </c>
       <c r="H41" s="3">
-        <v>3192800</v>
+        <v>3077000</v>
       </c>
       <c r="I41" s="3">
-        <v>3152600</v>
+        <v>3038300</v>
       </c>
       <c r="J41" s="3">
-        <v>2783500</v>
+        <v>2682600</v>
       </c>
       <c r="K41" s="3">
         <v>2882500</v>
@@ -1786,13 +1786,13 @@
         <v>8</v>
       </c>
       <c r="H42" s="3">
-        <v>255700</v>
+        <v>246400</v>
       </c>
       <c r="I42" s="3">
-        <v>218800</v>
+        <v>210800</v>
       </c>
       <c r="J42" s="3">
-        <v>772200</v>
+        <v>744200</v>
       </c>
       <c r="K42" s="3">
         <v>168200</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>14990300</v>
+        <v>14446600</v>
       </c>
       <c r="E43" s="3">
-        <v>16061100</v>
+        <v>15478600</v>
       </c>
       <c r="F43" s="3">
-        <v>36434300</v>
+        <v>35113000</v>
       </c>
       <c r="G43" s="3">
-        <v>28238100</v>
+        <v>27214000</v>
       </c>
       <c r="H43" s="3">
-        <v>17379000</v>
+        <v>16748700</v>
       </c>
       <c r="I43" s="3">
-        <v>14751700</v>
+        <v>14216700</v>
       </c>
       <c r="J43" s="3">
-        <v>13361600</v>
+        <v>12877000</v>
       </c>
       <c r="K43" s="3">
         <v>12242100</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>373700</v>
+        <v>360200</v>
       </c>
       <c r="E44" s="3">
-        <v>494600</v>
+        <v>476600</v>
       </c>
       <c r="F44" s="3">
-        <v>518600</v>
+        <v>499800</v>
       </c>
       <c r="G44" s="3">
-        <v>600400</v>
+        <v>578700</v>
       </c>
       <c r="H44" s="3">
-        <v>566600</v>
+        <v>546100</v>
       </c>
       <c r="I44" s="3">
-        <v>465600</v>
+        <v>448700</v>
       </c>
       <c r="J44" s="3">
-        <v>463200</v>
+        <v>446400</v>
       </c>
       <c r="K44" s="3">
         <v>418100</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>351400</v>
+        <v>338600</v>
       </c>
       <c r="E45" s="3">
-        <v>1095000</v>
+        <v>1055300</v>
       </c>
       <c r="F45" s="3">
-        <v>408400</v>
+        <v>393600</v>
       </c>
       <c r="G45" s="3">
-        <v>423500</v>
+        <v>408200</v>
       </c>
       <c r="H45" s="3">
-        <v>459500</v>
+        <v>442800</v>
       </c>
       <c r="I45" s="3">
-        <v>339100</v>
+        <v>326800</v>
       </c>
       <c r="J45" s="3">
-        <v>330400</v>
+        <v>318400</v>
       </c>
       <c r="K45" s="3">
         <v>424300</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>33969000</v>
+        <v>32737100</v>
       </c>
       <c r="E46" s="3">
-        <v>33649500</v>
+        <v>32429200</v>
       </c>
       <c r="F46" s="3">
-        <v>34480600</v>
+        <v>33230100</v>
       </c>
       <c r="G46" s="3">
-        <v>21448500</v>
+        <v>20670700</v>
       </c>
       <c r="H46" s="3">
-        <v>21853500</v>
+        <v>21061000</v>
       </c>
       <c r="I46" s="3">
-        <v>18927700</v>
+        <v>18241200</v>
       </c>
       <c r="J46" s="3">
-        <v>17711000</v>
+        <v>17068700</v>
       </c>
       <c r="K46" s="3">
         <v>16135300</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1051100</v>
+        <v>1013000</v>
       </c>
       <c r="E47" s="3">
-        <v>1855600</v>
+        <v>1788300</v>
       </c>
       <c r="F47" s="3">
-        <v>2325700</v>
+        <v>2241400</v>
       </c>
       <c r="G47" s="3">
-        <v>3139700</v>
+        <v>3025800</v>
       </c>
       <c r="H47" s="3">
-        <v>3367500</v>
+        <v>3245400</v>
       </c>
       <c r="I47" s="3">
-        <v>2713200</v>
+        <v>2614800</v>
       </c>
       <c r="J47" s="3">
-        <v>2022300</v>
+        <v>1949000</v>
       </c>
       <c r="K47" s="3">
         <v>1677900</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3248200</v>
+        <v>3130400</v>
       </c>
       <c r="E48" s="3">
-        <v>3694100</v>
+        <v>3560200</v>
       </c>
       <c r="F48" s="3">
-        <v>3065100</v>
+        <v>2954000</v>
       </c>
       <c r="G48" s="3">
-        <v>1386100</v>
+        <v>1335800</v>
       </c>
       <c r="H48" s="3">
-        <v>1370800</v>
+        <v>1321100</v>
       </c>
       <c r="I48" s="3">
-        <v>1128800</v>
+        <v>1087900</v>
       </c>
       <c r="J48" s="3">
-        <v>1093200</v>
+        <v>1053500</v>
       </c>
       <c r="K48" s="3">
         <v>1061900</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12422000</v>
+        <v>11971500</v>
       </c>
       <c r="E49" s="3">
-        <v>16386100</v>
+        <v>15791900</v>
       </c>
       <c r="F49" s="3">
-        <v>42480800</v>
+        <v>40940200</v>
       </c>
       <c r="G49" s="3">
-        <v>21186000</v>
+        <v>20417700</v>
       </c>
       <c r="H49" s="3">
-        <v>21837400</v>
+        <v>21045500</v>
       </c>
       <c r="I49" s="3">
-        <v>17527600</v>
+        <v>16891900</v>
       </c>
       <c r="J49" s="3">
-        <v>16483600</v>
+        <v>15885800</v>
       </c>
       <c r="K49" s="3">
         <v>15298200</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>522300</v>
+        <v>503400</v>
       </c>
       <c r="E52" s="3">
-        <v>460600</v>
+        <v>443900</v>
       </c>
       <c r="F52" s="3">
-        <v>471200</v>
+        <v>454100</v>
       </c>
       <c r="G52" s="3">
-        <v>476200</v>
+        <v>458900</v>
       </c>
       <c r="H52" s="3">
-        <v>488600</v>
+        <v>470900</v>
       </c>
       <c r="I52" s="3">
-        <v>386000</v>
+        <v>372000</v>
       </c>
       <c r="J52" s="3">
-        <v>549500</v>
+        <v>529600</v>
       </c>
       <c r="K52" s="3">
         <v>381600</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>51212700</v>
+        <v>49355400</v>
       </c>
       <c r="E54" s="3">
-        <v>56046000</v>
+        <v>54013400</v>
       </c>
       <c r="F54" s="3">
-        <v>59746100</v>
+        <v>57579400</v>
       </c>
       <c r="G54" s="3">
-        <v>47636600</v>
+        <v>45909000</v>
       </c>
       <c r="H54" s="3">
-        <v>48917900</v>
+        <v>47143900</v>
       </c>
       <c r="I54" s="3">
-        <v>40683300</v>
+        <v>39207900</v>
       </c>
       <c r="J54" s="3">
-        <v>37859600</v>
+        <v>36486600</v>
       </c>
       <c r="K54" s="3">
         <v>34337200</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>14525100</v>
+        <v>13998300</v>
       </c>
       <c r="E57" s="3">
-        <v>14512700</v>
+        <v>13986300</v>
       </c>
       <c r="F57" s="3">
-        <v>36360400</v>
+        <v>35041800</v>
       </c>
       <c r="G57" s="3">
-        <v>14255400</v>
+        <v>13738400</v>
       </c>
       <c r="H57" s="3">
-        <v>14980100</v>
+        <v>14436800</v>
       </c>
       <c r="I57" s="3">
-        <v>12260900</v>
+        <v>11816300</v>
       </c>
       <c r="J57" s="3">
-        <v>11198300</v>
+        <v>10792200</v>
       </c>
       <c r="K57" s="3">
         <v>9886800</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>12655300</v>
+        <v>12196400</v>
       </c>
       <c r="E58" s="3">
-        <v>13211300</v>
+        <v>12732200</v>
       </c>
       <c r="F58" s="3">
-        <v>14820200</v>
+        <v>14282700</v>
       </c>
       <c r="G58" s="3">
-        <v>883200</v>
+        <v>851100</v>
       </c>
       <c r="H58" s="3">
-        <v>1418600</v>
+        <v>1367200</v>
       </c>
       <c r="I58" s="3">
-        <v>1318900</v>
+        <v>1271100</v>
       </c>
       <c r="J58" s="3">
-        <v>924300</v>
+        <v>890800</v>
       </c>
       <c r="K58" s="3">
         <v>2585400</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5556100</v>
+        <v>5354600</v>
       </c>
       <c r="E59" s="3">
-        <v>6513600</v>
+        <v>6277400</v>
       </c>
       <c r="F59" s="3">
-        <v>6950700</v>
+        <v>6698700</v>
       </c>
       <c r="G59" s="3">
-        <v>6816200</v>
+        <v>6569000</v>
       </c>
       <c r="H59" s="3">
-        <v>7325900</v>
+        <v>7060200</v>
       </c>
       <c r="I59" s="3">
-        <v>6536700</v>
+        <v>6299600</v>
       </c>
       <c r="J59" s="3">
-        <v>5701800</v>
+        <v>5495000</v>
       </c>
       <c r="K59" s="3">
         <v>4985900</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>32736600</v>
+        <v>31549400</v>
       </c>
       <c r="E60" s="3">
-        <v>33904100</v>
+        <v>32674500</v>
       </c>
       <c r="F60" s="3">
-        <v>35399700</v>
+        <v>34115900</v>
       </c>
       <c r="G60" s="3">
-        <v>21954700</v>
+        <v>21158500</v>
       </c>
       <c r="H60" s="3">
-        <v>23724600</v>
+        <v>22864200</v>
       </c>
       <c r="I60" s="3">
-        <v>20116500</v>
+        <v>19387000</v>
       </c>
       <c r="J60" s="3">
-        <v>17824400</v>
+        <v>17178000</v>
       </c>
       <c r="K60" s="3">
         <v>16165500</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9634100</v>
+        <v>9284700</v>
       </c>
       <c r="E61" s="3">
-        <v>8483300</v>
+        <v>8175600</v>
       </c>
       <c r="F61" s="3">
-        <v>7973900</v>
+        <v>7684700</v>
       </c>
       <c r="G61" s="3">
-        <v>8845000</v>
+        <v>8524200</v>
       </c>
       <c r="H61" s="3">
-        <v>7874900</v>
+        <v>7589400</v>
       </c>
       <c r="I61" s="3">
-        <v>6596100</v>
+        <v>6356900</v>
       </c>
       <c r="J61" s="3">
-        <v>5851300</v>
+        <v>5639100</v>
       </c>
       <c r="K61" s="3">
         <v>4834500</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1531000</v>
+        <v>1475500</v>
       </c>
       <c r="E62" s="3">
-        <v>1749400</v>
+        <v>1685900</v>
       </c>
       <c r="F62" s="3">
-        <v>3717400</v>
+        <v>3582500</v>
       </c>
       <c r="G62" s="3">
-        <v>2747900</v>
+        <v>2648200</v>
       </c>
       <c r="H62" s="3">
-        <v>3496200</v>
+        <v>3369400</v>
       </c>
       <c r="I62" s="3">
-        <v>2627400</v>
+        <v>2532100</v>
       </c>
       <c r="J62" s="3">
-        <v>3108000</v>
+        <v>2995300</v>
       </c>
       <c r="K62" s="3">
         <v>2562500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>44351800</v>
+        <v>42743400</v>
       </c>
       <c r="E66" s="3">
-        <v>44662300</v>
+        <v>43042600</v>
       </c>
       <c r="F66" s="3">
-        <v>46500800</v>
+        <v>44814400</v>
       </c>
       <c r="G66" s="3">
-        <v>34211000</v>
+        <v>32970300</v>
       </c>
       <c r="H66" s="3">
-        <v>35722800</v>
+        <v>34427200</v>
       </c>
       <c r="I66" s="3">
-        <v>29875500</v>
+        <v>28792100</v>
       </c>
       <c r="J66" s="3">
-        <v>27246100</v>
+        <v>26258000</v>
       </c>
       <c r="K66" s="3">
         <v>23919000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7011600</v>
+        <v>6757300</v>
       </c>
       <c r="E72" s="3">
-        <v>11625100</v>
+        <v>11203500</v>
       </c>
       <c r="F72" s="3">
-        <v>13623800</v>
+        <v>13129800</v>
       </c>
       <c r="G72" s="3">
-        <v>12651600</v>
+        <v>12192800</v>
       </c>
       <c r="H72" s="3">
-        <v>11549400</v>
+        <v>11130600</v>
       </c>
       <c r="I72" s="3">
-        <v>10579400</v>
+        <v>10195700</v>
       </c>
       <c r="J72" s="3">
-        <v>9712200</v>
+        <v>9360000</v>
       </c>
       <c r="K72" s="3">
         <v>9312400</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6860900</v>
+        <v>6612100</v>
       </c>
       <c r="E76" s="3">
-        <v>11383700</v>
+        <v>10970900</v>
       </c>
       <c r="F76" s="3">
-        <v>13245300</v>
+        <v>12764900</v>
       </c>
       <c r="G76" s="3">
-        <v>13425600</v>
+        <v>12938700</v>
       </c>
       <c r="H76" s="3">
-        <v>13195200</v>
+        <v>12716700</v>
       </c>
       <c r="I76" s="3">
-        <v>10807800</v>
+        <v>10415800</v>
       </c>
       <c r="J76" s="3">
-        <v>10613500</v>
+        <v>10228600</v>
       </c>
       <c r="K76" s="3">
         <v>10418100</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-4199100</v>
+        <v>-4046800</v>
       </c>
       <c r="E81" s="3">
-        <v>1211800</v>
+        <v>1167800</v>
       </c>
       <c r="F81" s="3">
-        <v>1166900</v>
+        <v>1124600</v>
       </c>
       <c r="G81" s="3">
-        <v>2570700</v>
+        <v>2477500</v>
       </c>
       <c r="H81" s="3">
-        <v>1981300</v>
+        <v>1909400</v>
       </c>
       <c r="I81" s="3">
-        <v>1641800</v>
+        <v>1582300</v>
       </c>
       <c r="J81" s="3">
-        <v>1524400</v>
+        <v>1469100</v>
       </c>
       <c r="K81" s="3">
         <v>1286000</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>892900</v>
+        <v>860600</v>
       </c>
       <c r="E83" s="3">
-        <v>971200</v>
+        <v>936000</v>
       </c>
       <c r="F83" s="3">
-        <v>769500</v>
+        <v>741600</v>
       </c>
       <c r="G83" s="3">
-        <v>653900</v>
+        <v>630200</v>
       </c>
       <c r="H83" s="3">
-        <v>605400</v>
+        <v>583400</v>
       </c>
       <c r="I83" s="3">
-        <v>521500</v>
+        <v>502600</v>
       </c>
       <c r="J83" s="3">
-        <v>532600</v>
+        <v>513300</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2907800</v>
+        <v>2802300</v>
       </c>
       <c r="E89" s="3">
-        <v>2618700</v>
+        <v>2523700</v>
       </c>
       <c r="F89" s="3">
-        <v>2396900</v>
+        <v>2310000</v>
       </c>
       <c r="G89" s="3">
-        <v>1992600</v>
+        <v>1920400</v>
       </c>
       <c r="H89" s="3">
-        <v>2510100</v>
+        <v>2419100</v>
       </c>
       <c r="I89" s="3">
-        <v>1924400</v>
+        <v>1854600</v>
       </c>
       <c r="J89" s="3">
-        <v>2410900</v>
+        <v>2323500</v>
       </c>
       <c r="K89" s="3">
         <v>1887000</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-308900</v>
+        <v>-297700</v>
       </c>
       <c r="E91" s="3">
-        <v>-480100</v>
+        <v>-462700</v>
       </c>
       <c r="F91" s="3">
-        <v>-445500</v>
+        <v>-429300</v>
       </c>
       <c r="G91" s="3">
-        <v>-408800</v>
+        <v>-394000</v>
       </c>
       <c r="H91" s="3">
-        <v>-356700</v>
+        <v>-343800</v>
       </c>
       <c r="I91" s="3">
-        <v>-297600</v>
+        <v>-286800</v>
       </c>
       <c r="J91" s="3">
-        <v>-251700</v>
+        <v>-242600</v>
       </c>
       <c r="K91" s="3">
         <v>-330500</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-237200</v>
+        <v>-228600</v>
       </c>
       <c r="E94" s="3">
-        <v>2490000</v>
+        <v>2399700</v>
       </c>
       <c r="F94" s="3">
-        <v>261100</v>
+        <v>251600</v>
       </c>
       <c r="G94" s="3">
-        <v>-707100</v>
+        <v>-681500</v>
       </c>
       <c r="H94" s="3">
-        <v>-1296500</v>
+        <v>-1249500</v>
       </c>
       <c r="I94" s="3">
-        <v>-1277100</v>
+        <v>-1230800</v>
       </c>
       <c r="J94" s="3">
-        <v>-987200</v>
+        <v>-951400</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-172600</v>
+        <v>-166400</v>
       </c>
       <c r="E96" s="3">
-        <v>-1062000</v>
+        <v>-1023500</v>
       </c>
       <c r="F96" s="3">
-        <v>-1057700</v>
+        <v>-1019300</v>
       </c>
       <c r="G96" s="3">
-        <v>-1063500</v>
+        <v>-1024900</v>
       </c>
       <c r="H96" s="3">
-        <v>-872400</v>
+        <v>-840800</v>
       </c>
       <c r="I96" s="3">
-        <v>-772400</v>
+        <v>-744400</v>
       </c>
       <c r="J96" s="3">
-        <v>-651000</v>
+        <v>-627300</v>
       </c>
       <c r="K96" s="3">
         <v>-545600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-354500</v>
+        <v>-341600</v>
       </c>
       <c r="E100" s="3">
-        <v>-4135000</v>
+        <v>-3985000</v>
       </c>
       <c r="F100" s="3">
-        <v>-2283700</v>
+        <v>-2200900</v>
       </c>
       <c r="G100" s="3">
-        <v>-1111700</v>
+        <v>-1071400</v>
       </c>
       <c r="H100" s="3">
-        <v>-1688900</v>
+        <v>-1627700</v>
       </c>
       <c r="I100" s="3">
-        <v>-996200</v>
+        <v>-960100</v>
       </c>
       <c r="J100" s="3">
-        <v>-808600</v>
+        <v>-779300</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-140400</v>
+        <v>-135300</v>
       </c>
       <c r="E101" s="3">
-        <v>-126900</v>
+        <v>-122300</v>
       </c>
       <c r="F101" s="3">
-        <v>-87000</v>
+        <v>-83900</v>
       </c>
       <c r="G101" s="3">
-        <v>-38500</v>
+        <v>-37100</v>
       </c>
       <c r="H101" s="3">
-        <v>413100</v>
+        <v>398100</v>
       </c>
       <c r="I101" s="3">
-        <v>-77000</v>
+        <v>-74200</v>
       </c>
       <c r="J101" s="3">
-        <v>-99500</v>
+        <v>-95900</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2175700</v>
+        <v>2096800</v>
       </c>
       <c r="E102" s="3">
-        <v>846800</v>
+        <v>816100</v>
       </c>
       <c r="F102" s="3">
-        <v>287300</v>
+        <v>276800</v>
       </c>
       <c r="G102" s="3">
-        <v>135300</v>
+        <v>130400</v>
       </c>
       <c r="H102" s="3">
-        <v>-62300</v>
+        <v>-60000</v>
       </c>
       <c r="I102" s="3">
-        <v>-425900</v>
+        <v>-410500</v>
       </c>
       <c r="J102" s="3">
-        <v>515700</v>
+        <v>497000</v>
       </c>
       <c r="K102" s="3">
         <v>719400</v>

--- a/AAII_Financials/Yearly/WPP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WPP_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16369300</v>
+        <v>15976900</v>
       </c>
       <c r="E8" s="3">
-        <v>18048500</v>
+        <v>17615900</v>
       </c>
       <c r="F8" s="3">
-        <v>17793000</v>
+        <v>17366500</v>
       </c>
       <c r="G8" s="3">
-        <v>21553600</v>
+        <v>21037000</v>
       </c>
       <c r="H8" s="3">
-        <v>19623400</v>
+        <v>19153100</v>
       </c>
       <c r="I8" s="3">
-        <v>16686200</v>
+        <v>16286300</v>
       </c>
       <c r="J8" s="3">
-        <v>15723000</v>
+        <v>15346100</v>
       </c>
       <c r="K8" s="3">
         <v>15131700</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>13621400</v>
+        <v>13294900</v>
       </c>
       <c r="E9" s="3">
-        <v>14763200</v>
+        <v>14409300</v>
       </c>
       <c r="F9" s="3">
-        <v>14400400</v>
+        <v>14055200</v>
       </c>
       <c r="G9" s="3">
-        <v>17223300</v>
+        <v>16810500</v>
       </c>
       <c r="H9" s="3">
-        <v>15476400</v>
+        <v>15105500</v>
       </c>
       <c r="I9" s="3">
-        <v>13241200</v>
+        <v>12923800</v>
       </c>
       <c r="J9" s="3">
-        <v>1996700</v>
+        <v>1948900</v>
       </c>
       <c r="K9" s="3">
         <v>1295300</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2747900</v>
+        <v>2682000</v>
       </c>
       <c r="E10" s="3">
-        <v>3285400</v>
+        <v>3206600</v>
       </c>
       <c r="F10" s="3">
-        <v>3392600</v>
+        <v>3311200</v>
       </c>
       <c r="G10" s="3">
-        <v>4330300</v>
+        <v>4226500</v>
       </c>
       <c r="H10" s="3">
-        <v>4147000</v>
+        <v>4047600</v>
       </c>
       <c r="I10" s="3">
-        <v>3445100</v>
+        <v>3362500</v>
       </c>
       <c r="J10" s="3">
-        <v>13726300</v>
+        <v>13397300</v>
       </c>
       <c r="K10" s="3">
         <v>13836400</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>199200</v>
+        <v>194500</v>
       </c>
       <c r="E14" s="3">
-        <v>65200</v>
+        <v>63600</v>
       </c>
       <c r="F14" s="3">
-        <v>56600</v>
+        <v>55200</v>
       </c>
       <c r="G14" s="3">
         <v>-1100</v>
       </c>
       <c r="H14" s="3">
-        <v>-104600</v>
+        <v>-102100</v>
       </c>
       <c r="I14" s="3">
-        <v>149900</v>
+        <v>146300</v>
       </c>
       <c r="J14" s="3">
-        <v>255800</v>
+        <v>249700</v>
       </c>
       <c r="K14" s="3">
         <v>49800</v>
@@ -964,13 +964,13 @@
         <v>8</v>
       </c>
       <c r="H15" s="3">
-        <v>575800</v>
+        <v>562000</v>
       </c>
       <c r="I15" s="3">
-        <v>496100</v>
+        <v>484300</v>
       </c>
       <c r="J15" s="3">
-        <v>505700</v>
+        <v>493600</v>
       </c>
       <c r="K15" s="3">
         <v>560300</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>19675400</v>
+        <v>19203800</v>
       </c>
       <c r="E17" s="3">
-        <v>16346400</v>
+        <v>15954600</v>
       </c>
       <c r="F17" s="3">
-        <v>16151200</v>
+        <v>15764100</v>
       </c>
       <c r="G17" s="3">
-        <v>18950100</v>
+        <v>18495900</v>
       </c>
       <c r="H17" s="3">
-        <v>16830500</v>
+        <v>16427100</v>
       </c>
       <c r="I17" s="3">
-        <v>14490300</v>
+        <v>14142900</v>
       </c>
       <c r="J17" s="3">
-        <v>13582900</v>
+        <v>13257400</v>
       </c>
       <c r="K17" s="3">
         <v>13209800</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-3306100</v>
+        <v>-3226900</v>
       </c>
       <c r="E18" s="3">
-        <v>1702100</v>
+        <v>1661300</v>
       </c>
       <c r="F18" s="3">
-        <v>1641700</v>
+        <v>1602400</v>
       </c>
       <c r="G18" s="3">
-        <v>2603500</v>
+        <v>2541100</v>
       </c>
       <c r="H18" s="3">
-        <v>2792900</v>
+        <v>2726000</v>
       </c>
       <c r="I18" s="3">
-        <v>2196000</v>
+        <v>2143300</v>
       </c>
       <c r="J18" s="3">
-        <v>2140100</v>
+        <v>2088800</v>
       </c>
       <c r="K18" s="3">
         <v>1921900</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-82400</v>
+        <v>-80400</v>
       </c>
       <c r="E20" s="3">
-        <v>433500</v>
+        <v>423200</v>
       </c>
       <c r="F20" s="3">
-        <v>119300</v>
+        <v>116500</v>
       </c>
       <c r="G20" s="3">
-        <v>627200</v>
+        <v>612200</v>
       </c>
       <c r="H20" s="3">
-        <v>119600</v>
+        <v>116700</v>
       </c>
       <c r="I20" s="3">
-        <v>131900</v>
+        <v>128700</v>
       </c>
       <c r="J20" s="3">
-        <v>184800</v>
+        <v>180400</v>
       </c>
       <c r="K20" s="3">
         <v>207400</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-2520500</v>
+        <v>-2465500</v>
       </c>
       <c r="E21" s="3">
-        <v>3079700</v>
+        <v>3000000</v>
       </c>
       <c r="F21" s="3">
-        <v>2509100</v>
+        <v>2444300</v>
       </c>
       <c r="G21" s="3">
-        <v>3866300</v>
+        <v>3769700</v>
       </c>
       <c r="H21" s="3">
-        <v>3500900</v>
+        <v>3413400</v>
       </c>
       <c r="I21" s="3">
-        <v>2834700</v>
+        <v>2763600</v>
       </c>
       <c r="J21" s="3">
-        <v>2842600</v>
+        <v>2771200</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>417300</v>
+        <v>407300</v>
       </c>
       <c r="E22" s="3">
-        <v>479600</v>
+        <v>468100</v>
       </c>
       <c r="F22" s="3">
-        <v>371000</v>
+        <v>362100</v>
       </c>
       <c r="G22" s="3">
-        <v>354000</v>
+        <v>345600</v>
       </c>
       <c r="H22" s="3">
-        <v>334300</v>
+        <v>326300</v>
       </c>
       <c r="I22" s="3">
-        <v>292300</v>
+        <v>285300</v>
       </c>
       <c r="J22" s="3">
-        <v>344800</v>
+        <v>336500</v>
       </c>
       <c r="K22" s="3">
         <v>349900</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-3805800</v>
+        <v>-3714600</v>
       </c>
       <c r="E23" s="3">
-        <v>1656100</v>
+        <v>1616400</v>
       </c>
       <c r="F23" s="3">
-        <v>1390100</v>
+        <v>1356800</v>
       </c>
       <c r="G23" s="3">
-        <v>2876600</v>
+        <v>2807700</v>
       </c>
       <c r="H23" s="3">
-        <v>2578200</v>
+        <v>2516400</v>
       </c>
       <c r="I23" s="3">
-        <v>2035600</v>
+        <v>1986800</v>
       </c>
       <c r="J23" s="3">
-        <v>1980100</v>
+        <v>1932600</v>
       </c>
       <c r="K23" s="3">
         <v>1779400</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>176300</v>
+        <v>172100</v>
       </c>
       <c r="E24" s="3">
-        <v>375000</v>
+        <v>366100</v>
       </c>
       <c r="F24" s="3">
-        <v>355400</v>
+        <v>346900</v>
       </c>
       <c r="G24" s="3">
-        <v>549600</v>
+        <v>536400</v>
       </c>
       <c r="H24" s="3">
-        <v>530400</v>
+        <v>517700</v>
       </c>
       <c r="I24" s="3">
-        <v>337500</v>
+        <v>329400</v>
       </c>
       <c r="J24" s="3">
-        <v>409700</v>
+        <v>399900</v>
       </c>
       <c r="K24" s="3">
         <v>389600</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-3982100</v>
+        <v>-3886700</v>
       </c>
       <c r="E26" s="3">
-        <v>1281000</v>
+        <v>1250300</v>
       </c>
       <c r="F26" s="3">
-        <v>1034700</v>
+        <v>1009900</v>
       </c>
       <c r="G26" s="3">
-        <v>2327000</v>
+        <v>2271300</v>
       </c>
       <c r="H26" s="3">
-        <v>2047900</v>
+        <v>1998800</v>
       </c>
       <c r="I26" s="3">
-        <v>1698100</v>
+        <v>1657400</v>
       </c>
       <c r="J26" s="3">
-        <v>1570400</v>
+        <v>1532800</v>
       </c>
       <c r="K26" s="3">
         <v>1389800</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-4055600</v>
+        <v>-3958400</v>
       </c>
       <c r="E27" s="3">
-        <v>1173000</v>
+        <v>1144900</v>
       </c>
       <c r="F27" s="3">
-        <v>945900</v>
+        <v>923300</v>
       </c>
       <c r="G27" s="3">
-        <v>2196500</v>
+        <v>2143900</v>
       </c>
       <c r="H27" s="3">
-        <v>1909400</v>
+        <v>1863700</v>
       </c>
       <c r="I27" s="3">
-        <v>1582300</v>
+        <v>1544300</v>
       </c>
       <c r="J27" s="3">
-        <v>1469100</v>
+        <v>1433900</v>
       </c>
       <c r="K27" s="3">
         <v>1286000</v>
@@ -1413,16 +1413,16 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>8900</v>
+        <v>8700</v>
       </c>
       <c r="E29" s="3">
-        <v>-5200</v>
+        <v>-5100</v>
       </c>
       <c r="F29" s="3">
-        <v>178700</v>
+        <v>174400</v>
       </c>
       <c r="G29" s="3">
-        <v>280900</v>
+        <v>274200</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>82400</v>
+        <v>80400</v>
       </c>
       <c r="E32" s="3">
-        <v>-433500</v>
+        <v>-423200</v>
       </c>
       <c r="F32" s="3">
-        <v>-119300</v>
+        <v>-116500</v>
       </c>
       <c r="G32" s="3">
-        <v>-627200</v>
+        <v>-612200</v>
       </c>
       <c r="H32" s="3">
-        <v>-119600</v>
+        <v>-116700</v>
       </c>
       <c r="I32" s="3">
-        <v>-131900</v>
+        <v>-128700</v>
       </c>
       <c r="J32" s="3">
-        <v>-184800</v>
+        <v>-180400</v>
       </c>
       <c r="K32" s="3">
         <v>-207400</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-4046800</v>
+        <v>-3949800</v>
       </c>
       <c r="E33" s="3">
-        <v>1167800</v>
+        <v>1139800</v>
       </c>
       <c r="F33" s="3">
-        <v>1124600</v>
+        <v>1097600</v>
       </c>
       <c r="G33" s="3">
-        <v>2477500</v>
+        <v>2418100</v>
       </c>
       <c r="H33" s="3">
-        <v>1909400</v>
+        <v>1863700</v>
       </c>
       <c r="I33" s="3">
-        <v>1582300</v>
+        <v>1544300</v>
       </c>
       <c r="J33" s="3">
-        <v>1469100</v>
+        <v>1433900</v>
       </c>
       <c r="K33" s="3">
         <v>1286000</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-4046800</v>
+        <v>-3949800</v>
       </c>
       <c r="E35" s="3">
-        <v>1167800</v>
+        <v>1139800</v>
       </c>
       <c r="F35" s="3">
-        <v>1124600</v>
+        <v>1097600</v>
       </c>
       <c r="G35" s="3">
-        <v>2477500</v>
+        <v>2418100</v>
       </c>
       <c r="H35" s="3">
-        <v>1909400</v>
+        <v>1863700</v>
       </c>
       <c r="I35" s="3">
-        <v>1582300</v>
+        <v>1544300</v>
       </c>
       <c r="J35" s="3">
-        <v>1469100</v>
+        <v>1433900</v>
       </c>
       <c r="K35" s="3">
         <v>1286000</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>17591700</v>
+        <v>17170000</v>
       </c>
       <c r="E41" s="3">
-        <v>15418600</v>
+        <v>15049000</v>
       </c>
       <c r="F41" s="3">
-        <v>15091400</v>
+        <v>14729700</v>
       </c>
       <c r="G41" s="3">
-        <v>3261400</v>
+        <v>3183200</v>
       </c>
       <c r="H41" s="3">
-        <v>3077000</v>
+        <v>3003200</v>
       </c>
       <c r="I41" s="3">
-        <v>3038300</v>
+        <v>2965400</v>
       </c>
       <c r="J41" s="3">
-        <v>2682600</v>
+        <v>2618300</v>
       </c>
       <c r="K41" s="3">
         <v>2882500</v>
@@ -1786,13 +1786,13 @@
         <v>8</v>
       </c>
       <c r="H42" s="3">
-        <v>246400</v>
+        <v>240500</v>
       </c>
       <c r="I42" s="3">
-        <v>210800</v>
+        <v>205800</v>
       </c>
       <c r="J42" s="3">
-        <v>744200</v>
+        <v>726400</v>
       </c>
       <c r="K42" s="3">
         <v>168200</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>14446600</v>
+        <v>14100300</v>
       </c>
       <c r="E43" s="3">
-        <v>15478600</v>
+        <v>15107600</v>
       </c>
       <c r="F43" s="3">
-        <v>35113000</v>
+        <v>34271300</v>
       </c>
       <c r="G43" s="3">
-        <v>27214000</v>
+        <v>26561700</v>
       </c>
       <c r="H43" s="3">
-        <v>16748700</v>
+        <v>16347200</v>
       </c>
       <c r="I43" s="3">
-        <v>14216700</v>
+        <v>13875900</v>
       </c>
       <c r="J43" s="3">
-        <v>12877000</v>
+        <v>12568400</v>
       </c>
       <c r="K43" s="3">
         <v>12242100</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>360200</v>
+        <v>351500</v>
       </c>
       <c r="E44" s="3">
-        <v>476600</v>
+        <v>465200</v>
       </c>
       <c r="F44" s="3">
-        <v>499800</v>
+        <v>487800</v>
       </c>
       <c r="G44" s="3">
-        <v>578700</v>
+        <v>564800</v>
       </c>
       <c r="H44" s="3">
-        <v>546100</v>
+        <v>533000</v>
       </c>
       <c r="I44" s="3">
-        <v>448700</v>
+        <v>437900</v>
       </c>
       <c r="J44" s="3">
-        <v>446400</v>
+        <v>435700</v>
       </c>
       <c r="K44" s="3">
         <v>418100</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>338600</v>
+        <v>330500</v>
       </c>
       <c r="E45" s="3">
-        <v>1055300</v>
+        <v>1030000</v>
       </c>
       <c r="F45" s="3">
-        <v>393600</v>
+        <v>384200</v>
       </c>
       <c r="G45" s="3">
-        <v>408200</v>
+        <v>398400</v>
       </c>
       <c r="H45" s="3">
-        <v>442800</v>
+        <v>432200</v>
       </c>
       <c r="I45" s="3">
-        <v>326800</v>
+        <v>318900</v>
       </c>
       <c r="J45" s="3">
-        <v>318400</v>
+        <v>310800</v>
       </c>
       <c r="K45" s="3">
         <v>424300</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>32737100</v>
+        <v>31952400</v>
       </c>
       <c r="E46" s="3">
-        <v>32429200</v>
+        <v>31651800</v>
       </c>
       <c r="F46" s="3">
-        <v>33230100</v>
+        <v>32433600</v>
       </c>
       <c r="G46" s="3">
-        <v>20670700</v>
+        <v>20175200</v>
       </c>
       <c r="H46" s="3">
-        <v>21061000</v>
+        <v>20556200</v>
       </c>
       <c r="I46" s="3">
-        <v>18241200</v>
+        <v>17804000</v>
       </c>
       <c r="J46" s="3">
-        <v>17068700</v>
+        <v>16659500</v>
       </c>
       <c r="K46" s="3">
         <v>16135300</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1013000</v>
+        <v>988700</v>
       </c>
       <c r="E47" s="3">
-        <v>1788300</v>
+        <v>1745500</v>
       </c>
       <c r="F47" s="3">
-        <v>2241400</v>
+        <v>2187700</v>
       </c>
       <c r="G47" s="3">
-        <v>3025800</v>
+        <v>2953300</v>
       </c>
       <c r="H47" s="3">
-        <v>3245400</v>
+        <v>3167600</v>
       </c>
       <c r="I47" s="3">
-        <v>2614800</v>
+        <v>2552100</v>
       </c>
       <c r="J47" s="3">
-        <v>1949000</v>
+        <v>1902300</v>
       </c>
       <c r="K47" s="3">
         <v>1677900</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3130400</v>
+        <v>3055400</v>
       </c>
       <c r="E48" s="3">
-        <v>3560200</v>
+        <v>3474800</v>
       </c>
       <c r="F48" s="3">
-        <v>2954000</v>
+        <v>2883200</v>
       </c>
       <c r="G48" s="3">
-        <v>1335800</v>
+        <v>1303800</v>
       </c>
       <c r="H48" s="3">
-        <v>1321100</v>
+        <v>1289400</v>
       </c>
       <c r="I48" s="3">
-        <v>1087900</v>
+        <v>1061800</v>
       </c>
       <c r="J48" s="3">
-        <v>1053500</v>
+        <v>1028300</v>
       </c>
       <c r="K48" s="3">
         <v>1061900</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11971500</v>
+        <v>11684500</v>
       </c>
       <c r="E49" s="3">
-        <v>15791900</v>
+        <v>15413300</v>
       </c>
       <c r="F49" s="3">
-        <v>40940200</v>
+        <v>39958800</v>
       </c>
       <c r="G49" s="3">
-        <v>20417700</v>
+        <v>19928300</v>
       </c>
       <c r="H49" s="3">
-        <v>21045500</v>
+        <v>20541000</v>
       </c>
       <c r="I49" s="3">
-        <v>16891900</v>
+        <v>16487000</v>
       </c>
       <c r="J49" s="3">
-        <v>15885800</v>
+        <v>15505100</v>
       </c>
       <c r="K49" s="3">
         <v>15298200</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>503400</v>
+        <v>491300</v>
       </c>
       <c r="E52" s="3">
-        <v>443900</v>
+        <v>433300</v>
       </c>
       <c r="F52" s="3">
-        <v>454100</v>
+        <v>443300</v>
       </c>
       <c r="G52" s="3">
-        <v>458900</v>
+        <v>447900</v>
       </c>
       <c r="H52" s="3">
-        <v>470900</v>
+        <v>459600</v>
       </c>
       <c r="I52" s="3">
-        <v>372000</v>
+        <v>363100</v>
       </c>
       <c r="J52" s="3">
-        <v>529600</v>
+        <v>516900</v>
       </c>
       <c r="K52" s="3">
         <v>381600</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>49355400</v>
+        <v>48172400</v>
       </c>
       <c r="E54" s="3">
-        <v>54013400</v>
+        <v>52718700</v>
       </c>
       <c r="F54" s="3">
-        <v>57579400</v>
+        <v>56199200</v>
       </c>
       <c r="G54" s="3">
-        <v>45909000</v>
+        <v>44808600</v>
       </c>
       <c r="H54" s="3">
-        <v>47143900</v>
+        <v>46013900</v>
       </c>
       <c r="I54" s="3">
-        <v>39207900</v>
+        <v>38268100</v>
       </c>
       <c r="J54" s="3">
-        <v>36486600</v>
+        <v>35612000</v>
       </c>
       <c r="K54" s="3">
         <v>34337200</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13998300</v>
+        <v>13662800</v>
       </c>
       <c r="E57" s="3">
-        <v>13986300</v>
+        <v>13651100</v>
       </c>
       <c r="F57" s="3">
-        <v>35041800</v>
+        <v>34201800</v>
       </c>
       <c r="G57" s="3">
-        <v>13738400</v>
+        <v>13409100</v>
       </c>
       <c r="H57" s="3">
-        <v>14436800</v>
+        <v>14090800</v>
       </c>
       <c r="I57" s="3">
-        <v>11816300</v>
+        <v>11533000</v>
       </c>
       <c r="J57" s="3">
-        <v>10792200</v>
+        <v>10533500</v>
       </c>
       <c r="K57" s="3">
         <v>9886800</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>12196400</v>
+        <v>11904000</v>
       </c>
       <c r="E58" s="3">
-        <v>12732200</v>
+        <v>12427000</v>
       </c>
       <c r="F58" s="3">
-        <v>14282700</v>
+        <v>13940300</v>
       </c>
       <c r="G58" s="3">
-        <v>851100</v>
+        <v>830700</v>
       </c>
       <c r="H58" s="3">
-        <v>1367200</v>
+        <v>1334400</v>
       </c>
       <c r="I58" s="3">
-        <v>1271100</v>
+        <v>1240600</v>
       </c>
       <c r="J58" s="3">
-        <v>890800</v>
+        <v>869500</v>
       </c>
       <c r="K58" s="3">
         <v>2585400</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5354600</v>
+        <v>5226300</v>
       </c>
       <c r="E59" s="3">
-        <v>6277400</v>
+        <v>6126900</v>
       </c>
       <c r="F59" s="3">
-        <v>6698700</v>
+        <v>6538100</v>
       </c>
       <c r="G59" s="3">
-        <v>6569000</v>
+        <v>6411500</v>
       </c>
       <c r="H59" s="3">
-        <v>7060200</v>
+        <v>6891000</v>
       </c>
       <c r="I59" s="3">
-        <v>6299600</v>
+        <v>6148600</v>
       </c>
       <c r="J59" s="3">
-        <v>5495000</v>
+        <v>5363300</v>
       </c>
       <c r="K59" s="3">
         <v>4985900</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>31549400</v>
+        <v>30793100</v>
       </c>
       <c r="E60" s="3">
-        <v>32674500</v>
+        <v>31891300</v>
       </c>
       <c r="F60" s="3">
-        <v>34115900</v>
+        <v>33298100</v>
       </c>
       <c r="G60" s="3">
-        <v>21158500</v>
+        <v>20651400</v>
       </c>
       <c r="H60" s="3">
-        <v>22864200</v>
+        <v>22316200</v>
       </c>
       <c r="I60" s="3">
-        <v>19387000</v>
+        <v>18922300</v>
       </c>
       <c r="J60" s="3">
-        <v>17178000</v>
+        <v>16766300</v>
       </c>
       <c r="K60" s="3">
         <v>16165500</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9284700</v>
+        <v>9062100</v>
       </c>
       <c r="E61" s="3">
-        <v>8175600</v>
+        <v>7979700</v>
       </c>
       <c r="F61" s="3">
-        <v>7684700</v>
+        <v>7500500</v>
       </c>
       <c r="G61" s="3">
-        <v>8524200</v>
+        <v>8319900</v>
       </c>
       <c r="H61" s="3">
-        <v>7589400</v>
+        <v>7407400</v>
       </c>
       <c r="I61" s="3">
-        <v>6356900</v>
+        <v>6204500</v>
       </c>
       <c r="J61" s="3">
-        <v>5639100</v>
+        <v>5504000</v>
       </c>
       <c r="K61" s="3">
         <v>4834500</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1475500</v>
+        <v>1440100</v>
       </c>
       <c r="E62" s="3">
-        <v>1685900</v>
+        <v>1645500</v>
       </c>
       <c r="F62" s="3">
-        <v>3582500</v>
+        <v>3496700</v>
       </c>
       <c r="G62" s="3">
-        <v>2648200</v>
+        <v>2584700</v>
       </c>
       <c r="H62" s="3">
-        <v>3369400</v>
+        <v>3288600</v>
       </c>
       <c r="I62" s="3">
-        <v>2532100</v>
+        <v>2471500</v>
       </c>
       <c r="J62" s="3">
-        <v>2995300</v>
+        <v>2923500</v>
       </c>
       <c r="K62" s="3">
         <v>2562500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>42743400</v>
+        <v>41718800</v>
       </c>
       <c r="E66" s="3">
-        <v>43042600</v>
+        <v>42010800</v>
       </c>
       <c r="F66" s="3">
-        <v>44814400</v>
+        <v>43740200</v>
       </c>
       <c r="G66" s="3">
-        <v>32970300</v>
+        <v>32180000</v>
       </c>
       <c r="H66" s="3">
-        <v>34427200</v>
+        <v>33602000</v>
       </c>
       <c r="I66" s="3">
-        <v>28792100</v>
+        <v>28101900</v>
       </c>
       <c r="J66" s="3">
-        <v>26258000</v>
+        <v>25628600</v>
       </c>
       <c r="K66" s="3">
         <v>23919000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6757300</v>
+        <v>6595300</v>
       </c>
       <c r="E72" s="3">
-        <v>11203500</v>
+        <v>10935000</v>
       </c>
       <c r="F72" s="3">
-        <v>13129800</v>
+        <v>12815000</v>
       </c>
       <c r="G72" s="3">
-        <v>12192800</v>
+        <v>11900600</v>
       </c>
       <c r="H72" s="3">
-        <v>11130600</v>
+        <v>10863800</v>
       </c>
       <c r="I72" s="3">
-        <v>10195700</v>
+        <v>9951300</v>
       </c>
       <c r="J72" s="3">
-        <v>9360000</v>
+        <v>9135600</v>
       </c>
       <c r="K72" s="3">
         <v>9312400</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6612100</v>
+        <v>6453600</v>
       </c>
       <c r="E76" s="3">
-        <v>10970900</v>
+        <v>10707900</v>
       </c>
       <c r="F76" s="3">
-        <v>12764900</v>
+        <v>12459000</v>
       </c>
       <c r="G76" s="3">
-        <v>12938700</v>
+        <v>12628500</v>
       </c>
       <c r="H76" s="3">
-        <v>12716700</v>
+        <v>12411800</v>
       </c>
       <c r="I76" s="3">
-        <v>10415800</v>
+        <v>10166100</v>
       </c>
       <c r="J76" s="3">
-        <v>10228600</v>
+        <v>9983400</v>
       </c>
       <c r="K76" s="3">
         <v>10418100</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-4046800</v>
+        <v>-3949800</v>
       </c>
       <c r="E81" s="3">
-        <v>1167800</v>
+        <v>1139800</v>
       </c>
       <c r="F81" s="3">
-        <v>1124600</v>
+        <v>1097600</v>
       </c>
       <c r="G81" s="3">
-        <v>2477500</v>
+        <v>2418100</v>
       </c>
       <c r="H81" s="3">
-        <v>1909400</v>
+        <v>1863700</v>
       </c>
       <c r="I81" s="3">
-        <v>1582300</v>
+        <v>1544300</v>
       </c>
       <c r="J81" s="3">
-        <v>1469100</v>
+        <v>1433900</v>
       </c>
       <c r="K81" s="3">
         <v>1286000</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>860600</v>
+        <v>839900</v>
       </c>
       <c r="E83" s="3">
-        <v>936000</v>
+        <v>913500</v>
       </c>
       <c r="F83" s="3">
-        <v>741600</v>
+        <v>723900</v>
       </c>
       <c r="G83" s="3">
-        <v>630200</v>
+        <v>615100</v>
       </c>
       <c r="H83" s="3">
-        <v>583400</v>
+        <v>569400</v>
       </c>
       <c r="I83" s="3">
-        <v>502600</v>
+        <v>490500</v>
       </c>
       <c r="J83" s="3">
-        <v>513300</v>
+        <v>501000</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2802300</v>
+        <v>2735100</v>
       </c>
       <c r="E89" s="3">
-        <v>2523700</v>
+        <v>2463200</v>
       </c>
       <c r="F89" s="3">
-        <v>2310000</v>
+        <v>2254600</v>
       </c>
       <c r="G89" s="3">
-        <v>1920400</v>
+        <v>1874300</v>
       </c>
       <c r="H89" s="3">
-        <v>2419100</v>
+        <v>2361100</v>
       </c>
       <c r="I89" s="3">
-        <v>1854600</v>
+        <v>1810200</v>
       </c>
       <c r="J89" s="3">
-        <v>2323500</v>
+        <v>2267800</v>
       </c>
       <c r="K89" s="3">
         <v>1887000</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-297700</v>
+        <v>-290600</v>
       </c>
       <c r="E91" s="3">
-        <v>-462700</v>
+        <v>-451600</v>
       </c>
       <c r="F91" s="3">
-        <v>-429300</v>
+        <v>-419000</v>
       </c>
       <c r="G91" s="3">
-        <v>-394000</v>
+        <v>-384600</v>
       </c>
       <c r="H91" s="3">
-        <v>-343800</v>
+        <v>-335600</v>
       </c>
       <c r="I91" s="3">
-        <v>-286800</v>
+        <v>-279900</v>
       </c>
       <c r="J91" s="3">
-        <v>-242600</v>
+        <v>-236800</v>
       </c>
       <c r="K91" s="3">
         <v>-330500</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-228600</v>
+        <v>-223100</v>
       </c>
       <c r="E94" s="3">
-        <v>2399700</v>
+        <v>2342200</v>
       </c>
       <c r="F94" s="3">
-        <v>251600</v>
+        <v>245600</v>
       </c>
       <c r="G94" s="3">
-        <v>-681500</v>
+        <v>-665200</v>
       </c>
       <c r="H94" s="3">
-        <v>-1249500</v>
+        <v>-1219600</v>
       </c>
       <c r="I94" s="3">
-        <v>-1230800</v>
+        <v>-1201300</v>
       </c>
       <c r="J94" s="3">
-        <v>-951400</v>
+        <v>-928600</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-166400</v>
+        <v>-162400</v>
       </c>
       <c r="E96" s="3">
-        <v>-1023500</v>
+        <v>-999000</v>
       </c>
       <c r="F96" s="3">
-        <v>-1019300</v>
+        <v>-994900</v>
       </c>
       <c r="G96" s="3">
-        <v>-1024900</v>
+        <v>-1000300</v>
       </c>
       <c r="H96" s="3">
-        <v>-840800</v>
+        <v>-820600</v>
       </c>
       <c r="I96" s="3">
-        <v>-744400</v>
+        <v>-726500</v>
       </c>
       <c r="J96" s="3">
-        <v>-627300</v>
+        <v>-612300</v>
       </c>
       <c r="K96" s="3">
         <v>-545600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-341600</v>
+        <v>-333400</v>
       </c>
       <c r="E100" s="3">
-        <v>-3985000</v>
+        <v>-3889500</v>
       </c>
       <c r="F100" s="3">
-        <v>-2200900</v>
+        <v>-2148100</v>
       </c>
       <c r="G100" s="3">
-        <v>-1071400</v>
+        <v>-1045700</v>
       </c>
       <c r="H100" s="3">
-        <v>-1627700</v>
+        <v>-1588700</v>
       </c>
       <c r="I100" s="3">
-        <v>-960100</v>
+        <v>-937100</v>
       </c>
       <c r="J100" s="3">
-        <v>-779300</v>
+        <v>-760600</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-135300</v>
+        <v>-132000</v>
       </c>
       <c r="E101" s="3">
-        <v>-122300</v>
+        <v>-119400</v>
       </c>
       <c r="F101" s="3">
-        <v>-83900</v>
+        <v>-81900</v>
       </c>
       <c r="G101" s="3">
-        <v>-37100</v>
+        <v>-36200</v>
       </c>
       <c r="H101" s="3">
-        <v>398100</v>
+        <v>388500</v>
       </c>
       <c r="I101" s="3">
-        <v>-74200</v>
+        <v>-72400</v>
       </c>
       <c r="J101" s="3">
-        <v>-95900</v>
+        <v>-93600</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2096800</v>
+        <v>2046600</v>
       </c>
       <c r="E102" s="3">
-        <v>816100</v>
+        <v>796500</v>
       </c>
       <c r="F102" s="3">
-        <v>276800</v>
+        <v>270200</v>
       </c>
       <c r="G102" s="3">
-        <v>130400</v>
+        <v>127300</v>
       </c>
       <c r="H102" s="3">
-        <v>-60000</v>
+        <v>-58600</v>
       </c>
       <c r="I102" s="3">
-        <v>-410500</v>
+        <v>-400700</v>
       </c>
       <c r="J102" s="3">
-        <v>497000</v>
+        <v>485100</v>
       </c>
       <c r="K102" s="3">
         <v>719400</v>

--- a/AAII_Financials/Yearly/WPP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WPP_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15976900</v>
+        <v>15646700</v>
       </c>
       <c r="E8" s="3">
-        <v>17615900</v>
+        <v>17251800</v>
       </c>
       <c r="F8" s="3">
-        <v>17366500</v>
+        <v>17007500</v>
       </c>
       <c r="G8" s="3">
-        <v>21037000</v>
+        <v>20602200</v>
       </c>
       <c r="H8" s="3">
-        <v>19153100</v>
+        <v>18757200</v>
       </c>
       <c r="I8" s="3">
-        <v>16286300</v>
+        <v>15949700</v>
       </c>
       <c r="J8" s="3">
-        <v>15346100</v>
+        <v>15029000</v>
       </c>
       <c r="K8" s="3">
         <v>15131700</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>13294900</v>
+        <v>13020100</v>
       </c>
       <c r="E9" s="3">
-        <v>14409300</v>
+        <v>14111500</v>
       </c>
       <c r="F9" s="3">
-        <v>14055200</v>
+        <v>13764700</v>
       </c>
       <c r="G9" s="3">
-        <v>16810500</v>
+        <v>16463000</v>
       </c>
       <c r="H9" s="3">
-        <v>15105500</v>
+        <v>14793300</v>
       </c>
       <c r="I9" s="3">
-        <v>12923800</v>
+        <v>12656700</v>
       </c>
       <c r="J9" s="3">
-        <v>1948900</v>
+        <v>1908600</v>
       </c>
       <c r="K9" s="3">
         <v>1295300</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2682000</v>
+        <v>2626600</v>
       </c>
       <c r="E10" s="3">
-        <v>3206600</v>
+        <v>3140300</v>
       </c>
       <c r="F10" s="3">
-        <v>3311200</v>
+        <v>3242800</v>
       </c>
       <c r="G10" s="3">
-        <v>4226500</v>
+        <v>4139200</v>
       </c>
       <c r="H10" s="3">
-        <v>4047600</v>
+        <v>3964000</v>
       </c>
       <c r="I10" s="3">
-        <v>3362500</v>
+        <v>3293000</v>
       </c>
       <c r="J10" s="3">
-        <v>13397300</v>
+        <v>13120400</v>
       </c>
       <c r="K10" s="3">
         <v>13836400</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>194500</v>
+        <v>190500</v>
       </c>
       <c r="E14" s="3">
-        <v>63600</v>
+        <v>62300</v>
       </c>
       <c r="F14" s="3">
-        <v>55200</v>
+        <v>54100</v>
       </c>
       <c r="G14" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="H14" s="3">
-        <v>-102100</v>
+        <v>-100000</v>
       </c>
       <c r="I14" s="3">
-        <v>146300</v>
+        <v>143300</v>
       </c>
       <c r="J14" s="3">
-        <v>249700</v>
+        <v>244600</v>
       </c>
       <c r="K14" s="3">
         <v>49800</v>
@@ -964,13 +964,13 @@
         <v>8</v>
       </c>
       <c r="H15" s="3">
-        <v>562000</v>
+        <v>550400</v>
       </c>
       <c r="I15" s="3">
-        <v>484300</v>
+        <v>474200</v>
       </c>
       <c r="J15" s="3">
-        <v>493600</v>
+        <v>483400</v>
       </c>
       <c r="K15" s="3">
         <v>560300</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>19203800</v>
+        <v>18806900</v>
       </c>
       <c r="E17" s="3">
-        <v>15954600</v>
+        <v>15624800</v>
       </c>
       <c r="F17" s="3">
-        <v>15764100</v>
+        <v>15438300</v>
       </c>
       <c r="G17" s="3">
-        <v>18495900</v>
+        <v>18113600</v>
       </c>
       <c r="H17" s="3">
-        <v>16427100</v>
+        <v>16087600</v>
       </c>
       <c r="I17" s="3">
-        <v>14142900</v>
+        <v>13850600</v>
       </c>
       <c r="J17" s="3">
-        <v>13257400</v>
+        <v>12983400</v>
       </c>
       <c r="K17" s="3">
         <v>13209800</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-3226900</v>
+        <v>-3160200</v>
       </c>
       <c r="E18" s="3">
-        <v>1661300</v>
+        <v>1627000</v>
       </c>
       <c r="F18" s="3">
-        <v>1602400</v>
+        <v>1569300</v>
       </c>
       <c r="G18" s="3">
-        <v>2541100</v>
+        <v>2488600</v>
       </c>
       <c r="H18" s="3">
-        <v>2726000</v>
+        <v>2669600</v>
       </c>
       <c r="I18" s="3">
-        <v>2143300</v>
+        <v>2099000</v>
       </c>
       <c r="J18" s="3">
-        <v>2088800</v>
+        <v>2045600</v>
       </c>
       <c r="K18" s="3">
         <v>1921900</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-80400</v>
+        <v>-78700</v>
       </c>
       <c r="E20" s="3">
-        <v>423200</v>
+        <v>414400</v>
       </c>
       <c r="F20" s="3">
-        <v>116500</v>
+        <v>114100</v>
       </c>
       <c r="G20" s="3">
-        <v>612200</v>
+        <v>599500</v>
       </c>
       <c r="H20" s="3">
-        <v>116700</v>
+        <v>114300</v>
       </c>
       <c r="I20" s="3">
-        <v>128700</v>
+        <v>126100</v>
       </c>
       <c r="J20" s="3">
-        <v>180400</v>
+        <v>176600</v>
       </c>
       <c r="K20" s="3">
         <v>207400</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-2465500</v>
+        <v>-2407300</v>
       </c>
       <c r="E21" s="3">
-        <v>3000000</v>
+        <v>2945900</v>
       </c>
       <c r="F21" s="3">
-        <v>2444300</v>
+        <v>2400000</v>
       </c>
       <c r="G21" s="3">
-        <v>3769700</v>
+        <v>3697100</v>
       </c>
       <c r="H21" s="3">
-        <v>3413400</v>
+        <v>3347700</v>
       </c>
       <c r="I21" s="3">
-        <v>2763600</v>
+        <v>2710700</v>
       </c>
       <c r="J21" s="3">
-        <v>2771200</v>
+        <v>2718300</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>407300</v>
+        <v>398900</v>
       </c>
       <c r="E22" s="3">
-        <v>468100</v>
+        <v>458500</v>
       </c>
       <c r="F22" s="3">
-        <v>362100</v>
+        <v>354600</v>
       </c>
       <c r="G22" s="3">
-        <v>345600</v>
+        <v>338400</v>
       </c>
       <c r="H22" s="3">
-        <v>326300</v>
+        <v>319500</v>
       </c>
       <c r="I22" s="3">
-        <v>285300</v>
+        <v>279400</v>
       </c>
       <c r="J22" s="3">
-        <v>336500</v>
+        <v>329500</v>
       </c>
       <c r="K22" s="3">
         <v>349900</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-3714600</v>
+        <v>-3637800</v>
       </c>
       <c r="E23" s="3">
-        <v>1616400</v>
+        <v>1582900</v>
       </c>
       <c r="F23" s="3">
-        <v>1356800</v>
+        <v>1328700</v>
       </c>
       <c r="G23" s="3">
-        <v>2807700</v>
+        <v>2749700</v>
       </c>
       <c r="H23" s="3">
-        <v>2516400</v>
+        <v>2464400</v>
       </c>
       <c r="I23" s="3">
-        <v>1986800</v>
+        <v>1945700</v>
       </c>
       <c r="J23" s="3">
-        <v>1932600</v>
+        <v>1892700</v>
       </c>
       <c r="K23" s="3">
         <v>1779400</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>172100</v>
+        <v>168600</v>
       </c>
       <c r="E24" s="3">
-        <v>366100</v>
+        <v>358500</v>
       </c>
       <c r="F24" s="3">
-        <v>346900</v>
+        <v>339700</v>
       </c>
       <c r="G24" s="3">
-        <v>536400</v>
+        <v>525300</v>
       </c>
       <c r="H24" s="3">
-        <v>517700</v>
+        <v>507000</v>
       </c>
       <c r="I24" s="3">
-        <v>329400</v>
+        <v>322600</v>
       </c>
       <c r="J24" s="3">
-        <v>399900</v>
+        <v>391600</v>
       </c>
       <c r="K24" s="3">
         <v>389600</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-3886700</v>
+        <v>-3806400</v>
       </c>
       <c r="E26" s="3">
-        <v>1250300</v>
+        <v>1224500</v>
       </c>
       <c r="F26" s="3">
-        <v>1009900</v>
+        <v>989000</v>
       </c>
       <c r="G26" s="3">
-        <v>2271300</v>
+        <v>2224300</v>
       </c>
       <c r="H26" s="3">
-        <v>1998800</v>
+        <v>1957500</v>
       </c>
       <c r="I26" s="3">
-        <v>1657400</v>
+        <v>1623100</v>
       </c>
       <c r="J26" s="3">
-        <v>1532800</v>
+        <v>1501100</v>
       </c>
       <c r="K26" s="3">
         <v>1389800</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3958400</v>
+        <v>-3876600</v>
       </c>
       <c r="E27" s="3">
-        <v>1144900</v>
+        <v>1121200</v>
       </c>
       <c r="F27" s="3">
-        <v>923300</v>
+        <v>904200</v>
       </c>
       <c r="G27" s="3">
-        <v>2143900</v>
+        <v>2099600</v>
       </c>
       <c r="H27" s="3">
-        <v>1863700</v>
+        <v>1825200</v>
       </c>
       <c r="I27" s="3">
-        <v>1544300</v>
+        <v>1512400</v>
       </c>
       <c r="J27" s="3">
-        <v>1433900</v>
+        <v>1404200</v>
       </c>
       <c r="K27" s="3">
         <v>1286000</v>
@@ -1413,16 +1413,16 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>8700</v>
+        <v>8500</v>
       </c>
       <c r="E29" s="3">
-        <v>-5100</v>
+        <v>-5000</v>
       </c>
       <c r="F29" s="3">
-        <v>174400</v>
+        <v>170800</v>
       </c>
       <c r="G29" s="3">
-        <v>274200</v>
+        <v>268500</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>80400</v>
+        <v>78700</v>
       </c>
       <c r="E32" s="3">
-        <v>-423200</v>
+        <v>-414400</v>
       </c>
       <c r="F32" s="3">
-        <v>-116500</v>
+        <v>-114100</v>
       </c>
       <c r="G32" s="3">
-        <v>-612200</v>
+        <v>-599500</v>
       </c>
       <c r="H32" s="3">
-        <v>-116700</v>
+        <v>-114300</v>
       </c>
       <c r="I32" s="3">
-        <v>-128700</v>
+        <v>-126100</v>
       </c>
       <c r="J32" s="3">
-        <v>-180400</v>
+        <v>-176600</v>
       </c>
       <c r="K32" s="3">
         <v>-207400</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3949800</v>
+        <v>-3868100</v>
       </c>
       <c r="E33" s="3">
-        <v>1139800</v>
+        <v>1116300</v>
       </c>
       <c r="F33" s="3">
-        <v>1097600</v>
+        <v>1074900</v>
       </c>
       <c r="G33" s="3">
-        <v>2418100</v>
+        <v>2368100</v>
       </c>
       <c r="H33" s="3">
-        <v>1863700</v>
+        <v>1825200</v>
       </c>
       <c r="I33" s="3">
-        <v>1544300</v>
+        <v>1512400</v>
       </c>
       <c r="J33" s="3">
-        <v>1433900</v>
+        <v>1404200</v>
       </c>
       <c r="K33" s="3">
         <v>1286000</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3949800</v>
+        <v>-3868100</v>
       </c>
       <c r="E35" s="3">
-        <v>1139800</v>
+        <v>1116300</v>
       </c>
       <c r="F35" s="3">
-        <v>1097600</v>
+        <v>1074900</v>
       </c>
       <c r="G35" s="3">
-        <v>2418100</v>
+        <v>2368100</v>
       </c>
       <c r="H35" s="3">
-        <v>1863700</v>
+        <v>1825200</v>
       </c>
       <c r="I35" s="3">
-        <v>1544300</v>
+        <v>1512400</v>
       </c>
       <c r="J35" s="3">
-        <v>1433900</v>
+        <v>1404200</v>
       </c>
       <c r="K35" s="3">
         <v>1286000</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>17170000</v>
+        <v>16815100</v>
       </c>
       <c r="E41" s="3">
-        <v>15049000</v>
+        <v>14738000</v>
       </c>
       <c r="F41" s="3">
-        <v>14729700</v>
+        <v>14425300</v>
       </c>
       <c r="G41" s="3">
-        <v>3183200</v>
+        <v>3117400</v>
       </c>
       <c r="H41" s="3">
-        <v>3003200</v>
+        <v>2941200</v>
       </c>
       <c r="I41" s="3">
-        <v>2965400</v>
+        <v>2904100</v>
       </c>
       <c r="J41" s="3">
-        <v>2618300</v>
+        <v>2564200</v>
       </c>
       <c r="K41" s="3">
         <v>2882500</v>
@@ -1786,13 +1786,13 @@
         <v>8</v>
       </c>
       <c r="H42" s="3">
-        <v>240500</v>
+        <v>235600</v>
       </c>
       <c r="I42" s="3">
-        <v>205800</v>
+        <v>201500</v>
       </c>
       <c r="J42" s="3">
-        <v>726400</v>
+        <v>711400</v>
       </c>
       <c r="K42" s="3">
         <v>168200</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>14100300</v>
+        <v>13808900</v>
       </c>
       <c r="E43" s="3">
-        <v>15107600</v>
+        <v>14795400</v>
       </c>
       <c r="F43" s="3">
-        <v>34271300</v>
+        <v>33563000</v>
       </c>
       <c r="G43" s="3">
-        <v>26561700</v>
+        <v>26012700</v>
       </c>
       <c r="H43" s="3">
-        <v>16347200</v>
+        <v>16009400</v>
       </c>
       <c r="I43" s="3">
-        <v>13875900</v>
+        <v>13589100</v>
       </c>
       <c r="J43" s="3">
-        <v>12568400</v>
+        <v>12308600</v>
       </c>
       <c r="K43" s="3">
         <v>12242100</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>351500</v>
+        <v>344300</v>
       </c>
       <c r="E44" s="3">
-        <v>465200</v>
+        <v>455600</v>
       </c>
       <c r="F44" s="3">
-        <v>487800</v>
+        <v>477800</v>
       </c>
       <c r="G44" s="3">
-        <v>564800</v>
+        <v>553100</v>
       </c>
       <c r="H44" s="3">
-        <v>533000</v>
+        <v>522000</v>
       </c>
       <c r="I44" s="3">
-        <v>437900</v>
+        <v>428900</v>
       </c>
       <c r="J44" s="3">
-        <v>435700</v>
+        <v>426700</v>
       </c>
       <c r="K44" s="3">
         <v>418100</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>330500</v>
+        <v>323700</v>
       </c>
       <c r="E45" s="3">
-        <v>1030000</v>
+        <v>1008700</v>
       </c>
       <c r="F45" s="3">
-        <v>384200</v>
+        <v>376200</v>
       </c>
       <c r="G45" s="3">
-        <v>398400</v>
+        <v>390200</v>
       </c>
       <c r="H45" s="3">
-        <v>432200</v>
+        <v>423300</v>
       </c>
       <c r="I45" s="3">
-        <v>318900</v>
+        <v>312300</v>
       </c>
       <c r="J45" s="3">
-        <v>310800</v>
+        <v>304400</v>
       </c>
       <c r="K45" s="3">
         <v>424300</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>31952400</v>
+        <v>31292000</v>
       </c>
       <c r="E46" s="3">
-        <v>31651800</v>
+        <v>30997700</v>
       </c>
       <c r="F46" s="3">
-        <v>32433600</v>
+        <v>31763300</v>
       </c>
       <c r="G46" s="3">
-        <v>20175200</v>
+        <v>19758300</v>
       </c>
       <c r="H46" s="3">
-        <v>20556200</v>
+        <v>20131300</v>
       </c>
       <c r="I46" s="3">
-        <v>17804000</v>
+        <v>17436000</v>
       </c>
       <c r="J46" s="3">
-        <v>16659500</v>
+        <v>16315200</v>
       </c>
       <c r="K46" s="3">
         <v>16135300</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>988700</v>
+        <v>968300</v>
       </c>
       <c r="E47" s="3">
-        <v>1745500</v>
+        <v>1709400</v>
       </c>
       <c r="F47" s="3">
-        <v>2187700</v>
+        <v>2142500</v>
       </c>
       <c r="G47" s="3">
-        <v>2953300</v>
+        <v>2892300</v>
       </c>
       <c r="H47" s="3">
-        <v>3167600</v>
+        <v>3102200</v>
       </c>
       <c r="I47" s="3">
-        <v>2552100</v>
+        <v>2499400</v>
       </c>
       <c r="J47" s="3">
-        <v>1902300</v>
+        <v>1863000</v>
       </c>
       <c r="K47" s="3">
         <v>1677900</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3055400</v>
+        <v>2992300</v>
       </c>
       <c r="E48" s="3">
-        <v>3474800</v>
+        <v>3403000</v>
       </c>
       <c r="F48" s="3">
-        <v>2883200</v>
+        <v>2823600</v>
       </c>
       <c r="G48" s="3">
-        <v>1303800</v>
+        <v>1276900</v>
       </c>
       <c r="H48" s="3">
-        <v>1289400</v>
+        <v>1262800</v>
       </c>
       <c r="I48" s="3">
-        <v>1061800</v>
+        <v>1039900</v>
       </c>
       <c r="J48" s="3">
-        <v>1028300</v>
+        <v>1007000</v>
       </c>
       <c r="K48" s="3">
         <v>1061900</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11684500</v>
+        <v>11443000</v>
       </c>
       <c r="E49" s="3">
-        <v>15413300</v>
+        <v>15094800</v>
       </c>
       <c r="F49" s="3">
-        <v>39958800</v>
+        <v>39133000</v>
       </c>
       <c r="G49" s="3">
-        <v>19928300</v>
+        <v>19516400</v>
       </c>
       <c r="H49" s="3">
-        <v>20541000</v>
+        <v>20116500</v>
       </c>
       <c r="I49" s="3">
-        <v>16487000</v>
+        <v>16146300</v>
       </c>
       <c r="J49" s="3">
-        <v>15505100</v>
+        <v>15184600</v>
       </c>
       <c r="K49" s="3">
         <v>15298200</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>491300</v>
+        <v>481200</v>
       </c>
       <c r="E52" s="3">
-        <v>433300</v>
+        <v>424300</v>
       </c>
       <c r="F52" s="3">
-        <v>443300</v>
+        <v>434100</v>
       </c>
       <c r="G52" s="3">
-        <v>447900</v>
+        <v>438700</v>
       </c>
       <c r="H52" s="3">
-        <v>459600</v>
+        <v>450100</v>
       </c>
       <c r="I52" s="3">
-        <v>363100</v>
+        <v>355600</v>
       </c>
       <c r="J52" s="3">
-        <v>516900</v>
+        <v>506200</v>
       </c>
       <c r="K52" s="3">
         <v>381600</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>48172400</v>
+        <v>47176800</v>
       </c>
       <c r="E54" s="3">
-        <v>52718700</v>
+        <v>51629200</v>
       </c>
       <c r="F54" s="3">
-        <v>56199200</v>
+        <v>55037700</v>
       </c>
       <c r="G54" s="3">
-        <v>44808600</v>
+        <v>43882500</v>
       </c>
       <c r="H54" s="3">
-        <v>46013900</v>
+        <v>45062900</v>
       </c>
       <c r="I54" s="3">
-        <v>38268100</v>
+        <v>37477200</v>
       </c>
       <c r="J54" s="3">
-        <v>35612000</v>
+        <v>34876000</v>
       </c>
       <c r="K54" s="3">
         <v>34337200</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13662800</v>
+        <v>13380400</v>
       </c>
       <c r="E57" s="3">
-        <v>13651100</v>
+        <v>13369000</v>
       </c>
       <c r="F57" s="3">
-        <v>34201800</v>
+        <v>33495000</v>
       </c>
       <c r="G57" s="3">
-        <v>13409100</v>
+        <v>13132000</v>
       </c>
       <c r="H57" s="3">
-        <v>14090800</v>
+        <v>13799500</v>
       </c>
       <c r="I57" s="3">
-        <v>11533000</v>
+        <v>11294700</v>
       </c>
       <c r="J57" s="3">
-        <v>10533500</v>
+        <v>10315800</v>
       </c>
       <c r="K57" s="3">
         <v>9886800</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>11904000</v>
+        <v>11658000</v>
       </c>
       <c r="E58" s="3">
-        <v>12427000</v>
+        <v>12170200</v>
       </c>
       <c r="F58" s="3">
-        <v>13940300</v>
+        <v>13652200</v>
       </c>
       <c r="G58" s="3">
-        <v>830700</v>
+        <v>813600</v>
       </c>
       <c r="H58" s="3">
-        <v>1334400</v>
+        <v>1306800</v>
       </c>
       <c r="I58" s="3">
-        <v>1240600</v>
+        <v>1214900</v>
       </c>
       <c r="J58" s="3">
-        <v>869500</v>
+        <v>851500</v>
       </c>
       <c r="K58" s="3">
         <v>2585400</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5226300</v>
+        <v>5118300</v>
       </c>
       <c r="E59" s="3">
-        <v>6126900</v>
+        <v>6000300</v>
       </c>
       <c r="F59" s="3">
-        <v>6538100</v>
+        <v>6403000</v>
       </c>
       <c r="G59" s="3">
-        <v>6411500</v>
+        <v>6279000</v>
       </c>
       <c r="H59" s="3">
-        <v>6891000</v>
+        <v>6748600</v>
       </c>
       <c r="I59" s="3">
-        <v>6148600</v>
+        <v>6021500</v>
       </c>
       <c r="J59" s="3">
-        <v>5363300</v>
+        <v>5252400</v>
       </c>
       <c r="K59" s="3">
         <v>4985900</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>30793100</v>
+        <v>30156700</v>
       </c>
       <c r="E60" s="3">
-        <v>31891300</v>
+        <v>31232200</v>
       </c>
       <c r="F60" s="3">
-        <v>33298100</v>
+        <v>32610000</v>
       </c>
       <c r="G60" s="3">
-        <v>20651400</v>
+        <v>20224500</v>
       </c>
       <c r="H60" s="3">
-        <v>22316200</v>
+        <v>21854900</v>
       </c>
       <c r="I60" s="3">
-        <v>18922300</v>
+        <v>18531200</v>
       </c>
       <c r="J60" s="3">
-        <v>16766300</v>
+        <v>16419800</v>
       </c>
       <c r="K60" s="3">
         <v>16165500</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9062100</v>
+        <v>8874800</v>
       </c>
       <c r="E61" s="3">
-        <v>7979700</v>
+        <v>7814800</v>
       </c>
       <c r="F61" s="3">
-        <v>7500500</v>
+        <v>7345500</v>
       </c>
       <c r="G61" s="3">
-        <v>8319900</v>
+        <v>8148000</v>
       </c>
       <c r="H61" s="3">
-        <v>7407400</v>
+        <v>7254300</v>
       </c>
       <c r="I61" s="3">
-        <v>6204500</v>
+        <v>6076300</v>
       </c>
       <c r="J61" s="3">
-        <v>5504000</v>
+        <v>5390200</v>
       </c>
       <c r="K61" s="3">
         <v>4834500</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1440100</v>
+        <v>1410400</v>
       </c>
       <c r="E62" s="3">
-        <v>1645500</v>
+        <v>1611500</v>
       </c>
       <c r="F62" s="3">
-        <v>3496700</v>
+        <v>3424400</v>
       </c>
       <c r="G62" s="3">
-        <v>2584700</v>
+        <v>2531300</v>
       </c>
       <c r="H62" s="3">
-        <v>3288600</v>
+        <v>3220600</v>
       </c>
       <c r="I62" s="3">
-        <v>2471500</v>
+        <v>2420400</v>
       </c>
       <c r="J62" s="3">
-        <v>2923500</v>
+        <v>2863100</v>
       </c>
       <c r="K62" s="3">
         <v>2562500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>41718800</v>
+        <v>40856600</v>
       </c>
       <c r="E66" s="3">
-        <v>42010800</v>
+        <v>41142600</v>
       </c>
       <c r="F66" s="3">
-        <v>43740200</v>
+        <v>42836200</v>
       </c>
       <c r="G66" s="3">
-        <v>32180000</v>
+        <v>31514900</v>
       </c>
       <c r="H66" s="3">
-        <v>33602000</v>
+        <v>32907600</v>
       </c>
       <c r="I66" s="3">
-        <v>28101900</v>
+        <v>27521100</v>
       </c>
       <c r="J66" s="3">
-        <v>25628600</v>
+        <v>25098900</v>
       </c>
       <c r="K66" s="3">
         <v>23919000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6595300</v>
+        <v>6459000</v>
       </c>
       <c r="E72" s="3">
-        <v>10935000</v>
+        <v>10709000</v>
       </c>
       <c r="F72" s="3">
-        <v>12815000</v>
+        <v>12550200</v>
       </c>
       <c r="G72" s="3">
-        <v>11900600</v>
+        <v>11654600</v>
       </c>
       <c r="H72" s="3">
-        <v>10863800</v>
+        <v>10639200</v>
       </c>
       <c r="I72" s="3">
-        <v>9951300</v>
+        <v>9745600</v>
       </c>
       <c r="J72" s="3">
-        <v>9135600</v>
+        <v>8946800</v>
       </c>
       <c r="K72" s="3">
         <v>9312400</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6453600</v>
+        <v>6320200</v>
       </c>
       <c r="E76" s="3">
-        <v>10707900</v>
+        <v>10486600</v>
       </c>
       <c r="F76" s="3">
-        <v>12459000</v>
+        <v>12201500</v>
       </c>
       <c r="G76" s="3">
-        <v>12628500</v>
+        <v>12367500</v>
       </c>
       <c r="H76" s="3">
-        <v>12411800</v>
+        <v>12155300</v>
       </c>
       <c r="I76" s="3">
-        <v>10166100</v>
+        <v>9956000</v>
       </c>
       <c r="J76" s="3">
-        <v>9983400</v>
+        <v>9777100</v>
       </c>
       <c r="K76" s="3">
         <v>10418100</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3949800</v>
+        <v>-3868100</v>
       </c>
       <c r="E81" s="3">
-        <v>1139800</v>
+        <v>1116300</v>
       </c>
       <c r="F81" s="3">
-        <v>1097600</v>
+        <v>1074900</v>
       </c>
       <c r="G81" s="3">
-        <v>2418100</v>
+        <v>2368100</v>
       </c>
       <c r="H81" s="3">
-        <v>1863700</v>
+        <v>1825200</v>
       </c>
       <c r="I81" s="3">
-        <v>1544300</v>
+        <v>1512400</v>
       </c>
       <c r="J81" s="3">
-        <v>1433900</v>
+        <v>1404200</v>
       </c>
       <c r="K81" s="3">
         <v>1286000</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>839900</v>
+        <v>822600</v>
       </c>
       <c r="E83" s="3">
-        <v>913500</v>
+        <v>894700</v>
       </c>
       <c r="F83" s="3">
-        <v>723900</v>
+        <v>708900</v>
       </c>
       <c r="G83" s="3">
-        <v>615100</v>
+        <v>602400</v>
       </c>
       <c r="H83" s="3">
-        <v>569400</v>
+        <v>557700</v>
       </c>
       <c r="I83" s="3">
-        <v>490500</v>
+        <v>480400</v>
       </c>
       <c r="J83" s="3">
-        <v>501000</v>
+        <v>490700</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2735100</v>
+        <v>2678600</v>
       </c>
       <c r="E89" s="3">
-        <v>2463200</v>
+        <v>2412300</v>
       </c>
       <c r="F89" s="3">
-        <v>2254600</v>
+        <v>2208000</v>
       </c>
       <c r="G89" s="3">
-        <v>1874300</v>
+        <v>1835600</v>
       </c>
       <c r="H89" s="3">
-        <v>2361100</v>
+        <v>2312300</v>
       </c>
       <c r="I89" s="3">
-        <v>1810200</v>
+        <v>1772800</v>
       </c>
       <c r="J89" s="3">
-        <v>2267800</v>
+        <v>2220900</v>
       </c>
       <c r="K89" s="3">
         <v>1887000</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-290600</v>
+        <v>-284600</v>
       </c>
       <c r="E91" s="3">
-        <v>-451600</v>
+        <v>-442300</v>
       </c>
       <c r="F91" s="3">
-        <v>-419000</v>
+        <v>-410400</v>
       </c>
       <c r="G91" s="3">
-        <v>-384600</v>
+        <v>-376600</v>
       </c>
       <c r="H91" s="3">
-        <v>-335600</v>
+        <v>-328600</v>
       </c>
       <c r="I91" s="3">
-        <v>-279900</v>
+        <v>-274100</v>
       </c>
       <c r="J91" s="3">
-        <v>-236800</v>
+        <v>-231900</v>
       </c>
       <c r="K91" s="3">
         <v>-330500</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-223100</v>
+        <v>-218500</v>
       </c>
       <c r="E94" s="3">
-        <v>2342200</v>
+        <v>2293800</v>
       </c>
       <c r="F94" s="3">
-        <v>245600</v>
+        <v>240500</v>
       </c>
       <c r="G94" s="3">
-        <v>-665200</v>
+        <v>-651400</v>
       </c>
       <c r="H94" s="3">
-        <v>-1219600</v>
+        <v>-1194300</v>
       </c>
       <c r="I94" s="3">
-        <v>-1201300</v>
+        <v>-1176500</v>
       </c>
       <c r="J94" s="3">
-        <v>-928600</v>
+        <v>-909400</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-162400</v>
+        <v>-159000</v>
       </c>
       <c r="E96" s="3">
-        <v>-999000</v>
+        <v>-978300</v>
       </c>
       <c r="F96" s="3">
-        <v>-994900</v>
+        <v>-974300</v>
       </c>
       <c r="G96" s="3">
-        <v>-1000300</v>
+        <v>-979600</v>
       </c>
       <c r="H96" s="3">
-        <v>-820600</v>
+        <v>-803700</v>
       </c>
       <c r="I96" s="3">
-        <v>-726500</v>
+        <v>-711500</v>
       </c>
       <c r="J96" s="3">
-        <v>-612300</v>
+        <v>-599700</v>
       </c>
       <c r="K96" s="3">
         <v>-545600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-333400</v>
+        <v>-326500</v>
       </c>
       <c r="E100" s="3">
-        <v>-3889500</v>
+        <v>-3809100</v>
       </c>
       <c r="F100" s="3">
-        <v>-2148100</v>
+        <v>-2103700</v>
       </c>
       <c r="G100" s="3">
-        <v>-1045700</v>
+        <v>-1024100</v>
       </c>
       <c r="H100" s="3">
-        <v>-1588700</v>
+        <v>-1555800</v>
       </c>
       <c r="I100" s="3">
-        <v>-937100</v>
+        <v>-917700</v>
       </c>
       <c r="J100" s="3">
-        <v>-760600</v>
+        <v>-744900</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-132000</v>
+        <v>-129300</v>
       </c>
       <c r="E101" s="3">
-        <v>-119400</v>
+        <v>-116900</v>
       </c>
       <c r="F101" s="3">
-        <v>-81900</v>
+        <v>-80200</v>
       </c>
       <c r="G101" s="3">
-        <v>-36200</v>
+        <v>-35500</v>
       </c>
       <c r="H101" s="3">
-        <v>388500</v>
+        <v>380500</v>
       </c>
       <c r="I101" s="3">
-        <v>-72400</v>
+        <v>-70900</v>
       </c>
       <c r="J101" s="3">
-        <v>-93600</v>
+        <v>-91600</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2046600</v>
+        <v>2004300</v>
       </c>
       <c r="E102" s="3">
-        <v>796500</v>
+        <v>780100</v>
       </c>
       <c r="F102" s="3">
-        <v>270200</v>
+        <v>264600</v>
       </c>
       <c r="G102" s="3">
-        <v>127300</v>
+        <v>124600</v>
       </c>
       <c r="H102" s="3">
-        <v>-58600</v>
+        <v>-57400</v>
       </c>
       <c r="I102" s="3">
-        <v>-400700</v>
+        <v>-392400</v>
       </c>
       <c r="J102" s="3">
-        <v>485100</v>
+        <v>475000</v>
       </c>
       <c r="K102" s="3">
         <v>719400</v>

--- a/AAII_Financials/Yearly/WPP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WPP_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>WPP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15646700</v>
+        <v>15616100</v>
       </c>
       <c r="E8" s="3">
-        <v>17251800</v>
+        <v>14642200</v>
       </c>
       <c r="F8" s="3">
-        <v>17007500</v>
+        <v>16144300</v>
       </c>
       <c r="G8" s="3">
-        <v>20602200</v>
+        <v>15915700</v>
       </c>
       <c r="H8" s="3">
-        <v>18757200</v>
+        <v>19279500</v>
       </c>
       <c r="I8" s="3">
-        <v>15949700</v>
+        <v>17553000</v>
       </c>
       <c r="J8" s="3">
+        <v>14925700</v>
+      </c>
+      <c r="K8" s="3">
         <v>15029000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15131700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13410400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>13071500</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>13020100</v>
+        <v>12927900</v>
       </c>
       <c r="E9" s="3">
-        <v>14111500</v>
+        <v>12184200</v>
       </c>
       <c r="F9" s="3">
-        <v>13764700</v>
+        <v>13205500</v>
       </c>
       <c r="G9" s="3">
-        <v>16463000</v>
+        <v>12881000</v>
       </c>
       <c r="H9" s="3">
-        <v>14793300</v>
+        <v>15406100</v>
       </c>
       <c r="I9" s="3">
-        <v>12656700</v>
+        <v>13843500</v>
       </c>
       <c r="J9" s="3">
+        <v>11844100</v>
+      </c>
+      <c r="K9" s="3">
         <v>1908600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1295300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1109600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1021700</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2626600</v>
+        <v>2688200</v>
       </c>
       <c r="E10" s="3">
-        <v>3140300</v>
+        <v>2458000</v>
       </c>
       <c r="F10" s="3">
-        <v>3242800</v>
+        <v>2938700</v>
       </c>
       <c r="G10" s="3">
-        <v>4139200</v>
+        <v>3034600</v>
       </c>
       <c r="H10" s="3">
-        <v>3964000</v>
+        <v>3873400</v>
       </c>
       <c r="I10" s="3">
-        <v>3293000</v>
+        <v>3709500</v>
       </c>
       <c r="J10" s="3">
+        <v>3081600</v>
+      </c>
+      <c r="K10" s="3">
         <v>13120400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>13836400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>12300800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>12049900</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,45 +925,51 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>190500</v>
+        <v>76000</v>
       </c>
       <c r="E14" s="3">
-        <v>62300</v>
+        <v>178200</v>
       </c>
       <c r="F14" s="3">
-        <v>54100</v>
+        <v>58300</v>
       </c>
       <c r="G14" s="3">
+        <v>50600</v>
+      </c>
+      <c r="H14" s="3">
         <v>-1000</v>
       </c>
-      <c r="H14" s="3">
-        <v>-100000</v>
-      </c>
       <c r="I14" s="3">
-        <v>143300</v>
+        <v>-93600</v>
       </c>
       <c r="J14" s="3">
+        <v>134100</v>
+      </c>
+      <c r="K14" s="3">
         <v>244600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>49800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>185900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1600</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -963,27 +985,30 @@
       <c r="G15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="3">
-        <v>550400</v>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I15" s="3">
-        <v>474200</v>
+        <v>515000</v>
       </c>
       <c r="J15" s="3">
+        <v>443800</v>
+      </c>
+      <c r="K15" s="3">
         <v>483400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>560300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>503900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>490900</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>18806900</v>
+        <v>14192800</v>
       </c>
       <c r="E17" s="3">
-        <v>15624800</v>
+        <v>17599500</v>
       </c>
       <c r="F17" s="3">
-        <v>15438300</v>
+        <v>14621700</v>
       </c>
       <c r="G17" s="3">
-        <v>18113600</v>
+        <v>14447200</v>
       </c>
       <c r="H17" s="3">
-        <v>16087600</v>
+        <v>16950800</v>
       </c>
       <c r="I17" s="3">
-        <v>13850600</v>
+        <v>15054800</v>
       </c>
       <c r="J17" s="3">
+        <v>12961400</v>
+      </c>
+      <c r="K17" s="3">
         <v>12983400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13209800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11805900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11516500</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-3160200</v>
+        <v>1423300</v>
       </c>
       <c r="E18" s="3">
-        <v>1627000</v>
+        <v>-2957300</v>
       </c>
       <c r="F18" s="3">
-        <v>1569300</v>
+        <v>1522600</v>
       </c>
       <c r="G18" s="3">
-        <v>2488600</v>
+        <v>1468500</v>
       </c>
       <c r="H18" s="3">
-        <v>2669600</v>
+        <v>2328800</v>
       </c>
       <c r="I18" s="3">
-        <v>2099000</v>
+        <v>2498200</v>
       </c>
       <c r="J18" s="3">
+        <v>1964300</v>
+      </c>
+      <c r="K18" s="3">
         <v>2045600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1921900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1604500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1555000</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-78700</v>
+        <v>77500</v>
       </c>
       <c r="E20" s="3">
-        <v>414400</v>
+        <v>-73700</v>
       </c>
       <c r="F20" s="3">
-        <v>114100</v>
+        <v>387800</v>
       </c>
       <c r="G20" s="3">
-        <v>599500</v>
+        <v>106700</v>
       </c>
       <c r="H20" s="3">
-        <v>114300</v>
+        <v>561000</v>
       </c>
       <c r="I20" s="3">
-        <v>126100</v>
+        <v>107000</v>
       </c>
       <c r="J20" s="3">
+        <v>118000</v>
+      </c>
+      <c r="K20" s="3">
         <v>176600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>207400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>139100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>88400</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-2407300</v>
+        <v>2164400</v>
       </c>
       <c r="E21" s="3">
-        <v>2945900</v>
+        <v>-2258000</v>
       </c>
       <c r="F21" s="3">
-        <v>2400000</v>
+        <v>2751100</v>
       </c>
       <c r="G21" s="3">
-        <v>3697100</v>
+        <v>2241400</v>
       </c>
       <c r="H21" s="3">
-        <v>3347700</v>
+        <v>3455900</v>
       </c>
       <c r="I21" s="3">
-        <v>2710700</v>
+        <v>3129300</v>
       </c>
       <c r="J21" s="3">
+        <v>2533700</v>
+      </c>
+      <c r="K21" s="3">
         <v>2718300</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2259200</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>398900</v>
+        <v>340800</v>
       </c>
       <c r="E22" s="3">
-        <v>458500</v>
+        <v>373300</v>
       </c>
       <c r="F22" s="3">
-        <v>354600</v>
+        <v>429000</v>
       </c>
       <c r="G22" s="3">
-        <v>338400</v>
+        <v>331800</v>
       </c>
       <c r="H22" s="3">
-        <v>319500</v>
+        <v>316700</v>
       </c>
       <c r="I22" s="3">
-        <v>279400</v>
+        <v>299000</v>
       </c>
       <c r="J22" s="3">
+        <v>261400</v>
+      </c>
+      <c r="K22" s="3">
         <v>329500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>349900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>332000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>328200</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-3637800</v>
+        <v>1159900</v>
       </c>
       <c r="E23" s="3">
-        <v>1582900</v>
+        <v>-3404300</v>
       </c>
       <c r="F23" s="3">
-        <v>1328700</v>
+        <v>1481300</v>
       </c>
       <c r="G23" s="3">
-        <v>2749700</v>
+        <v>1243400</v>
       </c>
       <c r="H23" s="3">
-        <v>2464400</v>
+        <v>2573100</v>
       </c>
       <c r="I23" s="3">
-        <v>1945700</v>
+        <v>2306200</v>
       </c>
       <c r="J23" s="3">
+        <v>1820800</v>
+      </c>
+      <c r="K23" s="3">
         <v>1892700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1779400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1411600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1315300</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>168600</v>
+        <v>280700</v>
       </c>
       <c r="E24" s="3">
-        <v>358500</v>
+        <v>157700</v>
       </c>
       <c r="F24" s="3">
-        <v>339700</v>
+        <v>350400</v>
       </c>
       <c r="G24" s="3">
-        <v>525300</v>
+        <v>317900</v>
       </c>
       <c r="H24" s="3">
-        <v>507000</v>
+        <v>491600</v>
       </c>
       <c r="I24" s="3">
-        <v>322600</v>
+        <v>474400</v>
       </c>
       <c r="J24" s="3">
+        <v>301900</v>
+      </c>
+      <c r="K24" s="3">
         <v>391600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>389600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>254900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>119900</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-3806400</v>
+        <v>879200</v>
       </c>
       <c r="E26" s="3">
-        <v>1224500</v>
+        <v>-3562000</v>
       </c>
       <c r="F26" s="3">
-        <v>989000</v>
+        <v>1131000</v>
       </c>
       <c r="G26" s="3">
-        <v>2224300</v>
+        <v>925500</v>
       </c>
       <c r="H26" s="3">
-        <v>1957500</v>
+        <v>2081500</v>
       </c>
       <c r="I26" s="3">
-        <v>1623100</v>
+        <v>1831800</v>
       </c>
       <c r="J26" s="3">
+        <v>1518900</v>
+      </c>
+      <c r="K26" s="3">
         <v>1501100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1389800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1156700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1195400</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3876600</v>
+        <v>777900</v>
       </c>
       <c r="E27" s="3">
-        <v>1121200</v>
+        <v>-3627700</v>
       </c>
       <c r="F27" s="3">
-        <v>904200</v>
+        <v>1034400</v>
       </c>
       <c r="G27" s="3">
-        <v>2099600</v>
+        <v>846100</v>
       </c>
       <c r="H27" s="3">
-        <v>1825200</v>
+        <v>1964800</v>
       </c>
       <c r="I27" s="3">
-        <v>1512400</v>
+        <v>1708000</v>
       </c>
       <c r="J27" s="3">
+        <v>1415300</v>
+      </c>
+      <c r="K27" s="3">
         <v>1404200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1286000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1063600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1095800</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,26 +1463,29 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>8500</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-5000</v>
+        <v>7900</v>
       </c>
       <c r="F29" s="3">
-        <v>170800</v>
+        <v>-4600</v>
       </c>
       <c r="G29" s="3">
-        <v>268500</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
+        <v>159800</v>
+      </c>
+      <c r="H29" s="3">
+        <v>251300</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>78700</v>
+        <v>-77500</v>
       </c>
       <c r="E32" s="3">
-        <v>-414400</v>
+        <v>73700</v>
       </c>
       <c r="F32" s="3">
-        <v>-114100</v>
+        <v>-387800</v>
       </c>
       <c r="G32" s="3">
-        <v>-599500</v>
+        <v>-106700</v>
       </c>
       <c r="H32" s="3">
-        <v>-114300</v>
+        <v>-561000</v>
       </c>
       <c r="I32" s="3">
-        <v>-126100</v>
+        <v>-107000</v>
       </c>
       <c r="J32" s="3">
+        <v>-118000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-176600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-207400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-139100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-88400</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3868100</v>
+        <v>777900</v>
       </c>
       <c r="E33" s="3">
-        <v>1116300</v>
+        <v>-3619800</v>
       </c>
       <c r="F33" s="3">
-        <v>1074900</v>
+        <v>1029700</v>
       </c>
       <c r="G33" s="3">
-        <v>2368100</v>
+        <v>1005900</v>
       </c>
       <c r="H33" s="3">
-        <v>1825200</v>
+        <v>2216100</v>
       </c>
       <c r="I33" s="3">
-        <v>1512400</v>
+        <v>1708000</v>
       </c>
       <c r="J33" s="3">
+        <v>1415300</v>
+      </c>
+      <c r="K33" s="3">
         <v>1404200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1286000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1063600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1095800</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3868100</v>
+        <v>777900</v>
       </c>
       <c r="E35" s="3">
-        <v>1116300</v>
+        <v>-3619800</v>
       </c>
       <c r="F35" s="3">
-        <v>1074900</v>
+        <v>1029700</v>
       </c>
       <c r="G35" s="3">
-        <v>2368100</v>
+        <v>1005900</v>
       </c>
       <c r="H35" s="3">
-        <v>1825200</v>
+        <v>2216100</v>
       </c>
       <c r="I35" s="3">
-        <v>1512400</v>
+        <v>1708000</v>
       </c>
       <c r="J35" s="3">
+        <v>1415300</v>
+      </c>
+      <c r="K35" s="3">
         <v>1404200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1286000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1063600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1095800</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,44 +1817,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>16815100</v>
+        <v>4736700</v>
       </c>
       <c r="E41" s="3">
-        <v>14738000</v>
+        <v>15735600</v>
       </c>
       <c r="F41" s="3">
-        <v>14425300</v>
+        <v>13791800</v>
       </c>
       <c r="G41" s="3">
-        <v>3117400</v>
+        <v>13499200</v>
       </c>
       <c r="H41" s="3">
-        <v>2941200</v>
+        <v>2917300</v>
       </c>
       <c r="I41" s="3">
-        <v>2904100</v>
+        <v>2752300</v>
       </c>
       <c r="J41" s="3">
+        <v>2717700</v>
+      </c>
+      <c r="K41" s="3">
         <v>2564200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2882500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2225400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2391500</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1785,279 +1874,303 @@
       <c r="G42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="3">
-        <v>235600</v>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I42" s="3">
-        <v>201500</v>
+        <v>220400</v>
       </c>
       <c r="J42" s="3">
+        <v>188600</v>
+      </c>
+      <c r="K42" s="3">
         <v>711400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>168200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>289500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>147500</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>13808900</v>
+        <v>13395600</v>
       </c>
       <c r="E43" s="3">
-        <v>14795400</v>
+        <v>12894600</v>
       </c>
       <c r="F43" s="3">
-        <v>33563000</v>
+        <v>28239700</v>
       </c>
       <c r="G43" s="3">
-        <v>26012700</v>
+        <v>31408300</v>
       </c>
       <c r="H43" s="3">
-        <v>16009400</v>
+        <v>24342700</v>
       </c>
       <c r="I43" s="3">
-        <v>13589100</v>
+        <v>14981600</v>
       </c>
       <c r="J43" s="3">
+        <v>12716700</v>
+      </c>
+      <c r="K43" s="3">
         <v>12308600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>12242100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8919100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9083500</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>344300</v>
+        <v>309900</v>
       </c>
       <c r="E44" s="3">
-        <v>455600</v>
+        <v>322200</v>
       </c>
       <c r="F44" s="3">
-        <v>477800</v>
+        <v>426400</v>
       </c>
       <c r="G44" s="3">
-        <v>553100</v>
+        <v>447100</v>
       </c>
       <c r="H44" s="3">
-        <v>522000</v>
+        <v>517600</v>
       </c>
       <c r="I44" s="3">
-        <v>428900</v>
+        <v>488400</v>
       </c>
       <c r="J44" s="3">
+        <v>401300</v>
+      </c>
+      <c r="K44" s="3">
         <v>426700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>418100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>450200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>435500</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>323700</v>
+        <v>265700</v>
       </c>
       <c r="E45" s="3">
-        <v>1008700</v>
+        <v>302900</v>
       </c>
       <c r="F45" s="3">
-        <v>376200</v>
+        <v>944000</v>
       </c>
       <c r="G45" s="3">
-        <v>390200</v>
+        <v>352100</v>
       </c>
       <c r="H45" s="3">
-        <v>423300</v>
+        <v>365100</v>
       </c>
       <c r="I45" s="3">
-        <v>312300</v>
+        <v>396100</v>
       </c>
       <c r="J45" s="3">
+        <v>292300</v>
+      </c>
+      <c r="K45" s="3">
         <v>304400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>424300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2885800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2666000</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>31292000</v>
+        <v>18707900</v>
       </c>
       <c r="E46" s="3">
-        <v>30997700</v>
+        <v>29255300</v>
       </c>
       <c r="F46" s="3">
-        <v>31763300</v>
+        <v>28979800</v>
       </c>
       <c r="G46" s="3">
-        <v>19758300</v>
+        <v>29724100</v>
       </c>
       <c r="H46" s="3">
-        <v>20131300</v>
+        <v>18489800</v>
       </c>
       <c r="I46" s="3">
-        <v>17436000</v>
+        <v>18838900</v>
       </c>
       <c r="J46" s="3">
+        <v>16316700</v>
+      </c>
+      <c r="K46" s="3">
         <v>16315200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>16135300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>14770000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>14724000</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>968300</v>
+        <v>948800</v>
       </c>
       <c r="E47" s="3">
-        <v>1709400</v>
+        <v>906100</v>
       </c>
       <c r="F47" s="3">
-        <v>2142500</v>
+        <v>1767500</v>
       </c>
       <c r="G47" s="3">
-        <v>2892300</v>
+        <v>2004900</v>
       </c>
       <c r="H47" s="3">
-        <v>3102200</v>
+        <v>2706600</v>
       </c>
       <c r="I47" s="3">
-        <v>2499400</v>
+        <v>2903000</v>
       </c>
       <c r="J47" s="3">
+        <v>2338900</v>
+      </c>
+      <c r="K47" s="3">
         <v>1863000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1677900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1470700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1408300</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2992300</v>
+        <v>2795400</v>
       </c>
       <c r="E48" s="3">
-        <v>3403000</v>
+        <v>2800200</v>
       </c>
       <c r="F48" s="3">
-        <v>2823600</v>
+        <v>3184500</v>
       </c>
       <c r="G48" s="3">
-        <v>1276900</v>
+        <v>2642300</v>
       </c>
       <c r="H48" s="3">
-        <v>1262800</v>
+        <v>1194900</v>
       </c>
       <c r="I48" s="3">
-        <v>1039900</v>
+        <v>1181700</v>
       </c>
       <c r="J48" s="3">
+        <v>973100</v>
+      </c>
+      <c r="K48" s="3">
         <v>1007000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1061900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>993300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>949900</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11443000</v>
+        <v>10944700</v>
       </c>
       <c r="E49" s="3">
-        <v>15094800</v>
+        <v>10708400</v>
       </c>
       <c r="F49" s="3">
-        <v>39133000</v>
+        <v>14125700</v>
       </c>
       <c r="G49" s="3">
-        <v>19516400</v>
+        <v>36620700</v>
       </c>
       <c r="H49" s="3">
-        <v>20116500</v>
+        <v>18263500</v>
       </c>
       <c r="I49" s="3">
-        <v>16146300</v>
+        <v>18825000</v>
       </c>
       <c r="J49" s="3">
+        <v>15109700</v>
+      </c>
+      <c r="K49" s="3">
         <v>15184600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>15298200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>14588800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>14726600</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>481200</v>
+        <v>602800</v>
       </c>
       <c r="E52" s="3">
-        <v>424300</v>
+        <v>450300</v>
       </c>
       <c r="F52" s="3">
-        <v>434100</v>
+        <v>397100</v>
       </c>
       <c r="G52" s="3">
-        <v>438700</v>
+        <v>406200</v>
       </c>
       <c r="H52" s="3">
-        <v>450100</v>
+        <v>410500</v>
       </c>
       <c r="I52" s="3">
-        <v>355600</v>
+        <v>421200</v>
       </c>
       <c r="J52" s="3">
+        <v>332800</v>
+      </c>
+      <c r="K52" s="3">
         <v>506200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>381600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>339200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>401100</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>47176800</v>
+        <v>33999600</v>
       </c>
       <c r="E54" s="3">
-        <v>51629200</v>
+        <v>44120200</v>
       </c>
       <c r="F54" s="3">
-        <v>55037700</v>
+        <v>48286800</v>
       </c>
       <c r="G54" s="3">
-        <v>43882500</v>
+        <v>51504300</v>
       </c>
       <c r="H54" s="3">
-        <v>45062900</v>
+        <v>41065200</v>
       </c>
       <c r="I54" s="3">
-        <v>37477200</v>
+        <v>42169900</v>
       </c>
       <c r="J54" s="3">
+        <v>35071100</v>
+      </c>
+      <c r="K54" s="3">
         <v>34876000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>34337200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>32162000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>32209800</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13380400</v>
+        <v>13031600</v>
       </c>
       <c r="E57" s="3">
-        <v>13369000</v>
+        <v>12521400</v>
       </c>
       <c r="F57" s="3">
-        <v>33495000</v>
+        <v>29818700</v>
       </c>
       <c r="G57" s="3">
-        <v>13132000</v>
+        <v>31344600</v>
       </c>
       <c r="H57" s="3">
-        <v>13799500</v>
+        <v>12288900</v>
       </c>
       <c r="I57" s="3">
-        <v>11294700</v>
+        <v>12913600</v>
       </c>
       <c r="J57" s="3">
+        <v>10569600</v>
+      </c>
+      <c r="K57" s="3">
         <v>10315800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9886800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9387000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9638200</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>11658000</v>
+        <v>1033100</v>
       </c>
       <c r="E58" s="3">
-        <v>12170200</v>
+        <v>10909600</v>
       </c>
       <c r="F58" s="3">
-        <v>13652200</v>
+        <v>21834000</v>
       </c>
       <c r="G58" s="3">
-        <v>813600</v>
+        <v>12775800</v>
       </c>
       <c r="H58" s="3">
-        <v>1306800</v>
+        <v>761300</v>
       </c>
       <c r="I58" s="3">
-        <v>1214900</v>
+        <v>1222900</v>
       </c>
       <c r="J58" s="3">
+        <v>1136900</v>
+      </c>
+      <c r="K58" s="3">
         <v>851500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2585400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1403900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>676200</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5118300</v>
+        <v>6045800</v>
       </c>
       <c r="E59" s="3">
-        <v>6000300</v>
+        <v>4903800</v>
       </c>
       <c r="F59" s="3">
-        <v>6403000</v>
+        <v>5731800</v>
       </c>
       <c r="G59" s="3">
-        <v>6279000</v>
+        <v>5991900</v>
       </c>
       <c r="H59" s="3">
-        <v>6748600</v>
+        <v>5875900</v>
       </c>
       <c r="I59" s="3">
-        <v>6021500</v>
+        <v>6315300</v>
       </c>
       <c r="J59" s="3">
+        <v>5635000</v>
+      </c>
+      <c r="K59" s="3">
         <v>5252400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4985900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4847800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5073000</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>30156700</v>
+        <v>20110500</v>
       </c>
       <c r="E60" s="3">
-        <v>31232200</v>
+        <v>28334700</v>
       </c>
       <c r="F60" s="3">
-        <v>32610000</v>
+        <v>29343800</v>
       </c>
       <c r="G60" s="3">
-        <v>20224500</v>
+        <v>30516400</v>
       </c>
       <c r="H60" s="3">
-        <v>21854900</v>
+        <v>18926100</v>
       </c>
       <c r="I60" s="3">
-        <v>18531200</v>
+        <v>20451900</v>
       </c>
       <c r="J60" s="3">
+        <v>17341500</v>
+      </c>
+      <c r="K60" s="3">
         <v>16419800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>16165500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>15638600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>15387300</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8874800</v>
+        <v>7293700</v>
       </c>
       <c r="E61" s="3">
-        <v>7814800</v>
+        <v>8305100</v>
       </c>
       <c r="F61" s="3">
-        <v>7345500</v>
+        <v>7313100</v>
       </c>
       <c r="G61" s="3">
-        <v>8148000</v>
+        <v>6873900</v>
       </c>
       <c r="H61" s="3">
-        <v>7254300</v>
+        <v>7624900</v>
       </c>
       <c r="I61" s="3">
-        <v>6076300</v>
+        <v>6788600</v>
       </c>
       <c r="J61" s="3">
+        <v>5686200</v>
+      </c>
+      <c r="K61" s="3">
         <v>5390200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4834500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4758300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5077700</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1410400</v>
+        <v>1631600</v>
       </c>
       <c r="E62" s="3">
-        <v>1611500</v>
+        <v>1319800</v>
       </c>
       <c r="F62" s="3">
-        <v>3424400</v>
+        <v>2056500</v>
       </c>
       <c r="G62" s="3">
-        <v>2531300</v>
+        <v>3204600</v>
       </c>
       <c r="H62" s="3">
-        <v>3220600</v>
+        <v>2368800</v>
       </c>
       <c r="I62" s="3">
-        <v>2420400</v>
+        <v>3013900</v>
       </c>
       <c r="J62" s="3">
+        <v>2265000</v>
+      </c>
+      <c r="K62" s="3">
         <v>2863100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2562500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2637100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2752500</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>40856600</v>
+        <v>29587900</v>
       </c>
       <c r="E66" s="3">
-        <v>41142600</v>
+        <v>38347700</v>
       </c>
       <c r="F66" s="3">
-        <v>42836200</v>
+        <v>38618000</v>
       </c>
       <c r="G66" s="3">
-        <v>31514900</v>
+        <v>40086200</v>
       </c>
       <c r="H66" s="3">
-        <v>32907600</v>
+        <v>29491700</v>
       </c>
       <c r="I66" s="3">
-        <v>27521100</v>
+        <v>30794900</v>
       </c>
       <c r="J66" s="3">
+        <v>25754300</v>
+      </c>
+      <c r="K66" s="3">
         <v>25098900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23919000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>23356700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>23518800</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6459000</v>
+        <v>4640700</v>
       </c>
       <c r="E72" s="3">
-        <v>10709000</v>
+        <v>5908300</v>
       </c>
       <c r="F72" s="3">
-        <v>12550200</v>
+        <v>9882800</v>
       </c>
       <c r="G72" s="3">
-        <v>11654600</v>
+        <v>11744500</v>
       </c>
       <c r="H72" s="3">
-        <v>10639200</v>
+        <v>10906400</v>
       </c>
       <c r="I72" s="3">
-        <v>9745600</v>
+        <v>9956200</v>
       </c>
       <c r="J72" s="3">
+        <v>9120000</v>
+      </c>
+      <c r="K72" s="3">
         <v>8946800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9312400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7691400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>7278600</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6320200</v>
+        <v>4411600</v>
       </c>
       <c r="E76" s="3">
-        <v>10486600</v>
+        <v>5772600</v>
       </c>
       <c r="F76" s="3">
-        <v>12201500</v>
+        <v>9668800</v>
       </c>
       <c r="G76" s="3">
-        <v>12367500</v>
+        <v>11418100</v>
       </c>
       <c r="H76" s="3">
-        <v>12155300</v>
+        <v>11573600</v>
       </c>
       <c r="I76" s="3">
-        <v>9956000</v>
+        <v>11375000</v>
       </c>
       <c r="J76" s="3">
+        <v>9316900</v>
+      </c>
+      <c r="K76" s="3">
         <v>9777100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10418100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8805300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8691000</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3868100</v>
+        <v>777900</v>
       </c>
       <c r="E81" s="3">
-        <v>1116300</v>
+        <v>-3619800</v>
       </c>
       <c r="F81" s="3">
-        <v>1074900</v>
+        <v>1029700</v>
       </c>
       <c r="G81" s="3">
-        <v>2368100</v>
+        <v>1005900</v>
       </c>
       <c r="H81" s="3">
-        <v>1825200</v>
+        <v>2216100</v>
       </c>
       <c r="I81" s="3">
-        <v>1512400</v>
+        <v>1708000</v>
       </c>
       <c r="J81" s="3">
+        <v>1415300</v>
+      </c>
+      <c r="K81" s="3">
         <v>1404200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1286000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1063600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1095800</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>822600</v>
+        <v>660900</v>
       </c>
       <c r="E83" s="3">
-        <v>894700</v>
+        <v>769800</v>
       </c>
       <c r="F83" s="3">
-        <v>708900</v>
+        <v>837200</v>
       </c>
       <c r="G83" s="3">
-        <v>602400</v>
+        <v>663400</v>
       </c>
       <c r="H83" s="3">
-        <v>557700</v>
+        <v>563700</v>
       </c>
       <c r="I83" s="3">
-        <v>480400</v>
+        <v>521900</v>
       </c>
       <c r="J83" s="3">
+        <v>449500</v>
+      </c>
+      <c r="K83" s="3">
         <v>490700</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>512700</v>
       </c>
-      <c r="M83" s="3" t="s">
+      <c r="N83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2678600</v>
+        <v>2479800</v>
       </c>
       <c r="E89" s="3">
-        <v>2412300</v>
+        <v>2506700</v>
       </c>
       <c r="F89" s="3">
-        <v>2208000</v>
+        <v>2257400</v>
       </c>
       <c r="G89" s="3">
-        <v>1835600</v>
+        <v>2066300</v>
       </c>
       <c r="H89" s="3">
-        <v>2312300</v>
+        <v>1717700</v>
       </c>
       <c r="I89" s="3">
-        <v>1772800</v>
+        <v>2163900</v>
       </c>
       <c r="J89" s="3">
+        <v>1658900</v>
+      </c>
+      <c r="K89" s="3">
         <v>2220900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1887000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1174300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>867600</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-284600</v>
+        <v>-321100</v>
       </c>
       <c r="E91" s="3">
-        <v>-442300</v>
+        <v>-266300</v>
       </c>
       <c r="F91" s="3">
-        <v>-410400</v>
+        <v>-413900</v>
       </c>
       <c r="G91" s="3">
-        <v>-376600</v>
+        <v>-384000</v>
       </c>
       <c r="H91" s="3">
-        <v>-328600</v>
+        <v>-352400</v>
       </c>
       <c r="I91" s="3">
-        <v>-274100</v>
+        <v>-307500</v>
       </c>
       <c r="J91" s="3">
+        <v>-256500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-231900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-330500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-375300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-281900</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-218500</v>
+        <v>-783400</v>
       </c>
       <c r="E94" s="3">
-        <v>2293800</v>
+        <v>-204500</v>
       </c>
       <c r="F94" s="3">
-        <v>240500</v>
+        <v>2146500</v>
       </c>
       <c r="G94" s="3">
-        <v>-651400</v>
+        <v>225100</v>
       </c>
       <c r="H94" s="3">
-        <v>-1194300</v>
+        <v>-609600</v>
       </c>
       <c r="I94" s="3">
-        <v>-1176500</v>
+        <v>-1117700</v>
       </c>
       <c r="J94" s="3">
+        <v>-1101000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-909400</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-999500</v>
       </c>
-      <c r="M94" s="3" t="s">
+      <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-159000</v>
+        <v>-383900</v>
       </c>
       <c r="E96" s="3">
-        <v>-978300</v>
+        <v>-148800</v>
       </c>
       <c r="F96" s="3">
-        <v>-974300</v>
+        <v>-915500</v>
       </c>
       <c r="G96" s="3">
-        <v>-979600</v>
+        <v>-911800</v>
       </c>
       <c r="H96" s="3">
-        <v>-803700</v>
+        <v>-916800</v>
       </c>
       <c r="I96" s="3">
-        <v>-711500</v>
+        <v>-752100</v>
       </c>
       <c r="J96" s="3">
+        <v>-665800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-599700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-545600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-396400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-284900</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-326500</v>
+        <v>-2509300</v>
       </c>
       <c r="E100" s="3">
-        <v>-3809100</v>
+        <v>-305600</v>
       </c>
       <c r="F100" s="3">
-        <v>-2103700</v>
+        <v>-3564500</v>
       </c>
       <c r="G100" s="3">
-        <v>-1024100</v>
+        <v>-1968700</v>
       </c>
       <c r="H100" s="3">
-        <v>-1555800</v>
+        <v>-958400</v>
       </c>
       <c r="I100" s="3">
-        <v>-917700</v>
+        <v>-1456000</v>
       </c>
       <c r="J100" s="3">
+        <v>-858800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-744900</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-109600</v>
       </c>
-      <c r="M100" s="3" t="s">
+      <c r="N100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-129300</v>
+        <v>-158700</v>
       </c>
       <c r="E101" s="3">
-        <v>-116900</v>
+        <v>-121000</v>
       </c>
       <c r="F101" s="3">
-        <v>-80200</v>
+        <v>-109400</v>
       </c>
       <c r="G101" s="3">
-        <v>-35500</v>
+        <v>-75000</v>
       </c>
       <c r="H101" s="3">
-        <v>380500</v>
+        <v>-33200</v>
       </c>
       <c r="I101" s="3">
-        <v>-70900</v>
+        <v>356100</v>
       </c>
       <c r="J101" s="3">
+        <v>-66400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-91600</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-154200</v>
       </c>
-      <c r="M101" s="3" t="s">
+      <c r="N101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2004300</v>
+        <v>-971700</v>
       </c>
       <c r="E102" s="3">
-        <v>780100</v>
+        <v>1875600</v>
       </c>
       <c r="F102" s="3">
-        <v>264600</v>
+        <v>730000</v>
       </c>
       <c r="G102" s="3">
-        <v>124600</v>
+        <v>247600</v>
       </c>
       <c r="H102" s="3">
-        <v>-57400</v>
+        <v>116600</v>
       </c>
       <c r="I102" s="3">
-        <v>-392400</v>
+        <v>-53700</v>
       </c>
       <c r="J102" s="3">
+        <v>-367200</v>
+      </c>
+      <c r="K102" s="3">
         <v>475000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>719400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-89100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-367300</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/WPP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WPP_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15616100</v>
+        <v>15142400</v>
       </c>
       <c r="E8" s="3">
-        <v>14642200</v>
+        <v>14198100</v>
       </c>
       <c r="F8" s="3">
-        <v>16144300</v>
+        <v>15654600</v>
       </c>
       <c r="G8" s="3">
-        <v>15915700</v>
+        <v>15432900</v>
       </c>
       <c r="H8" s="3">
-        <v>19279500</v>
+        <v>18694800</v>
       </c>
       <c r="I8" s="3">
-        <v>17553000</v>
+        <v>17020600</v>
       </c>
       <c r="J8" s="3">
-        <v>14925700</v>
+        <v>14473000</v>
       </c>
       <c r="K8" s="3">
         <v>15029000</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12927900</v>
+        <v>12535800</v>
       </c>
       <c r="E9" s="3">
-        <v>12184200</v>
+        <v>11814700</v>
       </c>
       <c r="F9" s="3">
-        <v>13205500</v>
+        <v>12805000</v>
       </c>
       <c r="G9" s="3">
-        <v>12881000</v>
+        <v>12490400</v>
       </c>
       <c r="H9" s="3">
-        <v>15406100</v>
+        <v>14938800</v>
       </c>
       <c r="I9" s="3">
-        <v>13843500</v>
+        <v>13423700</v>
       </c>
       <c r="J9" s="3">
-        <v>11844100</v>
+        <v>11484900</v>
       </c>
       <c r="K9" s="3">
         <v>1908600</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2688200</v>
+        <v>2606600</v>
       </c>
       <c r="E10" s="3">
-        <v>2458000</v>
+        <v>2383400</v>
       </c>
       <c r="F10" s="3">
-        <v>2938700</v>
+        <v>2849600</v>
       </c>
       <c r="G10" s="3">
-        <v>3034600</v>
+        <v>2942600</v>
       </c>
       <c r="H10" s="3">
-        <v>3873400</v>
+        <v>3755900</v>
       </c>
       <c r="I10" s="3">
-        <v>3709500</v>
+        <v>3597000</v>
       </c>
       <c r="J10" s="3">
-        <v>3081600</v>
+        <v>2988100</v>
       </c>
       <c r="K10" s="3">
         <v>13120400</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>76000</v>
+        <v>73700</v>
       </c>
       <c r="E14" s="3">
-        <v>178200</v>
+        <v>172800</v>
       </c>
       <c r="F14" s="3">
-        <v>58300</v>
+        <v>56500</v>
       </c>
       <c r="G14" s="3">
-        <v>50600</v>
+        <v>49100</v>
       </c>
       <c r="H14" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="I14" s="3">
-        <v>-93600</v>
+        <v>-90700</v>
       </c>
       <c r="J14" s="3">
-        <v>134100</v>
+        <v>130000</v>
       </c>
       <c r="K14" s="3">
         <v>244600</v>
@@ -989,10 +989,10 @@
         <v>8</v>
       </c>
       <c r="I15" s="3">
-        <v>515000</v>
+        <v>499400</v>
       </c>
       <c r="J15" s="3">
-        <v>443800</v>
+        <v>430300</v>
       </c>
       <c r="K15" s="3">
         <v>483400</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14192800</v>
+        <v>13762300</v>
       </c>
       <c r="E17" s="3">
-        <v>17599500</v>
+        <v>17065700</v>
       </c>
       <c r="F17" s="3">
-        <v>14621700</v>
+        <v>14178200</v>
       </c>
       <c r="G17" s="3">
-        <v>14447200</v>
+        <v>14009000</v>
       </c>
       <c r="H17" s="3">
-        <v>16950800</v>
+        <v>16436600</v>
       </c>
       <c r="I17" s="3">
-        <v>15054800</v>
+        <v>14598200</v>
       </c>
       <c r="J17" s="3">
-        <v>12961400</v>
+        <v>12568300</v>
       </c>
       <c r="K17" s="3">
         <v>12983400</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1423300</v>
+        <v>1380100</v>
       </c>
       <c r="E18" s="3">
-        <v>-2957300</v>
+        <v>-2867600</v>
       </c>
       <c r="F18" s="3">
-        <v>1522600</v>
+        <v>1476400</v>
       </c>
       <c r="G18" s="3">
-        <v>1468500</v>
+        <v>1424000</v>
       </c>
       <c r="H18" s="3">
-        <v>2328800</v>
+        <v>2258200</v>
       </c>
       <c r="I18" s="3">
-        <v>2498200</v>
+        <v>2422500</v>
       </c>
       <c r="J18" s="3">
-        <v>1964300</v>
+        <v>1904700</v>
       </c>
       <c r="K18" s="3">
         <v>2045600</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>77500</v>
+        <v>75100</v>
       </c>
       <c r="E20" s="3">
-        <v>-73700</v>
+        <v>-71400</v>
       </c>
       <c r="F20" s="3">
-        <v>387800</v>
+        <v>376000</v>
       </c>
       <c r="G20" s="3">
-        <v>106700</v>
+        <v>103500</v>
       </c>
       <c r="H20" s="3">
-        <v>561000</v>
+        <v>544000</v>
       </c>
       <c r="I20" s="3">
-        <v>107000</v>
+        <v>103700</v>
       </c>
       <c r="J20" s="3">
-        <v>118000</v>
+        <v>114400</v>
       </c>
       <c r="K20" s="3">
         <v>176600</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2164400</v>
+        <v>2094400</v>
       </c>
       <c r="E21" s="3">
-        <v>-2258000</v>
+        <v>-2194600</v>
       </c>
       <c r="F21" s="3">
-        <v>2751100</v>
+        <v>2662000</v>
       </c>
       <c r="G21" s="3">
-        <v>2241400</v>
+        <v>2169000</v>
       </c>
       <c r="H21" s="3">
-        <v>3455900</v>
+        <v>3347300</v>
       </c>
       <c r="I21" s="3">
-        <v>3129300</v>
+        <v>3030900</v>
       </c>
       <c r="J21" s="3">
-        <v>2533700</v>
+        <v>2453800</v>
       </c>
       <c r="K21" s="3">
         <v>2718300</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>340800</v>
+        <v>330500</v>
       </c>
       <c r="E22" s="3">
-        <v>373300</v>
+        <v>362000</v>
       </c>
       <c r="F22" s="3">
-        <v>429000</v>
+        <v>416000</v>
       </c>
       <c r="G22" s="3">
-        <v>331800</v>
+        <v>321700</v>
       </c>
       <c r="H22" s="3">
-        <v>316700</v>
+        <v>307100</v>
       </c>
       <c r="I22" s="3">
-        <v>299000</v>
+        <v>289900</v>
       </c>
       <c r="J22" s="3">
-        <v>261400</v>
+        <v>253500</v>
       </c>
       <c r="K22" s="3">
         <v>329500</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1159900</v>
+        <v>1124700</v>
       </c>
       <c r="E23" s="3">
-        <v>-3404300</v>
+        <v>-3301000</v>
       </c>
       <c r="F23" s="3">
-        <v>1481300</v>
+        <v>1436400</v>
       </c>
       <c r="G23" s="3">
-        <v>1243400</v>
+        <v>1205700</v>
       </c>
       <c r="H23" s="3">
-        <v>2573100</v>
+        <v>2495100</v>
       </c>
       <c r="I23" s="3">
-        <v>2306200</v>
+        <v>2236300</v>
       </c>
       <c r="J23" s="3">
-        <v>1820800</v>
+        <v>1765600</v>
       </c>
       <c r="K23" s="3">
         <v>1892700</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>280700</v>
+        <v>272200</v>
       </c>
       <c r="E24" s="3">
-        <v>157700</v>
+        <v>152900</v>
       </c>
       <c r="F24" s="3">
-        <v>350400</v>
+        <v>339700</v>
       </c>
       <c r="G24" s="3">
-        <v>317900</v>
+        <v>308300</v>
       </c>
       <c r="H24" s="3">
-        <v>491600</v>
+        <v>476700</v>
       </c>
       <c r="I24" s="3">
-        <v>474400</v>
+        <v>460000</v>
       </c>
       <c r="J24" s="3">
-        <v>301900</v>
+        <v>292800</v>
       </c>
       <c r="K24" s="3">
         <v>391600</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>879200</v>
+        <v>852500</v>
       </c>
       <c r="E26" s="3">
-        <v>-3562000</v>
+        <v>-3453900</v>
       </c>
       <c r="F26" s="3">
-        <v>1131000</v>
+        <v>1096700</v>
       </c>
       <c r="G26" s="3">
-        <v>925500</v>
+        <v>897500</v>
       </c>
       <c r="H26" s="3">
-        <v>2081500</v>
+        <v>2018400</v>
       </c>
       <c r="I26" s="3">
-        <v>1831800</v>
+        <v>1776200</v>
       </c>
       <c r="J26" s="3">
-        <v>1518900</v>
+        <v>1472800</v>
       </c>
       <c r="K26" s="3">
         <v>1501100</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>777900</v>
+        <v>754300</v>
       </c>
       <c r="E27" s="3">
-        <v>-3627700</v>
+        <v>-3517700</v>
       </c>
       <c r="F27" s="3">
-        <v>1034400</v>
+        <v>1003000</v>
       </c>
       <c r="G27" s="3">
-        <v>846100</v>
+        <v>820500</v>
       </c>
       <c r="H27" s="3">
-        <v>1964800</v>
+        <v>1905200</v>
       </c>
       <c r="I27" s="3">
-        <v>1708000</v>
+        <v>1656200</v>
       </c>
       <c r="J27" s="3">
-        <v>1415300</v>
+        <v>1372400</v>
       </c>
       <c r="K27" s="3">
         <v>1404200</v>
@@ -1476,16 +1476,16 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>7900</v>
+        <v>7700</v>
       </c>
       <c r="F29" s="3">
-        <v>-4600</v>
+        <v>-4500</v>
       </c>
       <c r="G29" s="3">
-        <v>159800</v>
+        <v>155000</v>
       </c>
       <c r="H29" s="3">
-        <v>251300</v>
+        <v>243700</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-77500</v>
+        <v>-75100</v>
       </c>
       <c r="E32" s="3">
-        <v>73700</v>
+        <v>71400</v>
       </c>
       <c r="F32" s="3">
-        <v>-387800</v>
+        <v>-376000</v>
       </c>
       <c r="G32" s="3">
-        <v>-106700</v>
+        <v>-103500</v>
       </c>
       <c r="H32" s="3">
-        <v>-561000</v>
+        <v>-544000</v>
       </c>
       <c r="I32" s="3">
-        <v>-107000</v>
+        <v>-103700</v>
       </c>
       <c r="J32" s="3">
-        <v>-118000</v>
+        <v>-114400</v>
       </c>
       <c r="K32" s="3">
         <v>-176600</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>777900</v>
+        <v>754300</v>
       </c>
       <c r="E33" s="3">
-        <v>-3619800</v>
+        <v>-3510000</v>
       </c>
       <c r="F33" s="3">
-        <v>1029700</v>
+        <v>998500</v>
       </c>
       <c r="G33" s="3">
-        <v>1005900</v>
+        <v>975400</v>
       </c>
       <c r="H33" s="3">
-        <v>2216100</v>
+        <v>2148900</v>
       </c>
       <c r="I33" s="3">
-        <v>1708000</v>
+        <v>1656200</v>
       </c>
       <c r="J33" s="3">
-        <v>1415300</v>
+        <v>1372400</v>
       </c>
       <c r="K33" s="3">
         <v>1404200</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>777900</v>
+        <v>754300</v>
       </c>
       <c r="E35" s="3">
-        <v>-3619800</v>
+        <v>-3510000</v>
       </c>
       <c r="F35" s="3">
-        <v>1029700</v>
+        <v>998500</v>
       </c>
       <c r="G35" s="3">
-        <v>1005900</v>
+        <v>975400</v>
       </c>
       <c r="H35" s="3">
-        <v>2216100</v>
+        <v>2148900</v>
       </c>
       <c r="I35" s="3">
-        <v>1708000</v>
+        <v>1656200</v>
       </c>
       <c r="J35" s="3">
-        <v>1415300</v>
+        <v>1372400</v>
       </c>
       <c r="K35" s="3">
         <v>1404200</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4736700</v>
+        <v>4593100</v>
       </c>
       <c r="E41" s="3">
-        <v>15735600</v>
+        <v>15258300</v>
       </c>
       <c r="F41" s="3">
-        <v>13791800</v>
+        <v>13373500</v>
       </c>
       <c r="G41" s="3">
-        <v>13499200</v>
+        <v>13089700</v>
       </c>
       <c r="H41" s="3">
-        <v>2917300</v>
+        <v>2828800</v>
       </c>
       <c r="I41" s="3">
-        <v>2752300</v>
+        <v>2668900</v>
       </c>
       <c r="J41" s="3">
-        <v>2717700</v>
+        <v>2635300</v>
       </c>
       <c r="K41" s="3">
         <v>2564200</v>
@@ -1878,10 +1878,10 @@
         <v>8</v>
       </c>
       <c r="I42" s="3">
-        <v>220400</v>
+        <v>213800</v>
       </c>
       <c r="J42" s="3">
-        <v>188600</v>
+        <v>182900</v>
       </c>
       <c r="K42" s="3">
         <v>711400</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>13395600</v>
+        <v>12989300</v>
       </c>
       <c r="E43" s="3">
-        <v>12894600</v>
+        <v>12503500</v>
       </c>
       <c r="F43" s="3">
-        <v>28239700</v>
+        <v>27383200</v>
       </c>
       <c r="G43" s="3">
-        <v>31408300</v>
+        <v>30455700</v>
       </c>
       <c r="H43" s="3">
-        <v>24342700</v>
+        <v>23604400</v>
       </c>
       <c r="I43" s="3">
-        <v>14981600</v>
+        <v>14527200</v>
       </c>
       <c r="J43" s="3">
-        <v>12716700</v>
+        <v>12331000</v>
       </c>
       <c r="K43" s="3">
         <v>12308600</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>309900</v>
+        <v>300500</v>
       </c>
       <c r="E44" s="3">
-        <v>322200</v>
+        <v>312400</v>
       </c>
       <c r="F44" s="3">
-        <v>426400</v>
+        <v>413400</v>
       </c>
       <c r="G44" s="3">
-        <v>447100</v>
+        <v>433500</v>
       </c>
       <c r="H44" s="3">
-        <v>517600</v>
+        <v>501900</v>
       </c>
       <c r="I44" s="3">
-        <v>488400</v>
+        <v>473600</v>
       </c>
       <c r="J44" s="3">
-        <v>401300</v>
+        <v>389200</v>
       </c>
       <c r="K44" s="3">
         <v>426700</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>265700</v>
+        <v>257600</v>
       </c>
       <c r="E45" s="3">
-        <v>302900</v>
+        <v>293700</v>
       </c>
       <c r="F45" s="3">
-        <v>944000</v>
+        <v>915300</v>
       </c>
       <c r="G45" s="3">
-        <v>352100</v>
+        <v>341400</v>
       </c>
       <c r="H45" s="3">
-        <v>365100</v>
+        <v>354000</v>
       </c>
       <c r="I45" s="3">
-        <v>396100</v>
+        <v>384100</v>
       </c>
       <c r="J45" s="3">
-        <v>292300</v>
+        <v>283400</v>
       </c>
       <c r="K45" s="3">
         <v>304400</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18707900</v>
+        <v>18140500</v>
       </c>
       <c r="E46" s="3">
-        <v>29255300</v>
+        <v>28368000</v>
       </c>
       <c r="F46" s="3">
-        <v>28979800</v>
+        <v>28100900</v>
       </c>
       <c r="G46" s="3">
-        <v>29724100</v>
+        <v>28822500</v>
       </c>
       <c r="H46" s="3">
-        <v>18489800</v>
+        <v>17929000</v>
       </c>
       <c r="I46" s="3">
-        <v>18838900</v>
+        <v>18267500</v>
       </c>
       <c r="J46" s="3">
-        <v>16316700</v>
+        <v>15821800</v>
       </c>
       <c r="K46" s="3">
         <v>16315200</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>948800</v>
+        <v>920100</v>
       </c>
       <c r="E47" s="3">
-        <v>906100</v>
+        <v>878700</v>
       </c>
       <c r="F47" s="3">
-        <v>1767500</v>
+        <v>1713900</v>
       </c>
       <c r="G47" s="3">
-        <v>2004900</v>
+        <v>1944100</v>
       </c>
       <c r="H47" s="3">
-        <v>2706600</v>
+        <v>2624500</v>
       </c>
       <c r="I47" s="3">
-        <v>2903000</v>
+        <v>2814900</v>
       </c>
       <c r="J47" s="3">
-        <v>2338900</v>
+        <v>2268000</v>
       </c>
       <c r="K47" s="3">
         <v>1863000</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2795400</v>
+        <v>2710600</v>
       </c>
       <c r="E48" s="3">
-        <v>2800200</v>
+        <v>2715200</v>
       </c>
       <c r="F48" s="3">
-        <v>3184500</v>
+        <v>3088000</v>
       </c>
       <c r="G48" s="3">
-        <v>2642300</v>
+        <v>2562200</v>
       </c>
       <c r="H48" s="3">
-        <v>1194900</v>
+        <v>1158700</v>
       </c>
       <c r="I48" s="3">
-        <v>1181700</v>
+        <v>1145900</v>
       </c>
       <c r="J48" s="3">
-        <v>973100</v>
+        <v>943600</v>
       </c>
       <c r="K48" s="3">
         <v>1007000</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10944700</v>
+        <v>10612700</v>
       </c>
       <c r="E49" s="3">
-        <v>10708400</v>
+        <v>10383600</v>
       </c>
       <c r="F49" s="3">
-        <v>14125700</v>
+        <v>13697300</v>
       </c>
       <c r="G49" s="3">
-        <v>36620700</v>
+        <v>35509900</v>
       </c>
       <c r="H49" s="3">
-        <v>18263500</v>
+        <v>17709600</v>
       </c>
       <c r="I49" s="3">
-        <v>18825000</v>
+        <v>18254000</v>
       </c>
       <c r="J49" s="3">
-        <v>15109700</v>
+        <v>14651400</v>
       </c>
       <c r="K49" s="3">
         <v>15184600</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>602800</v>
+        <v>584500</v>
       </c>
       <c r="E52" s="3">
-        <v>450300</v>
+        <v>436600</v>
       </c>
       <c r="F52" s="3">
-        <v>397100</v>
+        <v>385000</v>
       </c>
       <c r="G52" s="3">
-        <v>406200</v>
+        <v>393900</v>
       </c>
       <c r="H52" s="3">
-        <v>410500</v>
+        <v>398000</v>
       </c>
       <c r="I52" s="3">
-        <v>421200</v>
+        <v>408500</v>
       </c>
       <c r="J52" s="3">
-        <v>332800</v>
+        <v>322700</v>
       </c>
       <c r="K52" s="3">
         <v>506200</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>33999600</v>
+        <v>32968400</v>
       </c>
       <c r="E54" s="3">
-        <v>44120200</v>
+        <v>42782100</v>
       </c>
       <c r="F54" s="3">
-        <v>48286800</v>
+        <v>46822300</v>
       </c>
       <c r="G54" s="3">
-        <v>51504300</v>
+        <v>49942200</v>
       </c>
       <c r="H54" s="3">
-        <v>41065200</v>
+        <v>39819700</v>
       </c>
       <c r="I54" s="3">
-        <v>42169900</v>
+        <v>40890800</v>
       </c>
       <c r="J54" s="3">
-        <v>35071100</v>
+        <v>34007400</v>
       </c>
       <c r="K54" s="3">
         <v>34876000</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13031600</v>
+        <v>12636300</v>
       </c>
       <c r="E57" s="3">
-        <v>12521400</v>
+        <v>12141600</v>
       </c>
       <c r="F57" s="3">
-        <v>29818700</v>
+        <v>28914300</v>
       </c>
       <c r="G57" s="3">
-        <v>31344600</v>
+        <v>30393900</v>
       </c>
       <c r="H57" s="3">
-        <v>12288900</v>
+        <v>11916200</v>
       </c>
       <c r="I57" s="3">
-        <v>12913600</v>
+        <v>12521900</v>
       </c>
       <c r="J57" s="3">
-        <v>10569600</v>
+        <v>10249000</v>
       </c>
       <c r="K57" s="3">
         <v>10315800</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1033100</v>
+        <v>1001800</v>
       </c>
       <c r="E58" s="3">
-        <v>10909600</v>
+        <v>10578700</v>
       </c>
       <c r="F58" s="3">
-        <v>21834000</v>
+        <v>21171800</v>
       </c>
       <c r="G58" s="3">
-        <v>12775800</v>
+        <v>12388300</v>
       </c>
       <c r="H58" s="3">
-        <v>761300</v>
+        <v>738200</v>
       </c>
       <c r="I58" s="3">
-        <v>1222900</v>
+        <v>1185900</v>
       </c>
       <c r="J58" s="3">
-        <v>1136900</v>
+        <v>1102500</v>
       </c>
       <c r="K58" s="3">
         <v>851500</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6045800</v>
+        <v>5862500</v>
       </c>
       <c r="E59" s="3">
-        <v>4903800</v>
+        <v>4755000</v>
       </c>
       <c r="F59" s="3">
-        <v>5731800</v>
+        <v>5558000</v>
       </c>
       <c r="G59" s="3">
-        <v>5991900</v>
+        <v>5810200</v>
       </c>
       <c r="H59" s="3">
-        <v>5875900</v>
+        <v>5697700</v>
       </c>
       <c r="I59" s="3">
-        <v>6315300</v>
+        <v>6123800</v>
       </c>
       <c r="J59" s="3">
-        <v>5635000</v>
+        <v>5464100</v>
       </c>
       <c r="K59" s="3">
         <v>5252400</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>20110500</v>
+        <v>19500600</v>
       </c>
       <c r="E60" s="3">
-        <v>28334700</v>
+        <v>27475300</v>
       </c>
       <c r="F60" s="3">
-        <v>29343800</v>
+        <v>28453800</v>
       </c>
       <c r="G60" s="3">
-        <v>30516400</v>
+        <v>29590800</v>
       </c>
       <c r="H60" s="3">
-        <v>18926100</v>
+        <v>18352100</v>
       </c>
       <c r="I60" s="3">
-        <v>20451900</v>
+        <v>19831600</v>
       </c>
       <c r="J60" s="3">
-        <v>17341500</v>
+        <v>16815500</v>
       </c>
       <c r="K60" s="3">
         <v>16419800</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7293700</v>
+        <v>7072400</v>
       </c>
       <c r="E61" s="3">
-        <v>8305100</v>
+        <v>8053200</v>
       </c>
       <c r="F61" s="3">
-        <v>7313100</v>
+        <v>7091200</v>
       </c>
       <c r="G61" s="3">
-        <v>6873900</v>
+        <v>6665400</v>
       </c>
       <c r="H61" s="3">
-        <v>7624900</v>
+        <v>7393600</v>
       </c>
       <c r="I61" s="3">
-        <v>6788600</v>
+        <v>6582700</v>
       </c>
       <c r="J61" s="3">
-        <v>5686200</v>
+        <v>5513700</v>
       </c>
       <c r="K61" s="3">
         <v>5390200</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1631600</v>
+        <v>1582100</v>
       </c>
       <c r="E62" s="3">
-        <v>1319800</v>
+        <v>1279800</v>
       </c>
       <c r="F62" s="3">
-        <v>2056500</v>
+        <v>1994100</v>
       </c>
       <c r="G62" s="3">
-        <v>3204600</v>
+        <v>3107400</v>
       </c>
       <c r="H62" s="3">
-        <v>2368800</v>
+        <v>2297000</v>
       </c>
       <c r="I62" s="3">
-        <v>3013900</v>
+        <v>2922500</v>
       </c>
       <c r="J62" s="3">
-        <v>2265000</v>
+        <v>2196300</v>
       </c>
       <c r="K62" s="3">
         <v>2863100</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>29587900</v>
+        <v>28690500</v>
       </c>
       <c r="E66" s="3">
-        <v>38347700</v>
+        <v>37184600</v>
       </c>
       <c r="F66" s="3">
-        <v>38618000</v>
+        <v>37446700</v>
       </c>
       <c r="G66" s="3">
-        <v>40086200</v>
+        <v>38870300</v>
       </c>
       <c r="H66" s="3">
-        <v>29491700</v>
+        <v>28597200</v>
       </c>
       <c r="I66" s="3">
-        <v>30794900</v>
+        <v>29860900</v>
       </c>
       <c r="J66" s="3">
-        <v>25754300</v>
+        <v>24973100</v>
       </c>
       <c r="K66" s="3">
         <v>25098900</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4640700</v>
+        <v>4500000</v>
       </c>
       <c r="E72" s="3">
-        <v>5908300</v>
+        <v>5729100</v>
       </c>
       <c r="F72" s="3">
-        <v>9882800</v>
+        <v>9583000</v>
       </c>
       <c r="G72" s="3">
-        <v>11744500</v>
+        <v>11388300</v>
       </c>
       <c r="H72" s="3">
-        <v>10906400</v>
+        <v>10575600</v>
       </c>
       <c r="I72" s="3">
-        <v>9956200</v>
+        <v>9654200</v>
       </c>
       <c r="J72" s="3">
-        <v>9120000</v>
+        <v>8843400</v>
       </c>
       <c r="K72" s="3">
         <v>8946800</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4411600</v>
+        <v>4277800</v>
       </c>
       <c r="E76" s="3">
-        <v>5772600</v>
+        <v>5597500</v>
       </c>
       <c r="F76" s="3">
-        <v>9668800</v>
+        <v>9375500</v>
       </c>
       <c r="G76" s="3">
-        <v>11418100</v>
+        <v>11071800</v>
       </c>
       <c r="H76" s="3">
-        <v>11573600</v>
+        <v>11222500</v>
       </c>
       <c r="I76" s="3">
-        <v>11375000</v>
+        <v>11030000</v>
       </c>
       <c r="J76" s="3">
-        <v>9316900</v>
+        <v>9034300</v>
       </c>
       <c r="K76" s="3">
         <v>9777100</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>777900</v>
+        <v>754300</v>
       </c>
       <c r="E81" s="3">
-        <v>-3619800</v>
+        <v>-3510000</v>
       </c>
       <c r="F81" s="3">
-        <v>1029700</v>
+        <v>998500</v>
       </c>
       <c r="G81" s="3">
-        <v>1005900</v>
+        <v>975400</v>
       </c>
       <c r="H81" s="3">
-        <v>2216100</v>
+        <v>2148900</v>
       </c>
       <c r="I81" s="3">
-        <v>1708000</v>
+        <v>1656200</v>
       </c>
       <c r="J81" s="3">
-        <v>1415300</v>
+        <v>1372400</v>
       </c>
       <c r="K81" s="3">
         <v>1404200</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>660900</v>
+        <v>640900</v>
       </c>
       <c r="E83" s="3">
-        <v>769800</v>
+        <v>746400</v>
       </c>
       <c r="F83" s="3">
-        <v>837200</v>
+        <v>811800</v>
       </c>
       <c r="G83" s="3">
-        <v>663400</v>
+        <v>643300</v>
       </c>
       <c r="H83" s="3">
-        <v>563700</v>
+        <v>546600</v>
       </c>
       <c r="I83" s="3">
-        <v>521900</v>
+        <v>506000</v>
       </c>
       <c r="J83" s="3">
-        <v>449500</v>
+        <v>435900</v>
       </c>
       <c r="K83" s="3">
         <v>490700</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2479800</v>
+        <v>2404600</v>
       </c>
       <c r="E89" s="3">
-        <v>2506700</v>
+        <v>2430600</v>
       </c>
       <c r="F89" s="3">
-        <v>2257400</v>
+        <v>2189000</v>
       </c>
       <c r="G89" s="3">
-        <v>2066300</v>
+        <v>2003600</v>
       </c>
       <c r="H89" s="3">
-        <v>1717700</v>
+        <v>1665600</v>
       </c>
       <c r="I89" s="3">
-        <v>2163900</v>
+        <v>2098200</v>
       </c>
       <c r="J89" s="3">
-        <v>1658900</v>
+        <v>1608600</v>
       </c>
       <c r="K89" s="3">
         <v>2220900</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-321100</v>
+        <v>-311300</v>
       </c>
       <c r="E91" s="3">
-        <v>-266300</v>
+        <v>-258200</v>
       </c>
       <c r="F91" s="3">
-        <v>-413900</v>
+        <v>-401400</v>
       </c>
       <c r="G91" s="3">
-        <v>-384000</v>
+        <v>-372400</v>
       </c>
       <c r="H91" s="3">
-        <v>-352400</v>
+        <v>-341700</v>
       </c>
       <c r="I91" s="3">
-        <v>-307500</v>
+        <v>-298200</v>
       </c>
       <c r="J91" s="3">
-        <v>-256500</v>
+        <v>-248800</v>
       </c>
       <c r="K91" s="3">
         <v>-231900</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-783400</v>
+        <v>-759700</v>
       </c>
       <c r="E94" s="3">
-        <v>-204500</v>
+        <v>-198300</v>
       </c>
       <c r="F94" s="3">
-        <v>2146500</v>
+        <v>2081400</v>
       </c>
       <c r="G94" s="3">
-        <v>225100</v>
+        <v>218200</v>
       </c>
       <c r="H94" s="3">
-        <v>-609600</v>
+        <v>-591100</v>
       </c>
       <c r="I94" s="3">
-        <v>-1117700</v>
+        <v>-1083800</v>
       </c>
       <c r="J94" s="3">
-        <v>-1101000</v>
+        <v>-1067600</v>
       </c>
       <c r="K94" s="3">
         <v>-909400</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-383900</v>
+        <v>-372300</v>
       </c>
       <c r="E96" s="3">
-        <v>-148800</v>
+        <v>-144300</v>
       </c>
       <c r="F96" s="3">
-        <v>-915500</v>
+        <v>-887800</v>
       </c>
       <c r="G96" s="3">
-        <v>-911800</v>
+        <v>-884100</v>
       </c>
       <c r="H96" s="3">
-        <v>-916800</v>
+        <v>-888900</v>
       </c>
       <c r="I96" s="3">
-        <v>-752100</v>
+        <v>-729300</v>
       </c>
       <c r="J96" s="3">
-        <v>-665800</v>
+        <v>-645600</v>
       </c>
       <c r="K96" s="3">
         <v>-599700</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2509300</v>
+        <v>-2433200</v>
       </c>
       <c r="E100" s="3">
-        <v>-305600</v>
+        <v>-296300</v>
       </c>
       <c r="F100" s="3">
-        <v>-3564500</v>
+        <v>-3456400</v>
       </c>
       <c r="G100" s="3">
-        <v>-1968700</v>
+        <v>-1909000</v>
       </c>
       <c r="H100" s="3">
-        <v>-958400</v>
+        <v>-929300</v>
       </c>
       <c r="I100" s="3">
-        <v>-1456000</v>
+        <v>-1411800</v>
       </c>
       <c r="J100" s="3">
-        <v>-858800</v>
+        <v>-832800</v>
       </c>
       <c r="K100" s="3">
         <v>-744900</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-158700</v>
+        <v>-153900</v>
       </c>
       <c r="E101" s="3">
-        <v>-121000</v>
+        <v>-117300</v>
       </c>
       <c r="F101" s="3">
-        <v>-109400</v>
+        <v>-106100</v>
       </c>
       <c r="G101" s="3">
-        <v>-75000</v>
+        <v>-72700</v>
       </c>
       <c r="H101" s="3">
-        <v>-33200</v>
+        <v>-32200</v>
       </c>
       <c r="I101" s="3">
-        <v>356100</v>
+        <v>345300</v>
       </c>
       <c r="J101" s="3">
-        <v>-66400</v>
+        <v>-64300</v>
       </c>
       <c r="K101" s="3">
         <v>-91600</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-971700</v>
+        <v>-942200</v>
       </c>
       <c r="E102" s="3">
-        <v>1875600</v>
+        <v>1818700</v>
       </c>
       <c r="F102" s="3">
-        <v>730000</v>
+        <v>707800</v>
       </c>
       <c r="G102" s="3">
-        <v>247600</v>
+        <v>240100</v>
       </c>
       <c r="H102" s="3">
-        <v>116600</v>
+        <v>113100</v>
       </c>
       <c r="I102" s="3">
-        <v>-53700</v>
+        <v>-52000</v>
       </c>
       <c r="J102" s="3">
-        <v>-367200</v>
+        <v>-356100</v>
       </c>
       <c r="K102" s="3">
         <v>475000</v>

--- a/AAII_Financials/Yearly/WPP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WPP_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15142400</v>
+        <v>14993900</v>
       </c>
       <c r="E8" s="3">
-        <v>14198100</v>
+        <v>14058900</v>
       </c>
       <c r="F8" s="3">
-        <v>15654600</v>
+        <v>15501100</v>
       </c>
       <c r="G8" s="3">
-        <v>15432900</v>
+        <v>15281600</v>
       </c>
       <c r="H8" s="3">
-        <v>18694800</v>
+        <v>18511500</v>
       </c>
       <c r="I8" s="3">
-        <v>17020600</v>
+        <v>16853700</v>
       </c>
       <c r="J8" s="3">
-        <v>14473000</v>
+        <v>14331100</v>
       </c>
       <c r="K8" s="3">
         <v>15029000</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12535800</v>
+        <v>12412900</v>
       </c>
       <c r="E9" s="3">
-        <v>11814700</v>
+        <v>11698800</v>
       </c>
       <c r="F9" s="3">
-        <v>12805000</v>
+        <v>12679400</v>
       </c>
       <c r="G9" s="3">
-        <v>12490400</v>
+        <v>12367900</v>
       </c>
       <c r="H9" s="3">
-        <v>14938800</v>
+        <v>14792300</v>
       </c>
       <c r="I9" s="3">
-        <v>13423700</v>
+        <v>13292000</v>
       </c>
       <c r="J9" s="3">
-        <v>11484900</v>
+        <v>11372300</v>
       </c>
       <c r="K9" s="3">
         <v>1908600</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2606600</v>
+        <v>2581100</v>
       </c>
       <c r="E10" s="3">
-        <v>2383400</v>
+        <v>2360100</v>
       </c>
       <c r="F10" s="3">
-        <v>2849600</v>
+        <v>2821700</v>
       </c>
       <c r="G10" s="3">
-        <v>2942600</v>
+        <v>2913700</v>
       </c>
       <c r="H10" s="3">
-        <v>3755900</v>
+        <v>3719100</v>
       </c>
       <c r="I10" s="3">
-        <v>3597000</v>
+        <v>3561700</v>
       </c>
       <c r="J10" s="3">
-        <v>2988100</v>
+        <v>2958800</v>
       </c>
       <c r="K10" s="3">
         <v>13120400</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>73700</v>
+        <v>73000</v>
       </c>
       <c r="E14" s="3">
-        <v>172800</v>
+        <v>171100</v>
       </c>
       <c r="F14" s="3">
-        <v>56500</v>
+        <v>56000</v>
       </c>
       <c r="G14" s="3">
-        <v>49100</v>
+        <v>48600</v>
       </c>
       <c r="H14" s="3">
         <v>-900</v>
       </c>
       <c r="I14" s="3">
-        <v>-90700</v>
+        <v>-89800</v>
       </c>
       <c r="J14" s="3">
-        <v>130000</v>
+        <v>128700</v>
       </c>
       <c r="K14" s="3">
         <v>244600</v>
@@ -989,10 +989,10 @@
         <v>8</v>
       </c>
       <c r="I15" s="3">
-        <v>499400</v>
+        <v>494500</v>
       </c>
       <c r="J15" s="3">
-        <v>430300</v>
+        <v>426100</v>
       </c>
       <c r="K15" s="3">
         <v>483400</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13762300</v>
+        <v>13627400</v>
       </c>
       <c r="E17" s="3">
-        <v>17065700</v>
+        <v>16898300</v>
       </c>
       <c r="F17" s="3">
-        <v>14178200</v>
+        <v>14039200</v>
       </c>
       <c r="G17" s="3">
-        <v>14009000</v>
+        <v>13871600</v>
       </c>
       <c r="H17" s="3">
-        <v>16436600</v>
+        <v>16275400</v>
       </c>
       <c r="I17" s="3">
-        <v>14598200</v>
+        <v>14455000</v>
       </c>
       <c r="J17" s="3">
-        <v>12568300</v>
+        <v>12445100</v>
       </c>
       <c r="K17" s="3">
         <v>12983400</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1380100</v>
+        <v>1366600</v>
       </c>
       <c r="E18" s="3">
-        <v>-2867600</v>
+        <v>-2839500</v>
       </c>
       <c r="F18" s="3">
-        <v>1476400</v>
+        <v>1461900</v>
       </c>
       <c r="G18" s="3">
-        <v>1424000</v>
+        <v>1410000</v>
       </c>
       <c r="H18" s="3">
-        <v>2258200</v>
+        <v>2236000</v>
       </c>
       <c r="I18" s="3">
-        <v>2422500</v>
+        <v>2398700</v>
       </c>
       <c r="J18" s="3">
-        <v>1904700</v>
+        <v>1886000</v>
       </c>
       <c r="K18" s="3">
         <v>2045600</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>75100</v>
+        <v>74400</v>
       </c>
       <c r="E20" s="3">
-        <v>-71400</v>
+        <v>-70700</v>
       </c>
       <c r="F20" s="3">
-        <v>376000</v>
+        <v>372400</v>
       </c>
       <c r="G20" s="3">
-        <v>103500</v>
+        <v>102500</v>
       </c>
       <c r="H20" s="3">
-        <v>544000</v>
+        <v>538700</v>
       </c>
       <c r="I20" s="3">
-        <v>103700</v>
+        <v>102700</v>
       </c>
       <c r="J20" s="3">
-        <v>114400</v>
+        <v>113300</v>
       </c>
       <c r="K20" s="3">
         <v>176600</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2094400</v>
+        <v>2056200</v>
       </c>
       <c r="E21" s="3">
-        <v>-2194600</v>
+        <v>-2193600</v>
       </c>
       <c r="F21" s="3">
-        <v>2662000</v>
+        <v>2613600</v>
       </c>
       <c r="G21" s="3">
-        <v>2169000</v>
+        <v>2130000</v>
       </c>
       <c r="H21" s="3">
-        <v>3347300</v>
+        <v>3299500</v>
       </c>
       <c r="I21" s="3">
-        <v>3030900</v>
+        <v>2987200</v>
       </c>
       <c r="J21" s="3">
-        <v>2453800</v>
+        <v>2417800</v>
       </c>
       <c r="K21" s="3">
         <v>2718300</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>330500</v>
+        <v>327300</v>
       </c>
       <c r="E22" s="3">
-        <v>362000</v>
+        <v>358400</v>
       </c>
       <c r="F22" s="3">
-        <v>416000</v>
+        <v>411900</v>
       </c>
       <c r="G22" s="3">
-        <v>321700</v>
+        <v>318600</v>
       </c>
       <c r="H22" s="3">
-        <v>307100</v>
+        <v>304100</v>
       </c>
       <c r="I22" s="3">
-        <v>289900</v>
+        <v>287100</v>
       </c>
       <c r="J22" s="3">
-        <v>253500</v>
+        <v>251000</v>
       </c>
       <c r="K22" s="3">
         <v>329500</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1124700</v>
+        <v>1113700</v>
       </c>
       <c r="E23" s="3">
-        <v>-3301000</v>
+        <v>-3268600</v>
       </c>
       <c r="F23" s="3">
-        <v>1436400</v>
+        <v>1422300</v>
       </c>
       <c r="G23" s="3">
-        <v>1205700</v>
+        <v>1193900</v>
       </c>
       <c r="H23" s="3">
-        <v>2495100</v>
+        <v>2470600</v>
       </c>
       <c r="I23" s="3">
-        <v>2236300</v>
+        <v>2214300</v>
       </c>
       <c r="J23" s="3">
-        <v>1765600</v>
+        <v>1748300</v>
       </c>
       <c r="K23" s="3">
         <v>1892700</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>272200</v>
+        <v>269500</v>
       </c>
       <c r="E24" s="3">
-        <v>152900</v>
+        <v>151400</v>
       </c>
       <c r="F24" s="3">
-        <v>339700</v>
+        <v>336400</v>
       </c>
       <c r="G24" s="3">
-        <v>308300</v>
+        <v>305200</v>
       </c>
       <c r="H24" s="3">
-        <v>476700</v>
+        <v>472000</v>
       </c>
       <c r="I24" s="3">
-        <v>460000</v>
+        <v>455500</v>
       </c>
       <c r="J24" s="3">
-        <v>292800</v>
+        <v>289900</v>
       </c>
       <c r="K24" s="3">
         <v>391600</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>852500</v>
+        <v>844200</v>
       </c>
       <c r="E26" s="3">
-        <v>-3453900</v>
+        <v>-3420100</v>
       </c>
       <c r="F26" s="3">
-        <v>1096700</v>
+        <v>1085900</v>
       </c>
       <c r="G26" s="3">
-        <v>897500</v>
+        <v>888700</v>
       </c>
       <c r="H26" s="3">
-        <v>2018400</v>
+        <v>1998600</v>
       </c>
       <c r="I26" s="3">
-        <v>1776200</v>
+        <v>1758800</v>
       </c>
       <c r="J26" s="3">
-        <v>1472800</v>
+        <v>1458400</v>
       </c>
       <c r="K26" s="3">
         <v>1501100</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>754300</v>
+        <v>746900</v>
       </c>
       <c r="E27" s="3">
-        <v>-3517700</v>
+        <v>-3483200</v>
       </c>
       <c r="F27" s="3">
-        <v>1003000</v>
+        <v>993100</v>
       </c>
       <c r="G27" s="3">
-        <v>820500</v>
+        <v>812400</v>
       </c>
       <c r="H27" s="3">
-        <v>1905200</v>
+        <v>1886500</v>
       </c>
       <c r="I27" s="3">
-        <v>1656200</v>
+        <v>1639900</v>
       </c>
       <c r="J27" s="3">
-        <v>1372400</v>
+        <v>1358900</v>
       </c>
       <c r="K27" s="3">
         <v>1404200</v>
@@ -1476,16 +1476,16 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="F29" s="3">
         <v>-4500</v>
       </c>
       <c r="G29" s="3">
-        <v>155000</v>
+        <v>153400</v>
       </c>
       <c r="H29" s="3">
-        <v>243700</v>
+        <v>241300</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-75100</v>
+        <v>-74400</v>
       </c>
       <c r="E32" s="3">
-        <v>71400</v>
+        <v>70700</v>
       </c>
       <c r="F32" s="3">
-        <v>-376000</v>
+        <v>-372400</v>
       </c>
       <c r="G32" s="3">
-        <v>-103500</v>
+        <v>-102500</v>
       </c>
       <c r="H32" s="3">
-        <v>-544000</v>
+        <v>-538700</v>
       </c>
       <c r="I32" s="3">
-        <v>-103700</v>
+        <v>-102700</v>
       </c>
       <c r="J32" s="3">
-        <v>-114400</v>
+        <v>-113300</v>
       </c>
       <c r="K32" s="3">
         <v>-176600</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>754300</v>
+        <v>746900</v>
       </c>
       <c r="E33" s="3">
-        <v>-3510000</v>
+        <v>-3475600</v>
       </c>
       <c r="F33" s="3">
-        <v>998500</v>
+        <v>988700</v>
       </c>
       <c r="G33" s="3">
-        <v>975400</v>
+        <v>965900</v>
       </c>
       <c r="H33" s="3">
-        <v>2148900</v>
+        <v>2127800</v>
       </c>
       <c r="I33" s="3">
-        <v>1656200</v>
+        <v>1639900</v>
       </c>
       <c r="J33" s="3">
-        <v>1372400</v>
+        <v>1358900</v>
       </c>
       <c r="K33" s="3">
         <v>1404200</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>754300</v>
+        <v>746900</v>
       </c>
       <c r="E35" s="3">
-        <v>-3510000</v>
+        <v>-3475600</v>
       </c>
       <c r="F35" s="3">
-        <v>998500</v>
+        <v>988700</v>
       </c>
       <c r="G35" s="3">
-        <v>975400</v>
+        <v>965900</v>
       </c>
       <c r="H35" s="3">
-        <v>2148900</v>
+        <v>2127800</v>
       </c>
       <c r="I35" s="3">
-        <v>1656200</v>
+        <v>1639900</v>
       </c>
       <c r="J35" s="3">
-        <v>1372400</v>
+        <v>1358900</v>
       </c>
       <c r="K35" s="3">
         <v>1404200</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4593100</v>
+        <v>4548000</v>
       </c>
       <c r="E41" s="3">
-        <v>15258300</v>
+        <v>15108700</v>
       </c>
       <c r="F41" s="3">
-        <v>13373500</v>
+        <v>13242400</v>
       </c>
       <c r="G41" s="3">
-        <v>13089700</v>
+        <v>12961400</v>
       </c>
       <c r="H41" s="3">
-        <v>2828800</v>
+        <v>2801000</v>
       </c>
       <c r="I41" s="3">
-        <v>2668900</v>
+        <v>2642700</v>
       </c>
       <c r="J41" s="3">
-        <v>2635300</v>
+        <v>2609400</v>
       </c>
       <c r="K41" s="3">
         <v>2564200</v>
@@ -1878,10 +1878,10 @@
         <v>8</v>
       </c>
       <c r="I42" s="3">
-        <v>213800</v>
+        <v>211700</v>
       </c>
       <c r="J42" s="3">
-        <v>182900</v>
+        <v>181100</v>
       </c>
       <c r="K42" s="3">
         <v>711400</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>12989300</v>
+        <v>12861900</v>
       </c>
       <c r="E43" s="3">
-        <v>12503500</v>
+        <v>12380900</v>
       </c>
       <c r="F43" s="3">
-        <v>27383200</v>
+        <v>27114700</v>
       </c>
       <c r="G43" s="3">
-        <v>30455700</v>
+        <v>30157000</v>
       </c>
       <c r="H43" s="3">
-        <v>23604400</v>
+        <v>23372900</v>
       </c>
       <c r="I43" s="3">
-        <v>14527200</v>
+        <v>14384700</v>
       </c>
       <c r="J43" s="3">
-        <v>12331000</v>
+        <v>12210100</v>
       </c>
       <c r="K43" s="3">
         <v>12308600</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>300500</v>
+        <v>297500</v>
       </c>
       <c r="E44" s="3">
-        <v>312400</v>
+        <v>309300</v>
       </c>
       <c r="F44" s="3">
-        <v>413400</v>
+        <v>409400</v>
       </c>
       <c r="G44" s="3">
-        <v>433500</v>
+        <v>429300</v>
       </c>
       <c r="H44" s="3">
-        <v>501900</v>
+        <v>497000</v>
       </c>
       <c r="I44" s="3">
-        <v>473600</v>
+        <v>469000</v>
       </c>
       <c r="J44" s="3">
-        <v>389200</v>
+        <v>385400</v>
       </c>
       <c r="K44" s="3">
         <v>426700</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>257600</v>
+        <v>255100</v>
       </c>
       <c r="E45" s="3">
-        <v>293700</v>
+        <v>290800</v>
       </c>
       <c r="F45" s="3">
-        <v>915300</v>
+        <v>906400</v>
       </c>
       <c r="G45" s="3">
-        <v>341400</v>
+        <v>338000</v>
       </c>
       <c r="H45" s="3">
-        <v>354000</v>
+        <v>350600</v>
       </c>
       <c r="I45" s="3">
-        <v>384100</v>
+        <v>380300</v>
       </c>
       <c r="J45" s="3">
-        <v>283400</v>
+        <v>280600</v>
       </c>
       <c r="K45" s="3">
         <v>304400</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18140500</v>
+        <v>17962600</v>
       </c>
       <c r="E46" s="3">
-        <v>28368000</v>
+        <v>28089800</v>
       </c>
       <c r="F46" s="3">
-        <v>28100900</v>
+        <v>27825300</v>
       </c>
       <c r="G46" s="3">
-        <v>28822500</v>
+        <v>28539900</v>
       </c>
       <c r="H46" s="3">
-        <v>17929000</v>
+        <v>17753200</v>
       </c>
       <c r="I46" s="3">
-        <v>18267500</v>
+        <v>18088400</v>
       </c>
       <c r="J46" s="3">
-        <v>15821800</v>
+        <v>15666600</v>
       </c>
       <c r="K46" s="3">
         <v>16315200</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>920100</v>
+        <v>911000</v>
       </c>
       <c r="E47" s="3">
-        <v>878700</v>
+        <v>870000</v>
       </c>
       <c r="F47" s="3">
-        <v>1713900</v>
+        <v>1697100</v>
       </c>
       <c r="G47" s="3">
-        <v>1944100</v>
+        <v>1925000</v>
       </c>
       <c r="H47" s="3">
-        <v>2624500</v>
+        <v>2598800</v>
       </c>
       <c r="I47" s="3">
-        <v>2814900</v>
+        <v>2787300</v>
       </c>
       <c r="J47" s="3">
-        <v>2268000</v>
+        <v>2245700</v>
       </c>
       <c r="K47" s="3">
         <v>1863000</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2710600</v>
+        <v>2684000</v>
       </c>
       <c r="E48" s="3">
-        <v>2715200</v>
+        <v>2688600</v>
       </c>
       <c r="F48" s="3">
-        <v>3088000</v>
+        <v>3057700</v>
       </c>
       <c r="G48" s="3">
-        <v>2562200</v>
+        <v>2537000</v>
       </c>
       <c r="H48" s="3">
-        <v>1158700</v>
+        <v>1147300</v>
       </c>
       <c r="I48" s="3">
-        <v>1145900</v>
+        <v>1134600</v>
       </c>
       <c r="J48" s="3">
-        <v>943600</v>
+        <v>934300</v>
       </c>
       <c r="K48" s="3">
         <v>1007000</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10612700</v>
+        <v>10508700</v>
       </c>
       <c r="E49" s="3">
-        <v>10383600</v>
+        <v>10281800</v>
       </c>
       <c r="F49" s="3">
-        <v>13697300</v>
+        <v>13563000</v>
       </c>
       <c r="G49" s="3">
-        <v>35509900</v>
+        <v>35161700</v>
       </c>
       <c r="H49" s="3">
-        <v>17709600</v>
+        <v>17535900</v>
       </c>
       <c r="I49" s="3">
-        <v>18254000</v>
+        <v>18075000</v>
       </c>
       <c r="J49" s="3">
-        <v>14651400</v>
+        <v>14507700</v>
       </c>
       <c r="K49" s="3">
         <v>15184600</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>584500</v>
+        <v>578700</v>
       </c>
       <c r="E52" s="3">
-        <v>436600</v>
+        <v>432300</v>
       </c>
       <c r="F52" s="3">
-        <v>385000</v>
+        <v>381300</v>
       </c>
       <c r="G52" s="3">
-        <v>393900</v>
+        <v>390000</v>
       </c>
       <c r="H52" s="3">
-        <v>398000</v>
+        <v>394100</v>
       </c>
       <c r="I52" s="3">
-        <v>408500</v>
+        <v>404400</v>
       </c>
       <c r="J52" s="3">
-        <v>322700</v>
+        <v>319500</v>
       </c>
       <c r="K52" s="3">
         <v>506200</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>32968400</v>
+        <v>32645100</v>
       </c>
       <c r="E54" s="3">
-        <v>42782100</v>
+        <v>42362500</v>
       </c>
       <c r="F54" s="3">
-        <v>46822300</v>
+        <v>46363100</v>
       </c>
       <c r="G54" s="3">
-        <v>49942200</v>
+        <v>49452400</v>
       </c>
       <c r="H54" s="3">
-        <v>39819700</v>
+        <v>39429200</v>
       </c>
       <c r="I54" s="3">
-        <v>40890800</v>
+        <v>40489800</v>
       </c>
       <c r="J54" s="3">
-        <v>34007400</v>
+        <v>33673900</v>
       </c>
       <c r="K54" s="3">
         <v>34876000</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12636300</v>
+        <v>12512400</v>
       </c>
       <c r="E57" s="3">
-        <v>12141600</v>
+        <v>12022600</v>
       </c>
       <c r="F57" s="3">
-        <v>28914300</v>
+        <v>28630800</v>
       </c>
       <c r="G57" s="3">
-        <v>30393900</v>
+        <v>30095900</v>
       </c>
       <c r="H57" s="3">
-        <v>11916200</v>
+        <v>11799300</v>
       </c>
       <c r="I57" s="3">
-        <v>12521900</v>
+        <v>12399100</v>
       </c>
       <c r="J57" s="3">
-        <v>10249000</v>
+        <v>10148500</v>
       </c>
       <c r="K57" s="3">
         <v>10315800</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1001800</v>
+        <v>992000</v>
       </c>
       <c r="E58" s="3">
-        <v>10578700</v>
+        <v>10474900</v>
       </c>
       <c r="F58" s="3">
-        <v>21171800</v>
+        <v>20964200</v>
       </c>
       <c r="G58" s="3">
-        <v>12388300</v>
+        <v>12266800</v>
       </c>
       <c r="H58" s="3">
-        <v>738200</v>
+        <v>731000</v>
       </c>
       <c r="I58" s="3">
-        <v>1185900</v>
+        <v>1174200</v>
       </c>
       <c r="J58" s="3">
-        <v>1102500</v>
+        <v>1091700</v>
       </c>
       <c r="K58" s="3">
         <v>851500</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5862500</v>
+        <v>5805000</v>
       </c>
       <c r="E59" s="3">
-        <v>4755000</v>
+        <v>4708400</v>
       </c>
       <c r="F59" s="3">
-        <v>5558000</v>
+        <v>5503500</v>
       </c>
       <c r="G59" s="3">
-        <v>5810200</v>
+        <v>5753200</v>
       </c>
       <c r="H59" s="3">
-        <v>5697700</v>
+        <v>5641800</v>
       </c>
       <c r="I59" s="3">
-        <v>6123800</v>
+        <v>6063700</v>
       </c>
       <c r="J59" s="3">
-        <v>5464100</v>
+        <v>5410500</v>
       </c>
       <c r="K59" s="3">
         <v>5252400</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>19500600</v>
+        <v>19309300</v>
       </c>
       <c r="E60" s="3">
-        <v>27475300</v>
+        <v>27205900</v>
       </c>
       <c r="F60" s="3">
-        <v>28453800</v>
+        <v>28174800</v>
       </c>
       <c r="G60" s="3">
-        <v>29590800</v>
+        <v>29300700</v>
       </c>
       <c r="H60" s="3">
-        <v>18352100</v>
+        <v>18172100</v>
       </c>
       <c r="I60" s="3">
-        <v>19831600</v>
+        <v>19637100</v>
       </c>
       <c r="J60" s="3">
-        <v>16815500</v>
+        <v>16650600</v>
       </c>
       <c r="K60" s="3">
         <v>16419800</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7072400</v>
+        <v>7003100</v>
       </c>
       <c r="E61" s="3">
-        <v>8053200</v>
+        <v>7974200</v>
       </c>
       <c r="F61" s="3">
-        <v>7091200</v>
+        <v>7021700</v>
       </c>
       <c r="G61" s="3">
-        <v>6665400</v>
+        <v>6600000</v>
       </c>
       <c r="H61" s="3">
-        <v>7393600</v>
+        <v>7321100</v>
       </c>
       <c r="I61" s="3">
-        <v>6582700</v>
+        <v>6518200</v>
       </c>
       <c r="J61" s="3">
-        <v>5513700</v>
+        <v>5459700</v>
       </c>
       <c r="K61" s="3">
         <v>5390200</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1582100</v>
+        <v>1566600</v>
       </c>
       <c r="E62" s="3">
-        <v>1279800</v>
+        <v>1267200</v>
       </c>
       <c r="F62" s="3">
-        <v>1994100</v>
+        <v>1974600</v>
       </c>
       <c r="G62" s="3">
-        <v>3107400</v>
+        <v>3076900</v>
       </c>
       <c r="H62" s="3">
-        <v>2297000</v>
+        <v>2274400</v>
       </c>
       <c r="I62" s="3">
-        <v>2922500</v>
+        <v>2893800</v>
       </c>
       <c r="J62" s="3">
-        <v>2196300</v>
+        <v>2174800</v>
       </c>
       <c r="K62" s="3">
         <v>2863100</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>28690500</v>
+        <v>28409200</v>
       </c>
       <c r="E66" s="3">
-        <v>37184600</v>
+        <v>36819900</v>
       </c>
       <c r="F66" s="3">
-        <v>37446700</v>
+        <v>37079500</v>
       </c>
       <c r="G66" s="3">
-        <v>38870300</v>
+        <v>38489200</v>
       </c>
       <c r="H66" s="3">
-        <v>28597200</v>
+        <v>28316800</v>
       </c>
       <c r="I66" s="3">
-        <v>29860900</v>
+        <v>29568100</v>
       </c>
       <c r="J66" s="3">
-        <v>24973100</v>
+        <v>24728300</v>
       </c>
       <c r="K66" s="3">
         <v>25098900</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4500000</v>
+        <v>4455900</v>
       </c>
       <c r="E72" s="3">
-        <v>5729100</v>
+        <v>5673000</v>
       </c>
       <c r="F72" s="3">
-        <v>9583000</v>
+        <v>9489100</v>
       </c>
       <c r="G72" s="3">
-        <v>11388300</v>
+        <v>11276600</v>
       </c>
       <c r="H72" s="3">
-        <v>10575600</v>
+        <v>10471900</v>
       </c>
       <c r="I72" s="3">
-        <v>9654200</v>
+        <v>9559600</v>
       </c>
       <c r="J72" s="3">
-        <v>8843400</v>
+        <v>8756600</v>
       </c>
       <c r="K72" s="3">
         <v>8946800</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4277800</v>
+        <v>4235900</v>
       </c>
       <c r="E76" s="3">
-        <v>5597500</v>
+        <v>5542600</v>
       </c>
       <c r="F76" s="3">
-        <v>9375500</v>
+        <v>9283600</v>
       </c>
       <c r="G76" s="3">
-        <v>11071800</v>
+        <v>10963300</v>
       </c>
       <c r="H76" s="3">
-        <v>11222500</v>
+        <v>11112500</v>
       </c>
       <c r="I76" s="3">
-        <v>11030000</v>
+        <v>10921800</v>
       </c>
       <c r="J76" s="3">
-        <v>9034300</v>
+        <v>8945700</v>
       </c>
       <c r="K76" s="3">
         <v>9777100</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>754300</v>
+        <v>746900</v>
       </c>
       <c r="E81" s="3">
-        <v>-3510000</v>
+        <v>-3475600</v>
       </c>
       <c r="F81" s="3">
-        <v>998500</v>
+        <v>988700</v>
       </c>
       <c r="G81" s="3">
-        <v>975400</v>
+        <v>965900</v>
       </c>
       <c r="H81" s="3">
-        <v>2148900</v>
+        <v>2127800</v>
       </c>
       <c r="I81" s="3">
-        <v>1656200</v>
+        <v>1639900</v>
       </c>
       <c r="J81" s="3">
-        <v>1372400</v>
+        <v>1358900</v>
       </c>
       <c r="K81" s="3">
         <v>1404200</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>640900</v>
+        <v>634600</v>
       </c>
       <c r="E83" s="3">
-        <v>746400</v>
+        <v>739100</v>
       </c>
       <c r="F83" s="3">
-        <v>811800</v>
+        <v>803900</v>
       </c>
       <c r="G83" s="3">
-        <v>643300</v>
+        <v>637000</v>
       </c>
       <c r="H83" s="3">
-        <v>546600</v>
+        <v>541300</v>
       </c>
       <c r="I83" s="3">
-        <v>506000</v>
+        <v>501100</v>
       </c>
       <c r="J83" s="3">
-        <v>435900</v>
+        <v>431600</v>
       </c>
       <c r="K83" s="3">
         <v>490700</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2404600</v>
+        <v>2381000</v>
       </c>
       <c r="E89" s="3">
-        <v>2430600</v>
+        <v>2406800</v>
       </c>
       <c r="F89" s="3">
-        <v>2189000</v>
+        <v>2167500</v>
       </c>
       <c r="G89" s="3">
-        <v>2003600</v>
+        <v>1983900</v>
       </c>
       <c r="H89" s="3">
-        <v>1665600</v>
+        <v>1649300</v>
       </c>
       <c r="I89" s="3">
-        <v>2098200</v>
+        <v>2077700</v>
       </c>
       <c r="J89" s="3">
-        <v>1608600</v>
+        <v>1592900</v>
       </c>
       <c r="K89" s="3">
         <v>2220900</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-311300</v>
+        <v>-308300</v>
       </c>
       <c r="E91" s="3">
-        <v>-258200</v>
+        <v>-255700</v>
       </c>
       <c r="F91" s="3">
-        <v>-401400</v>
+        <v>-397400</v>
       </c>
       <c r="G91" s="3">
-        <v>-372400</v>
+        <v>-368700</v>
       </c>
       <c r="H91" s="3">
-        <v>-341700</v>
+        <v>-338400</v>
       </c>
       <c r="I91" s="3">
-        <v>-298200</v>
+        <v>-295300</v>
       </c>
       <c r="J91" s="3">
-        <v>-248800</v>
+        <v>-246300</v>
       </c>
       <c r="K91" s="3">
         <v>-231900</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-759700</v>
+        <v>-752200</v>
       </c>
       <c r="E94" s="3">
-        <v>-198300</v>
+        <v>-196300</v>
       </c>
       <c r="F94" s="3">
-        <v>2081400</v>
+        <v>2061000</v>
       </c>
       <c r="G94" s="3">
-        <v>218200</v>
+        <v>216100</v>
       </c>
       <c r="H94" s="3">
-        <v>-591100</v>
+        <v>-585300</v>
       </c>
       <c r="I94" s="3">
-        <v>-1083800</v>
+        <v>-1073100</v>
       </c>
       <c r="J94" s="3">
-        <v>-1067600</v>
+        <v>-1057100</v>
       </c>
       <c r="K94" s="3">
         <v>-909400</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-372300</v>
+        <v>-368600</v>
       </c>
       <c r="E96" s="3">
-        <v>-144300</v>
+        <v>-142900</v>
       </c>
       <c r="F96" s="3">
-        <v>-887800</v>
+        <v>-879100</v>
       </c>
       <c r="G96" s="3">
-        <v>-884100</v>
+        <v>-875400</v>
       </c>
       <c r="H96" s="3">
-        <v>-888900</v>
+        <v>-880200</v>
       </c>
       <c r="I96" s="3">
-        <v>-729300</v>
+        <v>-722100</v>
       </c>
       <c r="J96" s="3">
-        <v>-645600</v>
+        <v>-639300</v>
       </c>
       <c r="K96" s="3">
         <v>-599700</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2433200</v>
+        <v>-2409400</v>
       </c>
       <c r="E100" s="3">
-        <v>-296300</v>
+        <v>-293400</v>
       </c>
       <c r="F100" s="3">
-        <v>-3456400</v>
+        <v>-3422500</v>
       </c>
       <c r="G100" s="3">
-        <v>-1909000</v>
+        <v>-1890200</v>
       </c>
       <c r="H100" s="3">
-        <v>-929300</v>
+        <v>-920200</v>
       </c>
       <c r="I100" s="3">
-        <v>-1411800</v>
+        <v>-1397900</v>
       </c>
       <c r="J100" s="3">
-        <v>-832800</v>
+        <v>-824600</v>
       </c>
       <c r="K100" s="3">
         <v>-744900</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-153900</v>
+        <v>-152400</v>
       </c>
       <c r="E101" s="3">
-        <v>-117300</v>
+        <v>-116200</v>
       </c>
       <c r="F101" s="3">
-        <v>-106100</v>
+        <v>-105100</v>
       </c>
       <c r="G101" s="3">
-        <v>-72700</v>
+        <v>-72000</v>
       </c>
       <c r="H101" s="3">
-        <v>-32200</v>
+        <v>-31900</v>
       </c>
       <c r="I101" s="3">
-        <v>345300</v>
+        <v>341900</v>
       </c>
       <c r="J101" s="3">
-        <v>-64300</v>
+        <v>-63700</v>
       </c>
       <c r="K101" s="3">
         <v>-91600</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-942200</v>
+        <v>-932900</v>
       </c>
       <c r="E102" s="3">
-        <v>1818700</v>
+        <v>1800900</v>
       </c>
       <c r="F102" s="3">
-        <v>707800</v>
+        <v>700900</v>
       </c>
       <c r="G102" s="3">
-        <v>240100</v>
+        <v>237800</v>
       </c>
       <c r="H102" s="3">
-        <v>113100</v>
+        <v>112000</v>
       </c>
       <c r="I102" s="3">
-        <v>-52000</v>
+        <v>-51500</v>
       </c>
       <c r="J102" s="3">
-        <v>-356100</v>
+        <v>-352600</v>
       </c>
       <c r="K102" s="3">
         <v>475000</v>

--- a/AAII_Financials/Yearly/WPP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WPP_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>WPP</t>
   </si>
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14993900</v>
+        <v>15265400</v>
       </c>
       <c r="E8" s="3">
-        <v>14058900</v>
+        <v>14313500</v>
       </c>
       <c r="F8" s="3">
-        <v>15501100</v>
+        <v>15781800</v>
       </c>
       <c r="G8" s="3">
-        <v>15281600</v>
+        <v>15558300</v>
       </c>
       <c r="H8" s="3">
-        <v>18511500</v>
+        <v>18846700</v>
       </c>
       <c r="I8" s="3">
-        <v>16853700</v>
+        <v>17158900</v>
       </c>
       <c r="J8" s="3">
-        <v>14331100</v>
+        <v>14590600</v>
       </c>
       <c r="K8" s="3">
         <v>15029000</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12412900</v>
+        <v>12637600</v>
       </c>
       <c r="E9" s="3">
-        <v>11698800</v>
+        <v>11910700</v>
       </c>
       <c r="F9" s="3">
-        <v>12679400</v>
+        <v>12909000</v>
       </c>
       <c r="G9" s="3">
-        <v>12367900</v>
+        <v>12591800</v>
       </c>
       <c r="H9" s="3">
-        <v>14792300</v>
+        <v>15060200</v>
       </c>
       <c r="I9" s="3">
-        <v>13292000</v>
+        <v>13532700</v>
       </c>
       <c r="J9" s="3">
-        <v>11372300</v>
+        <v>11578200</v>
       </c>
       <c r="K9" s="3">
         <v>1908600</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2581100</v>
+        <v>2627800</v>
       </c>
       <c r="E10" s="3">
-        <v>2360100</v>
+        <v>2402800</v>
       </c>
       <c r="F10" s="3">
-        <v>2821700</v>
+        <v>2872800</v>
       </c>
       <c r="G10" s="3">
-        <v>2913700</v>
+        <v>2966500</v>
       </c>
       <c r="H10" s="3">
-        <v>3719100</v>
+        <v>3786500</v>
       </c>
       <c r="I10" s="3">
-        <v>3561700</v>
+        <v>3626200</v>
       </c>
       <c r="J10" s="3">
-        <v>2958800</v>
+        <v>3012400</v>
       </c>
       <c r="K10" s="3">
         <v>13120400</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>73000</v>
+        <v>74300</v>
       </c>
       <c r="E14" s="3">
-        <v>171100</v>
+        <v>174200</v>
       </c>
       <c r="F14" s="3">
-        <v>56000</v>
+        <v>57000</v>
       </c>
       <c r="G14" s="3">
-        <v>48600</v>
+        <v>49500</v>
       </c>
       <c r="H14" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="I14" s="3">
-        <v>-89800</v>
+        <v>-91500</v>
       </c>
       <c r="J14" s="3">
-        <v>128700</v>
+        <v>131100</v>
       </c>
       <c r="K14" s="3">
         <v>244600</v>
@@ -989,10 +989,10 @@
         <v>8</v>
       </c>
       <c r="I15" s="3">
-        <v>494500</v>
+        <v>503500</v>
       </c>
       <c r="J15" s="3">
-        <v>426100</v>
+        <v>433800</v>
       </c>
       <c r="K15" s="3">
         <v>483400</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13627400</v>
+        <v>13874100</v>
       </c>
       <c r="E17" s="3">
-        <v>16898300</v>
+        <v>17204300</v>
       </c>
       <c r="F17" s="3">
-        <v>14039200</v>
+        <v>14293400</v>
       </c>
       <c r="G17" s="3">
-        <v>13871600</v>
+        <v>14122800</v>
       </c>
       <c r="H17" s="3">
-        <v>16275400</v>
+        <v>16570200</v>
       </c>
       <c r="I17" s="3">
-        <v>14455000</v>
+        <v>14716800</v>
       </c>
       <c r="J17" s="3">
-        <v>12445100</v>
+        <v>12670400</v>
       </c>
       <c r="K17" s="3">
         <v>12983400</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1366600</v>
+        <v>1391300</v>
       </c>
       <c r="E18" s="3">
-        <v>-2839500</v>
+        <v>-2890900</v>
       </c>
       <c r="F18" s="3">
-        <v>1461900</v>
+        <v>1488400</v>
       </c>
       <c r="G18" s="3">
-        <v>1410000</v>
+        <v>1435500</v>
       </c>
       <c r="H18" s="3">
-        <v>2236000</v>
+        <v>2276500</v>
       </c>
       <c r="I18" s="3">
-        <v>2398700</v>
+        <v>2442100</v>
       </c>
       <c r="J18" s="3">
-        <v>1886000</v>
+        <v>1920200</v>
       </c>
       <c r="K18" s="3">
         <v>2045600</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>74400</v>
+        <v>75700</v>
       </c>
       <c r="E20" s="3">
-        <v>-70700</v>
+        <v>-72000</v>
       </c>
       <c r="F20" s="3">
-        <v>372400</v>
+        <v>379100</v>
       </c>
       <c r="G20" s="3">
-        <v>102500</v>
+        <v>104300</v>
       </c>
       <c r="H20" s="3">
-        <v>538700</v>
+        <v>548400</v>
       </c>
       <c r="I20" s="3">
-        <v>102700</v>
+        <v>104600</v>
       </c>
       <c r="J20" s="3">
-        <v>113300</v>
+        <v>115300</v>
       </c>
       <c r="K20" s="3">
         <v>176600</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2056200</v>
+        <v>2214300</v>
       </c>
       <c r="E21" s="3">
-        <v>-2193600</v>
+        <v>-2150200</v>
       </c>
       <c r="F21" s="3">
-        <v>2613600</v>
+        <v>2511400</v>
       </c>
       <c r="G21" s="3">
-        <v>2130000</v>
+        <v>2087100</v>
       </c>
       <c r="H21" s="3">
-        <v>3299500</v>
+        <v>3331500</v>
       </c>
       <c r="I21" s="3">
-        <v>2987200</v>
-      </c>
-      <c r="J21" s="3">
-        <v>2417800</v>
+        <v>2983100</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3">
         <v>2718300</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>327300</v>
+        <v>333200</v>
       </c>
       <c r="E22" s="3">
-        <v>358400</v>
+        <v>364900</v>
       </c>
       <c r="F22" s="3">
-        <v>411900</v>
+        <v>419400</v>
       </c>
       <c r="G22" s="3">
-        <v>318600</v>
+        <v>324400</v>
       </c>
       <c r="H22" s="3">
-        <v>304100</v>
+        <v>309600</v>
       </c>
       <c r="I22" s="3">
-        <v>287100</v>
+        <v>292300</v>
       </c>
       <c r="J22" s="3">
-        <v>251000</v>
+        <v>255600</v>
       </c>
       <c r="K22" s="3">
         <v>329500</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1113700</v>
+        <v>1133800</v>
       </c>
       <c r="E23" s="3">
-        <v>-3268600</v>
+        <v>-3327800</v>
       </c>
       <c r="F23" s="3">
-        <v>1422300</v>
+        <v>1448100</v>
       </c>
       <c r="G23" s="3">
-        <v>1193900</v>
+        <v>1215500</v>
       </c>
       <c r="H23" s="3">
-        <v>2470600</v>
+        <v>2515400</v>
       </c>
       <c r="I23" s="3">
-        <v>2214300</v>
+        <v>2254400</v>
       </c>
       <c r="J23" s="3">
-        <v>1748300</v>
+        <v>1779900</v>
       </c>
       <c r="K23" s="3">
         <v>1892700</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>269500</v>
+        <v>274400</v>
       </c>
       <c r="E24" s="3">
-        <v>151400</v>
+        <v>154200</v>
       </c>
       <c r="F24" s="3">
-        <v>336400</v>
+        <v>342500</v>
       </c>
       <c r="G24" s="3">
-        <v>305200</v>
+        <v>310800</v>
       </c>
       <c r="H24" s="3">
-        <v>472000</v>
+        <v>480600</v>
       </c>
       <c r="I24" s="3">
-        <v>455500</v>
+        <v>463800</v>
       </c>
       <c r="J24" s="3">
-        <v>289900</v>
+        <v>295100</v>
       </c>
       <c r="K24" s="3">
         <v>391600</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>844200</v>
+        <v>859400</v>
       </c>
       <c r="E26" s="3">
-        <v>-3420100</v>
+        <v>-3482000</v>
       </c>
       <c r="F26" s="3">
-        <v>1085900</v>
+        <v>1105600</v>
       </c>
       <c r="G26" s="3">
-        <v>888700</v>
+        <v>904800</v>
       </c>
       <c r="H26" s="3">
-        <v>1998600</v>
+        <v>2034800</v>
       </c>
       <c r="I26" s="3">
-        <v>1758800</v>
+        <v>1790700</v>
       </c>
       <c r="J26" s="3">
-        <v>1458400</v>
+        <v>1484800</v>
       </c>
       <c r="K26" s="3">
         <v>1501100</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>746900</v>
+        <v>760500</v>
       </c>
       <c r="E27" s="3">
-        <v>-3483200</v>
+        <v>-3546300</v>
       </c>
       <c r="F27" s="3">
-        <v>993100</v>
+        <v>1011100</v>
       </c>
       <c r="G27" s="3">
-        <v>812400</v>
+        <v>827100</v>
       </c>
       <c r="H27" s="3">
-        <v>1886500</v>
+        <v>1920700</v>
       </c>
       <c r="I27" s="3">
-        <v>1639900</v>
+        <v>1669600</v>
       </c>
       <c r="J27" s="3">
-        <v>1358900</v>
+        <v>1383600</v>
       </c>
       <c r="K27" s="3">
         <v>1404200</v>
@@ -1476,16 +1476,16 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>7600</v>
+        <v>7800</v>
       </c>
       <c r="F29" s="3">
         <v>-4500</v>
       </c>
       <c r="G29" s="3">
-        <v>153400</v>
+        <v>156200</v>
       </c>
       <c r="H29" s="3">
-        <v>241300</v>
+        <v>245700</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-74400</v>
+        <v>-75700</v>
       </c>
       <c r="E32" s="3">
-        <v>70700</v>
+        <v>72000</v>
       </c>
       <c r="F32" s="3">
-        <v>-372400</v>
+        <v>-379100</v>
       </c>
       <c r="G32" s="3">
-        <v>-102500</v>
+        <v>-104300</v>
       </c>
       <c r="H32" s="3">
-        <v>-538700</v>
+        <v>-548400</v>
       </c>
       <c r="I32" s="3">
-        <v>-102700</v>
+        <v>-104600</v>
       </c>
       <c r="J32" s="3">
-        <v>-113300</v>
+        <v>-115300</v>
       </c>
       <c r="K32" s="3">
         <v>-176600</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>746900</v>
+        <v>760500</v>
       </c>
       <c r="E33" s="3">
-        <v>-3475600</v>
+        <v>-3538500</v>
       </c>
       <c r="F33" s="3">
-        <v>988700</v>
+        <v>1006600</v>
       </c>
       <c r="G33" s="3">
-        <v>965900</v>
+        <v>983300</v>
       </c>
       <c r="H33" s="3">
-        <v>2127800</v>
+        <v>2166300</v>
       </c>
       <c r="I33" s="3">
-        <v>1639900</v>
+        <v>1669600</v>
       </c>
       <c r="J33" s="3">
-        <v>1358900</v>
+        <v>1383600</v>
       </c>
       <c r="K33" s="3">
         <v>1404200</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>746900</v>
+        <v>760500</v>
       </c>
       <c r="E35" s="3">
-        <v>-3475600</v>
+        <v>-3538500</v>
       </c>
       <c r="F35" s="3">
-        <v>988700</v>
+        <v>1006600</v>
       </c>
       <c r="G35" s="3">
-        <v>965900</v>
+        <v>983300</v>
       </c>
       <c r="H35" s="3">
-        <v>2127800</v>
+        <v>2166300</v>
       </c>
       <c r="I35" s="3">
-        <v>1639900</v>
+        <v>1669600</v>
       </c>
       <c r="J35" s="3">
-        <v>1358900</v>
+        <v>1383600</v>
       </c>
       <c r="K35" s="3">
         <v>1404200</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4548000</v>
+        <v>4630400</v>
       </c>
       <c r="E41" s="3">
-        <v>15108700</v>
+        <v>15382300</v>
       </c>
       <c r="F41" s="3">
-        <v>13242400</v>
+        <v>13482200</v>
       </c>
       <c r="G41" s="3">
-        <v>12961400</v>
+        <v>13196100</v>
       </c>
       <c r="H41" s="3">
-        <v>2801000</v>
+        <v>2851800</v>
       </c>
       <c r="I41" s="3">
-        <v>2642700</v>
+        <v>2690500</v>
       </c>
       <c r="J41" s="3">
-        <v>2609400</v>
+        <v>2656700</v>
       </c>
       <c r="K41" s="3">
         <v>2564200</v>
@@ -1878,10 +1878,10 @@
         <v>8</v>
       </c>
       <c r="I42" s="3">
-        <v>211700</v>
+        <v>215500</v>
       </c>
       <c r="J42" s="3">
-        <v>181100</v>
+        <v>184400</v>
       </c>
       <c r="K42" s="3">
         <v>711400</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>12861900</v>
+        <v>13094800</v>
       </c>
       <c r="E43" s="3">
-        <v>12380900</v>
+        <v>12605100</v>
       </c>
       <c r="F43" s="3">
-        <v>27114700</v>
+        <v>27605700</v>
       </c>
       <c r="G43" s="3">
-        <v>30157000</v>
+        <v>30703100</v>
       </c>
       <c r="H43" s="3">
-        <v>23372900</v>
+        <v>23796200</v>
       </c>
       <c r="I43" s="3">
-        <v>14384700</v>
+        <v>14645200</v>
       </c>
       <c r="J43" s="3">
-        <v>12210100</v>
+        <v>12431200</v>
       </c>
       <c r="K43" s="3">
         <v>12308600</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>297500</v>
+        <v>302900</v>
       </c>
       <c r="E44" s="3">
-        <v>309300</v>
+        <v>314900</v>
       </c>
       <c r="F44" s="3">
-        <v>409400</v>
+        <v>416800</v>
       </c>
       <c r="G44" s="3">
-        <v>429300</v>
+        <v>437100</v>
       </c>
       <c r="H44" s="3">
-        <v>497000</v>
+        <v>506000</v>
       </c>
       <c r="I44" s="3">
-        <v>469000</v>
+        <v>477500</v>
       </c>
       <c r="J44" s="3">
-        <v>385400</v>
+        <v>392300</v>
       </c>
       <c r="K44" s="3">
         <v>426700</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>255100</v>
+        <v>259700</v>
       </c>
       <c r="E45" s="3">
-        <v>290800</v>
+        <v>296100</v>
       </c>
       <c r="F45" s="3">
-        <v>906400</v>
+        <v>922800</v>
       </c>
       <c r="G45" s="3">
-        <v>338000</v>
+        <v>344200</v>
       </c>
       <c r="H45" s="3">
-        <v>350600</v>
+        <v>356900</v>
       </c>
       <c r="I45" s="3">
-        <v>380300</v>
+        <v>387200</v>
       </c>
       <c r="J45" s="3">
-        <v>280600</v>
+        <v>285700</v>
       </c>
       <c r="K45" s="3">
         <v>304400</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>17962600</v>
+        <v>18287900</v>
       </c>
       <c r="E46" s="3">
-        <v>28089800</v>
+        <v>28598400</v>
       </c>
       <c r="F46" s="3">
-        <v>27825300</v>
+        <v>28329100</v>
       </c>
       <c r="G46" s="3">
-        <v>28539900</v>
+        <v>29056700</v>
       </c>
       <c r="H46" s="3">
-        <v>17753200</v>
+        <v>18074600</v>
       </c>
       <c r="I46" s="3">
-        <v>18088400</v>
+        <v>18415900</v>
       </c>
       <c r="J46" s="3">
-        <v>15666600</v>
+        <v>15950300</v>
       </c>
       <c r="K46" s="3">
         <v>16315200</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>911000</v>
+        <v>927500</v>
       </c>
       <c r="E47" s="3">
-        <v>870000</v>
+        <v>885800</v>
       </c>
       <c r="F47" s="3">
-        <v>1697100</v>
+        <v>1727800</v>
       </c>
       <c r="G47" s="3">
-        <v>1925000</v>
+        <v>1959900</v>
       </c>
       <c r="H47" s="3">
-        <v>2598800</v>
+        <v>2645800</v>
       </c>
       <c r="I47" s="3">
-        <v>2787300</v>
+        <v>2837800</v>
       </c>
       <c r="J47" s="3">
-        <v>2245700</v>
+        <v>2286400</v>
       </c>
       <c r="K47" s="3">
         <v>1863000</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2684000</v>
+        <v>2732600</v>
       </c>
       <c r="E48" s="3">
-        <v>2688600</v>
+        <v>2737300</v>
       </c>
       <c r="F48" s="3">
-        <v>3057700</v>
+        <v>3113000</v>
       </c>
       <c r="G48" s="3">
-        <v>2537000</v>
+        <v>2583000</v>
       </c>
       <c r="H48" s="3">
-        <v>1147300</v>
+        <v>1168100</v>
       </c>
       <c r="I48" s="3">
-        <v>1134600</v>
+        <v>1155200</v>
       </c>
       <c r="J48" s="3">
-        <v>934300</v>
+        <v>951300</v>
       </c>
       <c r="K48" s="3">
         <v>1007000</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10508700</v>
+        <v>10699000</v>
       </c>
       <c r="E49" s="3">
-        <v>10281800</v>
+        <v>10468000</v>
       </c>
       <c r="F49" s="3">
-        <v>13563000</v>
+        <v>13808600</v>
       </c>
       <c r="G49" s="3">
-        <v>35161700</v>
+        <v>35798400</v>
       </c>
       <c r="H49" s="3">
-        <v>17535900</v>
+        <v>17853400</v>
       </c>
       <c r="I49" s="3">
-        <v>18075000</v>
+        <v>18402300</v>
       </c>
       <c r="J49" s="3">
-        <v>14507700</v>
+        <v>14770400</v>
       </c>
       <c r="K49" s="3">
         <v>15184600</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>578700</v>
+        <v>589200</v>
       </c>
       <c r="E52" s="3">
-        <v>432300</v>
+        <v>440200</v>
       </c>
       <c r="F52" s="3">
-        <v>381300</v>
+        <v>388200</v>
       </c>
       <c r="G52" s="3">
-        <v>390000</v>
+        <v>397100</v>
       </c>
       <c r="H52" s="3">
-        <v>394100</v>
+        <v>401300</v>
       </c>
       <c r="I52" s="3">
-        <v>404400</v>
+        <v>411800</v>
       </c>
       <c r="J52" s="3">
-        <v>319500</v>
+        <v>325300</v>
       </c>
       <c r="K52" s="3">
         <v>506200</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>32645100</v>
+        <v>33236200</v>
       </c>
       <c r="E54" s="3">
-        <v>42362500</v>
+        <v>43129600</v>
       </c>
       <c r="F54" s="3">
-        <v>46363100</v>
+        <v>47202600</v>
       </c>
       <c r="G54" s="3">
-        <v>49452400</v>
+        <v>50347900</v>
       </c>
       <c r="H54" s="3">
-        <v>39429200</v>
+        <v>40143200</v>
       </c>
       <c r="I54" s="3">
-        <v>40489800</v>
+        <v>41223000</v>
       </c>
       <c r="J54" s="3">
-        <v>33673900</v>
+        <v>34283700</v>
       </c>
       <c r="K54" s="3">
         <v>34876000</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12512400</v>
+        <v>12739000</v>
       </c>
       <c r="E57" s="3">
-        <v>12022600</v>
+        <v>12240300</v>
       </c>
       <c r="F57" s="3">
-        <v>28630800</v>
+        <v>29149200</v>
       </c>
       <c r="G57" s="3">
-        <v>30095900</v>
+        <v>30640800</v>
       </c>
       <c r="H57" s="3">
-        <v>11799300</v>
+        <v>12013000</v>
       </c>
       <c r="I57" s="3">
-        <v>12399100</v>
+        <v>12623700</v>
       </c>
       <c r="J57" s="3">
-        <v>10148500</v>
+        <v>10332300</v>
       </c>
       <c r="K57" s="3">
         <v>10315800</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>992000</v>
+        <v>1009900</v>
       </c>
       <c r="E58" s="3">
-        <v>10474900</v>
+        <v>10664600</v>
       </c>
       <c r="F58" s="3">
-        <v>20964200</v>
+        <v>21343800</v>
       </c>
       <c r="G58" s="3">
-        <v>12266800</v>
+        <v>12488900</v>
       </c>
       <c r="H58" s="3">
-        <v>731000</v>
+        <v>744200</v>
       </c>
       <c r="I58" s="3">
-        <v>1174200</v>
+        <v>1195500</v>
       </c>
       <c r="J58" s="3">
-        <v>1091700</v>
+        <v>1111400</v>
       </c>
       <c r="K58" s="3">
         <v>851500</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5805000</v>
+        <v>5910100</v>
       </c>
       <c r="E59" s="3">
-        <v>4708400</v>
+        <v>4793700</v>
       </c>
       <c r="F59" s="3">
-        <v>5503500</v>
+        <v>5603100</v>
       </c>
       <c r="G59" s="3">
-        <v>5753200</v>
+        <v>5857400</v>
       </c>
       <c r="H59" s="3">
-        <v>5641800</v>
+        <v>5744000</v>
       </c>
       <c r="I59" s="3">
-        <v>6063700</v>
+        <v>6173500</v>
       </c>
       <c r="J59" s="3">
-        <v>5410500</v>
+        <v>5508400</v>
       </c>
       <c r="K59" s="3">
         <v>5252400</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>19309300</v>
+        <v>19659000</v>
       </c>
       <c r="E60" s="3">
-        <v>27205900</v>
+        <v>27698500</v>
       </c>
       <c r="F60" s="3">
-        <v>28174800</v>
+        <v>28685000</v>
       </c>
       <c r="G60" s="3">
-        <v>29300700</v>
+        <v>29831200</v>
       </c>
       <c r="H60" s="3">
-        <v>18172100</v>
+        <v>18501200</v>
       </c>
       <c r="I60" s="3">
-        <v>19637100</v>
+        <v>19992700</v>
       </c>
       <c r="J60" s="3">
-        <v>16650600</v>
+        <v>16952100</v>
       </c>
       <c r="K60" s="3">
         <v>16419800</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7003100</v>
+        <v>7129900</v>
       </c>
       <c r="E61" s="3">
-        <v>7974200</v>
+        <v>8118600</v>
       </c>
       <c r="F61" s="3">
-        <v>7021700</v>
+        <v>7148900</v>
       </c>
       <c r="G61" s="3">
-        <v>6600000</v>
+        <v>6719600</v>
       </c>
       <c r="H61" s="3">
-        <v>7321100</v>
+        <v>7453700</v>
       </c>
       <c r="I61" s="3">
-        <v>6518200</v>
+        <v>6636200</v>
       </c>
       <c r="J61" s="3">
-        <v>5459700</v>
+        <v>5558500</v>
       </c>
       <c r="K61" s="3">
         <v>5390200</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1566600</v>
+        <v>1595000</v>
       </c>
       <c r="E62" s="3">
-        <v>1267200</v>
+        <v>1290200</v>
       </c>
       <c r="F62" s="3">
-        <v>1974600</v>
+        <v>2010300</v>
       </c>
       <c r="G62" s="3">
-        <v>3076900</v>
+        <v>3132600</v>
       </c>
       <c r="H62" s="3">
-        <v>2274400</v>
+        <v>2315600</v>
       </c>
       <c r="I62" s="3">
-        <v>2893800</v>
+        <v>2946200</v>
       </c>
       <c r="J62" s="3">
-        <v>2174800</v>
+        <v>2214100</v>
       </c>
       <c r="K62" s="3">
         <v>2863100</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>28409200</v>
+        <v>28923600</v>
       </c>
       <c r="E66" s="3">
-        <v>36819900</v>
+        <v>37486700</v>
       </c>
       <c r="F66" s="3">
-        <v>37079500</v>
+        <v>37750900</v>
       </c>
       <c r="G66" s="3">
-        <v>38489200</v>
+        <v>39186100</v>
       </c>
       <c r="H66" s="3">
-        <v>28316800</v>
+        <v>28829500</v>
       </c>
       <c r="I66" s="3">
-        <v>29568100</v>
+        <v>30103500</v>
       </c>
       <c r="J66" s="3">
-        <v>24728300</v>
+        <v>25176000</v>
       </c>
       <c r="K66" s="3">
         <v>25098900</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4455900</v>
+        <v>4536500</v>
       </c>
       <c r="E72" s="3">
-        <v>5673000</v>
+        <v>5775700</v>
       </c>
       <c r="F72" s="3">
-        <v>9489100</v>
+        <v>9660900</v>
       </c>
       <c r="G72" s="3">
-        <v>11276600</v>
+        <v>11480800</v>
       </c>
       <c r="H72" s="3">
-        <v>10471900</v>
+        <v>10661500</v>
       </c>
       <c r="I72" s="3">
-        <v>9559600</v>
+        <v>9732700</v>
       </c>
       <c r="J72" s="3">
-        <v>8756600</v>
+        <v>8915200</v>
       </c>
       <c r="K72" s="3">
         <v>8946800</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4235900</v>
+        <v>4312600</v>
       </c>
       <c r="E76" s="3">
-        <v>5542600</v>
+        <v>5643000</v>
       </c>
       <c r="F76" s="3">
-        <v>9283600</v>
+        <v>9451700</v>
       </c>
       <c r="G76" s="3">
-        <v>10963300</v>
+        <v>11161800</v>
       </c>
       <c r="H76" s="3">
-        <v>11112500</v>
+        <v>11313700</v>
       </c>
       <c r="I76" s="3">
-        <v>10921800</v>
+        <v>11119600</v>
       </c>
       <c r="J76" s="3">
-        <v>8945700</v>
+        <v>9107700</v>
       </c>
       <c r="K76" s="3">
         <v>9777100</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>746900</v>
+        <v>760500</v>
       </c>
       <c r="E81" s="3">
-        <v>-3475600</v>
+        <v>-3538500</v>
       </c>
       <c r="F81" s="3">
-        <v>988700</v>
+        <v>1006600</v>
       </c>
       <c r="G81" s="3">
-        <v>965900</v>
+        <v>983300</v>
       </c>
       <c r="H81" s="3">
-        <v>2127800</v>
+        <v>2166300</v>
       </c>
       <c r="I81" s="3">
-        <v>1639900</v>
+        <v>1669600</v>
       </c>
       <c r="J81" s="3">
-        <v>1358900</v>
+        <v>1383600</v>
       </c>
       <c r="K81" s="3">
         <v>1404200</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>634600</v>
+        <v>752500</v>
       </c>
       <c r="E83" s="3">
-        <v>739100</v>
+        <v>818400</v>
       </c>
       <c r="F83" s="3">
-        <v>803900</v>
+        <v>648500</v>
       </c>
       <c r="G83" s="3">
-        <v>637000</v>
+        <v>551100</v>
       </c>
       <c r="H83" s="3">
-        <v>541300</v>
+        <v>510200</v>
       </c>
       <c r="I83" s="3">
-        <v>501100</v>
-      </c>
-      <c r="J83" s="3">
-        <v>431600</v>
+        <v>439400</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3">
         <v>490700</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2381000</v>
+        <v>2450400</v>
       </c>
       <c r="E89" s="3">
-        <v>2406800</v>
+        <v>2206700</v>
       </c>
       <c r="F89" s="3">
-        <v>2167500</v>
+        <v>2019900</v>
       </c>
       <c r="G89" s="3">
-        <v>1983900</v>
+        <v>1679200</v>
       </c>
       <c r="H89" s="3">
-        <v>1649300</v>
+        <v>2115300</v>
       </c>
       <c r="I89" s="3">
-        <v>2077700</v>
+        <v>1621700</v>
       </c>
       <c r="J89" s="3">
-        <v>1592900</v>
+        <v>2031700</v>
       </c>
       <c r="K89" s="3">
         <v>2220900</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-308300</v>
+        <v>-260300</v>
       </c>
       <c r="E91" s="3">
-        <v>-255700</v>
+        <v>-404600</v>
       </c>
       <c r="F91" s="3">
-        <v>-397400</v>
+        <v>-375400</v>
       </c>
       <c r="G91" s="3">
-        <v>-368700</v>
+        <v>-344500</v>
       </c>
       <c r="H91" s="3">
-        <v>-338400</v>
+        <v>-300600</v>
       </c>
       <c r="I91" s="3">
-        <v>-295300</v>
+        <v>-250800</v>
       </c>
       <c r="J91" s="3">
-        <v>-246300</v>
+        <v>-212100</v>
       </c>
       <c r="K91" s="3">
         <v>-231900</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-752200</v>
+        <v>-199900</v>
       </c>
       <c r="E94" s="3">
-        <v>-196300</v>
+        <v>2098300</v>
       </c>
       <c r="F94" s="3">
-        <v>2061000</v>
+        <v>220000</v>
       </c>
       <c r="G94" s="3">
-        <v>216100</v>
+        <v>-595900</v>
       </c>
       <c r="H94" s="3">
-        <v>-585300</v>
+        <v>-1092600</v>
       </c>
       <c r="I94" s="3">
-        <v>-1073100</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-1057100</v>
+        <v>-1076200</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>-909400</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-368600</v>
+        <v>-145500</v>
       </c>
       <c r="E96" s="3">
-        <v>-142900</v>
+        <v>-895000</v>
       </c>
       <c r="F96" s="3">
-        <v>-879100</v>
+        <v>-891300</v>
       </c>
       <c r="G96" s="3">
-        <v>-875400</v>
+        <v>-896200</v>
       </c>
       <c r="H96" s="3">
-        <v>-880200</v>
+        <v>-735200</v>
       </c>
       <c r="I96" s="3">
-        <v>-722100</v>
+        <v>-650900</v>
       </c>
       <c r="J96" s="3">
-        <v>-639300</v>
+        <v>-548600</v>
       </c>
       <c r="K96" s="3">
         <v>-599700</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2409400</v>
+        <v>-298700</v>
       </c>
       <c r="E100" s="3">
-        <v>-293400</v>
+        <v>-3484500</v>
       </c>
       <c r="F100" s="3">
-        <v>-3422500</v>
+        <v>-1924500</v>
       </c>
       <c r="G100" s="3">
-        <v>-1890200</v>
+        <v>-936800</v>
       </c>
       <c r="H100" s="3">
-        <v>-920200</v>
+        <v>-1423300</v>
       </c>
       <c r="I100" s="3">
-        <v>-1397900</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-824600</v>
+        <v>-839500</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3">
         <v>-744900</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-152400</v>
+        <v>-118300</v>
       </c>
       <c r="E101" s="3">
-        <v>-116200</v>
+        <v>-107000</v>
       </c>
       <c r="F101" s="3">
-        <v>-105100</v>
+        <v>-73300</v>
       </c>
       <c r="G101" s="3">
-        <v>-72000</v>
+        <v>-32400</v>
       </c>
       <c r="H101" s="3">
-        <v>-31900</v>
+        <v>348100</v>
       </c>
       <c r="I101" s="3">
-        <v>341900</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-63700</v>
+        <v>-64900</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>-91600</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-932900</v>
+        <v>1833500</v>
       </c>
       <c r="E102" s="3">
-        <v>1800900</v>
+        <v>713600</v>
       </c>
       <c r="F102" s="3">
-        <v>700900</v>
+        <v>242100</v>
       </c>
       <c r="G102" s="3">
-        <v>237800</v>
+        <v>114000</v>
       </c>
       <c r="H102" s="3">
-        <v>112000</v>
+        <v>-52500</v>
       </c>
       <c r="I102" s="3">
-        <v>-51500</v>
+        <v>-358900</v>
       </c>
       <c r="J102" s="3">
-        <v>-352600</v>
+        <v>434600</v>
       </c>
       <c r="K102" s="3">
         <v>475000</v>

--- a/AAII_Financials/Yearly/WPP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WPP_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>WPP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15265400</v>
+        <v>17903100</v>
       </c>
       <c r="E8" s="3">
-        <v>14313500</v>
+        <v>15883600</v>
       </c>
       <c r="F8" s="3">
-        <v>15781800</v>
+        <v>14893100</v>
       </c>
       <c r="G8" s="3">
-        <v>15558300</v>
+        <v>16420900</v>
       </c>
       <c r="H8" s="3">
-        <v>18846700</v>
+        <v>16188300</v>
       </c>
       <c r="I8" s="3">
-        <v>17158900</v>
+        <v>19609900</v>
       </c>
       <c r="J8" s="3">
+        <v>17853700</v>
+      </c>
+      <c r="K8" s="3">
         <v>14590600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15029000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15131700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>13410400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>13071500</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12637600</v>
+        <v>14753200</v>
       </c>
       <c r="E9" s="3">
-        <v>11910700</v>
+        <v>13149400</v>
       </c>
       <c r="F9" s="3">
-        <v>12909000</v>
+        <v>12393000</v>
       </c>
       <c r="G9" s="3">
-        <v>12591800</v>
+        <v>13431800</v>
       </c>
       <c r="H9" s="3">
-        <v>15060200</v>
+        <v>13101700</v>
       </c>
       <c r="I9" s="3">
-        <v>13532700</v>
+        <v>15670100</v>
       </c>
       <c r="J9" s="3">
+        <v>14080700</v>
+      </c>
+      <c r="K9" s="3">
         <v>11578200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1908600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1295300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1109600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1021700</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2627800</v>
+        <v>3149900</v>
       </c>
       <c r="E10" s="3">
-        <v>2402800</v>
+        <v>2734200</v>
       </c>
       <c r="F10" s="3">
-        <v>2872800</v>
+        <v>2500100</v>
       </c>
       <c r="G10" s="3">
-        <v>2966500</v>
+        <v>2989100</v>
       </c>
       <c r="H10" s="3">
-        <v>3786500</v>
+        <v>3086600</v>
       </c>
       <c r="I10" s="3">
-        <v>3626200</v>
+        <v>3939800</v>
       </c>
       <c r="J10" s="3">
+        <v>3773000</v>
+      </c>
+      <c r="K10" s="3">
         <v>3012400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>13120400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>13836400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>12300800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>12049900</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,48 +944,54 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>74300</v>
+        <v>166600</v>
       </c>
       <c r="E14" s="3">
-        <v>174200</v>
+        <v>77300</v>
       </c>
       <c r="F14" s="3">
-        <v>57000</v>
+        <v>181300</v>
       </c>
       <c r="G14" s="3">
-        <v>49500</v>
+        <v>59300</v>
       </c>
       <c r="H14" s="3">
+        <v>51500</v>
+      </c>
+      <c r="I14" s="3">
         <v>-1000</v>
       </c>
-      <c r="I14" s="3">
-        <v>-91500</v>
-      </c>
       <c r="J14" s="3">
+        <v>-95200</v>
+      </c>
+      <c r="K14" s="3">
         <v>131100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>244600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>49800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>185900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1600</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -988,27 +1010,30 @@
       <c r="H15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="3">
-        <v>503500</v>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J15" s="3">
+        <v>523900</v>
+      </c>
+      <c r="K15" s="3">
         <v>433800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>483400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>560300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>503900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>490900</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13874100</v>
+        <v>16384500</v>
       </c>
       <c r="E17" s="3">
-        <v>17204300</v>
+        <v>14436000</v>
       </c>
       <c r="F17" s="3">
-        <v>14293400</v>
+        <v>17901000</v>
       </c>
       <c r="G17" s="3">
-        <v>14122800</v>
+        <v>14872200</v>
       </c>
       <c r="H17" s="3">
-        <v>16570200</v>
+        <v>14694700</v>
       </c>
       <c r="I17" s="3">
-        <v>14716800</v>
+        <v>17241200</v>
       </c>
       <c r="J17" s="3">
+        <v>15312700</v>
+      </c>
+      <c r="K17" s="3">
         <v>12670400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12983400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13209800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11805900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11516500</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1391300</v>
+        <v>1518600</v>
       </c>
       <c r="E18" s="3">
-        <v>-2890900</v>
+        <v>1447600</v>
       </c>
       <c r="F18" s="3">
-        <v>1488400</v>
+        <v>-3007900</v>
       </c>
       <c r="G18" s="3">
-        <v>1435500</v>
+        <v>1548600</v>
       </c>
       <c r="H18" s="3">
-        <v>2276500</v>
+        <v>1493700</v>
       </c>
       <c r="I18" s="3">
-        <v>2442100</v>
+        <v>2368700</v>
       </c>
       <c r="J18" s="3">
+        <v>2541000</v>
+      </c>
+      <c r="K18" s="3">
         <v>1920200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2045600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1921900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1604500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1555000</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,203 +1148,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>75700</v>
+        <v>359100</v>
       </c>
       <c r="E20" s="3">
-        <v>-72000</v>
+        <v>78800</v>
       </c>
       <c r="F20" s="3">
-        <v>379100</v>
+        <v>-74900</v>
       </c>
       <c r="G20" s="3">
-        <v>104300</v>
+        <v>394500</v>
       </c>
       <c r="H20" s="3">
-        <v>548400</v>
+        <v>108600</v>
       </c>
       <c r="I20" s="3">
-        <v>104600</v>
+        <v>570600</v>
       </c>
       <c r="J20" s="3">
+        <v>108800</v>
+      </c>
+      <c r="K20" s="3">
         <v>115300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>176600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>207400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>139100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>88400</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2214300</v>
+        <v>2518400</v>
       </c>
       <c r="E21" s="3">
-        <v>-2150200</v>
+        <v>2202900</v>
       </c>
       <c r="F21" s="3">
-        <v>2511400</v>
+        <v>-2295000</v>
       </c>
       <c r="G21" s="3">
-        <v>2087100</v>
+        <v>2800000</v>
       </c>
       <c r="H21" s="3">
-        <v>3331500</v>
+        <v>2281200</v>
       </c>
       <c r="I21" s="3">
-        <v>2983100</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K21" s="3">
+        <v>3516300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3184000</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3">
         <v>2718300</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3">
         <v>2259200</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>333200</v>
+        <v>438600</v>
       </c>
       <c r="E22" s="3">
-        <v>364900</v>
+        <v>346700</v>
       </c>
       <c r="F22" s="3">
-        <v>419400</v>
+        <v>379700</v>
       </c>
       <c r="G22" s="3">
-        <v>324400</v>
+        <v>436400</v>
       </c>
       <c r="H22" s="3">
-        <v>309600</v>
+        <v>337500</v>
       </c>
       <c r="I22" s="3">
-        <v>292300</v>
+        <v>322100</v>
       </c>
       <c r="J22" s="3">
+        <v>304100</v>
+      </c>
+      <c r="K22" s="3">
         <v>255600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>329500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>349900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>332000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>328200</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1133800</v>
+        <v>1439100</v>
       </c>
       <c r="E23" s="3">
-        <v>-3327800</v>
+        <v>1179800</v>
       </c>
       <c r="F23" s="3">
-        <v>1448100</v>
+        <v>-3462600</v>
       </c>
       <c r="G23" s="3">
-        <v>1215500</v>
+        <v>1506700</v>
       </c>
       <c r="H23" s="3">
-        <v>2515400</v>
+        <v>1264700</v>
       </c>
       <c r="I23" s="3">
-        <v>2254400</v>
+        <v>2617200</v>
       </c>
       <c r="J23" s="3">
+        <v>2345700</v>
+      </c>
+      <c r="K23" s="3">
         <v>1779900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1892700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1779400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1411600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1315300</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>274400</v>
+        <v>477000</v>
       </c>
       <c r="E24" s="3">
-        <v>154200</v>
+        <v>285500</v>
       </c>
       <c r="F24" s="3">
-        <v>342500</v>
+        <v>160400</v>
       </c>
       <c r="G24" s="3">
-        <v>310800</v>
+        <v>356400</v>
       </c>
       <c r="H24" s="3">
-        <v>480600</v>
+        <v>323400</v>
       </c>
       <c r="I24" s="3">
-        <v>463800</v>
+        <v>500000</v>
       </c>
       <c r="J24" s="3">
+        <v>482500</v>
+      </c>
+      <c r="K24" s="3">
         <v>295100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>391600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>389600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>254900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>119900</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>859400</v>
+        <v>962100</v>
       </c>
       <c r="E26" s="3">
-        <v>-3482000</v>
+        <v>894200</v>
       </c>
       <c r="F26" s="3">
-        <v>1105600</v>
+        <v>-3623000</v>
       </c>
       <c r="G26" s="3">
-        <v>904800</v>
+        <v>1150300</v>
       </c>
       <c r="H26" s="3">
-        <v>2034800</v>
+        <v>941400</v>
       </c>
       <c r="I26" s="3">
-        <v>1790700</v>
+        <v>2117200</v>
       </c>
       <c r="J26" s="3">
+        <v>1863200</v>
+      </c>
+      <c r="K26" s="3">
         <v>1484800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1501100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1389800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1156700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1195400</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>760500</v>
+        <v>847100</v>
       </c>
       <c r="E27" s="3">
-        <v>-3546300</v>
+        <v>791300</v>
       </c>
       <c r="F27" s="3">
-        <v>1011100</v>
+        <v>-3689900</v>
       </c>
       <c r="G27" s="3">
-        <v>827100</v>
+        <v>1052100</v>
       </c>
       <c r="H27" s="3">
-        <v>1920700</v>
+        <v>860600</v>
       </c>
       <c r="I27" s="3">
-        <v>1669600</v>
+        <v>1998400</v>
       </c>
       <c r="J27" s="3">
+        <v>1737200</v>
+      </c>
+      <c r="K27" s="3">
         <v>1383600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1404200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1286000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1063600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1095800</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1476,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>7800</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-4500</v>
+        <v>8100</v>
       </c>
       <c r="G29" s="3">
-        <v>156200</v>
+        <v>-4700</v>
       </c>
       <c r="H29" s="3">
-        <v>245700</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+        <v>162500</v>
+      </c>
+      <c r="I29" s="3">
+        <v>255600</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1505,9 +1565,12 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-75700</v>
+        <v>-359100</v>
       </c>
       <c r="E32" s="3">
-        <v>72000</v>
+        <v>-78800</v>
       </c>
       <c r="F32" s="3">
-        <v>-379100</v>
+        <v>74900</v>
       </c>
       <c r="G32" s="3">
-        <v>-104300</v>
+        <v>-394500</v>
       </c>
       <c r="H32" s="3">
-        <v>-548400</v>
+        <v>-108600</v>
       </c>
       <c r="I32" s="3">
-        <v>-104600</v>
+        <v>-570600</v>
       </c>
       <c r="J32" s="3">
+        <v>-108800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-115300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-176600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-207400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-139100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-88400</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>760500</v>
+        <v>847100</v>
       </c>
       <c r="E33" s="3">
-        <v>-3538500</v>
+        <v>791300</v>
       </c>
       <c r="F33" s="3">
-        <v>1006600</v>
+        <v>-3681800</v>
       </c>
       <c r="G33" s="3">
-        <v>983300</v>
+        <v>1047400</v>
       </c>
       <c r="H33" s="3">
-        <v>2166300</v>
+        <v>1023200</v>
       </c>
       <c r="I33" s="3">
-        <v>1669600</v>
+        <v>2254000</v>
       </c>
       <c r="J33" s="3">
+        <v>1737200</v>
+      </c>
+      <c r="K33" s="3">
         <v>1383600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1404200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1286000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1063600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1095800</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>760500</v>
+        <v>847100</v>
       </c>
       <c r="E35" s="3">
-        <v>-3538500</v>
+        <v>791300</v>
       </c>
       <c r="F35" s="3">
-        <v>1006600</v>
+        <v>-3681800</v>
       </c>
       <c r="G35" s="3">
-        <v>983300</v>
+        <v>1047400</v>
       </c>
       <c r="H35" s="3">
-        <v>2166300</v>
+        <v>1023200</v>
       </c>
       <c r="I35" s="3">
-        <v>1669600</v>
+        <v>2254000</v>
       </c>
       <c r="J35" s="3">
+        <v>1737200</v>
+      </c>
+      <c r="K35" s="3">
         <v>1383600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1404200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1286000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1063600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1095800</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,47 +1903,51 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4630400</v>
+        <v>3091500</v>
       </c>
       <c r="E41" s="3">
-        <v>15382300</v>
+        <v>4817900</v>
       </c>
       <c r="F41" s="3">
-        <v>13482200</v>
+        <v>16005200</v>
       </c>
       <c r="G41" s="3">
-        <v>13196100</v>
+        <v>14028100</v>
       </c>
       <c r="H41" s="3">
-        <v>2851800</v>
+        <v>13730400</v>
       </c>
       <c r="I41" s="3">
-        <v>2690500</v>
+        <v>2967200</v>
       </c>
       <c r="J41" s="3">
+        <v>2799500</v>
+      </c>
+      <c r="K41" s="3">
         <v>2656700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2564200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2882500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2225400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2391500</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1877,300 +1966,324 @@
       <c r="H42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="3">
-        <v>215500</v>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J42" s="3">
+        <v>224200</v>
+      </c>
+      <c r="K42" s="3">
         <v>184400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>711400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>168200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>289500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>147500</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>13094800</v>
+        <v>14905400</v>
       </c>
       <c r="E43" s="3">
-        <v>12605100</v>
+        <v>13625100</v>
       </c>
       <c r="F43" s="3">
-        <v>27605700</v>
+        <v>13115500</v>
       </c>
       <c r="G43" s="3">
-        <v>30703100</v>
+        <v>28723500</v>
       </c>
       <c r="H43" s="3">
-        <v>23796200</v>
+        <v>31946400</v>
       </c>
       <c r="I43" s="3">
-        <v>14645200</v>
+        <v>24759800</v>
       </c>
       <c r="J43" s="3">
+        <v>15238300</v>
+      </c>
+      <c r="K43" s="3">
         <v>12431200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>12308600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>12242100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8919100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9083500</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>302900</v>
+        <v>437300</v>
       </c>
       <c r="E44" s="3">
-        <v>314900</v>
+        <v>315200</v>
       </c>
       <c r="F44" s="3">
-        <v>416800</v>
+        <v>327700</v>
       </c>
       <c r="G44" s="3">
-        <v>437100</v>
+        <v>433700</v>
       </c>
       <c r="H44" s="3">
-        <v>506000</v>
+        <v>454800</v>
       </c>
       <c r="I44" s="3">
-        <v>477500</v>
+        <v>526500</v>
       </c>
       <c r="J44" s="3">
+        <v>496800</v>
+      </c>
+      <c r="K44" s="3">
         <v>392300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>426700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>418100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>450200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>435500</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>259700</v>
+        <v>299900</v>
       </c>
       <c r="E45" s="3">
-        <v>296100</v>
+        <v>270200</v>
       </c>
       <c r="F45" s="3">
-        <v>922800</v>
+        <v>308100</v>
       </c>
       <c r="G45" s="3">
-        <v>344200</v>
+        <v>960100</v>
       </c>
       <c r="H45" s="3">
-        <v>356900</v>
+        <v>358100</v>
       </c>
       <c r="I45" s="3">
-        <v>387200</v>
+        <v>371400</v>
       </c>
       <c r="J45" s="3">
+        <v>402900</v>
+      </c>
+      <c r="K45" s="3">
         <v>285700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>304400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>424300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2885800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2666000</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18287900</v>
+        <v>18734000</v>
       </c>
       <c r="E46" s="3">
-        <v>28598400</v>
+        <v>19028400</v>
       </c>
       <c r="F46" s="3">
-        <v>28329100</v>
+        <v>29756500</v>
       </c>
       <c r="G46" s="3">
-        <v>29056700</v>
+        <v>29476300</v>
       </c>
       <c r="H46" s="3">
-        <v>18074600</v>
+        <v>30233300</v>
       </c>
       <c r="I46" s="3">
-        <v>18415900</v>
+        <v>18806600</v>
       </c>
       <c r="J46" s="3">
+        <v>19161700</v>
+      </c>
+      <c r="K46" s="3">
         <v>15950300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>16315200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>16135300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>14770000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>14724000</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>927500</v>
+        <v>929400</v>
       </c>
       <c r="E47" s="3">
-        <v>885800</v>
+        <v>965100</v>
       </c>
       <c r="F47" s="3">
-        <v>1727800</v>
+        <v>921700</v>
       </c>
       <c r="G47" s="3">
-        <v>1959900</v>
+        <v>1797800</v>
       </c>
       <c r="H47" s="3">
-        <v>2645800</v>
+        <v>2039300</v>
       </c>
       <c r="I47" s="3">
-        <v>2837800</v>
+        <v>2753000</v>
       </c>
       <c r="J47" s="3">
+        <v>2952700</v>
+      </c>
+      <c r="K47" s="3">
         <v>2286400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1863000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1677900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1470700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1408300</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2732600</v>
+        <v>3138200</v>
       </c>
       <c r="E48" s="3">
-        <v>2737300</v>
+        <v>2843300</v>
       </c>
       <c r="F48" s="3">
-        <v>3113000</v>
+        <v>2848100</v>
       </c>
       <c r="G48" s="3">
-        <v>2583000</v>
+        <v>3239100</v>
       </c>
       <c r="H48" s="3">
-        <v>1168100</v>
+        <v>2687600</v>
       </c>
       <c r="I48" s="3">
-        <v>1155200</v>
+        <v>1215400</v>
       </c>
       <c r="J48" s="3">
+        <v>1202000</v>
+      </c>
+      <c r="K48" s="3">
         <v>951300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1007000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1061900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>993300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>949900</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10699000</v>
+        <v>12290500</v>
       </c>
       <c r="E49" s="3">
-        <v>10468000</v>
+        <v>11132200</v>
       </c>
       <c r="F49" s="3">
-        <v>13808600</v>
+        <v>10891900</v>
       </c>
       <c r="G49" s="3">
-        <v>35798400</v>
+        <v>14367700</v>
       </c>
       <c r="H49" s="3">
-        <v>17853400</v>
+        <v>37248100</v>
       </c>
       <c r="I49" s="3">
-        <v>18402300</v>
+        <v>18576400</v>
       </c>
       <c r="J49" s="3">
+        <v>19147500</v>
+      </c>
+      <c r="K49" s="3">
         <v>14770400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>15184600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>15298200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>14588800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>14726600</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>589200</v>
+        <v>670900</v>
       </c>
       <c r="E52" s="3">
-        <v>440200</v>
+        <v>613100</v>
       </c>
       <c r="F52" s="3">
-        <v>388200</v>
+        <v>458000</v>
       </c>
       <c r="G52" s="3">
-        <v>397100</v>
+        <v>403900</v>
       </c>
       <c r="H52" s="3">
-        <v>401300</v>
+        <v>413200</v>
       </c>
       <c r="I52" s="3">
-        <v>411800</v>
+        <v>417500</v>
       </c>
       <c r="J52" s="3">
+        <v>428400</v>
+      </c>
+      <c r="K52" s="3">
         <v>325300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>506200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>381600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>339200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>401100</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>33236200</v>
+        <v>35763000</v>
       </c>
       <c r="E54" s="3">
-        <v>43129600</v>
+        <v>34582100</v>
       </c>
       <c r="F54" s="3">
-        <v>47202600</v>
+        <v>44876100</v>
       </c>
       <c r="G54" s="3">
-        <v>50347900</v>
+        <v>49114100</v>
       </c>
       <c r="H54" s="3">
-        <v>40143200</v>
+        <v>52386700</v>
       </c>
       <c r="I54" s="3">
-        <v>41223000</v>
+        <v>41768800</v>
       </c>
       <c r="J54" s="3">
+        <v>42892300</v>
+      </c>
+      <c r="K54" s="3">
         <v>34283700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>34876000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>34337200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>32162000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>32209800</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12739000</v>
+        <v>13951900</v>
       </c>
       <c r="E57" s="3">
-        <v>12240300</v>
+        <v>13254800</v>
       </c>
       <c r="F57" s="3">
-        <v>29149200</v>
+        <v>12735900</v>
       </c>
       <c r="G57" s="3">
-        <v>30640800</v>
+        <v>30329600</v>
       </c>
       <c r="H57" s="3">
-        <v>12013000</v>
+        <v>31881600</v>
       </c>
       <c r="I57" s="3">
-        <v>12623700</v>
+        <v>12499400</v>
       </c>
       <c r="J57" s="3">
+        <v>13134900</v>
+      </c>
+      <c r="K57" s="3">
         <v>10332300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10315800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9886800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9387000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9638200</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1009900</v>
+        <v>1800900</v>
       </c>
       <c r="E58" s="3">
-        <v>10664600</v>
+        <v>1050800</v>
       </c>
       <c r="F58" s="3">
-        <v>21343800</v>
+        <v>11096500</v>
       </c>
       <c r="G58" s="3">
-        <v>12488900</v>
+        <v>22208100</v>
       </c>
       <c r="H58" s="3">
-        <v>744200</v>
+        <v>12994700</v>
       </c>
       <c r="I58" s="3">
-        <v>1195500</v>
+        <v>774400</v>
       </c>
       <c r="J58" s="3">
+        <v>1243900</v>
+      </c>
+      <c r="K58" s="3">
         <v>1111400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>851500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2585400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1403900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>676200</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5910100</v>
+        <v>6219600</v>
       </c>
       <c r="E59" s="3">
-        <v>4793700</v>
+        <v>6149400</v>
       </c>
       <c r="F59" s="3">
-        <v>5603100</v>
+        <v>4987800</v>
       </c>
       <c r="G59" s="3">
-        <v>5857400</v>
+        <v>5830000</v>
       </c>
       <c r="H59" s="3">
-        <v>5744000</v>
+        <v>6094600</v>
       </c>
       <c r="I59" s="3">
-        <v>6173500</v>
+        <v>5976600</v>
       </c>
       <c r="J59" s="3">
+        <v>6423500</v>
+      </c>
+      <c r="K59" s="3">
         <v>5508400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5252400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4985900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4847800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5073000</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>19659000</v>
+        <v>21972500</v>
       </c>
       <c r="E60" s="3">
-        <v>27698500</v>
+        <v>20455100</v>
       </c>
       <c r="F60" s="3">
-        <v>28685000</v>
+        <v>28820200</v>
       </c>
       <c r="G60" s="3">
-        <v>29831200</v>
+        <v>29846600</v>
       </c>
       <c r="H60" s="3">
-        <v>18501200</v>
+        <v>31039200</v>
       </c>
       <c r="I60" s="3">
-        <v>19992700</v>
+        <v>19250400</v>
       </c>
       <c r="J60" s="3">
+        <v>20802300</v>
+      </c>
+      <c r="K60" s="3">
         <v>16952100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>16419800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>16165500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>15638600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>15387300</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7129900</v>
+        <v>7109800</v>
       </c>
       <c r="E61" s="3">
-        <v>8118600</v>
+        <v>7418600</v>
       </c>
       <c r="F61" s="3">
-        <v>7148900</v>
+        <v>8447400</v>
       </c>
       <c r="G61" s="3">
-        <v>6719600</v>
+        <v>7438300</v>
       </c>
       <c r="H61" s="3">
-        <v>7453700</v>
+        <v>6991700</v>
       </c>
       <c r="I61" s="3">
-        <v>6636200</v>
+        <v>7755500</v>
       </c>
       <c r="J61" s="3">
+        <v>6904900</v>
+      </c>
+      <c r="K61" s="3">
         <v>5558500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5390200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4834500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4758300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5077700</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1595000</v>
+        <v>1518500</v>
       </c>
       <c r="E62" s="3">
-        <v>1290200</v>
+        <v>1659600</v>
       </c>
       <c r="F62" s="3">
-        <v>2010300</v>
+        <v>1342400</v>
       </c>
       <c r="G62" s="3">
-        <v>3132600</v>
+        <v>2091700</v>
       </c>
       <c r="H62" s="3">
-        <v>2315600</v>
+        <v>3259500</v>
       </c>
       <c r="I62" s="3">
-        <v>2946200</v>
+        <v>2409400</v>
       </c>
       <c r="J62" s="3">
+        <v>3065500</v>
+      </c>
+      <c r="K62" s="3">
         <v>2214100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2863100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2562500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2637100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2752500</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>28923600</v>
+        <v>31195800</v>
       </c>
       <c r="E66" s="3">
-        <v>37486700</v>
+        <v>30094900</v>
       </c>
       <c r="F66" s="3">
-        <v>37750900</v>
+        <v>39004700</v>
       </c>
       <c r="G66" s="3">
-        <v>39186100</v>
+        <v>39279600</v>
       </c>
       <c r="H66" s="3">
-        <v>28829500</v>
+        <v>40772900</v>
       </c>
       <c r="I66" s="3">
-        <v>30103500</v>
+        <v>29997000</v>
       </c>
       <c r="J66" s="3">
+        <v>31322500</v>
+      </c>
+      <c r="K66" s="3">
         <v>25176000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>25098900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>23919000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>23356700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>23518800</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4536500</v>
+        <v>4365500</v>
       </c>
       <c r="E72" s="3">
-        <v>5775700</v>
+        <v>4720300</v>
       </c>
       <c r="F72" s="3">
-        <v>9660900</v>
+        <v>6009600</v>
       </c>
       <c r="G72" s="3">
-        <v>11480800</v>
+        <v>10052100</v>
       </c>
       <c r="H72" s="3">
-        <v>10661500</v>
+        <v>11945700</v>
       </c>
       <c r="I72" s="3">
-        <v>9732700</v>
+        <v>11093200</v>
       </c>
       <c r="J72" s="3">
+        <v>10126800</v>
+      </c>
+      <c r="K72" s="3">
         <v>8915200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8946800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9312400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>7691400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>7278600</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4312600</v>
+        <v>4567100</v>
       </c>
       <c r="E76" s="3">
-        <v>5643000</v>
+        <v>4487200</v>
       </c>
       <c r="F76" s="3">
-        <v>9451700</v>
+        <v>5871500</v>
       </c>
       <c r="G76" s="3">
-        <v>11161800</v>
+        <v>9834500</v>
       </c>
       <c r="H76" s="3">
-        <v>11313700</v>
+        <v>11613800</v>
       </c>
       <c r="I76" s="3">
-        <v>11119600</v>
+        <v>11771800</v>
       </c>
       <c r="J76" s="3">
+        <v>11569800</v>
+      </c>
+      <c r="K76" s="3">
         <v>9107700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9777100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10418100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8805300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8691000</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>760500</v>
+        <v>847100</v>
       </c>
       <c r="E81" s="3">
-        <v>-3538500</v>
+        <v>791300</v>
       </c>
       <c r="F81" s="3">
-        <v>1006600</v>
+        <v>-3681800</v>
       </c>
       <c r="G81" s="3">
-        <v>983300</v>
+        <v>1047400</v>
       </c>
       <c r="H81" s="3">
-        <v>2166300</v>
+        <v>1023200</v>
       </c>
       <c r="I81" s="3">
-        <v>1669600</v>
+        <v>2254000</v>
       </c>
       <c r="J81" s="3">
+        <v>1737200</v>
+      </c>
+      <c r="K81" s="3">
         <v>1383600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1404200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1286000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1063600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1095800</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>752500</v>
+        <v>636700</v>
       </c>
       <c r="E83" s="3">
-        <v>818400</v>
+        <v>672300</v>
       </c>
       <c r="F83" s="3">
-        <v>648500</v>
+        <v>782900</v>
       </c>
       <c r="G83" s="3">
-        <v>551100</v>
+        <v>851600</v>
       </c>
       <c r="H83" s="3">
-        <v>510200</v>
+        <v>674700</v>
       </c>
       <c r="I83" s="3">
-        <v>439400</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K83" s="3">
+        <v>573400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>530800</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L83" s="3">
         <v>490700</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N83" s="3">
         <v>512700</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2450400</v>
+        <v>869700</v>
       </c>
       <c r="E89" s="3">
-        <v>2206700</v>
+        <v>2522300</v>
       </c>
       <c r="F89" s="3">
-        <v>2019900</v>
+        <v>2549600</v>
       </c>
       <c r="G89" s="3">
-        <v>1679200</v>
+        <v>2296100</v>
       </c>
       <c r="H89" s="3">
-        <v>2115300</v>
+        <v>2101700</v>
       </c>
       <c r="I89" s="3">
-        <v>1621700</v>
+        <v>1747200</v>
       </c>
       <c r="J89" s="3">
+        <v>2200900</v>
+      </c>
+      <c r="K89" s="3">
         <v>2031700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2220900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1887000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1174300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>867600</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-260300</v>
+        <v>-258600</v>
       </c>
       <c r="E91" s="3">
-        <v>-404600</v>
+        <v>-326600</v>
       </c>
       <c r="F91" s="3">
-        <v>-375400</v>
+        <v>-270900</v>
       </c>
       <c r="G91" s="3">
-        <v>-344500</v>
+        <v>-421000</v>
       </c>
       <c r="H91" s="3">
-        <v>-300600</v>
+        <v>-390600</v>
       </c>
       <c r="I91" s="3">
-        <v>-250800</v>
+        <v>-358500</v>
       </c>
       <c r="J91" s="3">
+        <v>-312800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-212100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-231900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-330500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-375300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-281900</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-199900</v>
+        <v>-507400</v>
       </c>
       <c r="E94" s="3">
-        <v>2098300</v>
+        <v>-796800</v>
       </c>
       <c r="F94" s="3">
-        <v>220000</v>
+        <v>-208000</v>
       </c>
       <c r="G94" s="3">
-        <v>-595900</v>
+        <v>2183300</v>
       </c>
       <c r="H94" s="3">
-        <v>-1092600</v>
+        <v>228900</v>
       </c>
       <c r="I94" s="3">
-        <v>-1076200</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K94" s="3">
+        <v>-620000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-1136800</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L94" s="3">
         <v>-909400</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3">
         <v>-999500</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-145500</v>
+        <v>-453400</v>
       </c>
       <c r="E96" s="3">
-        <v>-895000</v>
+        <v>-390500</v>
       </c>
       <c r="F96" s="3">
-        <v>-891300</v>
+        <v>-151400</v>
       </c>
       <c r="G96" s="3">
-        <v>-896200</v>
+        <v>-931200</v>
       </c>
       <c r="H96" s="3">
-        <v>-735200</v>
+        <v>-927400</v>
       </c>
       <c r="I96" s="3">
-        <v>-650900</v>
+        <v>-932500</v>
       </c>
       <c r="J96" s="3">
+        <v>-765000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-548600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-599700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-545600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-396400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-284900</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-298700</v>
+        <v>-2371200</v>
       </c>
       <c r="E100" s="3">
-        <v>-3484500</v>
+        <v>-2552300</v>
       </c>
       <c r="F100" s="3">
-        <v>-1924500</v>
+        <v>-310800</v>
       </c>
       <c r="G100" s="3">
-        <v>-936800</v>
+        <v>-3625600</v>
       </c>
       <c r="H100" s="3">
-        <v>-1423300</v>
+        <v>-2002400</v>
       </c>
       <c r="I100" s="3">
-        <v>-839500</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K100" s="3">
+        <v>-974800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1480900</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L100" s="3">
         <v>-744900</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N100" s="3">
         <v>-109600</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-118300</v>
+        <v>79700</v>
       </c>
       <c r="E101" s="3">
-        <v>-107000</v>
+        <v>-161400</v>
       </c>
       <c r="F101" s="3">
-        <v>-73300</v>
+        <v>-123100</v>
       </c>
       <c r="G101" s="3">
-        <v>-32400</v>
+        <v>-111300</v>
       </c>
       <c r="H101" s="3">
-        <v>348100</v>
+        <v>-76300</v>
       </c>
       <c r="I101" s="3">
-        <v>-64900</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K101" s="3">
+        <v>-33700</v>
+      </c>
+      <c r="J101" s="3">
+        <v>362200</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L101" s="3">
         <v>-91600</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N101" s="3">
         <v>-154200</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1833500</v>
+        <v>-1929200</v>
       </c>
       <c r="E102" s="3">
-        <v>713600</v>
+        <v>-988300</v>
       </c>
       <c r="F102" s="3">
-        <v>242100</v>
+        <v>1907700</v>
       </c>
       <c r="G102" s="3">
-        <v>114000</v>
+        <v>742500</v>
       </c>
       <c r="H102" s="3">
-        <v>-52500</v>
+        <v>251900</v>
       </c>
       <c r="I102" s="3">
-        <v>-358900</v>
+        <v>118600</v>
       </c>
       <c r="J102" s="3">
+        <v>-54600</v>
+      </c>
+      <c r="K102" s="3">
         <v>434600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>475000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>719400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-89100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-367300</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/WPP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WPP_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17903100</v>
+        <v>18285500</v>
       </c>
       <c r="E8" s="3">
-        <v>15883600</v>
+        <v>16222800</v>
       </c>
       <c r="F8" s="3">
-        <v>14893100</v>
+        <v>15211100</v>
       </c>
       <c r="G8" s="3">
-        <v>16420900</v>
+        <v>16771600</v>
       </c>
       <c r="H8" s="3">
-        <v>16188300</v>
+        <v>16534100</v>
       </c>
       <c r="I8" s="3">
-        <v>19609900</v>
+        <v>20028700</v>
       </c>
       <c r="J8" s="3">
-        <v>17853700</v>
+        <v>18235100</v>
       </c>
       <c r="K8" s="3">
         <v>14590600</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>14753200</v>
+        <v>15068300</v>
       </c>
       <c r="E9" s="3">
-        <v>13149400</v>
+        <v>13430200</v>
       </c>
       <c r="F9" s="3">
-        <v>12393000</v>
+        <v>12657700</v>
       </c>
       <c r="G9" s="3">
-        <v>13431800</v>
+        <v>13718600</v>
       </c>
       <c r="H9" s="3">
-        <v>13101700</v>
+        <v>13381500</v>
       </c>
       <c r="I9" s="3">
-        <v>15670100</v>
+        <v>16004700</v>
       </c>
       <c r="J9" s="3">
-        <v>14080700</v>
+        <v>14381400</v>
       </c>
       <c r="K9" s="3">
         <v>11578200</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3149900</v>
+        <v>3217200</v>
       </c>
       <c r="E10" s="3">
-        <v>2734200</v>
+        <v>2792600</v>
       </c>
       <c r="F10" s="3">
-        <v>2500100</v>
+        <v>2553500</v>
       </c>
       <c r="G10" s="3">
-        <v>2989100</v>
+        <v>3052900</v>
       </c>
       <c r="H10" s="3">
-        <v>3086600</v>
+        <v>3152500</v>
       </c>
       <c r="I10" s="3">
-        <v>3939800</v>
+        <v>4023900</v>
       </c>
       <c r="J10" s="3">
-        <v>3773000</v>
+        <v>3853600</v>
       </c>
       <c r="K10" s="3">
         <v>3012400</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>166600</v>
+        <v>170200</v>
       </c>
       <c r="E14" s="3">
-        <v>77300</v>
+        <v>79000</v>
       </c>
       <c r="F14" s="3">
-        <v>181300</v>
+        <v>185200</v>
       </c>
       <c r="G14" s="3">
-        <v>59300</v>
+        <v>60600</v>
       </c>
       <c r="H14" s="3">
-        <v>51500</v>
+        <v>52600</v>
       </c>
       <c r="I14" s="3">
         <v>-1000</v>
       </c>
       <c r="J14" s="3">
-        <v>-95200</v>
+        <v>-97200</v>
       </c>
       <c r="K14" s="3">
         <v>131100</v>
@@ -1014,7 +1014,7 @@
         <v>8</v>
       </c>
       <c r="J15" s="3">
-        <v>523900</v>
+        <v>535100</v>
       </c>
       <c r="K15" s="3">
         <v>433800</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16384500</v>
+        <v>16734400</v>
       </c>
       <c r="E17" s="3">
-        <v>14436000</v>
+        <v>14744300</v>
       </c>
       <c r="F17" s="3">
-        <v>17901000</v>
+        <v>18283300</v>
       </c>
       <c r="G17" s="3">
-        <v>14872200</v>
+        <v>15189900</v>
       </c>
       <c r="H17" s="3">
-        <v>14694700</v>
+        <v>15008500</v>
       </c>
       <c r="I17" s="3">
-        <v>17241200</v>
+        <v>17609400</v>
       </c>
       <c r="J17" s="3">
-        <v>15312700</v>
+        <v>15639700</v>
       </c>
       <c r="K17" s="3">
         <v>12670400</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1518600</v>
+        <v>1551000</v>
       </c>
       <c r="E18" s="3">
-        <v>1447600</v>
+        <v>1478600</v>
       </c>
       <c r="F18" s="3">
-        <v>-3007900</v>
+        <v>-3072200</v>
       </c>
       <c r="G18" s="3">
-        <v>1548600</v>
+        <v>1581700</v>
       </c>
       <c r="H18" s="3">
-        <v>1493700</v>
+        <v>1525600</v>
       </c>
       <c r="I18" s="3">
-        <v>2368700</v>
+        <v>2419300</v>
       </c>
       <c r="J18" s="3">
-        <v>2541000</v>
+        <v>2595300</v>
       </c>
       <c r="K18" s="3">
         <v>1920200</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>359100</v>
+        <v>366800</v>
       </c>
       <c r="E20" s="3">
-        <v>78800</v>
+        <v>80500</v>
       </c>
       <c r="F20" s="3">
-        <v>-74900</v>
+        <v>-76500</v>
       </c>
       <c r="G20" s="3">
-        <v>394500</v>
+        <v>402900</v>
       </c>
       <c r="H20" s="3">
-        <v>108600</v>
+        <v>110900</v>
       </c>
       <c r="I20" s="3">
-        <v>570600</v>
+        <v>582800</v>
       </c>
       <c r="J20" s="3">
-        <v>108800</v>
+        <v>111100</v>
       </c>
       <c r="K20" s="3">
         <v>115300</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2518400</v>
+        <v>2568100</v>
       </c>
       <c r="E21" s="3">
-        <v>2202900</v>
+        <v>2245700</v>
       </c>
       <c r="F21" s="3">
-        <v>-2295000</v>
+        <v>-2349100</v>
       </c>
       <c r="G21" s="3">
-        <v>2800000</v>
+        <v>2854300</v>
       </c>
       <c r="H21" s="3">
-        <v>2281200</v>
+        <v>2325600</v>
       </c>
       <c r="I21" s="3">
-        <v>3516300</v>
+        <v>3587700</v>
       </c>
       <c r="J21" s="3">
-        <v>3184000</v>
+        <v>3248600</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>438600</v>
+        <v>448000</v>
       </c>
       <c r="E22" s="3">
-        <v>346700</v>
+        <v>354100</v>
       </c>
       <c r="F22" s="3">
-        <v>379700</v>
+        <v>387800</v>
       </c>
       <c r="G22" s="3">
-        <v>436400</v>
+        <v>445700</v>
       </c>
       <c r="H22" s="3">
-        <v>337500</v>
+        <v>344700</v>
       </c>
       <c r="I22" s="3">
-        <v>322100</v>
+        <v>329000</v>
       </c>
       <c r="J22" s="3">
-        <v>304100</v>
+        <v>310600</v>
       </c>
       <c r="K22" s="3">
         <v>255600</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1439100</v>
+        <v>1469800</v>
       </c>
       <c r="E23" s="3">
-        <v>1179800</v>
+        <v>1204900</v>
       </c>
       <c r="F23" s="3">
-        <v>-3462600</v>
+        <v>-3536500</v>
       </c>
       <c r="G23" s="3">
-        <v>1506700</v>
+        <v>1538900</v>
       </c>
       <c r="H23" s="3">
-        <v>1264700</v>
+        <v>1291800</v>
       </c>
       <c r="I23" s="3">
-        <v>2617200</v>
+        <v>2673100</v>
       </c>
       <c r="J23" s="3">
-        <v>2345700</v>
+        <v>2395800</v>
       </c>
       <c r="K23" s="3">
         <v>1779900</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>477000</v>
+        <v>487200</v>
       </c>
       <c r="E24" s="3">
-        <v>285500</v>
+        <v>291600</v>
       </c>
       <c r="F24" s="3">
-        <v>160400</v>
+        <v>163900</v>
       </c>
       <c r="G24" s="3">
-        <v>356400</v>
+        <v>364000</v>
       </c>
       <c r="H24" s="3">
-        <v>323400</v>
+        <v>330300</v>
       </c>
       <c r="I24" s="3">
-        <v>500000</v>
+        <v>510700</v>
       </c>
       <c r="J24" s="3">
-        <v>482500</v>
+        <v>492900</v>
       </c>
       <c r="K24" s="3">
         <v>295100</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>962100</v>
+        <v>982700</v>
       </c>
       <c r="E26" s="3">
-        <v>894200</v>
+        <v>913300</v>
       </c>
       <c r="F26" s="3">
-        <v>-3623000</v>
+        <v>-3700400</v>
       </c>
       <c r="G26" s="3">
-        <v>1150300</v>
+        <v>1174900</v>
       </c>
       <c r="H26" s="3">
-        <v>941400</v>
+        <v>961500</v>
       </c>
       <c r="I26" s="3">
-        <v>2117200</v>
+        <v>2162400</v>
       </c>
       <c r="J26" s="3">
-        <v>1863200</v>
+        <v>1903000</v>
       </c>
       <c r="K26" s="3">
         <v>1484800</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>847100</v>
+        <v>865200</v>
       </c>
       <c r="E27" s="3">
-        <v>791300</v>
+        <v>808200</v>
       </c>
       <c r="F27" s="3">
-        <v>-3689900</v>
+        <v>-3768700</v>
       </c>
       <c r="G27" s="3">
-        <v>1052100</v>
+        <v>1074500</v>
       </c>
       <c r="H27" s="3">
-        <v>860600</v>
+        <v>879000</v>
       </c>
       <c r="I27" s="3">
-        <v>1998400</v>
+        <v>2041100</v>
       </c>
       <c r="J27" s="3">
-        <v>1737200</v>
+        <v>1774300</v>
       </c>
       <c r="K27" s="3">
         <v>1383600</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="G29" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="H29" s="3">
-        <v>162500</v>
+        <v>166000</v>
       </c>
       <c r="I29" s="3">
-        <v>255600</v>
+        <v>261100</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-359100</v>
+        <v>-366800</v>
       </c>
       <c r="E32" s="3">
-        <v>-78800</v>
+        <v>-80500</v>
       </c>
       <c r="F32" s="3">
-        <v>74900</v>
+        <v>76500</v>
       </c>
       <c r="G32" s="3">
-        <v>-394500</v>
+        <v>-402900</v>
       </c>
       <c r="H32" s="3">
-        <v>-108600</v>
+        <v>-110900</v>
       </c>
       <c r="I32" s="3">
-        <v>-570600</v>
+        <v>-582800</v>
       </c>
       <c r="J32" s="3">
-        <v>-108800</v>
+        <v>-111100</v>
       </c>
       <c r="K32" s="3">
         <v>-115300</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>847100</v>
+        <v>865200</v>
       </c>
       <c r="E33" s="3">
-        <v>791300</v>
+        <v>808200</v>
       </c>
       <c r="F33" s="3">
-        <v>-3681800</v>
+        <v>-3760500</v>
       </c>
       <c r="G33" s="3">
-        <v>1047400</v>
+        <v>1069700</v>
       </c>
       <c r="H33" s="3">
-        <v>1023200</v>
+        <v>1045000</v>
       </c>
       <c r="I33" s="3">
-        <v>2254000</v>
+        <v>2302200</v>
       </c>
       <c r="J33" s="3">
-        <v>1737200</v>
+        <v>1774300</v>
       </c>
       <c r="K33" s="3">
         <v>1383600</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>847100</v>
+        <v>865200</v>
       </c>
       <c r="E35" s="3">
-        <v>791300</v>
+        <v>808200</v>
       </c>
       <c r="F35" s="3">
-        <v>-3681800</v>
+        <v>-3760500</v>
       </c>
       <c r="G35" s="3">
-        <v>1047400</v>
+        <v>1069700</v>
       </c>
       <c r="H35" s="3">
-        <v>1023200</v>
+        <v>1045000</v>
       </c>
       <c r="I35" s="3">
-        <v>2254000</v>
+        <v>2302200</v>
       </c>
       <c r="J35" s="3">
-        <v>1737200</v>
+        <v>1774300</v>
       </c>
       <c r="K35" s="3">
         <v>1383600</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3091500</v>
+        <v>3157500</v>
       </c>
       <c r="E41" s="3">
-        <v>4817900</v>
+        <v>4920800</v>
       </c>
       <c r="F41" s="3">
-        <v>16005200</v>
+        <v>16347000</v>
       </c>
       <c r="G41" s="3">
-        <v>14028100</v>
+        <v>14327700</v>
       </c>
       <c r="H41" s="3">
-        <v>13730400</v>
+        <v>14023700</v>
       </c>
       <c r="I41" s="3">
-        <v>2967200</v>
+        <v>3030600</v>
       </c>
       <c r="J41" s="3">
-        <v>2799500</v>
+        <v>2859300</v>
       </c>
       <c r="K41" s="3">
         <v>2656700</v>
@@ -1970,7 +1970,7 @@
         <v>8</v>
       </c>
       <c r="J42" s="3">
-        <v>224200</v>
+        <v>229000</v>
       </c>
       <c r="K42" s="3">
         <v>184400</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>14905400</v>
+        <v>15223700</v>
       </c>
       <c r="E43" s="3">
-        <v>13625100</v>
+        <v>13916100</v>
       </c>
       <c r="F43" s="3">
-        <v>13115500</v>
+        <v>13395600</v>
       </c>
       <c r="G43" s="3">
-        <v>28723500</v>
+        <v>29337000</v>
       </c>
       <c r="H43" s="3">
-        <v>31946400</v>
+        <v>32628700</v>
       </c>
       <c r="I43" s="3">
-        <v>24759800</v>
+        <v>25288600</v>
       </c>
       <c r="J43" s="3">
-        <v>15238300</v>
+        <v>15563700</v>
       </c>
       <c r="K43" s="3">
         <v>12431200</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>437300</v>
+        <v>446600</v>
       </c>
       <c r="E44" s="3">
-        <v>315200</v>
+        <v>321900</v>
       </c>
       <c r="F44" s="3">
-        <v>327700</v>
+        <v>334700</v>
       </c>
       <c r="G44" s="3">
-        <v>433700</v>
+        <v>442900</v>
       </c>
       <c r="H44" s="3">
-        <v>454800</v>
+        <v>464500</v>
       </c>
       <c r="I44" s="3">
-        <v>526500</v>
+        <v>537700</v>
       </c>
       <c r="J44" s="3">
-        <v>496800</v>
+        <v>507400</v>
       </c>
       <c r="K44" s="3">
         <v>392300</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>299900</v>
+        <v>306300</v>
       </c>
       <c r="E45" s="3">
-        <v>270200</v>
+        <v>276000</v>
       </c>
       <c r="F45" s="3">
-        <v>308100</v>
+        <v>314700</v>
       </c>
       <c r="G45" s="3">
-        <v>960100</v>
+        <v>980600</v>
       </c>
       <c r="H45" s="3">
-        <v>358100</v>
+        <v>365700</v>
       </c>
       <c r="I45" s="3">
-        <v>371400</v>
+        <v>379300</v>
       </c>
       <c r="J45" s="3">
-        <v>402900</v>
+        <v>411500</v>
       </c>
       <c r="K45" s="3">
         <v>285700</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18734000</v>
+        <v>19134100</v>
       </c>
       <c r="E46" s="3">
-        <v>19028400</v>
+        <v>19434800</v>
       </c>
       <c r="F46" s="3">
-        <v>29756500</v>
+        <v>30392000</v>
       </c>
       <c r="G46" s="3">
-        <v>29476300</v>
+        <v>30105900</v>
       </c>
       <c r="H46" s="3">
-        <v>30233300</v>
+        <v>30879000</v>
       </c>
       <c r="I46" s="3">
-        <v>18806600</v>
+        <v>19208200</v>
       </c>
       <c r="J46" s="3">
-        <v>19161700</v>
+        <v>19570900</v>
       </c>
       <c r="K46" s="3">
         <v>15950300</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>929400</v>
+        <v>949200</v>
       </c>
       <c r="E47" s="3">
-        <v>965100</v>
+        <v>985700</v>
       </c>
       <c r="F47" s="3">
-        <v>921700</v>
+        <v>941400</v>
       </c>
       <c r="G47" s="3">
-        <v>1797800</v>
+        <v>1836200</v>
       </c>
       <c r="H47" s="3">
-        <v>2039300</v>
+        <v>2082800</v>
       </c>
       <c r="I47" s="3">
-        <v>2753000</v>
+        <v>2811800</v>
       </c>
       <c r="J47" s="3">
-        <v>2952700</v>
+        <v>3015800</v>
       </c>
       <c r="K47" s="3">
         <v>2286400</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3138200</v>
+        <v>3205300</v>
       </c>
       <c r="E48" s="3">
-        <v>2843300</v>
+        <v>2904000</v>
       </c>
       <c r="F48" s="3">
-        <v>2848100</v>
+        <v>2909000</v>
       </c>
       <c r="G48" s="3">
-        <v>3239100</v>
+        <v>3308300</v>
       </c>
       <c r="H48" s="3">
-        <v>2687600</v>
+        <v>2745000</v>
       </c>
       <c r="I48" s="3">
-        <v>1215400</v>
+        <v>1241300</v>
       </c>
       <c r="J48" s="3">
-        <v>1202000</v>
+        <v>1227600</v>
       </c>
       <c r="K48" s="3">
         <v>951300</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12290500</v>
+        <v>12553000</v>
       </c>
       <c r="E49" s="3">
-        <v>11132200</v>
+        <v>11370000</v>
       </c>
       <c r="F49" s="3">
-        <v>10891900</v>
+        <v>11124500</v>
       </c>
       <c r="G49" s="3">
-        <v>14367700</v>
+        <v>14674600</v>
       </c>
       <c r="H49" s="3">
-        <v>37248100</v>
+        <v>38043600</v>
       </c>
       <c r="I49" s="3">
-        <v>18576400</v>
+        <v>18973100</v>
       </c>
       <c r="J49" s="3">
-        <v>19147500</v>
+        <v>19556500</v>
       </c>
       <c r="K49" s="3">
         <v>14770400</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>670900</v>
+        <v>685200</v>
       </c>
       <c r="E52" s="3">
-        <v>613100</v>
+        <v>626200</v>
       </c>
       <c r="F52" s="3">
-        <v>458000</v>
+        <v>467800</v>
       </c>
       <c r="G52" s="3">
-        <v>403900</v>
+        <v>412500</v>
       </c>
       <c r="H52" s="3">
-        <v>413200</v>
+        <v>422000</v>
       </c>
       <c r="I52" s="3">
-        <v>417500</v>
+        <v>426400</v>
       </c>
       <c r="J52" s="3">
-        <v>428400</v>
+        <v>437600</v>
       </c>
       <c r="K52" s="3">
         <v>325300</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>35763000</v>
+        <v>36526800</v>
       </c>
       <c r="E54" s="3">
-        <v>34582100</v>
+        <v>35320700</v>
       </c>
       <c r="F54" s="3">
-        <v>44876100</v>
+        <v>45834600</v>
       </c>
       <c r="G54" s="3">
-        <v>49114100</v>
+        <v>50163000</v>
       </c>
       <c r="H54" s="3">
-        <v>52386700</v>
+        <v>53505500</v>
       </c>
       <c r="I54" s="3">
-        <v>41768800</v>
+        <v>42660900</v>
       </c>
       <c r="J54" s="3">
-        <v>42892300</v>
+        <v>43808400</v>
       </c>
       <c r="K54" s="3">
         <v>34283700</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13951900</v>
+        <v>14249900</v>
       </c>
       <c r="E57" s="3">
-        <v>13254800</v>
+        <v>13537900</v>
       </c>
       <c r="F57" s="3">
-        <v>12735900</v>
+        <v>13007900</v>
       </c>
       <c r="G57" s="3">
-        <v>30329600</v>
+        <v>30977400</v>
       </c>
       <c r="H57" s="3">
-        <v>31881600</v>
+        <v>32562500</v>
       </c>
       <c r="I57" s="3">
-        <v>12499400</v>
+        <v>12766400</v>
       </c>
       <c r="J57" s="3">
-        <v>13134900</v>
+        <v>13415400</v>
       </c>
       <c r="K57" s="3">
         <v>10332300</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1800900</v>
+        <v>1839400</v>
       </c>
       <c r="E58" s="3">
-        <v>1050800</v>
+        <v>1073300</v>
       </c>
       <c r="F58" s="3">
-        <v>11096500</v>
+        <v>11333500</v>
       </c>
       <c r="G58" s="3">
-        <v>22208100</v>
+        <v>22682400</v>
       </c>
       <c r="H58" s="3">
-        <v>12994700</v>
+        <v>13272200</v>
       </c>
       <c r="I58" s="3">
-        <v>774400</v>
+        <v>790900</v>
       </c>
       <c r="J58" s="3">
-        <v>1243900</v>
+        <v>1270500</v>
       </c>
       <c r="K58" s="3">
         <v>1111400</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6219600</v>
+        <v>6352500</v>
       </c>
       <c r="E59" s="3">
-        <v>6149400</v>
+        <v>6280700</v>
       </c>
       <c r="F59" s="3">
-        <v>4987800</v>
+        <v>5094300</v>
       </c>
       <c r="G59" s="3">
-        <v>5830000</v>
+        <v>5954500</v>
       </c>
       <c r="H59" s="3">
-        <v>6094600</v>
+        <v>6224700</v>
       </c>
       <c r="I59" s="3">
-        <v>5976600</v>
+        <v>6104200</v>
       </c>
       <c r="J59" s="3">
-        <v>6423500</v>
+        <v>6560700</v>
       </c>
       <c r="K59" s="3">
         <v>5508400</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>21972500</v>
+        <v>22441700</v>
       </c>
       <c r="E60" s="3">
-        <v>20455100</v>
+        <v>20891900</v>
       </c>
       <c r="F60" s="3">
-        <v>28820200</v>
+        <v>29435700</v>
       </c>
       <c r="G60" s="3">
-        <v>29846600</v>
+        <v>30484000</v>
       </c>
       <c r="H60" s="3">
-        <v>31039200</v>
+        <v>31702100</v>
       </c>
       <c r="I60" s="3">
-        <v>19250400</v>
+        <v>19661500</v>
       </c>
       <c r="J60" s="3">
-        <v>20802300</v>
+        <v>21246500</v>
       </c>
       <c r="K60" s="3">
         <v>16952100</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7109800</v>
+        <v>7261600</v>
       </c>
       <c r="E61" s="3">
-        <v>7418600</v>
+        <v>7577100</v>
       </c>
       <c r="F61" s="3">
-        <v>8447400</v>
+        <v>8627800</v>
       </c>
       <c r="G61" s="3">
-        <v>7438300</v>
+        <v>7597200</v>
       </c>
       <c r="H61" s="3">
-        <v>6991700</v>
+        <v>7141000</v>
       </c>
       <c r="I61" s="3">
-        <v>7755500</v>
+        <v>7921100</v>
       </c>
       <c r="J61" s="3">
-        <v>6904900</v>
+        <v>7052400</v>
       </c>
       <c r="K61" s="3">
         <v>5558500</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1518500</v>
+        <v>1550900</v>
       </c>
       <c r="E62" s="3">
-        <v>1659600</v>
+        <v>1695000</v>
       </c>
       <c r="F62" s="3">
-        <v>1342400</v>
+        <v>1371100</v>
       </c>
       <c r="G62" s="3">
-        <v>2091700</v>
+        <v>2136400</v>
       </c>
       <c r="H62" s="3">
-        <v>3259500</v>
+        <v>3329100</v>
       </c>
       <c r="I62" s="3">
-        <v>2409400</v>
+        <v>2460800</v>
       </c>
       <c r="J62" s="3">
-        <v>3065500</v>
+        <v>3131000</v>
       </c>
       <c r="K62" s="3">
         <v>2214100</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>31195800</v>
+        <v>31862100</v>
       </c>
       <c r="E66" s="3">
-        <v>30094900</v>
+        <v>30737600</v>
       </c>
       <c r="F66" s="3">
-        <v>39004700</v>
+        <v>39837700</v>
       </c>
       <c r="G66" s="3">
-        <v>39279600</v>
+        <v>40118500</v>
       </c>
       <c r="H66" s="3">
-        <v>40772900</v>
+        <v>41643700</v>
       </c>
       <c r="I66" s="3">
-        <v>29997000</v>
+        <v>30637600</v>
       </c>
       <c r="J66" s="3">
-        <v>31322500</v>
+        <v>31991500</v>
       </c>
       <c r="K66" s="3">
         <v>25176000</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4365500</v>
+        <v>4458700</v>
       </c>
       <c r="E72" s="3">
-        <v>4720300</v>
+        <v>4821100</v>
       </c>
       <c r="F72" s="3">
-        <v>6009600</v>
+        <v>6137900</v>
       </c>
       <c r="G72" s="3">
-        <v>10052100</v>
+        <v>10266800</v>
       </c>
       <c r="H72" s="3">
-        <v>11945700</v>
+        <v>12200800</v>
       </c>
       <c r="I72" s="3">
-        <v>11093200</v>
+        <v>11330200</v>
       </c>
       <c r="J72" s="3">
-        <v>10126800</v>
+        <v>10343100</v>
       </c>
       <c r="K72" s="3">
         <v>8915200</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4567100</v>
+        <v>4664700</v>
       </c>
       <c r="E76" s="3">
-        <v>4487200</v>
+        <v>4583100</v>
       </c>
       <c r="F76" s="3">
-        <v>5871500</v>
+        <v>5996900</v>
       </c>
       <c r="G76" s="3">
-        <v>9834500</v>
+        <v>10044500</v>
       </c>
       <c r="H76" s="3">
-        <v>11613800</v>
+        <v>11861800</v>
       </c>
       <c r="I76" s="3">
-        <v>11771800</v>
+        <v>12023300</v>
       </c>
       <c r="J76" s="3">
-        <v>11569800</v>
+        <v>11816900</v>
       </c>
       <c r="K76" s="3">
         <v>9107700</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>847100</v>
+        <v>865200</v>
       </c>
       <c r="E81" s="3">
-        <v>791300</v>
+        <v>808200</v>
       </c>
       <c r="F81" s="3">
-        <v>-3681800</v>
+        <v>-3760500</v>
       </c>
       <c r="G81" s="3">
-        <v>1047400</v>
+        <v>1069700</v>
       </c>
       <c r="H81" s="3">
-        <v>1023200</v>
+        <v>1045000</v>
       </c>
       <c r="I81" s="3">
-        <v>2254000</v>
+        <v>2302200</v>
       </c>
       <c r="J81" s="3">
-        <v>1737200</v>
+        <v>1774300</v>
       </c>
       <c r="K81" s="3">
         <v>1383600</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>636700</v>
+        <v>650300</v>
       </c>
       <c r="E83" s="3">
-        <v>672300</v>
+        <v>686600</v>
       </c>
       <c r="F83" s="3">
-        <v>782900</v>
+        <v>799700</v>
       </c>
       <c r="G83" s="3">
-        <v>851600</v>
+        <v>869700</v>
       </c>
       <c r="H83" s="3">
-        <v>674700</v>
+        <v>689200</v>
       </c>
       <c r="I83" s="3">
-        <v>573400</v>
+        <v>585600</v>
       </c>
       <c r="J83" s="3">
-        <v>530800</v>
+        <v>542200</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>869700</v>
+        <v>888300</v>
       </c>
       <c r="E89" s="3">
-        <v>2522300</v>
+        <v>2576200</v>
       </c>
       <c r="F89" s="3">
-        <v>2549600</v>
+        <v>2604000</v>
       </c>
       <c r="G89" s="3">
-        <v>2296100</v>
+        <v>2345100</v>
       </c>
       <c r="H89" s="3">
-        <v>2101700</v>
+        <v>2146600</v>
       </c>
       <c r="I89" s="3">
-        <v>1747200</v>
+        <v>1784500</v>
       </c>
       <c r="J89" s="3">
-        <v>2200900</v>
+        <v>2247900</v>
       </c>
       <c r="K89" s="3">
         <v>2031700</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-258600</v>
+        <v>-264100</v>
       </c>
       <c r="E91" s="3">
-        <v>-326600</v>
+        <v>-333600</v>
       </c>
       <c r="F91" s="3">
-        <v>-270900</v>
+        <v>-276700</v>
       </c>
       <c r="G91" s="3">
-        <v>-421000</v>
+        <v>-430000</v>
       </c>
       <c r="H91" s="3">
-        <v>-390600</v>
+        <v>-398900</v>
       </c>
       <c r="I91" s="3">
-        <v>-358500</v>
+        <v>-366100</v>
       </c>
       <c r="J91" s="3">
-        <v>-312800</v>
+        <v>-319500</v>
       </c>
       <c r="K91" s="3">
         <v>-212100</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-507400</v>
+        <v>-518200</v>
       </c>
       <c r="E94" s="3">
-        <v>-796800</v>
+        <v>-813900</v>
       </c>
       <c r="F94" s="3">
-        <v>-208000</v>
+        <v>-212400</v>
       </c>
       <c r="G94" s="3">
-        <v>2183300</v>
+        <v>2229900</v>
       </c>
       <c r="H94" s="3">
-        <v>228900</v>
+        <v>233800</v>
       </c>
       <c r="I94" s="3">
-        <v>-620000</v>
+        <v>-633300</v>
       </c>
       <c r="J94" s="3">
-        <v>-1136800</v>
+        <v>-1161100</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-453400</v>
+        <v>-463100</v>
       </c>
       <c r="E96" s="3">
-        <v>-390500</v>
+        <v>-398800</v>
       </c>
       <c r="F96" s="3">
-        <v>-151400</v>
+        <v>-154600</v>
       </c>
       <c r="G96" s="3">
-        <v>-931200</v>
+        <v>-951100</v>
       </c>
       <c r="H96" s="3">
-        <v>-927400</v>
+        <v>-947200</v>
       </c>
       <c r="I96" s="3">
-        <v>-932500</v>
+        <v>-952400</v>
       </c>
       <c r="J96" s="3">
-        <v>-765000</v>
+        <v>-781300</v>
       </c>
       <c r="K96" s="3">
         <v>-548600</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2371200</v>
+        <v>-2421800</v>
       </c>
       <c r="E100" s="3">
-        <v>-2552300</v>
+        <v>-2606800</v>
       </c>
       <c r="F100" s="3">
-        <v>-310800</v>
+        <v>-317500</v>
       </c>
       <c r="G100" s="3">
-        <v>-3625600</v>
+        <v>-3703100</v>
       </c>
       <c r="H100" s="3">
-        <v>-2002400</v>
+        <v>-2045200</v>
       </c>
       <c r="I100" s="3">
-        <v>-974800</v>
+        <v>-995600</v>
       </c>
       <c r="J100" s="3">
-        <v>-1480900</v>
+        <v>-1512500</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>79700</v>
+        <v>81400</v>
       </c>
       <c r="E101" s="3">
-        <v>-161400</v>
+        <v>-164900</v>
       </c>
       <c r="F101" s="3">
-        <v>-123100</v>
+        <v>-125700</v>
       </c>
       <c r="G101" s="3">
-        <v>-111300</v>
+        <v>-113700</v>
       </c>
       <c r="H101" s="3">
-        <v>-76300</v>
+        <v>-77900</v>
       </c>
       <c r="I101" s="3">
-        <v>-33700</v>
+        <v>-34500</v>
       </c>
       <c r="J101" s="3">
-        <v>362200</v>
+        <v>369900</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1929200</v>
+        <v>-1970400</v>
       </c>
       <c r="E102" s="3">
-        <v>-988300</v>
+        <v>-1009400</v>
       </c>
       <c r="F102" s="3">
-        <v>1907700</v>
+        <v>1948500</v>
       </c>
       <c r="G102" s="3">
-        <v>742500</v>
+        <v>758400</v>
       </c>
       <c r="H102" s="3">
-        <v>251900</v>
+        <v>257300</v>
       </c>
       <c r="I102" s="3">
-        <v>118600</v>
+        <v>121200</v>
       </c>
       <c r="J102" s="3">
-        <v>-54600</v>
+        <v>-55800</v>
       </c>
       <c r="K102" s="3">
         <v>434600</v>

--- a/AAII_Financials/Yearly/WPP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WPP_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18285500</v>
+        <v>17900200</v>
       </c>
       <c r="E8" s="3">
-        <v>16222800</v>
+        <v>15881000</v>
       </c>
       <c r="F8" s="3">
-        <v>15211100</v>
+        <v>14890700</v>
       </c>
       <c r="G8" s="3">
-        <v>16771600</v>
+        <v>16418200</v>
       </c>
       <c r="H8" s="3">
-        <v>16534100</v>
+        <v>16185700</v>
       </c>
       <c r="I8" s="3">
-        <v>20028700</v>
+        <v>19606700</v>
       </c>
       <c r="J8" s="3">
-        <v>18235100</v>
+        <v>17850900</v>
       </c>
       <c r="K8" s="3">
         <v>14590600</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>15068300</v>
+        <v>14750900</v>
       </c>
       <c r="E9" s="3">
-        <v>13430200</v>
+        <v>13147300</v>
       </c>
       <c r="F9" s="3">
-        <v>12657700</v>
+        <v>12391000</v>
       </c>
       <c r="G9" s="3">
-        <v>13718600</v>
+        <v>13429600</v>
       </c>
       <c r="H9" s="3">
-        <v>13381500</v>
+        <v>13099600</v>
       </c>
       <c r="I9" s="3">
-        <v>16004700</v>
+        <v>15667500</v>
       </c>
       <c r="J9" s="3">
-        <v>14381400</v>
+        <v>14078500</v>
       </c>
       <c r="K9" s="3">
         <v>11578200</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3217200</v>
+        <v>3149400</v>
       </c>
       <c r="E10" s="3">
-        <v>2792600</v>
+        <v>2733800</v>
       </c>
       <c r="F10" s="3">
-        <v>2553500</v>
+        <v>2499700</v>
       </c>
       <c r="G10" s="3">
-        <v>3052900</v>
+        <v>2988600</v>
       </c>
       <c r="H10" s="3">
-        <v>3152500</v>
+        <v>3086100</v>
       </c>
       <c r="I10" s="3">
-        <v>4023900</v>
+        <v>3939200</v>
       </c>
       <c r="J10" s="3">
-        <v>3853600</v>
+        <v>3772400</v>
       </c>
       <c r="K10" s="3">
         <v>3012400</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>170200</v>
+        <v>166600</v>
       </c>
       <c r="E14" s="3">
-        <v>79000</v>
+        <v>77300</v>
       </c>
       <c r="F14" s="3">
-        <v>185200</v>
+        <v>181300</v>
       </c>
       <c r="G14" s="3">
-        <v>60600</v>
+        <v>59300</v>
       </c>
       <c r="H14" s="3">
-        <v>52600</v>
+        <v>51500</v>
       </c>
       <c r="I14" s="3">
         <v>-1000</v>
       </c>
       <c r="J14" s="3">
-        <v>-97200</v>
+        <v>-95200</v>
       </c>
       <c r="K14" s="3">
         <v>131100</v>
@@ -1014,7 +1014,7 @@
         <v>8</v>
       </c>
       <c r="J15" s="3">
-        <v>535100</v>
+        <v>523800</v>
       </c>
       <c r="K15" s="3">
         <v>433800</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16734400</v>
+        <v>16381900</v>
       </c>
       <c r="E17" s="3">
-        <v>14744300</v>
+        <v>14433600</v>
       </c>
       <c r="F17" s="3">
-        <v>18283300</v>
+        <v>17898100</v>
       </c>
       <c r="G17" s="3">
-        <v>15189900</v>
+        <v>14869800</v>
       </c>
       <c r="H17" s="3">
-        <v>15008500</v>
+        <v>14692300</v>
       </c>
       <c r="I17" s="3">
-        <v>17609400</v>
+        <v>17238400</v>
       </c>
       <c r="J17" s="3">
-        <v>15639700</v>
+        <v>15310200</v>
       </c>
       <c r="K17" s="3">
         <v>12670400</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1551000</v>
+        <v>1518400</v>
       </c>
       <c r="E18" s="3">
-        <v>1478600</v>
+        <v>1447400</v>
       </c>
       <c r="F18" s="3">
-        <v>-3072200</v>
+        <v>-3007500</v>
       </c>
       <c r="G18" s="3">
-        <v>1581700</v>
+        <v>1548400</v>
       </c>
       <c r="H18" s="3">
-        <v>1525600</v>
+        <v>1493400</v>
       </c>
       <c r="I18" s="3">
-        <v>2419300</v>
+        <v>2368300</v>
       </c>
       <c r="J18" s="3">
-        <v>2595300</v>
+        <v>2540600</v>
       </c>
       <c r="K18" s="3">
         <v>1920200</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>366800</v>
+        <v>359000</v>
       </c>
       <c r="E20" s="3">
-        <v>80500</v>
+        <v>78800</v>
       </c>
       <c r="F20" s="3">
-        <v>-76500</v>
+        <v>-74900</v>
       </c>
       <c r="G20" s="3">
-        <v>402900</v>
+        <v>394400</v>
       </c>
       <c r="H20" s="3">
-        <v>110900</v>
+        <v>108600</v>
       </c>
       <c r="I20" s="3">
-        <v>582800</v>
+        <v>570600</v>
       </c>
       <c r="J20" s="3">
-        <v>111100</v>
+        <v>108800</v>
       </c>
       <c r="K20" s="3">
         <v>115300</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2568100</v>
+        <v>2514600</v>
       </c>
       <c r="E21" s="3">
-        <v>2245700</v>
+        <v>2199000</v>
       </c>
       <c r="F21" s="3">
-        <v>-2349100</v>
+        <v>-2298800</v>
       </c>
       <c r="G21" s="3">
-        <v>2854300</v>
+        <v>2795000</v>
       </c>
       <c r="H21" s="3">
-        <v>2325600</v>
+        <v>2277300</v>
       </c>
       <c r="I21" s="3">
-        <v>3587700</v>
+        <v>3512700</v>
       </c>
       <c r="J21" s="3">
-        <v>3248600</v>
+        <v>3180700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>448000</v>
+        <v>438600</v>
       </c>
       <c r="E22" s="3">
-        <v>354100</v>
+        <v>346600</v>
       </c>
       <c r="F22" s="3">
-        <v>387800</v>
+        <v>379600</v>
       </c>
       <c r="G22" s="3">
-        <v>445700</v>
+        <v>436300</v>
       </c>
       <c r="H22" s="3">
-        <v>344700</v>
+        <v>337400</v>
       </c>
       <c r="I22" s="3">
-        <v>329000</v>
+        <v>322100</v>
       </c>
       <c r="J22" s="3">
-        <v>310600</v>
+        <v>304100</v>
       </c>
       <c r="K22" s="3">
         <v>255600</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1469800</v>
+        <v>1438800</v>
       </c>
       <c r="E23" s="3">
-        <v>1204900</v>
+        <v>1179600</v>
       </c>
       <c r="F23" s="3">
-        <v>-3536500</v>
+        <v>-3462000</v>
       </c>
       <c r="G23" s="3">
-        <v>1538900</v>
+        <v>1506500</v>
       </c>
       <c r="H23" s="3">
-        <v>1291800</v>
+        <v>1264500</v>
       </c>
       <c r="I23" s="3">
-        <v>2673100</v>
+        <v>2616800</v>
       </c>
       <c r="J23" s="3">
-        <v>2395800</v>
+        <v>2345400</v>
       </c>
       <c r="K23" s="3">
         <v>1779900</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>487200</v>
+        <v>476900</v>
       </c>
       <c r="E24" s="3">
-        <v>291600</v>
+        <v>285500</v>
       </c>
       <c r="F24" s="3">
-        <v>163900</v>
+        <v>160400</v>
       </c>
       <c r="G24" s="3">
-        <v>364000</v>
+        <v>356300</v>
       </c>
       <c r="H24" s="3">
-        <v>330300</v>
+        <v>323300</v>
       </c>
       <c r="I24" s="3">
-        <v>510700</v>
+        <v>500000</v>
       </c>
       <c r="J24" s="3">
-        <v>492900</v>
+        <v>482500</v>
       </c>
       <c r="K24" s="3">
         <v>295100</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>982700</v>
+        <v>962000</v>
       </c>
       <c r="E26" s="3">
-        <v>913300</v>
+        <v>894100</v>
       </c>
       <c r="F26" s="3">
-        <v>-3700400</v>
+        <v>-3622400</v>
       </c>
       <c r="G26" s="3">
-        <v>1174900</v>
+        <v>1150200</v>
       </c>
       <c r="H26" s="3">
-        <v>961500</v>
+        <v>941200</v>
       </c>
       <c r="I26" s="3">
-        <v>2162400</v>
+        <v>2116800</v>
       </c>
       <c r="J26" s="3">
-        <v>1903000</v>
+        <v>1862900</v>
       </c>
       <c r="K26" s="3">
         <v>1484800</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>865200</v>
+        <v>847000</v>
       </c>
       <c r="E27" s="3">
-        <v>808200</v>
+        <v>791100</v>
       </c>
       <c r="F27" s="3">
-        <v>-3768700</v>
+        <v>-3689300</v>
       </c>
       <c r="G27" s="3">
-        <v>1074500</v>
+        <v>1051900</v>
       </c>
       <c r="H27" s="3">
-        <v>879000</v>
+        <v>860500</v>
       </c>
       <c r="I27" s="3">
-        <v>2041100</v>
+        <v>1998100</v>
       </c>
       <c r="J27" s="3">
-        <v>1774300</v>
+        <v>1737000</v>
       </c>
       <c r="K27" s="3">
         <v>1383600</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="G29" s="3">
-        <v>-4800</v>
+        <v>-4700</v>
       </c>
       <c r="H29" s="3">
-        <v>166000</v>
+        <v>162500</v>
       </c>
       <c r="I29" s="3">
-        <v>261100</v>
+        <v>255600</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-366800</v>
+        <v>-359000</v>
       </c>
       <c r="E32" s="3">
-        <v>-80500</v>
+        <v>-78800</v>
       </c>
       <c r="F32" s="3">
-        <v>76500</v>
+        <v>74900</v>
       </c>
       <c r="G32" s="3">
-        <v>-402900</v>
+        <v>-394400</v>
       </c>
       <c r="H32" s="3">
-        <v>-110900</v>
+        <v>-108600</v>
       </c>
       <c r="I32" s="3">
-        <v>-582800</v>
+        <v>-570600</v>
       </c>
       <c r="J32" s="3">
-        <v>-111100</v>
+        <v>-108800</v>
       </c>
       <c r="K32" s="3">
         <v>-115300</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>865200</v>
+        <v>847000</v>
       </c>
       <c r="E33" s="3">
-        <v>808200</v>
+        <v>791100</v>
       </c>
       <c r="F33" s="3">
-        <v>-3760500</v>
+        <v>-3681200</v>
       </c>
       <c r="G33" s="3">
-        <v>1069700</v>
+        <v>1047200</v>
       </c>
       <c r="H33" s="3">
-        <v>1045000</v>
+        <v>1023000</v>
       </c>
       <c r="I33" s="3">
-        <v>2302200</v>
+        <v>2253700</v>
       </c>
       <c r="J33" s="3">
-        <v>1774300</v>
+        <v>1737000</v>
       </c>
       <c r="K33" s="3">
         <v>1383600</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>865200</v>
+        <v>847000</v>
       </c>
       <c r="E35" s="3">
-        <v>808200</v>
+        <v>791100</v>
       </c>
       <c r="F35" s="3">
-        <v>-3760500</v>
+        <v>-3681200</v>
       </c>
       <c r="G35" s="3">
-        <v>1069700</v>
+        <v>1047200</v>
       </c>
       <c r="H35" s="3">
-        <v>1045000</v>
+        <v>1023000</v>
       </c>
       <c r="I35" s="3">
-        <v>2302200</v>
+        <v>2253700</v>
       </c>
       <c r="J35" s="3">
-        <v>1774300</v>
+        <v>1737000</v>
       </c>
       <c r="K35" s="3">
         <v>1383600</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3157500</v>
+        <v>3091000</v>
       </c>
       <c r="E41" s="3">
-        <v>4920800</v>
+        <v>4817100</v>
       </c>
       <c r="F41" s="3">
-        <v>16347000</v>
+        <v>16002600</v>
       </c>
       <c r="G41" s="3">
-        <v>14327700</v>
+        <v>14025900</v>
       </c>
       <c r="H41" s="3">
-        <v>14023700</v>
+        <v>13728200</v>
       </c>
       <c r="I41" s="3">
-        <v>3030600</v>
+        <v>2966800</v>
       </c>
       <c r="J41" s="3">
-        <v>2859300</v>
+        <v>2799000</v>
       </c>
       <c r="K41" s="3">
         <v>2656700</v>
@@ -1970,7 +1970,7 @@
         <v>8</v>
       </c>
       <c r="J42" s="3">
-        <v>229000</v>
+        <v>224200</v>
       </c>
       <c r="K42" s="3">
         <v>184400</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>15223700</v>
+        <v>14903000</v>
       </c>
       <c r="E43" s="3">
-        <v>13916100</v>
+        <v>13622900</v>
       </c>
       <c r="F43" s="3">
-        <v>13395600</v>
+        <v>13113400</v>
       </c>
       <c r="G43" s="3">
-        <v>29337000</v>
+        <v>28718900</v>
       </c>
       <c r="H43" s="3">
-        <v>32628700</v>
+        <v>31941200</v>
       </c>
       <c r="I43" s="3">
-        <v>25288600</v>
+        <v>24755800</v>
       </c>
       <c r="J43" s="3">
-        <v>15563700</v>
+        <v>15235800</v>
       </c>
       <c r="K43" s="3">
         <v>12431200</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>446600</v>
+        <v>437200</v>
       </c>
       <c r="E44" s="3">
-        <v>321900</v>
+        <v>315100</v>
       </c>
       <c r="F44" s="3">
-        <v>334700</v>
+        <v>327600</v>
       </c>
       <c r="G44" s="3">
-        <v>442900</v>
+        <v>433600</v>
       </c>
       <c r="H44" s="3">
-        <v>464500</v>
+        <v>454700</v>
       </c>
       <c r="I44" s="3">
-        <v>537700</v>
+        <v>526400</v>
       </c>
       <c r="J44" s="3">
-        <v>507400</v>
+        <v>496700</v>
       </c>
       <c r="K44" s="3">
         <v>392300</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>306300</v>
+        <v>299900</v>
       </c>
       <c r="E45" s="3">
-        <v>276000</v>
+        <v>270200</v>
       </c>
       <c r="F45" s="3">
-        <v>314700</v>
+        <v>308000</v>
       </c>
       <c r="G45" s="3">
-        <v>980600</v>
+        <v>960000</v>
       </c>
       <c r="H45" s="3">
-        <v>365700</v>
+        <v>358000</v>
       </c>
       <c r="I45" s="3">
-        <v>379300</v>
+        <v>371300</v>
       </c>
       <c r="J45" s="3">
-        <v>411500</v>
+        <v>402800</v>
       </c>
       <c r="K45" s="3">
         <v>285700</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>19134100</v>
+        <v>18731000</v>
       </c>
       <c r="E46" s="3">
-        <v>19434800</v>
+        <v>19025300</v>
       </c>
       <c r="F46" s="3">
-        <v>30392000</v>
+        <v>29751700</v>
       </c>
       <c r="G46" s="3">
-        <v>30105900</v>
+        <v>29471600</v>
       </c>
       <c r="H46" s="3">
-        <v>30879000</v>
+        <v>30228500</v>
       </c>
       <c r="I46" s="3">
-        <v>19208200</v>
+        <v>18803500</v>
       </c>
       <c r="J46" s="3">
-        <v>19570900</v>
+        <v>19158600</v>
       </c>
       <c r="K46" s="3">
         <v>15950300</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>949200</v>
+        <v>929200</v>
       </c>
       <c r="E47" s="3">
-        <v>985700</v>
+        <v>964900</v>
       </c>
       <c r="F47" s="3">
-        <v>941400</v>
+        <v>921500</v>
       </c>
       <c r="G47" s="3">
-        <v>1836200</v>
+        <v>1797500</v>
       </c>
       <c r="H47" s="3">
-        <v>2082800</v>
+        <v>2038900</v>
       </c>
       <c r="I47" s="3">
-        <v>2811800</v>
+        <v>2752500</v>
       </c>
       <c r="J47" s="3">
-        <v>3015800</v>
+        <v>2952300</v>
       </c>
       <c r="K47" s="3">
         <v>2286400</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3205300</v>
+        <v>3137700</v>
       </c>
       <c r="E48" s="3">
-        <v>2904000</v>
+        <v>2842800</v>
       </c>
       <c r="F48" s="3">
-        <v>2909000</v>
+        <v>2847700</v>
       </c>
       <c r="G48" s="3">
-        <v>3308300</v>
+        <v>3238600</v>
       </c>
       <c r="H48" s="3">
-        <v>2745000</v>
+        <v>2687100</v>
       </c>
       <c r="I48" s="3">
-        <v>1241300</v>
+        <v>1215200</v>
       </c>
       <c r="J48" s="3">
-        <v>1227600</v>
+        <v>1201800</v>
       </c>
       <c r="K48" s="3">
         <v>951300</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12553000</v>
+        <v>12288500</v>
       </c>
       <c r="E49" s="3">
-        <v>11370000</v>
+        <v>11130400</v>
       </c>
       <c r="F49" s="3">
-        <v>11124500</v>
+        <v>10890100</v>
       </c>
       <c r="G49" s="3">
-        <v>14674600</v>
+        <v>14365400</v>
       </c>
       <c r="H49" s="3">
-        <v>38043600</v>
+        <v>37242100</v>
       </c>
       <c r="I49" s="3">
-        <v>18973100</v>
+        <v>18573400</v>
       </c>
       <c r="J49" s="3">
-        <v>19556500</v>
+        <v>19144400</v>
       </c>
       <c r="K49" s="3">
         <v>14770400</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>685200</v>
+        <v>670800</v>
       </c>
       <c r="E52" s="3">
-        <v>626200</v>
+        <v>613000</v>
       </c>
       <c r="F52" s="3">
-        <v>467800</v>
+        <v>457900</v>
       </c>
       <c r="G52" s="3">
-        <v>412500</v>
+        <v>403800</v>
       </c>
       <c r="H52" s="3">
-        <v>422000</v>
+        <v>413100</v>
       </c>
       <c r="I52" s="3">
-        <v>426400</v>
+        <v>417500</v>
       </c>
       <c r="J52" s="3">
-        <v>437600</v>
+        <v>428400</v>
       </c>
       <c r="K52" s="3">
         <v>325300</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>36526800</v>
+        <v>35757200</v>
       </c>
       <c r="E54" s="3">
-        <v>35320700</v>
+        <v>34576500</v>
       </c>
       <c r="F54" s="3">
-        <v>45834600</v>
+        <v>44868900</v>
       </c>
       <c r="G54" s="3">
-        <v>50163000</v>
+        <v>49106200</v>
       </c>
       <c r="H54" s="3">
-        <v>53505500</v>
+        <v>52378300</v>
       </c>
       <c r="I54" s="3">
-        <v>42660900</v>
+        <v>41762100</v>
       </c>
       <c r="J54" s="3">
-        <v>43808400</v>
+        <v>42885400</v>
       </c>
       <c r="K54" s="3">
         <v>34283700</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>14249900</v>
+        <v>13949700</v>
       </c>
       <c r="E57" s="3">
-        <v>13537900</v>
+        <v>13252700</v>
       </c>
       <c r="F57" s="3">
-        <v>13007900</v>
+        <v>12733900</v>
       </c>
       <c r="G57" s="3">
-        <v>30977400</v>
+        <v>30324700</v>
       </c>
       <c r="H57" s="3">
-        <v>32562500</v>
+        <v>31876500</v>
       </c>
       <c r="I57" s="3">
-        <v>12766400</v>
+        <v>12497400</v>
       </c>
       <c r="J57" s="3">
-        <v>13415400</v>
+        <v>13132700</v>
       </c>
       <c r="K57" s="3">
         <v>10332300</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1839400</v>
+        <v>1800600</v>
       </c>
       <c r="E58" s="3">
-        <v>1073300</v>
+        <v>1050700</v>
       </c>
       <c r="F58" s="3">
-        <v>11333500</v>
+        <v>11094700</v>
       </c>
       <c r="G58" s="3">
-        <v>22682400</v>
+        <v>22204500</v>
       </c>
       <c r="H58" s="3">
-        <v>13272200</v>
+        <v>12992600</v>
       </c>
       <c r="I58" s="3">
-        <v>790900</v>
+        <v>774300</v>
       </c>
       <c r="J58" s="3">
-        <v>1270500</v>
+        <v>1243700</v>
       </c>
       <c r="K58" s="3">
         <v>1111400</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6352500</v>
+        <v>6218600</v>
       </c>
       <c r="E59" s="3">
-        <v>6280700</v>
+        <v>6148400</v>
       </c>
       <c r="F59" s="3">
-        <v>5094300</v>
+        <v>4987000</v>
       </c>
       <c r="G59" s="3">
-        <v>5954500</v>
+        <v>5829100</v>
       </c>
       <c r="H59" s="3">
-        <v>6224700</v>
+        <v>6093600</v>
       </c>
       <c r="I59" s="3">
-        <v>6104200</v>
+        <v>5975600</v>
       </c>
       <c r="J59" s="3">
-        <v>6560700</v>
+        <v>6422500</v>
       </c>
       <c r="K59" s="3">
         <v>5508400</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>22441700</v>
+        <v>21968900</v>
       </c>
       <c r="E60" s="3">
-        <v>20891900</v>
+        <v>20451800</v>
       </c>
       <c r="F60" s="3">
-        <v>29435700</v>
+        <v>28815500</v>
       </c>
       <c r="G60" s="3">
-        <v>30484000</v>
+        <v>29841800</v>
       </c>
       <c r="H60" s="3">
-        <v>31702100</v>
+        <v>31034200</v>
       </c>
       <c r="I60" s="3">
-        <v>19661500</v>
+        <v>19247300</v>
       </c>
       <c r="J60" s="3">
-        <v>21246500</v>
+        <v>20798900</v>
       </c>
       <c r="K60" s="3">
         <v>16952100</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7261600</v>
+        <v>7108600</v>
       </c>
       <c r="E61" s="3">
-        <v>7577100</v>
+        <v>7417400</v>
       </c>
       <c r="F61" s="3">
-        <v>8627800</v>
+        <v>8446000</v>
       </c>
       <c r="G61" s="3">
-        <v>7597200</v>
+        <v>7437100</v>
       </c>
       <c r="H61" s="3">
-        <v>7141000</v>
+        <v>6990500</v>
       </c>
       <c r="I61" s="3">
-        <v>7921100</v>
+        <v>7754200</v>
       </c>
       <c r="J61" s="3">
-        <v>7052400</v>
+        <v>6903800</v>
       </c>
       <c r="K61" s="3">
         <v>5558500</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1550900</v>
+        <v>1518200</v>
       </c>
       <c r="E62" s="3">
-        <v>1695000</v>
+        <v>1659300</v>
       </c>
       <c r="F62" s="3">
-        <v>1371100</v>
+        <v>1342200</v>
       </c>
       <c r="G62" s="3">
-        <v>2136400</v>
+        <v>2091400</v>
       </c>
       <c r="H62" s="3">
-        <v>3329100</v>
+        <v>3258900</v>
       </c>
       <c r="I62" s="3">
-        <v>2460800</v>
+        <v>2409000</v>
       </c>
       <c r="J62" s="3">
-        <v>3131000</v>
+        <v>3065000</v>
       </c>
       <c r="K62" s="3">
         <v>2214100</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>31862100</v>
+        <v>31190800</v>
       </c>
       <c r="E66" s="3">
-        <v>30737600</v>
+        <v>30090000</v>
       </c>
       <c r="F66" s="3">
-        <v>39837700</v>
+        <v>38998400</v>
       </c>
       <c r="G66" s="3">
-        <v>40118500</v>
+        <v>39273300</v>
       </c>
       <c r="H66" s="3">
-        <v>41643700</v>
+        <v>40766400</v>
       </c>
       <c r="I66" s="3">
-        <v>30637600</v>
+        <v>29992100</v>
       </c>
       <c r="J66" s="3">
-        <v>31991500</v>
+        <v>31317500</v>
       </c>
       <c r="K66" s="3">
         <v>25176000</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4458700</v>
+        <v>4364800</v>
       </c>
       <c r="E72" s="3">
-        <v>4821100</v>
+        <v>4719500</v>
       </c>
       <c r="F72" s="3">
-        <v>6137900</v>
+        <v>6008600</v>
       </c>
       <c r="G72" s="3">
-        <v>10266800</v>
+        <v>10050500</v>
       </c>
       <c r="H72" s="3">
-        <v>12200800</v>
+        <v>11943800</v>
       </c>
       <c r="I72" s="3">
-        <v>11330200</v>
+        <v>11091500</v>
       </c>
       <c r="J72" s="3">
-        <v>10343100</v>
+        <v>10125200</v>
       </c>
       <c r="K72" s="3">
         <v>8915200</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4664700</v>
+        <v>4566400</v>
       </c>
       <c r="E76" s="3">
-        <v>4583100</v>
+        <v>4486500</v>
       </c>
       <c r="F76" s="3">
-        <v>5996900</v>
+        <v>5870500</v>
       </c>
       <c r="G76" s="3">
-        <v>10044500</v>
+        <v>9832900</v>
       </c>
       <c r="H76" s="3">
-        <v>11861800</v>
+        <v>11611900</v>
       </c>
       <c r="I76" s="3">
-        <v>12023300</v>
+        <v>11769900</v>
       </c>
       <c r="J76" s="3">
-        <v>11816900</v>
+        <v>11568000</v>
       </c>
       <c r="K76" s="3">
         <v>9107700</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>865200</v>
+        <v>847000</v>
       </c>
       <c r="E81" s="3">
-        <v>808200</v>
+        <v>791100</v>
       </c>
       <c r="F81" s="3">
-        <v>-3760500</v>
+        <v>-3681200</v>
       </c>
       <c r="G81" s="3">
-        <v>1069700</v>
+        <v>1047200</v>
       </c>
       <c r="H81" s="3">
-        <v>1045000</v>
+        <v>1023000</v>
       </c>
       <c r="I81" s="3">
-        <v>2302200</v>
+        <v>2253700</v>
       </c>
       <c r="J81" s="3">
-        <v>1774300</v>
+        <v>1737000</v>
       </c>
       <c r="K81" s="3">
         <v>1383600</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>650300</v>
+        <v>636600</v>
       </c>
       <c r="E83" s="3">
-        <v>686600</v>
+        <v>672200</v>
       </c>
       <c r="F83" s="3">
-        <v>799700</v>
+        <v>782800</v>
       </c>
       <c r="G83" s="3">
-        <v>869700</v>
+        <v>851400</v>
       </c>
       <c r="H83" s="3">
-        <v>689200</v>
+        <v>674600</v>
       </c>
       <c r="I83" s="3">
-        <v>585600</v>
+        <v>573300</v>
       </c>
       <c r="J83" s="3">
-        <v>542200</v>
+        <v>530700</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>888300</v>
+        <v>869500</v>
       </c>
       <c r="E89" s="3">
-        <v>2576200</v>
+        <v>2521900</v>
       </c>
       <c r="F89" s="3">
-        <v>2604000</v>
+        <v>2549200</v>
       </c>
       <c r="G89" s="3">
-        <v>2345100</v>
+        <v>2295700</v>
       </c>
       <c r="H89" s="3">
-        <v>2146600</v>
+        <v>2101300</v>
       </c>
       <c r="I89" s="3">
-        <v>1784500</v>
+        <v>1746900</v>
       </c>
       <c r="J89" s="3">
-        <v>2247900</v>
+        <v>2200600</v>
       </c>
       <c r="K89" s="3">
         <v>2031700</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-264100</v>
+        <v>-258500</v>
       </c>
       <c r="E91" s="3">
-        <v>-333600</v>
+        <v>-326500</v>
       </c>
       <c r="F91" s="3">
-        <v>-276700</v>
+        <v>-270800</v>
       </c>
       <c r="G91" s="3">
-        <v>-430000</v>
+        <v>-420900</v>
       </c>
       <c r="H91" s="3">
-        <v>-398900</v>
+        <v>-390500</v>
       </c>
       <c r="I91" s="3">
-        <v>-366100</v>
+        <v>-358400</v>
       </c>
       <c r="J91" s="3">
-        <v>-319500</v>
+        <v>-312800</v>
       </c>
       <c r="K91" s="3">
         <v>-212100</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-518200</v>
+        <v>-507300</v>
       </c>
       <c r="E94" s="3">
-        <v>-813900</v>
+        <v>-796700</v>
       </c>
       <c r="F94" s="3">
-        <v>-212400</v>
+        <v>-207900</v>
       </c>
       <c r="G94" s="3">
-        <v>2229900</v>
+        <v>2183000</v>
       </c>
       <c r="H94" s="3">
-        <v>233800</v>
+        <v>228900</v>
       </c>
       <c r="I94" s="3">
-        <v>-633300</v>
+        <v>-619900</v>
       </c>
       <c r="J94" s="3">
-        <v>-1161100</v>
+        <v>-1136600</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-463100</v>
+        <v>-453300</v>
       </c>
       <c r="E96" s="3">
-        <v>-398800</v>
+        <v>-390400</v>
       </c>
       <c r="F96" s="3">
-        <v>-154600</v>
+        <v>-151400</v>
       </c>
       <c r="G96" s="3">
-        <v>-951100</v>
+        <v>-931100</v>
       </c>
       <c r="H96" s="3">
-        <v>-947200</v>
+        <v>-927200</v>
       </c>
       <c r="I96" s="3">
-        <v>-952400</v>
+        <v>-932300</v>
       </c>
       <c r="J96" s="3">
-        <v>-781300</v>
+        <v>-764800</v>
       </c>
       <c r="K96" s="3">
         <v>-548600</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2421800</v>
+        <v>-2370800</v>
       </c>
       <c r="E100" s="3">
-        <v>-2606800</v>
+        <v>-2551900</v>
       </c>
       <c r="F100" s="3">
-        <v>-317500</v>
+        <v>-310800</v>
       </c>
       <c r="G100" s="3">
-        <v>-3703100</v>
+        <v>-3625000</v>
       </c>
       <c r="H100" s="3">
-        <v>-2045200</v>
+        <v>-2002100</v>
       </c>
       <c r="I100" s="3">
-        <v>-995600</v>
+        <v>-974600</v>
       </c>
       <c r="J100" s="3">
-        <v>-1512500</v>
+        <v>-1480700</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>81400</v>
+        <v>79600</v>
       </c>
       <c r="E101" s="3">
-        <v>-164900</v>
+        <v>-161400</v>
       </c>
       <c r="F101" s="3">
-        <v>-125700</v>
+        <v>-123100</v>
       </c>
       <c r="G101" s="3">
-        <v>-113700</v>
+        <v>-111300</v>
       </c>
       <c r="H101" s="3">
-        <v>-77900</v>
+        <v>-76300</v>
       </c>
       <c r="I101" s="3">
-        <v>-34500</v>
+        <v>-33700</v>
       </c>
       <c r="J101" s="3">
-        <v>369900</v>
+        <v>362100</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1970400</v>
+        <v>-1928900</v>
       </c>
       <c r="E102" s="3">
-        <v>-1009400</v>
+        <v>-988100</v>
       </c>
       <c r="F102" s="3">
-        <v>1948500</v>
+        <v>1907400</v>
       </c>
       <c r="G102" s="3">
-        <v>758400</v>
+        <v>742400</v>
       </c>
       <c r="H102" s="3">
-        <v>257300</v>
+        <v>251800</v>
       </c>
       <c r="I102" s="3">
-        <v>121200</v>
+        <v>118600</v>
       </c>
       <c r="J102" s="3">
-        <v>-55800</v>
+        <v>-54600</v>
       </c>
       <c r="K102" s="3">
         <v>434600</v>
